--- a/xlsx/studies.xlsx
+++ b/xlsx/studies.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emckclac-my.sharepoint.com/personal/k1780970_kcl_ac_uk/Documents/1. Catalogue + work documents/1. Catalogue shared files/1. Catalogue/3. Catalogue web development + updates/Contents folders/cmhm_20Jan2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emckclac-my.sharepoint.com/personal/k1780970_kcl_ac_uk/Documents/1. Catalogue + work documents/1. Catalogue shared files/1. Catalogue/2. Catalogue study updates/Resource folders/cmhm_18Feb2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{0BBEB508-D442-2344-A8EB-A5F35EEE28E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE81ADCD-3622-3D46-A48B-B7E774E5312F}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{0BBEB508-D442-2344-A8EB-A5F35EEE28E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E835179-B213-C944-9E60-D4AD04384F8B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study details" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="769">
   <si>
     <t>Code</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>Genetic data collected</t>
-  </si>
-  <si>
-    <t>Linkage to administrative data</t>
   </si>
   <si>
     <t>Notes</t>
@@ -243,10 +240,6 @@
     <t>~3,400 (cohort members) (Life at 27+)</t>
   </si>
   <si>
-    <t>Cohort members: birth &lt;br&gt;
-Mothers: 16 - 45 years</t>
-  </si>
-  <si>
     <t>April 1991 - December 1992</t>
   </si>
   <si>
@@ -271,30 +264,6 @@
     <t>MRC Wellcome BristolUni</t>
   </si>
   <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Diet and nutrition,
-Education,
-Ethnicity and race,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Political and social attitudes,
-Digital technology and social media,
-Victimisation and life events,
-Puberty,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems</t>
-  </si>
-  <si>
     <t>Linked administrative data,
 Genetic/genomic data,
 Mapping/spatial data,
@@ -363,22 +332,6 @@
   </si>
   <si>
     <t>DoHSC NHSdigital</t>
-  </si>
-  <si>
-    <t>Cognitive measures,
-Ethnicity and race,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Migration and immigration,
-Neighbourhood,
-Physical health assessment,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Sleep problems</t>
   </si>
   <si>
     <t>England, Scotland, Wales, National</t>
@@ -457,17 +410,6 @@
     <t>DoHSC NHSdigital Scot Welsh</t>
   </si>
   <si>
-    <t>Education,
-Housing,
-Socioeconomic status and deprivation,
-Loneliness and social isolation,
-Physical health assessment,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Sleep problems</t>
-  </si>
-  <si>
     <t>Vulnerable groups</t>
   </si>
   <si>
@@ -513,28 +455,6 @@
   <si>
     <t>ESRC RCOG&lt;br&gt;
 National Birthday Trust Fund</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Diet and nutrition,
-Education,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Migration and immigration,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Political and social attitudes,
-Victimisation and life events,
-Puberty,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems</t>
   </si>
   <si>
     <t>Linked administrative data,
@@ -596,25 +516,6 @@
     <t>NIHR</t>
   </si>
   <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Diet and nutrition,
-Education,
-Ethnicity and race,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Migration and immigration,
-Neighbourhood,
-Physical health assessment,
-Digital technology and social media,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems</t>
-  </si>
-  <si>
     <t>Ethnicity and race</t>
   </si>
   <si>
@@ -653,19 +554,6 @@
   </si>
   <si>
     <t>BLF</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Diet and nutrition,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Migration and immigration,
-Neighbourhood,
-Physical health assessment,
-Work and employment,
-Parenting and family</t>
   </si>
   <si>
     <t>Linked administrative data,
@@ -792,19 +680,6 @@
     <t>MRC AlzhSoc</t>
   </si>
   <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Cognitive decline,
-Diet and nutrition,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Physical health assessment,
-Work and employment,
-Sleep problems</t>
-  </si>
-  <si>
     <t>Genetic/genomic data</t>
   </si>
   <si>
@@ -932,18 +807,6 @@
 &lt;a href="https://doi.org/10.1093/ije/dym094"&gt;doi.org/10.1093/ije/dym094&lt;/a&gt; </t>
   </si>
   <si>
-    <t>Diet and nutrition,
-Ethnicity and race, 
-Housing,
-Loneliness and social isolation,
-Migration and immigration,
-Neighbourhood,
-Physical health assessment,
-Victimisation and life events,
-Work and employment,
-Parenting and family</t>
-  </si>
-  <si>
     <t>ELSA</t>
   </si>
   <si>
@@ -979,27 +842,6 @@
   </si>
   <si>
     <t>NIA DfT DoHSC DfWP</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Cognitive decline,
-Diet and nutrition,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Migration and immigration,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Digital technology and social media,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Sleep problems</t>
   </si>
   <si>
     <t>England, National</t>
@@ -1052,15 +894,6 @@
 Eurofound is an agency of the European Union</t>
   </si>
   <si>
-    <t>Housing,
-Socioeconomic status and deprivation,
-Loneliness and social isolation,
-Neighbourhood,
-Political and social attitudes,
-Digital technology and social media,
-Work and employment</t>
-  </si>
-  <si>
     <t>European cross-national sample</t>
   </si>
   <si>
@@ -1112,28 +945,6 @@
   </si>
   <si>
     <t>MRC NIH_NICHD Jacobs NSPCC BBSRC Avielle AsthmaUSA MQ Nuffield</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Diet and nutrition,
-Education,
-Ethnicity and race,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Digital technology and social media,
-Victimisation and life events,
-Puberty,
-Work and employment,
-Parenting and family,
-Sleep problems</t>
   </si>
   <si>
     <t>Twin study, Birth cohort</t>
@@ -1248,24 +1059,6 @@
     <t>Scot SFC</t>
   </si>
   <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Diet and nutrition,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Migration and immigration,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Victimisation and life events,
-Puberty,
-Reproductive health,
-Work and employment</t>
-  </si>
-  <si>
     <t>Scotland, National</t>
   </si>
   <si>
@@ -1319,27 +1112,6 @@
     <t>Scot</t>
   </si>
   <si>
-    <t>Cognitive measures,
-Diet and nutrition,
-Education,
-Ethnicity and race,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Neighbourhood,
-Physical health assessment,
-Political and social attitudes,
-Digital technology and social media,
-Victimisation and life events,
-Puberty,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems</t>
-  </si>
-  <si>
     <t>GUSBC2</t>
   </si>
   <si>
@@ -1362,22 +1134,6 @@
     <t>2010-11</t>
   </si>
   <si>
-    <t>Cognitive measures,
-Diet and nutrition,
-Education,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Neighbourhood,
-Physical health assessment,
-Digital technology and social media,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems</t>
-  </si>
-  <si>
     <t>GUSCC1</t>
   </si>
   <si>
@@ -1453,24 +1209,6 @@
     <t>MRC BHF ARUK ROS Wellcome SOTON</t>
   </si>
   <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Cognitive decline,
-Diet and nutrition,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Digital technology and social media,
-Reproductive health,
-Work and employment,
-Sleep problems</t>
-  </si>
-  <si>
     <t>HEAF</t>
   </si>
   <si>
@@ -1515,14 +1253,6 @@
   </si>
   <si>
     <t>ESRC MRC ARUK</t>
-  </si>
-  <si>
-    <t>Diet and nutrition,
-Housing,
-Socioeconomic status and deprivation,
-Physical health assessment,
-Work and employment,
-Sleep problems</t>
   </si>
   <si>
     <t>Ageing cohort, Occupational cohort</t>
@@ -1758,19 +1488,6 @@
     <t>BBSRC Scot MRC</t>
   </si>
   <si>
-    <t>Biomarkers,
-Cognitive measures,
-Cognitive decline,
-Education,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Neighbourhood,
-Physical health assessment,
-Work and employment</t>
-  </si>
-  <si>
     <t>Scotland, Local area</t>
   </si>
   <si>
@@ -1805,23 +1522,6 @@
     <t>AgeUK MRC ASDRC BBSRC Wellcome Edin UQ NIH</t>
   </si>
   <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Cognitive decline,
-Diet and nutrition,
-Education,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Neighbourhood,
-Physical health assessment,
-Reproductive health,
-Work and employment,
-Sleep problems</t>
-  </si>
-  <si>
     <t>LSYPE</t>
   </si>
   <si>
@@ -1857,25 +1557,6 @@
   </si>
   <si>
     <t>ESRC DfE</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Cognitive measures,
-Diet and nutrition,
-Education,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Loneliness and social isolation,
-Neighbourhood,
-Personality,
-Political and social attitudes,
-Digital technology and social media,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems</t>
   </si>
   <si>
     <t>MCS</t>
@@ -1916,30 +1597,6 @@
 International Centre for Child Studies</t>
   </si>
   <si>
-    <t>Covid-19 data collection,
-Cognitive measures,
-Diet and nutrition,
-Education,
-Ethnicity and race,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Migration and immigration,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Political and social attitudes,
-Digital technology and social media,
-Victimisation and life events,
-Puberty,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems</t>
-  </si>
-  <si>
     <t>&lt;a href="https://web.www.healthdatagateway.org/dataset/2b09ea87-5b22-4049-b7dd-de0889699115"&gt;https://web.www.healthdatagateway.org/dataset/2b09ea87-5b22-4049-b7dd-de0889699115&lt;/a&gt;</t>
   </si>
   <si>
@@ -1988,15 +1645,6 @@
     <t>NHSdigital DoHSC</t>
   </si>
   <si>
-    <t>Education,
-Housing,
-Socioeconomic status and deprivation,
-Loneliness and social isolation,
-Victimisation and life events,
-Work and employment,
-Sleep problems</t>
-  </si>
-  <si>
     <t>MWS</t>
   </si>
   <si>
@@ -2040,17 +1688,6 @@
     <t>MRC CRUK</t>
   </si>
   <si>
-    <t>Diet and nutrition,
-Housing,
-Socioeconomic status and deprivation,
-Loneliness and social isolation,
-Physical health assessment,
-Digital technology and social media,
-Reproductive health,
-Work and employment,
-Sleep problems</t>
-  </si>
-  <si>
     <t>N85</t>
   </si>
   <si>
@@ -2090,18 +1727,6 @@
     <t xml:space="preserve">MRC BBSRC Dunhill NIHR </t>
   </si>
   <si>
-    <t>Biomarkers,
-Cognitive measures,
-Cognitive decline,
-Diet and nutrition,
-Housing,
-Socioeconomic status and deprivation,
-Loneliness and social isolation,
-Physical health assessment,
-Work and employment,
-Sleep problems</t>
-  </si>
-  <si>
     <t>NCDS</t>
   </si>
   <si>
@@ -2137,27 +1762,6 @@
   <si>
     <t>ESRC MRC NIH DfWP Wellcome&lt;br&gt;
 National Birthday Trust Fund</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Diet and nutrition,
-Education,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Migration and immigration,
-Personality,
-Physical health assessment,
-Political and social attitudes,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems</t>
   </si>
   <si>
     <t>NICOLA</t>
@@ -2280,23 +1884,6 @@
     </r>
   </si>
   <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Cognitive decline,
-Diet and nutrition,
-Socioeconomic status and deprivation,
-Loneliness and social isolation,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Digital technology and social media,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Sleep problems</t>
-  </si>
-  <si>
     <t>Northern Ireland, National</t>
   </si>
   <si>
@@ -2334,29 +1921,6 @@
 Full list of cohort profile papers available at &lt;a href="https://www.nshd.mrc.ac.uk/about-us/cohort-profile/"&gt;nshd.mrc.ac.uk/about-us/cohort-profile&lt;/a&gt; </t>
   </si>
   <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Cognitive decline,
-Diet and nutrition,
-Education,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Migration and immigration,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Political and social attitudes,
-Digital technology and social media,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems</t>
-  </si>
-  <si>
     <t>Linked administrative data,
 Genetic/genomic data,
 Brain activity and structures</t>
@@ -2397,21 +1961,6 @@
     <t>NIHR_BRC</t>
   </si>
   <si>
-    <t>Covid-19 data collection,
-Cognitive measures,
-Diet and nutrition,
-Ethnicity and race,
-Sexuality and gender identity,
-Loneliness and social isolation,
-Neighbourhood,
-Personality,
-Digital technology and social media,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Sleep problems</t>
-  </si>
-  <si>
     <t>REACH</t>
   </si>
   <si>
@@ -2450,24 +1999,6 @@
   </si>
   <si>
     <t>ERC</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Cognitive measures,
-Diet and nutrition,
-Education,
-Ethnicity and race,
-Housing,
-Socioeconomic status and deprivation,
-Loneliness and social isolation,
-Migration and immigration,
-Neighbourhood,
-Personality,
-Political and social attitudes,
-Digital technology and social media,
-Victimisation and life events,
-Parenting and family,
-Sleep problems</t>
   </si>
   <si>
     <t>Accelerated cohort study</t>
@@ -2585,20 +2116,6 @@
     <t>Wellcome BHF</t>
   </si>
   <si>
-    <t>Covid-19 data collection,
-Diet and nutrition,
-Ethnicity and race,
-Housing,
-Socioeconomic status and deprivation,
-Loneliness and social isolation,
-Migration and immigration,
-Physical health assessment,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Sleep problems</t>
-  </si>
-  <si>
     <t>Ageing cohort,
 Ethnicity and race,</t>
   </si>
@@ -2636,19 +2153,6 @@
   </si>
   <si>
     <t>NIHR_BRC GSTC ESRC</t>
-  </si>
-  <si>
-    <t>Biomarkers,
-Diet and nutrition,
-Ethnicity and race,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Neighbourhood,
-Physical health assessment,
-Victimisation and life events,
-Work and employment,
-Sleep problems</t>
   </si>
   <si>
     <t>Ethnicity and race, 
@@ -2729,22 +2233,6 @@
     </r>
   </si>
   <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Diet and nutrition,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Neighbourhood,
-Physical health assessment,
-Digital technology and social media,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems</t>
-  </si>
-  <si>
     <t>TEDS</t>
   </si>
   <si>
@@ -2920,30 +2408,6 @@
   <si>
     <t>ESRC DfWP DfT DoHSC DfE DCMS DCLG DEFRA Scot Welsh ONS FSA&lt;br&gt;
 Large Facilities Capital Fund</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Diet and nutrition,
-Education,
-Ethnicity and race,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Migration and immigration,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Political and social attitudes,
-Digital technology and social media,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems</t>
   </si>
   <si>
     <t>Household panel study</t>
@@ -3090,6 +2554,1009 @@
 National Heart, Lung &amp; Blood Institute</t>
   </si>
   <si>
+    <t>WOS</t>
+  </si>
+  <si>
+    <t>West of Scotland Twenty-07</t>
+  </si>
+  <si>
+    <t>The West of Scotland Twenty-07 Study is a population-based multi-cohort study which has followed three cohorts of men and women in the West of Scotland across twenty years. Set up in 1986, the study was designed to investigate the differences in health by socio-economic circumstances, gender, the place where people live, age, ethnic group and family type. Through tracking three cohorts of volunteers, each born roughly twenty years apart, the study provides data at critical points in the lifespan, as participants make the transition from adolescence to working life; through the main part of working life; and from working life to retirement. Additionally, the study was designed to explore the effect of the historical context of people’s lives on their health and circumstances by comparing the different cohorts at the same age at different points in time.</t>
+  </si>
+  <si>
+    <t>MRC Social and Public Health Sciences Unit, University of Glasgow</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://2007study.sphsu.mrc.ac.uk/"&gt;http://2007study.sphsu.mrc.ac.uk/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Central Clydeside Conurbation, West of Scotland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The West of Scotland Twenty-07 Study followed three cohorts each born roughly twenty years apart, in 1932, 1952 and 1972. In the initial sweep, the cohort members were approximately 15, 35 and 55 years old. Cohort members were followed up three times, in 1990/1991, 1995, and 2000/2004, before the final sweep of data collection took place in 2007/2008, when the cohort members were approximately 35, 55 and 75 years old. 
+&lt;br&gt;&lt;br&gt;
+Each cohort comprises two distinct but connected samples: a regional sample and a localities sample. The regional sample is a two-stage stratified random sample of people living in the Central Clydeside Conurbation - a socially mixed and mainly urban area - and the localities sample is comprised of people from two areas within the city of Glasgow. The sampling frame used for the regional sample was Strathclyde Regional Council’s 1986 Voluntary Population Survey, an enhanced electoral register that provides details of the age and sex of all household members. The locality sample was designed for more intensive study of the relationship between people’s personal and health circumstances and the environment in which they lived. Ten postcode sectors in two areas of the city of Glasgow were selected purposefully to capture different socio-economic experiences and environments. </t>
+  </si>
+  <si>
+    <t>4,510 total&lt;br&gt;
+1,551 - 1930s cohort&lt;br&gt;
+1,444 - 1950s cohort&lt;br&gt;
+1,515 - 1970s cohort</t>
+  </si>
+  <si>
+    <t>2,580 total (Wave 5, 2008)&lt;br&gt;
+633 - 1930s cohort&lt;br&gt;
+994 - 1950s cohort&lt;br&gt;
+923 - 1970s cohort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15, 35, and 55 years </t>
+  </si>
+  <si>
+    <t>1932, 1952, 1972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact study team - proposal
+&lt;a href="http://2007study.sphsu.mrc.ac.uk/Information-on-data-sharing.html"&gt;http://2007study.sphsu.mrc.ac.uk/Information-on-data-sharing.html&lt;/a&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benzeval, M., Der, G., Ellaway, A., Hunt, K., Sweeting, H., West, P., &amp; Macintyre, S. (2009). Cohort profile: West of Scotland Twenty-07 study: health in the community. International Journal of Epidemiology, 38(5), 1215-1223 
+&lt;br&gt;
+&lt;a href="https://doi.org/10.1093/ije/dyn213"&gt;doi.org/10.1093/ije/dyn213
+&lt;/a&gt; 
+</t>
+  </si>
+  <si>
+    <t>SCAMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Study of Cognition, Adolescents and Mobile Phones (SCAMP) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Study of Cognition, Adolescents and Mobile Phones (SCAMP) was designed to provide insights into the long-term impacts of mobile phone and wireless technology use. It is a prospective school-based cohort study following several thousand pupils. It aims to examine associations between the use of mobile phones and other wireless devices that emit radio-frequency electromagnetic fields (RF-EMF) and cognitive, behavioural, educational, physical and mental health outcomes during adolescence.  
+</t>
+  </si>
+  <si>
+    <t>Imperial College London</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.scampstudy.org/"&gt;https://www.scampstudy.org/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Greater London</t>
+  </si>
+  <si>
+    <t>Secondary school pupils from 39 eligible schools from within the Greater London area were invited to participate. Eligible schools were selected from the Department for Education’s register of educational establishments (EduBase) and from the January 2012 school census. Pupils completed computerised assessments at school, which were complemented by online questionnaires that could be completed in any environment by both and pupils and their parents.</t>
+  </si>
+  <si>
+    <t>11 years</t>
+  </si>
+  <si>
+    <t>2002-2003</t>
+  </si>
+  <si>
+    <t>Contact study team &lt;br&gt;
+&lt;a href="https://www.scampstudy.org/research-opportunities/"&gt;https://www.scampstudy.org/research-opportunities/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DoHSC MRC </t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Diet and nutrition,
+Education,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Neighbourhood,
+Digital technology and social media,
+Victimisation and life events,
+Puberty,
+Reproductive health,
+Sleep problems</t>
+  </si>
+  <si>
+    <t>AHMS</t>
+  </si>
+  <si>
+    <t>The Airwave Health Monitoring Study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Airwave Health Monitoring Study is an occupational cohort study which was established to evaluate the possible health risks associated with use of Terrestrial Trunked Radio (TETRA), a digital communication system used by the police force. Due to the collection of extensive phenotypic data, biological samples, and the availability of linked health data, the study has been broadened to investigate more generally the health and social outcomes of working in the police force in Great Britain. </t>
+  </si>
+  <si>
+    <t>&lt;a href="https://police-health.org.uk/"&gt;https://police-health.org.uk/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Employees of all 54 police forces as well as police-related agencies within Great Britain were invited to participate. Since the commencement of the study, a total of 28 forces have agreed to participate. Participants completed enrolment questionnaires during the first phase of the study. The second phase of the study consisted of a health screening performed locally by trained nurses. Overall, 16% of participants completed only phase one, 58% completed only phase two, and 26% completed both phases. Additionally, 62.9% of the participants are men, and the average age at enrolment was 40.9 years for men and 38.5 years for women.</t>
+  </si>
+  <si>
+    <t>18+</t>
+  </si>
+  <si>
+    <t>Contact study team &lt;br&gt;
+&lt;a href="https://police-health.org.uk/applying-access-resource"&gt;https://police-health.org.uk/applying-access-resource&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Biomarkers,
+Cognitive measures,
+Diet and nutrition,
+Socioeconomic status and deprivation,
+Language and literacy,
+Personality,
+Physical health assessment,
+Digital technology and social media,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Sleep problems</t>
+  </si>
+  <si>
+    <t>EWCS</t>
+  </si>
+  <si>
+    <t>European Working Conditions Survey (EWCS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The European Working Conditions Survey is a unique pan-European survey carried out every 5 years to assess and quantify working conditions of both employees and the self-employed across Europe. It aims to provide a comprehensive picture of the everyday reality of men and women at work, and to do so covers a wide range of themes such as employment status, working time duration, learning and training, physical and psychosocial risk factors, health and safety, work-life balance, financial security and worker participation. The survey has also allowed researchers to analyse relationships between different aspects of working conditions, identify risk groups and issues of concern as well as progress, and monitor the trends of these issues. </t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.eurofound.europa.eu/surveys/european-working-conditions-surveys-ewcs"&gt;https://www.eurofound.europa.eu/surveys/european-working-conditions-surveys-ewcs&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">England, Scotland, Wales, Northern Ireland &lt;br&gt;
+Europe - 28 European Union Member States, the five candidate countries for EU membership (Albania, the former Yugoslav Republic of Macedonia, Montenegro, Serbia and Turkey) and Norway and Switzerland (EWCS 2015). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In each wave a new sample of the adult population is selected randomly for a face-to-face interview. In view of the growth of the EU and interest from the EFTA countries, the geographical coverage of the survey has expanded over time.
+&lt;br&gt;&lt;br&gt;
+The target population for each survey consists of all persons aged 15 and above (for Bulgaria, Norway, Spain and the UK, this is anyone aged 16 and above) who are residents of the country and are employed or self-employed at the time of data collection. Those considered to be in employment are those who have worked for pay or profit for at least an hour in the week preceding the interview. For most countries, the target sample size is 1,000, but to reflect the larger workforce in bigger countries, the target was increased proportionately. 
+&lt;br&gt;&lt;br&gt;
+For the EWCS 2015, a stratified, multi-stage, random sampling method was used to select participants from the working population of each country. Depending on the availability of high-quality registers, sampling was carried out using individual-level, household-level and address-level registers, or through enumeration using a random-walk approach. Country-level samples were stratified by region and degree of urbanisation. In each stratum, primary sampling units (PSUs) were randomly selected proportional to size. Subsequently, a random sample of households was drawn in each PSU. Finally, unless individual-level registers were used, in each household the selected respondent was the person in work who would have their birthday next.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,600 – UK sample, EWCS 2015
+&lt;br&gt;&lt;br&gt;
+43,850 – Total European sample, EWCS 2015
+</t>
+  </si>
+  <si>
+    <t>"UK Data Service&lt;br&gt;
+&lt;a href=""https://www.eurofound.europa.eu/surveys/about-eurofound-surveys/data-availability""&gt;eurofound.europa.eu/surveys/about-eurofound-surveys/data-availability&lt;/a&gt;&lt;br&gt;
+&lt;a href=""https://beta.ukdataservice.ac.uk/datacatalogue/studies/study?id=7348""&gt;beta.ukdataservice.ac.uk/datacatalogue/studies/study?id=7348&lt;/a&gt;"</t>
+  </si>
+  <si>
+    <t>Gemini</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>Gemini is a large population-based study of twins designed to investigate the genetic and environmental influences on obesity risk, weight gain, and early growth. Gemini have followed twins and their families for over a decade, collecting detailed information about the twins’ growth, eating behaviours, appetite, and the home environment. A key aim of the Gemini study is to create a rich resource of data on early childhood exposures that can be used to assess the determinants of long-term health.</t>
+  </si>
+  <si>
+    <t>University College London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;a href="https://www.geministudy.co.uk/"&gt;https://www.geministudy.co.uk/&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Families with twins born in England and Wales between March and December 2007 were approached on behalf of Gemini by the Office for National Statistics (N = 6,754) in January 2008. 3,435 families agreed to be contacted by the research team, with 2,402 families (36% of the target population) returning a completed baseline questionnaire. The sample comprises of 1,586 same-sex and 816 opposite-sex twin pairs. 
+&lt;br&gt;&lt;br&gt;
+Gemini families live across the whole of England and Wales, and the distribution mirrors the population density. The Gemini study includes twins that are comparable in sex, zygosity, gestational age, and birthweight to national averages of twins. However, mothers are somewhat older, and both parents are on average slightly healthier than the national population. As in many cohort studies, there is an over-representation of White–British families within the Gemini cohort. </t>
+  </si>
+  <si>
+    <t>2,402 families</t>
+  </si>
+  <si>
+    <t>8 months</t>
+  </si>
+  <si>
+    <t>987 twins, 492 parents (Time 9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Researchers wishing to access Gemini data should contact the Gemini team via email on gemini@ucl.ac.uk </t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Diet and nutrition,
+Education,
+Housing,
+Socioeconomic status and deprivation,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Digital technology and social media,
+Puberty,
+Parenting and family,
+Sleep problems</t>
+  </si>
+  <si>
+    <t>Genetic/genomic data,
+Observational/qualitative data</t>
+  </si>
+  <si>
+    <t>Education data,
+Environmental data,
+Social media data</t>
+  </si>
+  <si>
+    <t>Education data,
+Environmental data,
+Health data,
+Social media data</t>
+  </si>
+  <si>
+    <t>Education data,
+Environmental data,
+Health data</t>
+  </si>
+  <si>
+    <t>ADVANCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Armed Services Trauma Rehabilitation Outcome (ADVANCE) Study is a prospective longitudinal cohort study investigating the long-term physical and psychosocial outcomes of UK military personnel who sustained severe combat-related trauma during the Afghanistan conflict. ADVANCE aims to study the incidence of a wide variety of outcomes, including cardiovascular and musculoskeletal disease, mental health, functional and social outcomes, quality of life, employment, and mortality. Data is collected using various methods, including self-report questionnaires and clinical assessments. </t>
+  </si>
+  <si>
+    <t>Academic Department of Military Rehabilitation (Ministry of Defence); Imperial College London; King’s College London.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">England, Scotland, Wales, Northern Ireland &lt;br&gt;
+Some participants now reside outside of the United Kingdom (e.g., South Africa, North America) </t>
+  </si>
+  <si>
+    <t>Cohort study; Occupational cohort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants are serving and former UK military personnel who deployed on combat operations to Afghanistan between 2003 and 2014. Half are personnel who sustained combat trauma; a comparison group of the same size has been frequency matched based on deployment to Afghanistan, age, sex, service, regiment, rank, and role-in-theatre. 
+&lt;br&gt;&lt;br&gt;
+Participants were initially identified through various tracking systems and databases before being recruited through postal mailouts, e-mail invitations and telephone calls, and where necessary traced via Joint Personnel Administration (JPA) contacts, if still serving, and through electoral roll data, social media or advertising via military charities. Participants will be followed up after baseline data collection at 3, 6, 10, 15 and 20 years.
+&lt;br&gt;&lt;br&gt;
+ADVANCE’s sample does not include female participants due to very few female UK military combat casualties in Afghanistan. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The first follow up is currently in progress. </t>
+  </si>
+  <si>
+    <t>Men only</t>
+  </si>
+  <si>
+    <t>18-50 years (age at sampling)</t>
+  </si>
+  <si>
+    <t>Biomarkers,
+Physical health assessment,
+Victimisation and life events,
+Work and employment,
+Sleep problems</t>
+  </si>
+  <si>
+    <t>Toledano, M. B., Mutz, J., Röösli, M., Thomas, M. S., Dumontheil, I., &amp; Elliott, P. (2019). Cohort profile: the study of cognition, adolescents and mobile phones (SCAMP). International journal of epidemiology, 48(1), 25-26l.
+&lt;br&gt;
+&lt;a href="https://doi.org/10.1093/ije/dyy192"&gt;https://doi.org/10.1093/ije/dyy192&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Elliott, P., Vergnaud, A. C., Singh, D., Neasham, D., Spear, J., &amp; Heard, A. (2014). The Airwave Health Monitoring Study of police officers and staff in Great Britain: rationale, design and methods. Environmental research, 134, 280-285
+&lt;br&gt;
+&lt;a href="https://doi.org/10.1016/j.envres.2014.07.025"&gt;https://doi.org/10.1016/j.envres.2014.07.025&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Eurofound (2017). Sixth European Working Conditions Survey – Overview report (2017 update). Publications Office of the European Union, Luxembourg.
+&lt;br&gt;
+&lt;a href="https://doi.org/10.2806/422172"&gt;https://doi.org/10.2806/422172&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Van Jaarsveld, C. H., Johnson, L., Llewellyn, C., &amp; Wardle, J. (2010). Gemini: a UK twin birth cohort with a focus on early childhood weight trajectories, appetite and the family environment. Twin Research and Human Genetics, 13(1), 72-78. 
+&lt;br&gt;
+&lt;a href="https://doi.org/10.1375/twin.13.1.72"&gt;https://doi.org/10.1375/twin.13.1.72&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bennett, A. N., Dyball, D. M., Boos, C. J., Fear, N. T., Schofield, S., Bull, A. M., &amp; Cullinan, P. (2020). Study protocol for a prospective, longitudinal cohort study investigating the medical and psychosocial outcomes of UK combat casualties from the Afghanistan war: the ADVANCE Study. BMJ open, 10(10), e037850.
+&lt;br&gt;
+&lt;a href="https://doi.org/10.1136/bmjopen-2020-037850"&gt;https://doi.org/10.1136/bmjopen-2020-037850&lt;/a&gt;
+</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.advancestudydmrc.org.uk/"&gt;https:/www.advancestudydmrc.org.uk/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Education data,
+Health data,
+Digital footprint data</t>
+  </si>
+  <si>
+    <t>HFH MoD Nuffield_Crown Blesma FIMT</t>
+  </si>
+  <si>
+    <t>Researchers wishing to access ADVANCE data should contact the ADVANCE team via email on dmrc-advancestudyteam@mod.gov.uk</t>
+  </si>
+  <si>
+    <t>1,145 participants total
+579 injured personnel, 565 comparison group</t>
+  </si>
+  <si>
+    <t>18,000 (ongoing)</t>
+  </si>
+  <si>
+    <t>HOUK Imperial_BRC MRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,000 (approx.) – UK sample, EWCS 1991
+&lt;br&gt;&lt;br&gt;
+12,500 – Total European sample, EWCS 1991
+</t>
+  </si>
+  <si>
+    <t>Health data,
+Income/tax and benefits</t>
+  </si>
+  <si>
+    <t>Environmental data,
+Health data,
+Income/tax and benefits</t>
+  </si>
+  <si>
+    <t>Education data,
+Income/tax and benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education data,
+Environmental data,
+Health data,
+Income/tax and benefits,
+Social media data
+</t>
+  </si>
+  <si>
+    <t>Linked data</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Diet and nutrition,
+Education,
+Ethnicity and race,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Political and social attitudes,
+Digital technology and social media,
+Victimisation and life events,
+Puberty,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems, 
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Cognitive measures,
+Ethnicity and race,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Migration and immigration,
+Neighbourhood,
+Physical health assessment,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Education,
+Housing,
+Socioeconomic status and deprivation,
+Loneliness and social isolation,
+Physical health assessment,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Diet and nutrition,
+Education,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Migration and immigration,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Political and social attitudes,
+Victimisation and life events,
+Puberty,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Diet and nutrition,
+Education,
+Ethnicity and race,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Migration and immigration,
+Neighbourhood,
+Physical health assessment,
+Digital technology and social media,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Diet and nutrition,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Migration and immigration,
+Neighbourhood,
+Physical health assessment,
+Work and employment,
+Parenting and family,
+Social care - receipt,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Cognitive decline,
+Diet and nutrition,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Physical health assessment,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Cognitive decline,
+Diet and nutrition,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Physical health assessment,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Diet and nutrition,
+Ethnicity and race, 
+Housing,
+Loneliness and social isolation,
+Migration and immigration,
+Neighbourhood,
+Physical health assessment,
+Victimisation and life events,
+Work and employment,
+Parenting and family,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Cognitive decline,
+Diet and nutrition,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Migration and immigration,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Digital technology and social media,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Housing,
+Socioeconomic status and deprivation,
+Loneliness and social isolation,
+Neighbourhood,
+Political and social attitudes,
+Digital technology and social media,
+Work and employment,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Diet and nutrition,
+Education,
+Ethnicity and race,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Digital technology and social media,
+Victimisation and life events,
+Puberty,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Diet and nutrition,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Migration and immigration,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Victimisation and life events,
+Puberty,
+Reproductive health,
+Work and employment,
+Social care - receipt,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Cognitive measures,
+Diet and nutrition,
+Education,
+Ethnicity and race,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Neighbourhood,
+Physical health assessment,
+Political and social attitudes,
+Digital technology and social media,
+Victimisation and life events,
+Puberty,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Cognitive measures,
+Diet and nutrition,
+Education,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Neighbourhood,
+Physical health assessment,
+Digital technology and social media,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Cognitive measures,
+Diet and nutrition,
+Education,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Neighbourhood,
+Physical health assessment,
+Digital technology and social media,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Cognitive decline,
+Diet and nutrition,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Digital technology and social media,
+Reproductive health,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Diet and nutrition,
+Housing,
+Socioeconomic status and deprivation,
+Physical health assessment,
+Work and employment,
+Sleep problems,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Biomarkers,
+Cognitive measures,
+Cognitive decline,
+Education,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Neighbourhood,
+Physical health assessment,
+Work and employment,
+Social care - receipt,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Cognitive decline,
+Diet and nutrition,
+Education,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Neighbourhood,
+Physical health assessment,
+Reproductive health,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Cognitive measures,
+Diet and nutrition,
+Education,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Loneliness and social isolation,
+Neighbourhood,
+Personality,
+Political and social attitudes,
+Digital technology and social media,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Cognitive measures,
+Diet and nutrition,
+Education,
+Ethnicity and race,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Migration and immigration,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Political and social attitudes,
+Digital technology and social media,
+Victimisation and life events,
+Puberty,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Education,
+Housing,
+Socioeconomic status and deprivation,
+Loneliness and social isolation,
+Victimisation and life events,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Diet and nutrition,
+Housing,
+Socioeconomic status and deprivation,
+Loneliness and social isolation,
+Physical health assessment,
+Digital technology and social media,
+Reproductive health,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Biomarkers,
+Cognitive measures,
+Cognitive decline,
+Diet and nutrition,
+Housing,
+Socioeconomic status and deprivation,
+Loneliness and social isolation,
+Physical health assessment,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Diet and nutrition,
+Education,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Migration and immigration,
+Personality,
+Physical health assessment,
+Political and social attitudes,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Cognitive decline,
+Diet and nutrition,
+Socioeconomic status and deprivation,
+Loneliness and social isolation,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Digital technology and social media,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Cognitive decline,
+Diet and nutrition,
+Education,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Migration and immigration,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Political and social attitudes,
+Digital technology and social media,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Cognitive measures,
+Diet and nutrition,
+Ethnicity and race,
+Sexuality and gender identity,
+Loneliness and social isolation,
+Neighbourhood,
+Personality,
+Digital technology and social media,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Cognitive measures,
+Diet and nutrition,
+Education,
+Ethnicity and race,
+Housing,
+Socioeconomic status and deprivation,
+Loneliness and social isolation,
+Migration and immigration,
+Neighbourhood,
+Personality,
+Political and social attitudes,
+Digital technology and social media,
+Victimisation and life events,
+Parenting and family,
+Sleep problems,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Diet and nutrition,
+Ethnicity and race,
+Housing,
+Socioeconomic status and deprivation,
+Loneliness and social isolation,
+Migration and immigration,
+Physical health assessment,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Biomarkers,
+Diet and nutrition,
+Ethnicity and race,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Neighbourhood,
+Physical health assessment,
+Victimisation and life events,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Diet and nutrition,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Neighbourhood,
+Physical health assessment,
+Digital technology and social media,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Diet and nutrition,
+Education,
+Ethnicity and race,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Migration and immigration,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Political and social attitudes,
+Digital technology and social media,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
     <t>Biomarkers,
 Cognitive measures,
 Cognitive decline,
@@ -3105,60 +3572,10 @@
 Reproductive health,
 Work and employment,
 Parenting and family,
-Sleep problems</t>
-  </si>
-  <si>
-    <t>WOS</t>
-  </si>
-  <si>
-    <t>West of Scotland Twenty-07</t>
-  </si>
-  <si>
-    <t>The West of Scotland Twenty-07 Study is a population-based multi-cohort study which has followed three cohorts of men and women in the West of Scotland across twenty years. Set up in 1986, the study was designed to investigate the differences in health by socio-economic circumstances, gender, the place where people live, age, ethnic group and family type. Through tracking three cohorts of volunteers, each born roughly twenty years apart, the study provides data at critical points in the lifespan, as participants make the transition from adolescence to working life; through the main part of working life; and from working life to retirement. Additionally, the study was designed to explore the effect of the historical context of people’s lives on their health and circumstances by comparing the different cohorts at the same age at different points in time.</t>
-  </si>
-  <si>
-    <t>MRC Social and Public Health Sciences Unit, University of Glasgow</t>
-  </si>
-  <si>
-    <t>&lt;a href="http://2007study.sphsu.mrc.ac.uk/"&gt;http://2007study.sphsu.mrc.ac.uk/&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Central Clydeside Conurbation, West of Scotland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The West of Scotland Twenty-07 Study followed three cohorts each born roughly twenty years apart, in 1932, 1952 and 1972. In the initial sweep, the cohort members were approximately 15, 35 and 55 years old. Cohort members were followed up three times, in 1990/1991, 1995, and 2000/2004, before the final sweep of data collection took place in 2007/2008, when the cohort members were approximately 35, 55 and 75 years old. 
-&lt;br&gt;&lt;br&gt;
-Each cohort comprises two distinct but connected samples: a regional sample and a localities sample. The regional sample is a two-stage stratified random sample of people living in the Central Clydeside Conurbation - a socially mixed and mainly urban area - and the localities sample is comprised of people from two areas within the city of Glasgow. The sampling frame used for the regional sample was Strathclyde Regional Council’s 1986 Voluntary Population Survey, an enhanced electoral register that provides details of the age and sex of all household members. The locality sample was designed for more intensive study of the relationship between people’s personal and health circumstances and the environment in which they lived. Ten postcode sectors in two areas of the city of Glasgow were selected purposefully to capture different socio-economic experiences and environments. </t>
-  </si>
-  <si>
-    <t>4,510 total&lt;br&gt;
-1,551 - 1930s cohort&lt;br&gt;
-1,444 - 1950s cohort&lt;br&gt;
-1,515 - 1970s cohort</t>
-  </si>
-  <si>
-    <t>2,580 total (Wave 5, 2008)&lt;br&gt;
-633 - 1930s cohort&lt;br&gt;
-994 - 1950s cohort&lt;br&gt;
-923 - 1970s cohort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15, 35, and 55 years </t>
-  </si>
-  <si>
-    <t>1932, 1952, 1972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact study team - proposal
-&lt;a href="http://2007study.sphsu.mrc.ac.uk/Information-on-data-sharing.html"&gt;http://2007study.sphsu.mrc.ac.uk/Information-on-data-sharing.html&lt;/a&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benzeval, M., Der, G., Ellaway, A., Hunt, K., Sweeting, H., West, P., &amp; Macintyre, S. (2009). Cohort profile: West of Scotland Twenty-07 study: health in the community. International Journal of Epidemiology, 38(5), 1215-1223 
-&lt;br&gt;
-&lt;a href="https://doi.org/10.1093/ije/dyn213"&gt;doi.org/10.1093/ije/dyn213
-&lt;/a&gt; 
-</t>
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
   </si>
   <si>
     <t>Biomarkers,
@@ -3177,318 +3594,19 @@
 Reproductive health,
 Work and employment,
 Parenting and family,
-Sleep problems</t>
-  </si>
-  <si>
-    <t>SCAMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Study of Cognition, Adolescents and Mobile Phones (SCAMP) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Study of Cognition, Adolescents and Mobile Phones (SCAMP) was designed to provide insights into the long-term impacts of mobile phone and wireless technology use. It is a prospective school-based cohort study following several thousand pupils. It aims to examine associations between the use of mobile phones and other wireless devices that emit radio-frequency electromagnetic fields (RF-EMF) and cognitive, behavioural, educational, physical and mental health outcomes during adolescence.  
-</t>
-  </si>
-  <si>
-    <t>Imperial College London</t>
-  </si>
-  <si>
-    <t>&lt;a href="https://www.scampstudy.org/"&gt;https://www.scampstudy.org/&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Greater London</t>
-  </si>
-  <si>
-    <t>Secondary school pupils from 39 eligible schools from within the Greater London area were invited to participate. Eligible schools were selected from the Department for Education’s register of educational establishments (EduBase) and from the January 2012 school census. Pupils completed computerised assessments at school, which were complemented by online questionnaires that could be completed in any environment by both and pupils and their parents.</t>
-  </si>
-  <si>
-    <t>11 years</t>
-  </si>
-  <si>
-    <t>2002-2003</t>
-  </si>
-  <si>
-    <t>Contact study team &lt;br&gt;
-&lt;a href="https://www.scampstudy.org/research-opportunities/"&gt;https://www.scampstudy.org/research-opportunities/&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DoHSC MRC </t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Diet and nutrition,
-Education,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Neighbourhood,
-Digital technology and social media,
-Victimisation and life events,
-Puberty,
-Reproductive health,
-Sleep problems</t>
-  </si>
-  <si>
-    <t>AHMS</t>
-  </si>
-  <si>
-    <t>The Airwave Health Monitoring Study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Airwave Health Monitoring Study is an occupational cohort study which was established to evaluate the possible health risks associated with use of Terrestrial Trunked Radio (TETRA), a digital communication system used by the police force. Due to the collection of extensive phenotypic data, biological samples, and the availability of linked health data, the study has been broadened to investigate more generally the health and social outcomes of working in the police force in Great Britain. </t>
-  </si>
-  <si>
-    <t>&lt;a href="https://police-health.org.uk/"&gt;https://police-health.org.uk/&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Employees of all 54 police forces as well as police-related agencies within Great Britain were invited to participate. Since the commencement of the study, a total of 28 forces have agreed to participate. Participants completed enrolment questionnaires during the first phase of the study. The second phase of the study consisted of a health screening performed locally by trained nurses. Overall, 16% of participants completed only phase one, 58% completed only phase two, and 26% completed both phases. Additionally, 62.9% of the participants are men, and the average age at enrolment was 40.9 years for men and 38.5 years for women.</t>
-  </si>
-  <si>
-    <t>18+</t>
-  </si>
-  <si>
-    <t>Contact study team &lt;br&gt;
-&lt;a href="https://police-health.org.uk/applying-access-resource"&gt;https://police-health.org.uk/applying-access-resource&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Biomarkers,
-Cognitive measures,
-Diet and nutrition,
-Socioeconomic status and deprivation,
-Language and literacy,
-Personality,
-Physical health assessment,
-Digital technology and social media,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Sleep problems</t>
-  </si>
-  <si>
-    <t>EWCS</t>
-  </si>
-  <si>
-    <t>European Working Conditions Survey (EWCS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The European Working Conditions Survey is a unique pan-European survey carried out every 5 years to assess and quantify working conditions of both employees and the self-employed across Europe. It aims to provide a comprehensive picture of the everyday reality of men and women at work, and to do so covers a wide range of themes such as employment status, working time duration, learning and training, physical and psychosocial risk factors, health and safety, work-life balance, financial security and worker participation. The survey has also allowed researchers to analyse relationships between different aspects of working conditions, identify risk groups and issues of concern as well as progress, and monitor the trends of these issues. </t>
-  </si>
-  <si>
-    <t>&lt;a href="https://www.eurofound.europa.eu/surveys/european-working-conditions-surveys-ewcs"&gt;https://www.eurofound.europa.eu/surveys/european-working-conditions-surveys-ewcs&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">England, Scotland, Wales, Northern Ireland &lt;br&gt;
-Europe - 28 European Union Member States, the five candidate countries for EU membership (Albania, the former Yugoslav Republic of Macedonia, Montenegro, Serbia and Turkey) and Norway and Switzerland (EWCS 2015). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In each wave a new sample of the adult population is selected randomly for a face-to-face interview. In view of the growth of the EU and interest from the EFTA countries, the geographical coverage of the survey has expanded over time.
-&lt;br&gt;&lt;br&gt;
-The target population for each survey consists of all persons aged 15 and above (for Bulgaria, Norway, Spain and the UK, this is anyone aged 16 and above) who are residents of the country and are employed or self-employed at the time of data collection. Those considered to be in employment are those who have worked for pay or profit for at least an hour in the week preceding the interview. For most countries, the target sample size is 1,000, but to reflect the larger workforce in bigger countries, the target was increased proportionately. 
-&lt;br&gt;&lt;br&gt;
-For the EWCS 2015, a stratified, multi-stage, random sampling method was used to select participants from the working population of each country. Depending on the availability of high-quality registers, sampling was carried out using individual-level, household-level and address-level registers, or through enumeration using a random-walk approach. Country-level samples were stratified by region and degree of urbanisation. In each stratum, primary sampling units (PSUs) were randomly selected proportional to size. Subsequently, a random sample of households was drawn in each PSU. Finally, unless individual-level registers were used, in each household the selected respondent was the person in work who would have their birthday next.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,600 – UK sample, EWCS 2015
-&lt;br&gt;&lt;br&gt;
-43,850 – Total European sample, EWCS 2015
-</t>
-  </si>
-  <si>
-    <t>"UK Data Service&lt;br&gt;
-&lt;a href=""https://www.eurofound.europa.eu/surveys/about-eurofound-surveys/data-availability""&gt;eurofound.europa.eu/surveys/about-eurofound-surveys/data-availability&lt;/a&gt;&lt;br&gt;
-&lt;a href=""https://beta.ukdataservice.ac.uk/datacatalogue/studies/study?id=7348""&gt;beta.ukdataservice.ac.uk/datacatalogue/studies/study?id=7348&lt;/a&gt;"</t>
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
   </si>
   <si>
     <t>Education,
 Housing,
 Socioeconomic status and deprivation,
 Victimisation and life events,
-Work and employment</t>
-  </si>
-  <si>
-    <t>Gemini</t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t>Gemini is a large population-based study of twins designed to investigate the genetic and environmental influences on obesity risk, weight gain, and early growth. Gemini have followed twins and their families for over a decade, collecting detailed information about the twins’ growth, eating behaviours, appetite, and the home environment. A key aim of the Gemini study is to create a rich resource of data on early childhood exposures that can be used to assess the determinants of long-term health.</t>
-  </si>
-  <si>
-    <t>University College London</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;a href="https://www.geministudy.co.uk/"&gt;https://www.geministudy.co.uk/&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Families with twins born in England and Wales between March and December 2007 were approached on behalf of Gemini by the Office for National Statistics (N = 6,754) in January 2008. 3,435 families agreed to be contacted by the research team, with 2,402 families (36% of the target population) returning a completed baseline questionnaire. The sample comprises of 1,586 same-sex and 816 opposite-sex twin pairs. 
-&lt;br&gt;&lt;br&gt;
-Gemini families live across the whole of England and Wales, and the distribution mirrors the population density. The Gemini study includes twins that are comparable in sex, zygosity, gestational age, and birthweight to national averages of twins. However, mothers are somewhat older, and both parents are on average slightly healthier than the national population. As in many cohort studies, there is an over-representation of White–British families within the Gemini cohort. </t>
-  </si>
-  <si>
-    <t>2,402 families</t>
-  </si>
-  <si>
-    <t>8 months</t>
-  </si>
-  <si>
-    <t>987 twins, 492 parents (Time 9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Researchers wishing to access Gemini data should contact the Gemini team via email on gemini@ucl.ac.uk </t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Diet and nutrition,
-Education,
-Housing,
-Socioeconomic status and deprivation,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Digital technology and social media,
-Puberty,
-Parenting and family,
-Sleep problems</t>
-  </si>
-  <si>
-    <t>Genetic/genomic data,
-Observational/qualitative data</t>
-  </si>
-  <si>
-    <t>Education data,
-Environmental data,
-Social media data</t>
-  </si>
-  <si>
-    <t>Education data,
-Environmental data,
-Health data,
-Social media data</t>
-  </si>
-  <si>
-    <t>Education data,
-Environmental data,
-Health data</t>
-  </si>
-  <si>
-    <t>ADVANCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Armed Services Trauma Rehabilitation Outcome (ADVANCE) Study is a prospective longitudinal cohort study investigating the long-term physical and psychosocial outcomes of UK military personnel who sustained severe combat-related trauma during the Afghanistan conflict. ADVANCE aims to study the incidence of a wide variety of outcomes, including cardiovascular and musculoskeletal disease, mental health, functional and social outcomes, quality of life, employment, and mortality. Data is collected using various methods, including self-report questionnaires and clinical assessments. </t>
-  </si>
-  <si>
-    <t>Academic Department of Military Rehabilitation (Ministry of Defence); Imperial College London; King’s College London.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">England, Scotland, Wales, Northern Ireland &lt;br&gt;
-Some participants now reside outside of the United Kingdom (e.g., South Africa, North America) </t>
-  </si>
-  <si>
-    <t>Cohort study; Occupational cohort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants are serving and former UK military personnel who deployed on combat operations to Afghanistan between 2003 and 2014. Half are personnel who sustained combat trauma; a comparison group of the same size has been frequency matched based on deployment to Afghanistan, age, sex, service, regiment, rank, and role-in-theatre. 
-&lt;br&gt;&lt;br&gt;
-Participants were initially identified through various tracking systems and databases before being recruited through postal mailouts, e-mail invitations and telephone calls, and where necessary traced via Joint Personnel Administration (JPA) contacts, if still serving, and through electoral roll data, social media or advertising via military charities. Participants will be followed up after baseline data collection at 3, 6, 10, 15 and 20 years.
-&lt;br&gt;&lt;br&gt;
-ADVANCE’s sample does not include female participants due to very few female UK military combat casualties in Afghanistan. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The first follow up is currently in progress. </t>
-  </si>
-  <si>
-    <t>Men only</t>
-  </si>
-  <si>
-    <t>18-50 years (age at sampling)</t>
-  </si>
-  <si>
-    <t>Biomarkers,
-Physical health assessment,
-Victimisation and life events,
 Work and employment,
-Sleep problems</t>
-  </si>
-  <si>
-    <t>Toledano, M. B., Mutz, J., Röösli, M., Thomas, M. S., Dumontheil, I., &amp; Elliott, P. (2019). Cohort profile: the study of cognition, adolescents and mobile phones (SCAMP). International journal of epidemiology, 48(1), 25-26l.
-&lt;br&gt;
-&lt;a href="https://doi.org/10.1093/ije/dyy192"&gt;https://doi.org/10.1093/ije/dyy192&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Elliott, P., Vergnaud, A. C., Singh, D., Neasham, D., Spear, J., &amp; Heard, A. (2014). The Airwave Health Monitoring Study of police officers and staff in Great Britain: rationale, design and methods. Environmental research, 134, 280-285
-&lt;br&gt;
-&lt;a href="https://doi.org/10.1016/j.envres.2014.07.025"&gt;https://doi.org/10.1016/j.envres.2014.07.025&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Eurofound (2017). Sixth European Working Conditions Survey – Overview report (2017 update). Publications Office of the European Union, Luxembourg.
-&lt;br&gt;
-&lt;a href="https://doi.org/10.2806/422172"&gt;https://doi.org/10.2806/422172&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Van Jaarsveld, C. H., Johnson, L., Llewellyn, C., &amp; Wardle, J. (2010). Gemini: a UK twin birth cohort with a focus on early childhood weight trajectories, appetite and the family environment. Twin Research and Human Genetics, 13(1), 72-78. 
-&lt;br&gt;
-&lt;a href="https://doi.org/10.1375/twin.13.1.72"&gt;https://doi.org/10.1375/twin.13.1.72&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bennett, A. N., Dyball, D. M., Boos, C. J., Fear, N. T., Schofield, S., Bull, A. M., &amp; Cullinan, P. (2020). Study protocol for a prospective, longitudinal cohort study investigating the medical and psychosocial outcomes of UK combat casualties from the Afghanistan war: the ADVANCE Study. BMJ open, 10(10), e037850.
-&lt;br&gt;
-&lt;a href="https://doi.org/10.1136/bmjopen-2020-037850"&gt;https://doi.org/10.1136/bmjopen-2020-037850&lt;/a&gt;
-</t>
-  </si>
-  <si>
-    <t>&lt;a href="https://www.advancestudydmrc.org.uk/"&gt;https:/www.advancestudydmrc.org.uk/&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Education data,
-Health data,
-Digital footprint data</t>
-  </si>
-  <si>
-    <t>HFH MoD Nuffield_Crown Blesma FIMT</t>
-  </si>
-  <si>
-    <t>Researchers wishing to access ADVANCE data should contact the ADVANCE team via email on dmrc-advancestudyteam@mod.gov.uk</t>
-  </si>
-  <si>
-    <t>1,145 participants total
-579 injured personnel, 565 comparison group</t>
-  </si>
-  <si>
-    <t>18,000 (ongoing)</t>
-  </si>
-  <si>
-    <t>HOUK Imperial_BRC MRC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,000 (approx.) – UK sample, EWCS 1991
-&lt;br&gt;&lt;br&gt;
-12,500 – Total European sample, EWCS 1991
-</t>
-  </si>
-  <si>
-    <t>Health data,
-Income/tax and benefits</t>
-  </si>
-  <si>
-    <t>Environmental data,
-Health data,
-Income/tax and benefits</t>
-  </si>
-  <si>
-    <t>Education data,
-Income/tax and benefits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education data,
-Environmental data,
-Health data,
-Income/tax and benefits,
-Social media data
-</t>
+Social care - provision,
+Social care - need</t>
   </si>
 </sst>
 </file>
@@ -3656,7 +3774,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3775,6 +3893,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4161,11 +4282,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="V1" sqref="V1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S6" sqref="S6"/>
+      <selection pane="bottomRight" activeCell="U57" sqref="U57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4186,7 +4307,7 @@
     <col min="15" max="15" width="15.33203125" style="2" customWidth="1"/>
     <col min="16" max="16" width="28" style="2" customWidth="1"/>
     <col min="17" max="17" width="17.33203125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="22" style="2" customWidth="1"/>
+    <col min="18" max="18" width="28.83203125" style="2" customWidth="1"/>
     <col min="19" max="19" width="55.33203125" style="2" customWidth="1"/>
     <col min="20" max="20" width="55.1640625" style="2" customWidth="1"/>
     <col min="21" max="21" width="49.6640625" style="2" customWidth="1"/>
@@ -4253,34 +4374,34 @@
         <v>16</v>
       </c>
       <c r="R1" s="24" t="s">
+        <v>731</v>
+      </c>
+      <c r="S1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="T1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="U1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="V1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="W1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="X1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="Y1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="26" t="s">
+      <c r="Z1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="AA1" s="38" t="s">
         <v>25</v>
-      </c>
-      <c r="AA1" s="38" t="s">
-        <v>26</v>
       </c>
       <c r="AB1" s="28"/>
       <c r="AC1" s="28"/>
@@ -4293,80 +4414,80 @@
     </row>
     <row r="2" spans="1:1024" s="11" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="C2" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="H2" s="8">
         <v>2007</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="W2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="X2" s="10" t="s">
+      <c r="Y2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="Z2" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="AA2" s="39"/>
       <c r="AB2" s="8"/>
@@ -4380,83 +4501,83 @@
     </row>
     <row r="3" spans="1:1024" s="14" customFormat="1" ht="101" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="C3" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="D3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="H3" s="8">
         <v>1990</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="T3" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="S3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="T3" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="V3" s="3" t="s">
-        <v>66</v>
+        <v>732</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X3" s="4"/>
       <c r="Y3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z3" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AA3" s="40" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
@@ -4469,80 +4590,80 @@
     </row>
     <row r="4" spans="1:1024" s="14" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="E4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="F4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="H4" s="8">
         <v>1993</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="S4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="V4" s="3" t="s">
-        <v>86</v>
+        <v>733</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X4" s="4"/>
       <c r="Y4" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Z4" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AA4" s="40"/>
       <c r="AB4" s="5"/>
@@ -4556,76 +4677,76 @@
     </row>
     <row r="5" spans="1:1024" s="2" customFormat="1" ht="110" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="F5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="G5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="I5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="L5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="2" t="s">
+      <c r="U5" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="V5" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>104</v>
-      </c>
       <c r="Y5" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Z5" s="4"/>
       <c r="AA5" s="40"/>
@@ -4638,82 +4759,82 @@
       <c r="AH5" s="5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="14" customFormat="1" ht="260" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1024" s="14" customFormat="1" ht="296" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H6" s="8">
         <v>1970</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="O6" s="8">
         <v>1970</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>764</v>
+        <v>727</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>119</v>
+        <v>735</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="X6" s="10"/>
       <c r="Y6" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="AA6" s="40"/>
       <c r="AB6" s="2"/>
@@ -4727,80 +4848,80 @@
     </row>
     <row r="7" spans="1:1024" s="16" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H7" s="8">
         <v>2007</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R7" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>136</v>
+        <v>736</v>
       </c>
       <c r="W7" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X7" s="10" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z7" s="10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="AA7" s="40"/>
       <c r="AB7" s="2"/>
@@ -4814,80 +4935,80 @@
     </row>
     <row r="8" spans="1:1024" s="14" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H8" s="8">
         <v>2016</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>149</v>
+        <v>737</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="X8" s="10" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z8" s="10" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="AA8" s="40"/>
       <c r="AB8" s="2"/>
@@ -4901,80 +5022,80 @@
     </row>
     <row r="9" spans="1:1024" s="14" customFormat="1" ht="124" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H9" s="8">
         <v>2006</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Z9" s="10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AA9" s="40"/>
       <c r="AB9" s="5"/>
@@ -4988,80 +5109,80 @@
     </row>
     <row r="10" spans="1:1024" s="14" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H10" s="8">
         <v>2008</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="K10" s="13">
         <v>7762</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R10" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>181</v>
+        <v>738</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="AA10" s="40"/>
       <c r="AB10" s="5"/>
@@ -5075,80 +5196,80 @@
     </row>
     <row r="11" spans="1:1024" s="14" customFormat="1" ht="155" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="H11" s="8">
         <v>1989</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="K11" s="13">
         <v>7365</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="Q11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R11" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>181</v>
+        <v>739</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="Z11" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="AA11" s="40"/>
       <c r="AB11" s="5"/>
@@ -5162,80 +5283,80 @@
     </row>
     <row r="12" spans="1:1024" s="14" customFormat="1" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="H12" s="8">
         <v>2011</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="K12" s="13">
         <v>2197</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="Q12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R12" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>181</v>
+        <v>738</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="Z12" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="AA12" s="40"/>
       <c r="AB12" s="5"/>
@@ -5249,77 +5370,77 @@
     </row>
     <row r="13" spans="1:1024" s="14" customFormat="1" ht="142" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="K13" s="13">
         <v>6643</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>221</v>
+        <v>740</v>
       </c>
       <c r="W13" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X13" s="10" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z13" s="10"/>
       <c r="AA13" s="40"/>
@@ -5334,80 +5455,80 @@
     </row>
     <row r="14" spans="1:1024" s="16" customFormat="1" ht="115" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H14" s="8">
         <v>2002</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="L14" s="13">
         <v>7222</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R14" s="15" t="s">
-        <v>765</v>
+        <v>728</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>234</v>
+        <v>741</v>
       </c>
       <c r="W14" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X14" s="10" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="Z14" s="10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="AA14" s="40"/>
       <c r="AB14" s="2"/>
@@ -5421,77 +5542,77 @@
     </row>
     <row r="15" spans="1:1024" s="2" customFormat="1" ht="130" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H15" s="8">
         <v>2003</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S15" s="5"/>
       <c r="T15" s="2" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>249</v>
+        <v>742</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="Z15" s="4"/>
       <c r="AA15" s="40"/>
@@ -5506,78 +5627,78 @@
     </row>
     <row r="16" spans="1:1024" s="14" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H16" s="8">
         <v>1998</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="S16" s="2"/>
       <c r="T16" s="2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>266</v>
+        <v>743</v>
       </c>
       <c r="W16" s="4" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="X16" s="4"/>
       <c r="Y16" s="3" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="Z16" s="10" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="AA16" s="40"/>
       <c r="AB16" s="5"/>
@@ -5591,77 +5712,77 @@
     </row>
     <row r="17" spans="1:1024" s="14" customFormat="1" ht="184" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H17" s="8">
         <v>2002</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="W17" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="Z17" s="4"/>
       <c r="AA17" s="40"/>
@@ -5676,81 +5797,81 @@
     </row>
     <row r="18" spans="1:1024" s="14" customFormat="1" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>299</v>
+        <v>744</v>
       </c>
       <c r="W18" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X18" s="10"/>
       <c r="Y18" s="3" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="AA18" s="40" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
@@ -5763,80 +5884,80 @@
     </row>
     <row r="19" spans="1:1024" s="14" customFormat="1" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H19" s="8">
         <v>2005</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>316</v>
+        <v>745</v>
       </c>
       <c r="W19" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="X19" s="10"/>
       <c r="Y19" s="3" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="Z19" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AA19" s="40"/>
       <c r="AB19" s="2"/>
@@ -5850,80 +5971,80 @@
     </row>
     <row r="20" spans="1:1024" s="14" customFormat="1" ht="190" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H20" s="8">
         <v>2005</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>324</v>
+        <v>746</v>
       </c>
       <c r="W20" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="X20" s="4"/>
       <c r="Y20" s="3" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="Z20" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AA20" s="40"/>
       <c r="AB20" s="5"/>
@@ -5937,80 +6058,80 @@
     </row>
     <row r="21" spans="1:1024" s="14" customFormat="1" ht="233" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H21" s="8">
         <v>2005</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>324</v>
+        <v>747</v>
       </c>
       <c r="W21" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X21" s="10"/>
       <c r="Y21" s="3" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="Z21" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AA21" s="40"/>
       <c r="AB21" s="2"/>
@@ -6024,80 +6145,80 @@
     </row>
     <row r="22" spans="1:1024" s="6" customFormat="1" ht="199" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="S22" s="2"/>
       <c r="T22" s="2" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>348</v>
+        <v>748</v>
       </c>
       <c r="W22" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z22" s="10" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="AA22" s="40"/>
       <c r="AB22" s="5"/>
@@ -6111,80 +6232,80 @@
     </row>
     <row r="23" spans="1:1024" s="6" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="2" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>364</v>
+        <v>749</v>
       </c>
       <c r="W23" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X23" s="10" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="Y23" s="3" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="Z23" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AA23" s="40"/>
       <c r="AB23" s="2"/>
@@ -6198,80 +6319,80 @@
     </row>
     <row r="24" spans="1:1024" s="6" customFormat="1" ht="187" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="H24" s="8">
         <v>2007</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="K24" s="13">
         <v>2000</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="O24" s="8">
         <v>1993</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="Q24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R24" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24" s="2" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="W24" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X24" s="10" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="Y24" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="Z24" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA24" s="40"/>
       <c r="AB24" s="2"/>
@@ -6285,34 +6406,34 @@
     </row>
     <row r="25" spans="1:1024" s="6" customFormat="1" ht="216" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H25" s="8">
         <v>2003</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="K25" s="13">
         <v>10272</v>
@@ -6321,44 +6442,44 @@
         <v>8093</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="2" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="W25" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="Y25" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="Z25" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AA25" s="40"/>
       <c r="AB25" s="5"/>
@@ -6372,82 +6493,82 @@
     </row>
     <row r="26" spans="1:1024" s="6" customFormat="1" ht="228" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="H26" s="8">
         <v>1932</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="O26" s="8">
         <v>1921</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>406</v>
+        <v>750</v>
       </c>
       <c r="W26" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="X26" s="10" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="Z26" s="10" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="AA26" s="40"/>
       <c r="AB26" s="2"/>
@@ -6461,82 +6582,82 @@
     </row>
     <row r="27" spans="1:1024" s="6" customFormat="1" ht="202" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="H27" s="8">
         <v>1947</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="O27" s="8">
         <v>1936</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>417</v>
+        <v>751</v>
       </c>
       <c r="W27" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="X27" s="10" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Y27" s="3" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="Z27" s="10" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="AA27" s="40"/>
       <c r="AB27" s="2"/>
@@ -6550,80 +6671,80 @@
     </row>
     <row r="28" spans="1:1024" s="6" customFormat="1" ht="215" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H28" s="8">
         <v>2004</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="K28" s="13">
         <v>15770</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>766</v>
+        <v>729</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>430</v>
+        <v>752</v>
       </c>
       <c r="W28" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X28" s="10"/>
       <c r="Y28" s="3" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="Z28" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AA28" s="40"/>
       <c r="AB28" s="2"/>
@@ -6637,85 +6758,85 @@
     </row>
     <row r="29" spans="1:1024" s="6" customFormat="1" ht="221" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H29" s="8">
         <v>2000</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="O29" s="8">
         <v>2000</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>441</v>
+        <v>753</v>
       </c>
       <c r="W29" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="X29" s="10" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="Y29" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="Z29" s="10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="AA29" s="41" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="AB29" s="12"/>
       <c r="AC29" s="12"/>
@@ -6728,74 +6849,74 @@
     </row>
     <row r="30" spans="1:1024" s="2" customFormat="1" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H30" s="8">
         <v>1999</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>457</v>
+        <v>754</v>
       </c>
       <c r="W30" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X30" s="4"/>
       <c r="Y30" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Z30" s="4"/>
       <c r="AA30" s="40"/>
@@ -6810,77 +6931,77 @@
     </row>
     <row r="31" spans="1:1024" s="6" customFormat="1" ht="152" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H31" s="8">
         <v>1996</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="K31" s="13">
         <v>1319475</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="Q31" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="S31" s="2"/>
       <c r="T31" s="2" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>471</v>
+        <v>755</v>
       </c>
       <c r="W31" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X31" s="10" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Y31" s="3" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="Z31" s="10"/>
       <c r="AA31" s="39"/>
@@ -6895,79 +7016,79 @@
     </row>
     <row r="32" spans="1:1024" s="2" customFormat="1" ht="294" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="H32" s="17">
         <v>2006</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="O32" s="8">
         <v>1921</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>484</v>
+        <v>756</v>
       </c>
       <c r="W32" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X32" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Y32" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z32" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="AA32" s="40"/>
       <c r="AB32" s="5"/>
@@ -6979,82 +7100,82 @@
       <c r="AH32" s="5"/>
       <c r="AMJ32"/>
     </row>
-    <row r="33" spans="1:1024" s="6" customFormat="1" ht="247" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1024" s="6" customFormat="1" ht="284" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>487</v>
+        <v>462</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>488</v>
+        <v>463</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H33" s="8">
         <v>1958</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>491</v>
+        <v>466</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8">
         <v>1958</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>495</v>
+        <v>470</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>496</v>
+        <v>757</v>
       </c>
       <c r="W33" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="X33" s="10"/>
       <c r="Y33" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Z33" s="10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="AA33" s="40"/>
       <c r="AB33" s="2"/>
@@ -7066,84 +7187,84 @@
       <c r="AH33" s="2"/>
       <c r="AMJ33"/>
     </row>
-    <row r="34" spans="1:1024" s="6" customFormat="1" ht="208" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1024" s="6" customFormat="1" ht="234" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>499</v>
+        <v>473</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>500</v>
+        <v>474</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>501</v>
+        <v>475</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>502</v>
+        <v>476</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H34" s="8">
         <v>2014</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>503</v>
+        <v>477</v>
       </c>
       <c r="K34" s="13">
         <v>8504</v>
       </c>
       <c r="L34" s="13" t="s">
-        <v>504</v>
+        <v>478</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>505</v>
+        <v>479</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>506</v>
+        <v>480</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>507</v>
+        <v>481</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>508</v>
+        <v>482</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>509</v>
+        <v>483</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>510</v>
+        <v>484</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>511</v>
+        <v>485</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>512</v>
+        <v>758</v>
       </c>
       <c r="W34" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X34" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Y34" s="3" t="s">
-        <v>513</v>
+        <v>486</v>
       </c>
       <c r="Z34" s="10" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="AA34" s="40"/>
       <c r="AB34" s="5"/>
@@ -7155,84 +7276,84 @@
       <c r="AH34" s="5"/>
       <c r="AMJ34"/>
     </row>
-    <row r="35" spans="1:1024" s="6" customFormat="1" ht="272" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1024" s="6" customFormat="1" ht="308" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
-        <v>514</v>
+        <v>487</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>515</v>
+        <v>488</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>516</v>
+        <v>489</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>517</v>
+        <v>490</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>518</v>
+        <v>491</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H35" s="8">
         <v>1946</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>519</v>
+        <v>492</v>
       </c>
       <c r="K35" s="13">
         <v>5362</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>520</v>
+        <v>493</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8">
         <v>1946</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>521</v>
+        <v>494</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>522</v>
+        <v>495</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>523</v>
+        <v>496</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>524</v>
+        <v>759</v>
       </c>
       <c r="W35" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="X35" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Y35" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Z35" s="10" t="s">
-        <v>525</v>
+        <v>497</v>
       </c>
       <c r="AA35" s="40"/>
       <c r="AB35" s="5"/>
@@ -7244,36 +7365,36 @@
       <c r="AH35" s="5"/>
       <c r="AMJ35"/>
     </row>
-    <row r="36" spans="1:1024" ht="169" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1024" ht="208" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>526</v>
+        <v>498</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>527</v>
+        <v>499</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>528</v>
+        <v>500</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>529</v>
+        <v>501</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>530</v>
+        <v>502</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H36" s="8">
         <v>2014</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>531</v>
+        <v>503</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>532</v>
+        <v>504</v>
       </c>
       <c r="K36" s="13">
         <v>14000</v>
@@ -7282,120 +7403,120 @@
         <v>25000</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N36" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="O36" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="O36" s="2" t="s">
-        <v>533</v>
-      </c>
       <c r="P36" s="2" t="s">
-        <v>534</v>
+        <v>506</v>
       </c>
       <c r="Q36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R36" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R36" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="T36" s="2" t="s">
-        <v>535</v>
+        <v>507</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>536</v>
+        <v>508</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>537</v>
+        <v>760</v>
       </c>
       <c r="W36" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X36" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Y36" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="Z36" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="37" spans="1:1024" ht="208" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1024" ht="221" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>538</v>
+        <v>509</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>539</v>
+        <v>510</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>540</v>
+        <v>511</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>541</v>
+        <v>512</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>542</v>
+        <v>513</v>
       </c>
       <c r="H37" s="8">
         <v>2015</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>543</v>
+        <v>514</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>545</v>
+        <v>516</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>546</v>
+        <v>517</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>547</v>
+        <v>518</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>548</v>
+        <v>519</v>
       </c>
       <c r="Q37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R37" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R37" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="T37" s="2" t="s">
-        <v>549</v>
+        <v>520</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>550</v>
+        <v>521</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>551</v>
+        <v>761</v>
       </c>
       <c r="W37" s="10" t="s">
-        <v>552</v>
+        <v>522</v>
       </c>
       <c r="X37" s="10" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="Y37" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z37" s="10" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
@@ -7407,231 +7528,231 @@
     </row>
     <row r="38" spans="1:1024" ht="169" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
-        <v>553</v>
+        <v>523</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>554</v>
+        <v>524</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>555</v>
+        <v>525</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>556</v>
+        <v>526</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>557</v>
+        <v>527</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>558</v>
+        <v>528</v>
       </c>
       <c r="H38" s="8">
         <v>2006</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>559</v>
+        <v>529</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>561</v>
+        <v>531</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>562</v>
+        <v>532</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>563</v>
+        <v>533</v>
       </c>
       <c r="Q38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R38" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="S38" s="5"/>
       <c r="T38" s="2" t="s">
-        <v>564</v>
+        <v>534</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>565</v>
+        <v>535</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>566</v>
+        <v>536</v>
       </c>
       <c r="W38" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y38" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z38" s="10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:1024" ht="332" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>567</v>
+        <v>537</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>568</v>
+        <v>538</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>569</v>
+        <v>539</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>571</v>
+        <v>541</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>572</v>
+        <v>542</v>
       </c>
       <c r="H39" s="8">
         <v>1988</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>573</v>
+        <v>543</v>
       </c>
       <c r="K39" s="13">
         <v>4858</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>574</v>
+        <v>544</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>576</v>
+        <v>546</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>577</v>
+        <v>547</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>578</v>
+        <v>548</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>579</v>
+        <v>549</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>580</v>
+        <v>762</v>
       </c>
       <c r="W39" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X39" s="10" t="s">
-        <v>581</v>
+        <v>550</v>
       </c>
       <c r="Y39" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z39" s="10" t="s">
-        <v>525</v>
+        <v>497</v>
       </c>
     </row>
-    <row r="40" spans="1:1024" ht="143" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1024" ht="182" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>582</v>
+        <v>551</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>583</v>
+        <v>552</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>584</v>
+        <v>553</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>542</v>
+        <v>513</v>
       </c>
       <c r="H40" s="8">
         <v>2008</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>586</v>
+        <v>555</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>587</v>
+        <v>556</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>588</v>
+        <v>557</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>589</v>
+        <v>558</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>590</v>
+        <v>559</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>591</v>
+        <v>560</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>592</v>
+        <v>561</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>593</v>
+        <v>763</v>
       </c>
       <c r="W40" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X40" s="10" t="s">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="Y40" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z40" s="10" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
@@ -7643,310 +7764,310 @@
     </row>
     <row r="41" spans="1:1024" ht="247" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
-        <v>595</v>
+        <v>563</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>596</v>
+        <v>564</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>597</v>
+        <v>565</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>598</v>
+        <v>566</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>599</v>
+        <v>567</v>
       </c>
       <c r="H41" s="8">
         <v>1998</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>600</v>
+        <v>568</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>601</v>
+        <v>569</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>602</v>
+        <v>570</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>603</v>
+        <v>571</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>604</v>
+        <v>572</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>605</v>
+        <v>573</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="S41" s="5"/>
       <c r="T41" s="2" t="s">
-        <v>606</v>
+        <v>574</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>607</v>
+        <v>575</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>608</v>
+        <v>764</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y41" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z41" s="10" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:1024" ht="247" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1024" ht="234" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
-        <v>609</v>
+        <v>576</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>610</v>
+        <v>577</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>611</v>
+        <v>578</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>612</v>
+        <v>579</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H42" s="8">
         <v>1994</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>613</v>
+        <v>580</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>614</v>
+        <v>581</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>616</v>
+        <v>583</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>617</v>
+        <v>584</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>738</v>
+        <v>701</v>
       </c>
       <c r="S42" s="5"/>
       <c r="T42" s="2" t="s">
-        <v>618</v>
+        <v>585</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>619</v>
+        <v>586</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>620</v>
+        <v>587</v>
       </c>
       <c r="W42" s="4" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="Y42" s="3" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="Z42" s="10" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:1024" ht="234" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>622</v>
+        <v>589</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>623</v>
+        <v>590</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>624</v>
+        <v>591</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>625</v>
+        <v>592</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H43" s="8">
         <v>1992</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>626</v>
+        <v>593</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>627</v>
+        <v>594</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>628</v>
+        <v>595</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>629</v>
+        <v>596</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>630</v>
+        <v>597</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>631</v>
+        <v>598</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="S43" s="5"/>
       <c r="T43" s="2" t="s">
-        <v>632</v>
+        <v>599</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>633</v>
+        <v>600</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>634</v>
+        <v>601</v>
       </c>
       <c r="W43" s="4" t="s">
-        <v>635</v>
+        <v>602</v>
       </c>
       <c r="Y43" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="Z43" s="10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AA43" s="40" t="s">
-        <v>636</v>
+        <v>603</v>
       </c>
     </row>
     <row r="44" spans="1:1024" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>637</v>
+        <v>604</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>638</v>
+        <v>605</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>639</v>
+        <v>606</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>640</v>
+        <v>607</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>641</v>
+        <v>608</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>642</v>
+        <v>609</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>643</v>
+        <v>610</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>644</v>
+        <v>611</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>645</v>
+        <v>612</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>646</v>
+        <v>613</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>647</v>
+        <v>614</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>648</v>
+        <v>615</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>767</v>
+        <v>730</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>649</v>
+        <v>616</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>650</v>
+        <v>617</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>651</v>
+        <v>618</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>652</v>
+        <v>765</v>
       </c>
       <c r="W44" s="10" t="s">
-        <v>653</v>
+        <v>619</v>
       </c>
       <c r="X44" s="10" t="s">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="Y44" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="Z44" s="10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
@@ -7958,262 +8079,262 @@
     </row>
     <row r="45" spans="1:1024" ht="308" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
-        <v>654</v>
+        <v>620</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>655</v>
+        <v>621</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>656</v>
+        <v>622</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>657</v>
+        <v>623</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>658</v>
+        <v>624</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>659</v>
+        <v>625</v>
       </c>
       <c r="H45" s="8">
         <v>2007</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>660</v>
+        <v>626</v>
       </c>
       <c r="K45" s="13" t="s">
-        <v>661</v>
+        <v>627</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>662</v>
+        <v>628</v>
       </c>
       <c r="O45" s="8" t="s">
-        <v>663</v>
+        <v>629</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>664</v>
+        <v>630</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>665</v>
+        <v>631</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>666</v>
+        <v>632</v>
       </c>
       <c r="W45" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y45" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z45" s="10" t="s">
-        <v>667</v>
+        <v>633</v>
       </c>
     </row>
-    <row r="46" spans="1:1024" ht="208" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1024" ht="247" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>668</v>
+        <v>634</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>669</v>
+        <v>635</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>670</v>
+        <v>636</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>671</v>
+        <v>637</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>672</v>
+        <v>638</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H46" s="8">
         <v>1985</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>673</v>
+        <v>639</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>674</v>
+        <v>640</v>
       </c>
       <c r="K46" s="13">
         <v>10308</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>675</v>
+        <v>641</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>676</v>
+        <v>642</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>677</v>
+        <v>643</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>678</v>
+        <v>644</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>740</v>
+        <v>703</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>679</v>
+        <v>645</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>680</v>
+        <v>646</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>681</v>
+        <v>647</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>682</v>
+        <v>766</v>
       </c>
       <c r="W46" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X46" s="4" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="Y46" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z46" s="10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:1024" ht="272" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>683</v>
+        <v>648</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>684</v>
+        <v>649</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>685</v>
+        <v>650</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>686</v>
+        <v>651</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>687</v>
+        <v>652</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>688</v>
+        <v>653</v>
       </c>
       <c r="H47" s="8">
         <v>1986</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>552</v>
+        <v>522</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>689</v>
+        <v>654</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>690</v>
+        <v>655</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>691</v>
+        <v>656</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>692</v>
+        <v>657</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>693</v>
+        <v>658</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>694</v>
+        <v>659</v>
       </c>
       <c r="Q47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R47" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R47" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="T47" s="2" t="s">
-        <v>695</v>
+        <v>660</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>696</v>
+        <v>767</v>
       </c>
       <c r="W47" s="4" t="s">
-        <v>552</v>
+        <v>522</v>
       </c>
       <c r="Y47" s="3" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="Z47" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:1024" ht="182" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>697</v>
+        <v>661</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>698</v>
+        <v>662</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>699</v>
+        <v>663</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>700</v>
+        <v>664</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>701</v>
+        <v>665</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>702</v>
+        <v>666</v>
       </c>
       <c r="H48" s="2">
         <v>2014</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>703</v>
+        <v>667</v>
       </c>
       <c r="K48" s="9">
         <v>6616</v>
@@ -8222,346 +8343,346 @@
         <v>648</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>704</v>
+        <v>668</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>705</v>
+        <v>669</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>706</v>
+        <v>670</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>757</v>
+        <v>720</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>751</v>
+        <v>714</v>
       </c>
       <c r="U48" s="42" t="s">
-        <v>707</v>
+        <v>671</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>708</v>
+        <v>672</v>
       </c>
       <c r="W48" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y48" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z48" s="10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:26" ht="156" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>709</v>
+        <v>673</v>
       </c>
       <c r="B49" s="32" t="s">
-        <v>710</v>
+        <v>674</v>
       </c>
       <c r="C49" s="35" t="s">
-        <v>711</v>
+        <v>675</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>700</v>
+        <v>664</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>712</v>
+        <v>676</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H49" s="2">
         <v>2004</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>713</v>
+        <v>677</v>
       </c>
       <c r="K49" s="9">
         <v>53000</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>761</v>
+        <v>724</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>714</v>
+        <v>678</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P49" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R49" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="T49" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="Q49" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R49" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="T49" s="2" t="s">
-        <v>752</v>
-      </c>
       <c r="U49" s="42" t="s">
-        <v>762</v>
+        <v>725</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>716</v>
+        <v>680</v>
       </c>
       <c r="W49" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X49" s="4" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="Y49" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Z49" s="10" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:26" ht="345" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>717</v>
+        <v>681</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>718</v>
+        <v>682</v>
       </c>
       <c r="C50" s="35" t="s">
-        <v>719</v>
+        <v>683</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>720</v>
+        <v>684</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>721</v>
+        <v>685</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H50" s="2">
         <v>1990</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>722</v>
+        <v>686</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>763</v>
+        <v>726</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>723</v>
+        <v>687</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>724</v>
+        <v>688</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T50" s="8" t="s">
-        <v>753</v>
+        <v>716</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>725</v>
+        <v>768</v>
       </c>
       <c r="W50" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X50" s="4" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="Y50" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51" spans="1:26" ht="272" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>726</v>
+        <v>689</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>726</v>
+        <v>689</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>728</v>
+        <v>691</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>729</v>
+        <v>692</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>730</v>
+        <v>693</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H51" s="2">
         <v>2008</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="J51" s="21" t="s">
-        <v>731</v>
+        <v>694</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>732</v>
+        <v>695</v>
       </c>
       <c r="L51" s="20" t="s">
-        <v>734</v>
+        <v>697</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>733</v>
+        <v>696</v>
       </c>
       <c r="O51" s="2">
         <v>2007</v>
       </c>
       <c r="P51" s="20" t="s">
-        <v>735</v>
+        <v>698</v>
       </c>
       <c r="Q51" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R51" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="R51" s="20" t="s">
-        <v>43</v>
-      </c>
       <c r="T51" s="2" t="s">
-        <v>754</v>
+        <v>717</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>736</v>
+        <v>699</v>
       </c>
       <c r="W51" s="4" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="Y51" s="3" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="Z51" s="22" t="s">
-        <v>737</v>
+        <v>700</v>
       </c>
     </row>
     <row r="52" spans="1:26" ht="155" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>741</v>
+        <v>704</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>741</v>
+        <v>704</v>
       </c>
       <c r="C52" s="35" t="s">
-        <v>742</v>
+        <v>705</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>743</v>
+        <v>706</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>756</v>
+        <v>719</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>744</v>
+        <v>707</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H52" s="2">
         <v>2015</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>745</v>
+        <v>708</v>
       </c>
       <c r="J52" s="37" t="s">
-        <v>746</v>
+        <v>709</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>760</v>
+        <v>723</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>747</v>
+        <v>710</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>748</v>
+        <v>711</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>749</v>
+        <v>712</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>759</v>
+        <v>722</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>755</v>
+        <v>718</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>758</v>
+        <v>721</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>750</v>
+        <v>713</v>
       </c>
       <c r="W52" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X52" s="4" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="Y52" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="32"/>
       <c r="J53" s="19" t="s">
-        <v>727</v>
+        <v>690</v>
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.2">

--- a/xlsx/studies.xlsx
+++ b/xlsx/studies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emckclac-my.sharepoint.com/personal/k1780970_kcl_ac_uk/Documents/1. Catalogue + work documents/1. Catalogue shared files/1. Catalogue/2. Catalogue study updates/Resource folders/cmhm_18Feb2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emckclac-my.sharepoint.com/personal/k1780970_kcl_ac_uk/Documents/1. Catalogue + work documents/1. Catalogue shared files/1. Catalogue/2. Catalogue study updates/Resource folders/cmhm_20May22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{0BBEB508-D442-2344-A8EB-A5F35EEE28E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E835179-B213-C944-9E60-D4AD04384F8B}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{6F82A259-41A7-4DF6-B3CE-4CB00C898517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E966E06E-B4EC-46DB-8948-BF3F1E250123}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study details" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="798">
   <si>
     <t>Code</t>
   </si>
@@ -88,6 +89,9 @@
   </si>
   <si>
     <t>Genetic data collected</t>
+  </si>
+  <si>
+    <t>Linked data</t>
   </si>
   <si>
     <t>Notes</t>
@@ -240,12 +244,21 @@
     <t>~3,400 (cohort members) (Life at 27+)</t>
   </si>
   <si>
+    <t>Birth</t>
+  </si>
+  <si>
     <t>April 1991 - December 1992</t>
   </si>
   <si>
     <t xml:space="preserve">Contact study team - Proposal
 &lt;a href="http://www.bristol.ac.uk/alspac/researchers/access/"&gt;http://www.bristol.ac.uk/alspac/researchers/access/&lt;/a&gt;
 </t>
+  </si>
+  <si>
+    <t>Education data,
+Environmental data,
+Health data,
+Social media data</t>
   </si>
   <si>
     <t>Also known as Children of the 90s (CO90s).</t>
@@ -264,6 +277,33 @@
     <t>MRC Wellcome BristolUni</t>
   </si>
   <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Diet and nutrition,
+Education,
+Ethnicity and race,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Political and social attitudes,
+Digital technology and social media,
+Victimisation and life events,
+Puberty,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems, 
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
     <t>Linked administrative data,
 Genetic/genomic data,
 Mapping/spatial data,
@@ -332,6 +372,25 @@
   </si>
   <si>
     <t>DoHSC NHSdigital</t>
+  </si>
+  <si>
+    <t>Cognitive measures,
+Ethnicity and race,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Migration and immigration,
+Neighbourhood,
+Physical health assessment,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
   </si>
   <si>
     <t>England, Scotland, Wales, National</t>
@@ -410,6 +469,20 @@
     <t>DoHSC NHSdigital Scot Welsh</t>
   </si>
   <si>
+    <t>Education,
+Housing,
+Socioeconomic status and deprivation,
+Loneliness and social isolation,
+Physical health assessment,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
     <t>Vulnerable groups</t>
   </si>
   <si>
@@ -440,10 +513,11 @@
     <t>9,841 (BCS 2012)</t>
   </si>
   <si>
-    <t>Birth</t>
-  </si>
-  <si>
     <t xml:space="preserve">UK Data Service &lt;br&gt; &lt;a href="https://cls.ucl.ac.uk/data-access-training/access-ukds/"&gt;https://cls.ucl.ac.uk/data-access-training/access-ukds/&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t>Health data,
+Income/tax and benefits</t>
   </si>
   <si>
     <t>Previously known as the British Births Survey</t>
@@ -455,6 +529,31 @@
   <si>
     <t>ESRC RCOG&lt;br&gt;
 National Birthday Trust Fund</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Diet and nutrition,
+Education,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Migration and immigration,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Political and social attitudes,
+Victimisation and life events,
+Puberty,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
   </si>
   <si>
     <t>Linked administrative data,
@@ -516,6 +615,27 @@
     <t>NIHR</t>
   </si>
   <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Diet and nutrition,
+Education,
+Ethnicity and race,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Migration and immigration,
+Neighbourhood,
+Physical health assessment,
+Digital technology and social media,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - need</t>
+  </si>
+  <si>
     <t>Ethnicity and race</t>
   </si>
   <si>
@@ -554,6 +674,21 @@
   </si>
   <si>
     <t>BLF</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Diet and nutrition,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Migration and immigration,
+Neighbourhood,
+Physical health assessment,
+Work and employment,
+Parenting and family,
+Social care - receipt,
+Social care - need</t>
   </si>
   <si>
     <t>Linked administrative data,
@@ -680,6 +815,22 @@
     <t>MRC AlzhSoc</t>
   </si>
   <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Cognitive decline,
+Diet and nutrition,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Physical health assessment,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
     <t>Genetic/genomic data</t>
   </si>
   <si>
@@ -717,6 +868,21 @@
   </si>
   <si>
     <t>MRC DoHSC</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Cognitive decline,
+Diet and nutrition,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Physical health assessment,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - need</t>
   </si>
   <si>
     <t>England, Wales, Local area</t>
@@ -807,6 +973,19 @@
 &lt;a href="https://doi.org/10.1093/ije/dym094"&gt;doi.org/10.1093/ije/dym094&lt;/a&gt; </t>
   </si>
   <si>
+    <t>Diet and nutrition,
+Ethnicity and race, 
+Housing,
+Loneliness and social isolation,
+Migration and immigration,
+Neighbourhood,
+Physical health assessment,
+Victimisation and life events,
+Work and employment,
+Parenting and family,
+Social care - need</t>
+  </si>
+  <si>
     <t>ELSA</t>
   </si>
   <si>
@@ -835,6 +1014,11 @@
   </si>
   <si>
     <t xml:space="preserve">UK Data Service &lt;br&gt; &lt;a href="https://www.elsa-project.ac.uk/accessing-elsa-data"&gt;https://www.elsa-project.ac.uk/accessing-elsa-data&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t>Environmental data,
+Health data,
+Income/tax and benefits</t>
   </si>
   <si>
     <t xml:space="preserve">Steptoe A, Breeze E, Banks J &amp; Nazroo J (2013). Cohort profile: the English longitudinal study of ageing. &lt;i&gt;International Journal of Epidemiology&lt;/i&gt;, 42, 1640–1648.&lt;br&gt;
@@ -842,6 +1026,33 @@
   </si>
   <si>
     <t>NIA DfT DoHSC DfWP</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Cognitive decline,
+Diet and nutrition,
+Digital technology and social media,
+Education,
+Ethnicity and race,
+Housing,
+Language and literacy,
+Loneliness and social isolation,
+Personality,
+Migration and immigration,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Reproductive health,
+Sexuality and gender identity,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need,
+Socioeconomic status and deprivation,
+Victimisation and life events,
+Work and employment</t>
   </si>
   <si>
     <t>England, National</t>
@@ -894,6 +1105,18 @@
 Eurofound is an agency of the European Union</t>
   </si>
   <si>
+    <t>Housing,
+Socioeconomic status and deprivation,
+Loneliness and social isolation,
+Neighbourhood,
+Political and social attitudes,
+Digital technology and social media,
+Work and employment,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
     <t>European cross-national sample</t>
   </si>
   <si>
@@ -945,6 +1168,29 @@
   </si>
   <si>
     <t>MRC NIH_NICHD Jacobs NSPCC BBSRC Avielle AsthmaUSA MQ Nuffield</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Diet and nutrition,
+Education,
+Ethnicity and race,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Digital technology and social media,
+Victimisation and life events,
+Puberty,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt</t>
   </si>
   <si>
     <t>Twin study, Birth cohort</t>
@@ -1059,6 +1305,29 @@
     <t>Scot SFC</t>
   </si>
   <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Diet and nutrition,
+Ethnicity and race,
+Housing,
+Language and literacy,
+Loneliness and social isolation,
+Migration and immigration,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Puberty,
+Reproductive health,
+Sexuality and gender identity,
+Sleep problems,
+Social care - receipt,
+Social care - need,
+Socioeconomic status and deprivation,
+Victimisation and life events,
+Work and employment</t>
+  </si>
+  <si>
     <t>Scotland, National</t>
   </si>
   <si>
@@ -1112,6 +1381,29 @@
     <t>Scot</t>
   </si>
   <si>
+    <t>Cognitive measures,
+Diet and nutrition,
+Education,
+Ethnicity and race,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Neighbourhood,
+Physical health assessment,
+Political and social attitudes,
+Digital technology and social media,
+Victimisation and life events,
+Puberty,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - need</t>
+  </si>
+  <si>
     <t>GUSBC2</t>
   </si>
   <si>
@@ -1134,6 +1426,25 @@
     <t>2010-11</t>
   </si>
   <si>
+    <t>Cognitive measures,
+Diet and nutrition,
+Education,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Neighbourhood,
+Physical health assessment,
+Digital technology and social media,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
     <t>GUSCC1</t>
   </si>
   <si>
@@ -1159,6 +1470,24 @@
     <t>2002-3</t>
   </si>
   <si>
+    <t>Cognitive measures,
+Diet and nutrition,
+Education,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Neighbourhood,
+Physical health assessment,
+Digital technology and social media,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - need</t>
+  </si>
+  <si>
     <t>HCS</t>
   </si>
   <si>
@@ -1209,6 +1538,26 @@
     <t>MRC BHF ARUK ROS Wellcome SOTON</t>
   </si>
   <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Cognitive decline,
+Diet and nutrition,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Digital technology and social media,
+Reproductive health,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - need</t>
+  </si>
+  <si>
     <t>HEAF</t>
   </si>
   <si>
@@ -1253,6 +1602,16 @@
   </si>
   <si>
     <t>ESRC MRC ARUK</t>
+  </si>
+  <si>
+    <t>Diet and nutrition,
+Housing,
+Socioeconomic status and deprivation,
+Physical health assessment,
+Work and employment,
+Sleep problems,
+Social care - provision,
+Social care - need</t>
   </si>
   <si>
     <t>Ageing cohort, Occupational cohort</t>
@@ -1348,14 +1707,15 @@
     <t>Covid-19 data collection,
 Biomarkers,
 Cognitive measures,
-Socioeconomic status and deprivation,
+Diet and nutrition,
+Digital technology and social media,
 Language and literacy,
 Loneliness and social isolation,
 Personality,
-Digital technology and social media,
-Victimisation and life events,
 Puberty,
-Sleep problems</t>
+Sleep problems,
+Socioeconomic status and deprivation,
+Victimisation and life events</t>
   </si>
   <si>
     <t>KCLMilitary</t>
@@ -1488,6 +1848,21 @@
     <t>BBSRC Scot MRC</t>
   </si>
   <si>
+    <t>Biomarkers,
+Cognitive measures,
+Cognitive decline,
+Education,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Neighbourhood,
+Physical health assessment,
+Work and employment,
+Social care - receipt,
+Social care - need</t>
+  </si>
+  <si>
     <t>Scotland, Local area</t>
   </si>
   <si>
@@ -1522,6 +1897,25 @@
     <t>AgeUK MRC ASDRC BBSRC Wellcome Edin UQ NIH</t>
   </si>
   <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Cognitive decline,
+Diet and nutrition,
+Education,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Neighbourhood,
+Physical health assessment,
+Reproductive health,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - need</t>
+  </si>
+  <si>
     <t>LSYPE</t>
   </si>
   <si>
@@ -1547,7 +1941,8 @@
     <t>1989-90</t>
   </si>
   <si>
-    <t>Education data</t>
+    <t>Education data,
+Income/tax and benefits</t>
   </si>
   <si>
     <t>Previously known as Longitudinal Survey of Young People in England (LSYPE)</t>
@@ -1557,6 +1952,28 @@
   </si>
   <si>
     <t>ESRC DfE</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Cognitive measures,
+Diet and nutrition,
+Education,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Loneliness and social isolation,
+Neighbourhood,
+Personality,
+Political and social attitudes,
+Digital technology and social media,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
   </si>
   <si>
     <t>MCS</t>
@@ -1580,6 +1997,9 @@
   </si>
   <si>
     <t>11,726 children (MCS6)</t>
+  </si>
+  <si>
+    <t>Education data</t>
   </si>
   <si>
     <t>Also known as Child of the New Century</t>
@@ -1597,6 +2017,33 @@
 International Centre for Child Studies</t>
   </si>
   <si>
+    <t>Covid-19 data collection,
+Cognitive measures,
+Diet and nutrition,
+Education,
+Ethnicity and race,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Migration and immigration,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Political and social attitudes,
+Digital technology and social media,
+Victimisation and life events,
+Puberty,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
     <t>&lt;a href="https://web.www.healthdatagateway.org/dataset/2b09ea87-5b22-4049-b7dd-de0889699115"&gt;https://web.www.healthdatagateway.org/dataset/2b09ea87-5b22-4049-b7dd-de0889699115&lt;/a&gt;</t>
   </si>
   <si>
@@ -1645,6 +2092,18 @@
     <t>NHSdigital DoHSC</t>
   </si>
   <si>
+    <t>Education,
+Housing,
+Socioeconomic status and deprivation,
+Loneliness and social isolation,
+Victimisation and life events,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
     <t>MWS</t>
   </si>
   <si>
@@ -1688,6 +2147,20 @@
     <t>MRC CRUK</t>
   </si>
   <si>
+    <t>Diet and nutrition,
+Housing,
+Socioeconomic status and deprivation,
+Loneliness and social isolation,
+Physical health assessment,
+Digital technology and social media,
+Reproductive health,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
     <t>N85</t>
   </si>
   <si>
@@ -1727,6 +2200,20 @@
     <t xml:space="preserve">MRC BBSRC Dunhill NIHR </t>
   </si>
   <si>
+    <t>Biomarkers,
+Cognitive measures,
+Cognitive decline,
+Diet and nutrition,
+Housing,
+Socioeconomic status and deprivation,
+Loneliness and social isolation,
+Physical health assessment,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - need</t>
+  </si>
+  <si>
     <t>NCDS</t>
   </si>
   <si>
@@ -1762,6 +2249,30 @@
   <si>
     <t>ESRC MRC NIH DfWP Wellcome&lt;br&gt;
 National Birthday Trust Fund</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Diet and nutrition,
+Education,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Migration and immigration,
+Personality,
+Physical health assessment,
+Political and social attitudes,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
   </si>
   <si>
     <t>NICOLA</t>
@@ -1884,6 +2395,26 @@
     </r>
   </si>
   <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Cognitive decline,
+Diet and nutrition,
+Socioeconomic status and deprivation,
+Loneliness and social isolation,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Digital technology and social media,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
     <t>Northern Ireland, National</t>
   </si>
   <si>
@@ -1921,6 +2452,32 @@
 Full list of cohort profile papers available at &lt;a href="https://www.nshd.mrc.ac.uk/about-us/cohort-profile/"&gt;nshd.mrc.ac.uk/about-us/cohort-profile&lt;/a&gt; </t>
   </si>
   <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Cognitive decline,
+Diet and nutrition,
+Education,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Migration and immigration,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Political and social attitudes,
+Digital technology and social media,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
     <t>Linked administrative data,
 Genetic/genomic data,
 Brain activity and structures</t>
@@ -1961,6 +2518,24 @@
     <t>NIHR_BRC</t>
   </si>
   <si>
+    <t>Covid-19 data collection,
+Cognitive measures,
+Diet and nutrition,
+Ethnicity and race,
+Sexuality and gender identity,
+Loneliness and social isolation,
+Neighbourhood,
+Personality,
+Digital technology and social media,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
     <t>REACH</t>
   </si>
   <si>
@@ -2001,6 +2576,25 @@
     <t>ERC</t>
   </si>
   <si>
+    <t>Covid-19 data collection,
+Cognitive measures,
+Diet and nutrition,
+Education,
+Ethnicity and race,
+Housing,
+Socioeconomic status and deprivation,
+Loneliness and social isolation,
+Migration and immigration,
+Neighbourhood,
+Personality,
+Political and social attitudes,
+Digital technology and social media,
+Victimisation and life events,
+Parenting and family,
+Sleep problems,
+Social care - need</t>
+  </si>
+  <si>
     <t>Accelerated cohort study</t>
   </si>
   <si>
@@ -2026,11 +2620,11 @@
 Using ACORN categories as a proxy measure of social and economic class, the ROOTS sample has twice as many ‘wealthy achievers’ but only half the number of ‘moderate means’ or ‘hard pressed’ families compared with UK figures (Goodyer et al. 2010).</t>
   </si>
   <si>
-    <t>1,185 adolescents
+    <t>1,185 adolescents&lt;br&gt;
 1,141 parents</t>
   </si>
   <si>
-    <t>1,074 - Age 17 fMRI sub-study
+    <t>1,074 - Age 17 fMRI sub-study&lt;br&gt;
 157 - Age 21 stress reactivity sub-study</t>
   </si>
   <si>
@@ -2116,6 +2710,23 @@
     <t>Wellcome BHF</t>
   </si>
   <si>
+    <t>Covid-19 data collection,
+Diet and nutrition,
+Ethnicity and race,
+Housing,
+Socioeconomic status and deprivation,
+Loneliness and social isolation,
+Migration and immigration,
+Physical health assessment,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
     <t>Ageing cohort,
 Ethnicity and race,</t>
   </si>
@@ -2155,6 +2766,22 @@
     <t>NIHR_BRC GSTC ESRC</t>
   </si>
   <si>
+    <t>Biomarkers,
+Diet and nutrition,
+Ethnicity and race,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Neighbourhood,
+Physical health assessment,
+Victimisation and life events,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
     <t>Ethnicity and race, 
 Migration and immigration</t>
   </si>
@@ -2178,7 +2805,7 @@
 At the end of the interview, each woman was encouraged to contact the office if she became pregnant and to provide written consent for her GP or local maternity hospital to notify the SWS team if she became pregnant. Women who become pregnant are recruited into the pregnancy phase of the SWS. By the end of May 2005, 2567 babies had been born to SWS women.</t>
   </si>
   <si>
-    <t>12,579 women (pre-pregnancy interview)
+    <t>12,579 women (pre-pregnancy interview)&lt;br&gt;
 2,567 babies</t>
   </si>
   <si>
@@ -2233,6 +2860,25 @@
     </r>
   </si>
   <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Diet and nutrition,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Neighbourhood,
+Physical health assessment,
+Digital technology and social media,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
     <t>TEDS</t>
   </si>
   <si>
@@ -2260,6 +2906,11 @@
   <si>
     <t>Data request&lt;br&gt;
 &lt;a href="https://www.teds.ac.uk/researchers/teds-data-access-policy"&gt;teds.ac.uk/researchers/teds-data-access-policy&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Education data,
+Environmental data,
+Social media data</t>
   </si>
   <si>
     <t>Haworth, CMA, Davis, OSP, Plomin, R (2013). Twins Early Development Study (TEDS): A Genetically Sensitive Investigation of Cognitive and Behavioral Development From Childhood to Young Adulthood. &lt;i&gt;Twin Research &amp; Human Genetics&lt;/i&gt;, 16, 117-125.&lt;br&gt;
@@ -2398,6 +3049,14 @@
 &lt;a href="https://www.understandingsociety.ac.uk/documentation/access-data"&gt;understandingsociety.ac.uk/documentation/access-data&lt;/a&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">Education data,
+Environmental data,
+Health data,
+Income/tax and benefits,
+Social media data
+</t>
+  </si>
+  <si>
     <t>Includes all waves of the British Household Panel Survey (BHPS). Northern Ireland included in the BHPS after 2001.</t>
   </si>
   <si>
@@ -2408,6 +3067,33 @@
   <si>
     <t>ESRC DfWP DfT DoHSC DfE DCMS DCLG DEFRA Scot Welsh ONS FSA&lt;br&gt;
 Large Facilities Capital Fund</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Diet and nutrition,
+Education,
+Ethnicity and race,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Migration and immigration,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Political and social attitudes,
+Digital technology and social media,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
   </si>
   <si>
     <t>Household panel study</t>
@@ -2529,7 +3215,7 @@
     <t>The target population for the Whitehall II study was all civil servants aged 35–55 years working in the London offices of 20 Whitehall departments in 1985–88. Members of the target population were invited to participate by letter. The achieved sample size was 10,308 people; 3413 women and 6895 men. The participants, who were from clerical and office support grades, middle-ranking executive grades, and senior administrative grades, differ widely in salary. Some have remained in the civil service. Many have retired, and others have taken employment elsewhere; some are unemployed. For more details see Marmot &amp; Brunner 2005.</t>
   </si>
   <si>
-    <t>6,318 - Phase 11 (2012-13) 
+    <t>6,318 - Phase 11 (2012-13)&lt;br&gt;
 5,632 - Phase 12 (2015-16)</t>
   </si>
   <si>
@@ -2541,253 +3227,6 @@
   <si>
     <t>Application&lt;br&gt;
 &lt;a href="https://www.ucl.ac.uk/epidemiology-health-care/research/epidemiology-and-public-health/research/whitehall-ii/data-sharing"&gt;ucl.ac.uk/epidemiology-health-care/research/epidemiology-and-public-health/research/whitehall-ii/data-sharing&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Also known as the Stress and Health Study</t>
-  </si>
-  <si>
-    <t>Marmot, M &amp; Brunner, E (2005). Cohort Profile: The Whitehall II Study. International Journal of Epidemiology, 34, 251-256.&lt;br&gt;
-&lt;a href="https://doi.org/10.1093/ije/dyh372"&gt;doi.org/10.1093/ije/dyh372&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>MRC BHF NIA ESRC EU_flag ERC&lt;br&gt;
-National Heart, Lung &amp; Blood Institute</t>
-  </si>
-  <si>
-    <t>WOS</t>
-  </si>
-  <si>
-    <t>West of Scotland Twenty-07</t>
-  </si>
-  <si>
-    <t>The West of Scotland Twenty-07 Study is a population-based multi-cohort study which has followed three cohorts of men and women in the West of Scotland across twenty years. Set up in 1986, the study was designed to investigate the differences in health by socio-economic circumstances, gender, the place where people live, age, ethnic group and family type. Through tracking three cohorts of volunteers, each born roughly twenty years apart, the study provides data at critical points in the lifespan, as participants make the transition from adolescence to working life; through the main part of working life; and from working life to retirement. Additionally, the study was designed to explore the effect of the historical context of people’s lives on their health and circumstances by comparing the different cohorts at the same age at different points in time.</t>
-  </si>
-  <si>
-    <t>MRC Social and Public Health Sciences Unit, University of Glasgow</t>
-  </si>
-  <si>
-    <t>&lt;a href="http://2007study.sphsu.mrc.ac.uk/"&gt;http://2007study.sphsu.mrc.ac.uk/&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Central Clydeside Conurbation, West of Scotland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The West of Scotland Twenty-07 Study followed three cohorts each born roughly twenty years apart, in 1932, 1952 and 1972. In the initial sweep, the cohort members were approximately 15, 35 and 55 years old. Cohort members were followed up three times, in 1990/1991, 1995, and 2000/2004, before the final sweep of data collection took place in 2007/2008, when the cohort members were approximately 35, 55 and 75 years old. 
-&lt;br&gt;&lt;br&gt;
-Each cohort comprises two distinct but connected samples: a regional sample and a localities sample. The regional sample is a two-stage stratified random sample of people living in the Central Clydeside Conurbation - a socially mixed and mainly urban area - and the localities sample is comprised of people from two areas within the city of Glasgow. The sampling frame used for the regional sample was Strathclyde Regional Council’s 1986 Voluntary Population Survey, an enhanced electoral register that provides details of the age and sex of all household members. The locality sample was designed for more intensive study of the relationship between people’s personal and health circumstances and the environment in which they lived. Ten postcode sectors in two areas of the city of Glasgow were selected purposefully to capture different socio-economic experiences and environments. </t>
-  </si>
-  <si>
-    <t>4,510 total&lt;br&gt;
-1,551 - 1930s cohort&lt;br&gt;
-1,444 - 1950s cohort&lt;br&gt;
-1,515 - 1970s cohort</t>
-  </si>
-  <si>
-    <t>2,580 total (Wave 5, 2008)&lt;br&gt;
-633 - 1930s cohort&lt;br&gt;
-994 - 1950s cohort&lt;br&gt;
-923 - 1970s cohort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15, 35, and 55 years </t>
-  </si>
-  <si>
-    <t>1932, 1952, 1972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact study team - proposal
-&lt;a href="http://2007study.sphsu.mrc.ac.uk/Information-on-data-sharing.html"&gt;http://2007study.sphsu.mrc.ac.uk/Information-on-data-sharing.html&lt;/a&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benzeval, M., Der, G., Ellaway, A., Hunt, K., Sweeting, H., West, P., &amp; Macintyre, S. (2009). Cohort profile: West of Scotland Twenty-07 study: health in the community. International Journal of Epidemiology, 38(5), 1215-1223 
-&lt;br&gt;
-&lt;a href="https://doi.org/10.1093/ije/dyn213"&gt;doi.org/10.1093/ije/dyn213
-&lt;/a&gt; 
-</t>
-  </si>
-  <si>
-    <t>SCAMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Study of Cognition, Adolescents and Mobile Phones (SCAMP) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Study of Cognition, Adolescents and Mobile Phones (SCAMP) was designed to provide insights into the long-term impacts of mobile phone and wireless technology use. It is a prospective school-based cohort study following several thousand pupils. It aims to examine associations between the use of mobile phones and other wireless devices that emit radio-frequency electromagnetic fields (RF-EMF) and cognitive, behavioural, educational, physical and mental health outcomes during adolescence.  
-</t>
-  </si>
-  <si>
-    <t>Imperial College London</t>
-  </si>
-  <si>
-    <t>&lt;a href="https://www.scampstudy.org/"&gt;https://www.scampstudy.org/&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Greater London</t>
-  </si>
-  <si>
-    <t>Secondary school pupils from 39 eligible schools from within the Greater London area were invited to participate. Eligible schools were selected from the Department for Education’s register of educational establishments (EduBase) and from the January 2012 school census. Pupils completed computerised assessments at school, which were complemented by online questionnaires that could be completed in any environment by both and pupils and their parents.</t>
-  </si>
-  <si>
-    <t>11 years</t>
-  </si>
-  <si>
-    <t>2002-2003</t>
-  </si>
-  <si>
-    <t>Contact study team &lt;br&gt;
-&lt;a href="https://www.scampstudy.org/research-opportunities/"&gt;https://www.scampstudy.org/research-opportunities/&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DoHSC MRC </t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Diet and nutrition,
-Education,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Neighbourhood,
-Digital technology and social media,
-Victimisation and life events,
-Puberty,
-Reproductive health,
-Sleep problems</t>
-  </si>
-  <si>
-    <t>AHMS</t>
-  </si>
-  <si>
-    <t>The Airwave Health Monitoring Study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Airwave Health Monitoring Study is an occupational cohort study which was established to evaluate the possible health risks associated with use of Terrestrial Trunked Radio (TETRA), a digital communication system used by the police force. Due to the collection of extensive phenotypic data, biological samples, and the availability of linked health data, the study has been broadened to investigate more generally the health and social outcomes of working in the police force in Great Britain. </t>
-  </si>
-  <si>
-    <t>&lt;a href="https://police-health.org.uk/"&gt;https://police-health.org.uk/&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Employees of all 54 police forces as well as police-related agencies within Great Britain were invited to participate. Since the commencement of the study, a total of 28 forces have agreed to participate. Participants completed enrolment questionnaires during the first phase of the study. The second phase of the study consisted of a health screening performed locally by trained nurses. Overall, 16% of participants completed only phase one, 58% completed only phase two, and 26% completed both phases. Additionally, 62.9% of the participants are men, and the average age at enrolment was 40.9 years for men and 38.5 years for women.</t>
-  </si>
-  <si>
-    <t>18+</t>
-  </si>
-  <si>
-    <t>Contact study team &lt;br&gt;
-&lt;a href="https://police-health.org.uk/applying-access-resource"&gt;https://police-health.org.uk/applying-access-resource&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Biomarkers,
-Cognitive measures,
-Diet and nutrition,
-Socioeconomic status and deprivation,
-Language and literacy,
-Personality,
-Physical health assessment,
-Digital technology and social media,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Sleep problems</t>
-  </si>
-  <si>
-    <t>EWCS</t>
-  </si>
-  <si>
-    <t>European Working Conditions Survey (EWCS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The European Working Conditions Survey is a unique pan-European survey carried out every 5 years to assess and quantify working conditions of both employees and the self-employed across Europe. It aims to provide a comprehensive picture of the everyday reality of men and women at work, and to do so covers a wide range of themes such as employment status, working time duration, learning and training, physical and psychosocial risk factors, health and safety, work-life balance, financial security and worker participation. The survey has also allowed researchers to analyse relationships between different aspects of working conditions, identify risk groups and issues of concern as well as progress, and monitor the trends of these issues. </t>
-  </si>
-  <si>
-    <t>&lt;a href="https://www.eurofound.europa.eu/surveys/european-working-conditions-surveys-ewcs"&gt;https://www.eurofound.europa.eu/surveys/european-working-conditions-surveys-ewcs&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">England, Scotland, Wales, Northern Ireland &lt;br&gt;
-Europe - 28 European Union Member States, the five candidate countries for EU membership (Albania, the former Yugoslav Republic of Macedonia, Montenegro, Serbia and Turkey) and Norway and Switzerland (EWCS 2015). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In each wave a new sample of the adult population is selected randomly for a face-to-face interview. In view of the growth of the EU and interest from the EFTA countries, the geographical coverage of the survey has expanded over time.
-&lt;br&gt;&lt;br&gt;
-The target population for each survey consists of all persons aged 15 and above (for Bulgaria, Norway, Spain and the UK, this is anyone aged 16 and above) who are residents of the country and are employed or self-employed at the time of data collection. Those considered to be in employment are those who have worked for pay or profit for at least an hour in the week preceding the interview. For most countries, the target sample size is 1,000, but to reflect the larger workforce in bigger countries, the target was increased proportionately. 
-&lt;br&gt;&lt;br&gt;
-For the EWCS 2015, a stratified, multi-stage, random sampling method was used to select participants from the working population of each country. Depending on the availability of high-quality registers, sampling was carried out using individual-level, household-level and address-level registers, or through enumeration using a random-walk approach. Country-level samples were stratified by region and degree of urbanisation. In each stratum, primary sampling units (PSUs) were randomly selected proportional to size. Subsequently, a random sample of households was drawn in each PSU. Finally, unless individual-level registers were used, in each household the selected respondent was the person in work who would have their birthday next.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,600 – UK sample, EWCS 2015
-&lt;br&gt;&lt;br&gt;
-43,850 – Total European sample, EWCS 2015
-</t>
-  </si>
-  <si>
-    <t>"UK Data Service&lt;br&gt;
-&lt;a href=""https://www.eurofound.europa.eu/surveys/about-eurofound-surveys/data-availability""&gt;eurofound.europa.eu/surveys/about-eurofound-surveys/data-availability&lt;/a&gt;&lt;br&gt;
-&lt;a href=""https://beta.ukdataservice.ac.uk/datacatalogue/studies/study?id=7348""&gt;beta.ukdataservice.ac.uk/datacatalogue/studies/study?id=7348&lt;/a&gt;"</t>
-  </si>
-  <si>
-    <t>Gemini</t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t>Gemini is a large population-based study of twins designed to investigate the genetic and environmental influences on obesity risk, weight gain, and early growth. Gemini have followed twins and their families for over a decade, collecting detailed information about the twins’ growth, eating behaviours, appetite, and the home environment. A key aim of the Gemini study is to create a rich resource of data on early childhood exposures that can be used to assess the determinants of long-term health.</t>
-  </si>
-  <si>
-    <t>University College London</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;a href="https://www.geministudy.co.uk/"&gt;https://www.geministudy.co.uk/&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Families with twins born in England and Wales between March and December 2007 were approached on behalf of Gemini by the Office for National Statistics (N = 6,754) in January 2008. 3,435 families agreed to be contacted by the research team, with 2,402 families (36% of the target population) returning a completed baseline questionnaire. The sample comprises of 1,586 same-sex and 816 opposite-sex twin pairs. 
-&lt;br&gt;&lt;br&gt;
-Gemini families live across the whole of England and Wales, and the distribution mirrors the population density. The Gemini study includes twins that are comparable in sex, zygosity, gestational age, and birthweight to national averages of twins. However, mothers are somewhat older, and both parents are on average slightly healthier than the national population. As in many cohort studies, there is an over-representation of White–British families within the Gemini cohort. </t>
-  </si>
-  <si>
-    <t>2,402 families</t>
-  </si>
-  <si>
-    <t>8 months</t>
-  </si>
-  <si>
-    <t>987 twins, 492 parents (Time 9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Researchers wishing to access Gemini data should contact the Gemini team via email on gemini@ucl.ac.uk </t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Diet and nutrition,
-Education,
-Housing,
-Socioeconomic status and deprivation,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Digital technology and social media,
-Puberty,
-Parenting and family,
-Sleep problems</t>
-  </si>
-  <si>
-    <t>Genetic/genomic data,
-Observational/qualitative data</t>
-  </si>
-  <si>
-    <t>Education data,
-Environmental data,
-Social media data</t>
-  </si>
-  <si>
-    <t>Education data,
-Environmental data,
-Health data,
-Social media data</t>
   </si>
   <si>
     <t>Education data,
@@ -2795,766 +3234,15 @@
 Health data</t>
   </si>
   <si>
-    <t>ADVANCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Armed Services Trauma Rehabilitation Outcome (ADVANCE) Study is a prospective longitudinal cohort study investigating the long-term physical and psychosocial outcomes of UK military personnel who sustained severe combat-related trauma during the Afghanistan conflict. ADVANCE aims to study the incidence of a wide variety of outcomes, including cardiovascular and musculoskeletal disease, mental health, functional and social outcomes, quality of life, employment, and mortality. Data is collected using various methods, including self-report questionnaires and clinical assessments. </t>
-  </si>
-  <si>
-    <t>Academic Department of Military Rehabilitation (Ministry of Defence); Imperial College London; King’s College London.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">England, Scotland, Wales, Northern Ireland &lt;br&gt;
-Some participants now reside outside of the United Kingdom (e.g., South Africa, North America) </t>
-  </si>
-  <si>
-    <t>Cohort study; Occupational cohort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants are serving and former UK military personnel who deployed on combat operations to Afghanistan between 2003 and 2014. Half are personnel who sustained combat trauma; a comparison group of the same size has been frequency matched based on deployment to Afghanistan, age, sex, service, regiment, rank, and role-in-theatre. 
-&lt;br&gt;&lt;br&gt;
-Participants were initially identified through various tracking systems and databases before being recruited through postal mailouts, e-mail invitations and telephone calls, and where necessary traced via Joint Personnel Administration (JPA) contacts, if still serving, and through electoral roll data, social media or advertising via military charities. Participants will be followed up after baseline data collection at 3, 6, 10, 15 and 20 years.
-&lt;br&gt;&lt;br&gt;
-ADVANCE’s sample does not include female participants due to very few female UK military combat casualties in Afghanistan. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The first follow up is currently in progress. </t>
-  </si>
-  <si>
-    <t>Men only</t>
-  </si>
-  <si>
-    <t>18-50 years (age at sampling)</t>
-  </si>
-  <si>
-    <t>Biomarkers,
-Physical health assessment,
-Victimisation and life events,
-Work and employment,
-Sleep problems</t>
-  </si>
-  <si>
-    <t>Toledano, M. B., Mutz, J., Röösli, M., Thomas, M. S., Dumontheil, I., &amp; Elliott, P. (2019). Cohort profile: the study of cognition, adolescents and mobile phones (SCAMP). International journal of epidemiology, 48(1), 25-26l.
-&lt;br&gt;
-&lt;a href="https://doi.org/10.1093/ije/dyy192"&gt;https://doi.org/10.1093/ije/dyy192&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Elliott, P., Vergnaud, A. C., Singh, D., Neasham, D., Spear, J., &amp; Heard, A. (2014). The Airwave Health Monitoring Study of police officers and staff in Great Britain: rationale, design and methods. Environmental research, 134, 280-285
-&lt;br&gt;
-&lt;a href="https://doi.org/10.1016/j.envres.2014.07.025"&gt;https://doi.org/10.1016/j.envres.2014.07.025&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Eurofound (2017). Sixth European Working Conditions Survey – Overview report (2017 update). Publications Office of the European Union, Luxembourg.
-&lt;br&gt;
-&lt;a href="https://doi.org/10.2806/422172"&gt;https://doi.org/10.2806/422172&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Van Jaarsveld, C. H., Johnson, L., Llewellyn, C., &amp; Wardle, J. (2010). Gemini: a UK twin birth cohort with a focus on early childhood weight trajectories, appetite and the family environment. Twin Research and Human Genetics, 13(1), 72-78. 
-&lt;br&gt;
-&lt;a href="https://doi.org/10.1375/twin.13.1.72"&gt;https://doi.org/10.1375/twin.13.1.72&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bennett, A. N., Dyball, D. M., Boos, C. J., Fear, N. T., Schofield, S., Bull, A. M., &amp; Cullinan, P. (2020). Study protocol for a prospective, longitudinal cohort study investigating the medical and psychosocial outcomes of UK combat casualties from the Afghanistan war: the ADVANCE Study. BMJ open, 10(10), e037850.
-&lt;br&gt;
-&lt;a href="https://doi.org/10.1136/bmjopen-2020-037850"&gt;https://doi.org/10.1136/bmjopen-2020-037850&lt;/a&gt;
-</t>
-  </si>
-  <si>
-    <t>&lt;a href="https://www.advancestudydmrc.org.uk/"&gt;https:/www.advancestudydmrc.org.uk/&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Education data,
-Health data,
-Digital footprint data</t>
-  </si>
-  <si>
-    <t>HFH MoD Nuffield_Crown Blesma FIMT</t>
-  </si>
-  <si>
-    <t>Researchers wishing to access ADVANCE data should contact the ADVANCE team via email on dmrc-advancestudyteam@mod.gov.uk</t>
-  </si>
-  <si>
-    <t>1,145 participants total
-579 injured personnel, 565 comparison group</t>
-  </si>
-  <si>
-    <t>18,000 (ongoing)</t>
-  </si>
-  <si>
-    <t>HOUK Imperial_BRC MRC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,000 (approx.) – UK sample, EWCS 1991
-&lt;br&gt;&lt;br&gt;
-12,500 – Total European sample, EWCS 1991
-</t>
-  </si>
-  <si>
-    <t>Health data,
-Income/tax and benefits</t>
-  </si>
-  <si>
-    <t>Environmental data,
-Health data,
-Income/tax and benefits</t>
-  </si>
-  <si>
-    <t>Education data,
-Income/tax and benefits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education data,
-Environmental data,
-Health data,
-Income/tax and benefits,
-Social media data
-</t>
-  </si>
-  <si>
-    <t>Linked data</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Diet and nutrition,
-Education,
-Ethnicity and race,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Political and social attitudes,
-Digital technology and social media,
-Victimisation and life events,
-Puberty,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems, 
-Social care - receipt,
-Social care - provision,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Cognitive measures,
-Ethnicity and race,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Migration and immigration,
-Neighbourhood,
-Physical health assessment,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Sleep problems,
-Social care - receipt,
-Social care - provision,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Education,
-Housing,
-Socioeconomic status and deprivation,
-Loneliness and social isolation,
-Physical health assessment,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Sleep problems,
-Social care - receipt,
-Social care - provision,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Diet and nutrition,
-Education,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Migration and immigration,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Political and social attitudes,
-Victimisation and life events,
-Puberty,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems,
-Social care - receipt,
-Social care - provision,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Diet and nutrition,
-Education,
-Ethnicity and race,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Migration and immigration,
-Neighbourhood,
-Physical health assessment,
-Digital technology and social media,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems,
-Social care - receipt,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Diet and nutrition,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Migration and immigration,
-Neighbourhood,
-Physical health assessment,
-Work and employment,
-Parenting and family,
-Social care - receipt,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Cognitive decline,
-Diet and nutrition,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Physical health assessment,
-Work and employment,
-Sleep problems,
-Social care - receipt,
-Social care - provision,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Cognitive decline,
-Diet and nutrition,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Physical health assessment,
-Work and employment,
-Sleep problems,
-Social care - receipt,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Diet and nutrition,
-Ethnicity and race, 
-Housing,
-Loneliness and social isolation,
-Migration and immigration,
-Neighbourhood,
-Physical health assessment,
-Victimisation and life events,
-Work and employment,
-Parenting and family,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Cognitive decline,
-Diet and nutrition,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Migration and immigration,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Digital technology and social media,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Sleep problems,
-Social care - receipt,
-Social care - provision,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Housing,
-Socioeconomic status and deprivation,
-Loneliness and social isolation,
-Neighbourhood,
-Political and social attitudes,
-Digital technology and social media,
-Work and employment,
-Social care - receipt,
-Social care - provision,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Diet and nutrition,
-Education,
-Ethnicity and race,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Digital technology and social media,
-Victimisation and life events,
-Puberty,
-Work and employment,
-Parenting and family,
-Sleep problems,
-Social care - receipt</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Diet and nutrition,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Migration and immigration,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Victimisation and life events,
-Puberty,
-Reproductive health,
-Work and employment,
-Social care - receipt,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Cognitive measures,
-Diet and nutrition,
-Education,
-Ethnicity and race,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Neighbourhood,
-Physical health assessment,
-Political and social attitudes,
-Digital technology and social media,
-Victimisation and life events,
-Puberty,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems,
-Social care - receipt,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Cognitive measures,
-Diet and nutrition,
-Education,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Neighbourhood,
-Physical health assessment,
-Digital technology and social media,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems,
-Social care - receipt,
-Social care - provision,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Cognitive measures,
-Diet and nutrition,
-Education,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Neighbourhood,
-Physical health assessment,
-Digital technology and social media,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems,
-Social care - receipt,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Cognitive decline,
-Diet and nutrition,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Digital technology and social media,
-Reproductive health,
-Work and employment,
-Sleep problems,
-Social care - receipt,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Diet and nutrition,
-Housing,
-Socioeconomic status and deprivation,
-Physical health assessment,
-Work and employment,
-Sleep problems,
-Social care - provision,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Biomarkers,
-Cognitive measures,
-Cognitive decline,
-Education,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Neighbourhood,
-Physical health assessment,
-Work and employment,
-Social care - receipt,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Cognitive decline,
-Diet and nutrition,
-Education,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Neighbourhood,
-Physical health assessment,
-Reproductive health,
-Work and employment,
-Sleep problems,
-Social care - receipt,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Cognitive measures,
-Diet and nutrition,
-Education,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Loneliness and social isolation,
-Neighbourhood,
-Personality,
-Political and social attitudes,
-Digital technology and social media,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems,
-Social care - receipt,
-Social care - provision,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Cognitive measures,
-Diet and nutrition,
-Education,
-Ethnicity and race,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Migration and immigration,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Political and social attitudes,
-Digital technology and social media,
-Victimisation and life events,
-Puberty,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems,
-Social care - receipt,
-Social care - provision,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Education,
-Housing,
-Socioeconomic status and deprivation,
-Loneliness and social isolation,
-Victimisation and life events,
-Work and employment,
-Sleep problems,
-Social care - receipt,
-Social care - provision,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Diet and nutrition,
-Housing,
-Socioeconomic status and deprivation,
-Loneliness and social isolation,
-Physical health assessment,
-Digital technology and social media,
-Reproductive health,
-Work and employment,
-Sleep problems,
-Social care - receipt,
-Social care - provision,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Biomarkers,
-Cognitive measures,
-Cognitive decline,
-Diet and nutrition,
-Housing,
-Socioeconomic status and deprivation,
-Loneliness and social isolation,
-Physical health assessment,
-Work and employment,
-Sleep problems,
-Social care - receipt,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Diet and nutrition,
-Education,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Migration and immigration,
-Personality,
-Physical health assessment,
-Political and social attitudes,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems,
-Social care - receipt,
-Social care - provision,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Cognitive decline,
-Diet and nutrition,
-Socioeconomic status and deprivation,
-Loneliness and social isolation,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Digital technology and social media,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Sleep problems,
-Social care - receipt,
-Social care - provision,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Cognitive decline,
-Diet and nutrition,
-Education,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Migration and immigration,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Political and social attitudes,
-Digital technology and social media,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems,
-Social care - receipt,
-Social care - provision,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Cognitive measures,
-Diet and nutrition,
-Ethnicity and race,
-Sexuality and gender identity,
-Loneliness and social isolation,
-Neighbourhood,
-Personality,
-Digital technology and social media,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Sleep problems,
-Social care - receipt,
-Social care - provision,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Cognitive measures,
-Diet and nutrition,
-Education,
-Ethnicity and race,
-Housing,
-Socioeconomic status and deprivation,
-Loneliness and social isolation,
-Migration and immigration,
-Neighbourhood,
-Personality,
-Political and social attitudes,
-Digital technology and social media,
-Victimisation and life events,
-Parenting and family,
-Sleep problems,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Diet and nutrition,
-Ethnicity and race,
-Housing,
-Socioeconomic status and deprivation,
-Loneliness and social isolation,
-Migration and immigration,
-Physical health assessment,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Sleep problems,
-Social care - receipt,
-Social care - provision,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Biomarkers,
-Diet and nutrition,
-Ethnicity and race,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Neighbourhood,
-Physical health assessment,
-Victimisation and life events,
-Work and employment,
-Sleep problems,
-Social care - receipt,
-Social care - provision,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Diet and nutrition,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Neighbourhood,
-Physical health assessment,
-Digital technology and social media,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems,
-Social care - receipt,
-Social care - provision,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Diet and nutrition,
-Education,
-Ethnicity and race,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Migration and immigration,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Political and social attitudes,
-Digital technology and social media,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems,
-Social care - receipt,
-Social care - provision,
-Social care - need</t>
+    <t>Also known as the Stress and Health Study</t>
+  </si>
+  <si>
+    <t>Marmot, M &amp; Brunner, E (2005). Cohort Profile: The Whitehall II Study. International Journal of Epidemiology, 34, 251-256.&lt;br&gt;
+&lt;a href="https://doi.org/10.1093/ije/dyh372"&gt;doi.org/10.1093/ije/dyh372&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>MRC BHF NIA ESRC EU_flag ERC&lt;br&gt;
+National Heart, Lung &amp; Blood Institute</t>
   </si>
   <si>
     <t>Biomarkers,
@@ -3576,6 +3264,59 @@
 Social care - receipt,
 Social care - provision,
 Social care - need</t>
+  </si>
+  <si>
+    <t>WOS</t>
+  </si>
+  <si>
+    <t>West of Scotland Twenty-07</t>
+  </si>
+  <si>
+    <t>The West of Scotland Twenty-07 Study is a population-based multi-cohort study which has followed three cohorts of men and women in the West of Scotland across twenty years. Set up in 1986, the study was designed to investigate the differences in health by socio-economic circumstances, gender, the place where people live, age, ethnic group and family type. Through tracking three cohorts of volunteers, each born roughly twenty years apart, the study provides data at critical points in the lifespan, as participants make the transition from adolescence to working life; through the main part of working life; and from working life to retirement. Additionally, the study was designed to explore the effect of the historical context of people’s lives on their health and circumstances by comparing the different cohorts at the same age at different points in time.</t>
+  </si>
+  <si>
+    <t>MRC Social and Public Health Sciences Unit, University of Glasgow</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://2007study.sphsu.mrc.ac.uk/"&gt;http://2007study.sphsu.mrc.ac.uk/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Central Clydeside Conurbation, West of Scotland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The West of Scotland Twenty-07 Study followed three cohorts each born roughly twenty years apart, in 1932, 1952 and 1972. In the initial sweep, the cohort members were approximately 15, 35 and 55 years old. Cohort members were followed up three times, in 1990/1991, 1995, and 2000/2004, before the final sweep of data collection took place in 2007/2008, when the cohort members were approximately 35, 55 and 75 years old. 
+&lt;br&gt;&lt;br&gt;
+Each cohort comprises two distinct but connected samples: a regional sample and a localities sample. The regional sample is a two-stage stratified random sample of people living in the Central Clydeside Conurbation - a socially mixed and mainly urban area - and the localities sample is comprised of people from two areas within the city of Glasgow. The sampling frame used for the regional sample was Strathclyde Regional Council’s 1986 Voluntary Population Survey, an enhanced electoral register that provides details of the age and sex of all household members. The locality sample was designed for more intensive study of the relationship between people’s personal and health circumstances and the environment in which they lived. Ten postcode sectors in two areas of the city of Glasgow were selected purposefully to capture different socio-economic experiences and environments. </t>
+  </si>
+  <si>
+    <t>4,510 total&lt;br&gt;
+1,551 - 1930s cohort&lt;br&gt;
+1,444 - 1950s cohort&lt;br&gt;
+1,515 - 1970s cohort</t>
+  </si>
+  <si>
+    <t>2,580 total (Wave 5, 2008)&lt;br&gt;
+633 - 1930s cohort&lt;br&gt;
+994 - 1950s cohort&lt;br&gt;
+923 - 1970s cohort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15, 35, and 55 years </t>
+  </si>
+  <si>
+    <t>1932, 1952, 1972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact study team - proposal
+&lt;a href="http://2007study.sphsu.mrc.ac.uk/Information-on-data-sharing.html"&gt;http://2007study.sphsu.mrc.ac.uk/Information-on-data-sharing.html&lt;/a&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benzeval, M., Der, G., Ellaway, A., Hunt, K., Sweeting, H., West, P., &amp; Macintyre, S. (2009). Cohort profile: West of Scotland Twenty-07 study: health in the community. International Journal of Epidemiology, 38(5), 1215-1223 
+&lt;br&gt;
+&lt;a href="https://doi.org/10.1093/ije/dyn213"&gt;doi.org/10.1093/ije/dyn213
+&lt;/a&gt; 
+</t>
   </si>
   <si>
     <t>Biomarkers,
@@ -3600,6 +3341,160 @@
 Social care - need</t>
   </si>
   <si>
+    <t>SCAMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Study of Cognition, Adolescents and Mobile Phones (SCAMP) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Study of Cognition, Adolescents and Mobile Phones (SCAMP) was designed to provide insights into the long-term impacts of mobile phone and wireless technology use. It is a prospective school-based cohort study following several thousand pupils. It aims to examine associations between the use of mobile phones and other wireless devices that emit radio-frequency electromagnetic fields (RF-EMF) and cognitive, behavioural, educational, physical and mental health outcomes during adolescence.  
+</t>
+  </si>
+  <si>
+    <t>Imperial College London</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.scampstudy.org/"&gt;https://www.scampstudy.org/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Greater London</t>
+  </si>
+  <si>
+    <t>Secondary school pupils from 39 eligible schools from within the Greater London area were invited to participate. Eligible schools were selected from the Department for Education’s register of educational establishments (EduBase) and from the January 2012 school census. Pupils completed computerised assessments at school, which were complemented by online questionnaires that could be completed in any environment by both and pupils and their parents.</t>
+  </si>
+  <si>
+    <t>11 years</t>
+  </si>
+  <si>
+    <t>2002-2003</t>
+  </si>
+  <si>
+    <t>Contact study team &lt;br&gt;
+&lt;a href="https://www.scampstudy.org/research-opportunities/"&gt;https://www.scampstudy.org/research-opportunities/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Education data,
+Health data,
+Digital footprint data</t>
+  </si>
+  <si>
+    <t>Toledano, M. B., Mutz, J., Röösli, M., Thomas, M. S., Dumontheil, I., &amp; Elliott, P. (2019). Cohort profile: the study of cognition, adolescents and mobile phones (SCAMP). International journal of epidemiology, 48(1), 25-26l.
+&lt;br&gt;
+&lt;a href="https://doi.org/10.1093/ije/dyy192"&gt;https://doi.org/10.1093/ije/dyy192&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DoHSC MRC </t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Diet and nutrition,
+Education,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Neighbourhood,
+Digital technology and social media,
+Victimisation and life events,
+Puberty,
+Reproductive health,
+Sleep problems</t>
+  </si>
+  <si>
+    <t>AHMS</t>
+  </si>
+  <si>
+    <t>The Airwave Health Monitoring Study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Airwave Health Monitoring Study is an occupational cohort study which was established to evaluate the possible health risks associated with use of Terrestrial Trunked Radio (TETRA), a digital communication system used by the police force. Due to the collection of extensive phenotypic data, biological samples, and the availability of linked health data, the study has been broadened to investigate more generally the health and social outcomes of working in the police force in Great Britain. </t>
+  </si>
+  <si>
+    <t>&lt;a href="https://police-health.org.uk/"&gt;https://police-health.org.uk/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Employees of all 54 police forces as well as police-related agencies within Great Britain were invited to participate. Since the commencement of the study, a total of 28 forces have agreed to participate. Participants completed enrolment questionnaires during the first phase of the study. The second phase of the study consisted of a health screening performed locally by trained nurses. Overall, 16% of participants completed only phase one, 58% completed only phase two, and 26% completed both phases. Additionally, 62.9% of the participants are men, and the average age at enrolment was 40.9 years for men and 38.5 years for women.</t>
+  </si>
+  <si>
+    <t>18,000 (ongoing)</t>
+  </si>
+  <si>
+    <t>18+</t>
+  </si>
+  <si>
+    <t>Contact study team &lt;br&gt;
+&lt;a href="https://police-health.org.uk/applying-access-resource"&gt;https://police-health.org.uk/applying-access-resource&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Elliott, P., Vergnaud, A. C., Singh, D., Neasham, D., Spear, J., &amp; Heard, A. (2014). The Airwave Health Monitoring Study of police officers and staff in Great Britain: rationale, design and methods. Environmental research, 134, 280-285
+&lt;br&gt;
+&lt;a href="https://doi.org/10.1016/j.envres.2014.07.025"&gt;https://doi.org/10.1016/j.envres.2014.07.025&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>HOUK Imperial_BRC MRC</t>
+  </si>
+  <si>
+    <t>Biomarkers,
+Cognitive measures,
+Diet and nutrition,
+Socioeconomic status and deprivation,
+Language and literacy,
+Personality,
+Physical health assessment,
+Digital technology and social media,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Sleep problems</t>
+  </si>
+  <si>
+    <t>EWCS</t>
+  </si>
+  <si>
+    <t>European Working Conditions Survey (EWCS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The European Working Conditions Survey is a unique pan-European survey carried out every 5 years to assess and quantify working conditions of both employees and the self-employed across Europe. It aims to provide a comprehensive picture of the everyday reality of men and women at work, and to do so covers a wide range of themes such as employment status, working time duration, learning and training, physical and psychosocial risk factors, health and safety, work-life balance, financial security and worker participation. The survey has also allowed researchers to analyse relationships between different aspects of working conditions, identify risk groups and issues of concern as well as progress, and monitor the trends of these issues. </t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.eurofound.europa.eu/surveys/european-working-conditions-surveys-ewcs"&gt;https://www.eurofound.europa.eu/surveys/european-working-conditions-surveys-ewcs&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">England, Scotland, Wales, Northern Ireland &lt;br&gt;
+Europe - 28 European Union Member States, the five candidate countries for EU membership (Albania, the former Yugoslav Republic of Macedonia, Montenegro, Serbia and Turkey) and Norway and Switzerland (EWCS 2015). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In each wave a new sample of the adult population is selected randomly for a face-to-face interview. In view of the growth of the EU and interest from the EFTA countries, the geographical coverage of the survey has expanded over time.
+&lt;br&gt;&lt;br&gt;
+The target population for each survey consists of all persons aged 15 and above (for Bulgaria, Norway, Spain and the UK, this is anyone aged 16 and above) who are residents of the country and are employed or self-employed at the time of data collection. Those considered to be in employment are those who have worked for pay or profit for at least an hour in the week preceding the interview. For most countries, the target sample size is 1,000, but to reflect the larger workforce in bigger countries, the target was increased proportionately. 
+&lt;br&gt;&lt;br&gt;
+For the EWCS 2015, a stratified, multi-stage, random sampling method was used to select participants from the working population of each country. Depending on the availability of high-quality registers, sampling was carried out using individual-level, household-level and address-level registers, or through enumeration using a random-walk approach. Country-level samples were stratified by region and degree of urbanisation. In each stratum, primary sampling units (PSUs) were randomly selected proportional to size. Subsequently, a random sample of households was drawn in each PSU. Finally, unless individual-level registers were used, in each household the selected respondent was the person in work who would have their birthday next.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,000 (approx.) – UK sample, EWCS 1991
+&lt;br&gt;&lt;br&gt;
+12,500 – Total European sample, EWCS 1991
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,600 – UK sample, EWCS 2015
+&lt;br&gt;&lt;br&gt;
+43,850 – Total European sample, EWCS 2015
+</t>
+  </si>
+  <si>
+    <t>"UK Data Service&lt;br&gt;
+&lt;a href=""https://www.eurofound.europa.eu/surveys/about-eurofound-surveys/data-availability""&gt;eurofound.europa.eu/surveys/about-eurofound-surveys/data-availability&lt;/a&gt;&lt;br&gt;
+&lt;a href=""https://beta.ukdataservice.ac.uk/datacatalogue/studies/study?id=7348""&gt;beta.ukdataservice.ac.uk/datacatalogue/studies/study?id=7348&lt;/a&gt;"</t>
+  </si>
+  <si>
+    <t>Eurofound (2017). Sixth European Working Conditions Survey – Overview report (2017 update). Publications Office of the European Union, Luxembourg.
+&lt;br&gt;
+&lt;a href="https://doi.org/10.2806/422172"&gt;https://doi.org/10.2806/422172&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>Education,
 Housing,
 Socioeconomic status and deprivation,
@@ -3608,12 +3503,264 @@
 Social care - provision,
 Social care - need</t>
   </si>
+  <si>
+    <t>Gemini</t>
+  </si>
+  <si>
+    <t>Gemini is a large population-based study of twins designed to investigate the genetic and environmental influences on obesity risk, weight gain, and early growth. Gemini have followed twins and their families for over a decade, collecting detailed information about the twins’ growth, eating behaviours, appetite, and the home environment. A key aim of the Gemini study is to create a rich resource of data on early childhood exposures that can be used to assess the determinants of long-term health.</t>
+  </si>
+  <si>
+    <t>University College London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;a href="https://www.geministudy.co.uk/"&gt;https://www.geministudy.co.uk/&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Families with twins born in England and Wales between March and December 2007 were approached on behalf of Gemini by the Office for National Statistics (N = 6,754) in January 2008. 3,435 families agreed to be contacted by the research team, with 2,402 families (36% of the target population) returning a completed baseline questionnaire. The sample comprises of 1,586 same-sex and 816 opposite-sex twin pairs. 
+&lt;br&gt;&lt;br&gt;
+Gemini families live across the whole of England and Wales, and the distribution mirrors the population density. The Gemini study includes twins that are comparable in sex, zygosity, gestational age, and birthweight to national averages of twins. However, mothers are somewhat older, and both parents are on average slightly healthier than the national population. As in many cohort studies, there is an over-representation of White–British families within the Gemini cohort. </t>
+  </si>
+  <si>
+    <t>2,402 families</t>
+  </si>
+  <si>
+    <t>987 twins, 492 parents (Time 9)</t>
+  </si>
+  <si>
+    <t>8 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Researchers wishing to access Gemini data should contact the Gemini team via email on gemini@ucl.ac.uk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Van Jaarsveld, C. H., Johnson, L., Llewellyn, C., &amp; Wardle, J. (2010). Gemini: a UK twin birth cohort with a focus on early childhood weight trajectories, appetite and the family environment. Twin Research and Human Genetics, 13(1), 72-78. 
+&lt;br&gt;
+&lt;a href="https://doi.org/10.1375/twin.13.1.72"&gt;https://doi.org/10.1375/twin.13.1.72&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Diet and nutrition,
+Education,
+Housing,
+Socioeconomic status and deprivation,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Digital technology and social media,
+Puberty,
+Parenting and family,
+Sleep problems</t>
+  </si>
+  <si>
+    <t>Genetic/genomic data,
+Observational/qualitative data</t>
+  </si>
+  <si>
+    <t>ADVANCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Armed Services Trauma Rehabilitation Outcome (ADVANCE) Study is a prospective longitudinal cohort study investigating the long-term physical and psychosocial outcomes of UK military personnel who sustained severe combat-related trauma during the Afghanistan conflict. ADVANCE aims to study the incidence of a wide variety of outcomes, including cardiovascular and musculoskeletal disease, mental health, functional and social outcomes, quality of life, employment, and mortality. Data is collected using various methods, including self-report questionnaires and clinical assessments. </t>
+  </si>
+  <si>
+    <t>Academic Department of Military Rehabilitation (Ministry of Defence); Imperial College London; King’s College London.</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.advancestudydmrc.org.uk/"&gt;https:/www.advancestudydmrc.org.uk/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">England, Scotland, Wales, Northern Ireland &lt;br&gt;
+Some participants now reside outside of the United Kingdom (e.g., South Africa, North America) </t>
+  </si>
+  <si>
+    <t>Cohort study; Occupational cohort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants are serving and former UK military personnel who deployed on combat operations to Afghanistan between 2003 and 2014. Half are personnel who sustained combat trauma; a comparison group of the same size has been frequency matched based on deployment to Afghanistan, age, sex, service, regiment, rank, and role-in-theatre. 
+&lt;br&gt;&lt;br&gt;
+Participants were initially identified through various tracking systems and databases before being recruited through postal mailouts, e-mail invitations and telephone calls, and where necessary traced via Joint Personnel Administration (JPA) contacts, if still serving, and through electoral roll data, social media or advertising via military charities. Participants will be followed up after baseline data collection at 3, 6, 10, 15 and 20 years.
+&lt;br&gt;&lt;br&gt;
+ADVANCE’s sample does not include female participants due to very few female UK military combat casualties in Afghanistan. </t>
+  </si>
+  <si>
+    <t>1,145 participants total&lt;br&gt;
+579 injured personnel, 565 comparison group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The first follow up is currently in progress. </t>
+  </si>
+  <si>
+    <t>Men only</t>
+  </si>
+  <si>
+    <t>18-50 years (age at sampling)</t>
+  </si>
+  <si>
+    <t>Researchers wishing to access ADVANCE data should contact the ADVANCE team via email on dmrc-advancestudyteam@mod.gov.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bennett, A. N., Dyball, D. M., Boos, C. J., Fear, N. T., Schofield, S., Bull, A. M., &amp; Cullinan, P. (2020). Study protocol for a prospective, longitudinal cohort study investigating the medical and psychosocial outcomes of UK combat casualties from the Afghanistan war: the ADVANCE Study. BMJ open, 10(10), e037850.
+&lt;br&gt;
+&lt;a href="https://doi.org/10.1136/bmjopen-2020-037850"&gt;https://doi.org/10.1136/bmjopen-2020-037850&lt;/a&gt;
+</t>
+  </si>
+  <si>
+    <t>HFH MoD Nuffield_Crown Blesma FIMT</t>
+  </si>
+  <si>
+    <t>Biomarkers,
+Physical health assessment,
+Victimisation and life events,
+Work and employment,
+Sleep problems</t>
+  </si>
+  <si>
+    <t>BASIS</t>
+  </si>
+  <si>
+    <t>British Autism Study of Infant Siblings (BASIS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The British Autism Study of Infant Siblings (BASIS) is a prospective longitudinal study of infants at elevated likelihood (EL) for autism in the UK. Using newly developed techniques for studying brain and behaviour in infants, BASIS investigates whether there are any differences in development between infants who have brothers or sisters with autism and those who do not. The study has been extended to include infants at elevated likelihood for ADHD. </t>
+  </si>
+  <si>
+    <t>King’s College London; Birkbeck, University of London</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.basisnetwork.org/"&gt;https://www.basisnetwork.org/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>England, Scotland, Wales, Nothern Ireland</t>
+  </si>
+  <si>
+    <t>Nationwide (but control participants mostly recruited from London)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participating parents and their children were recruited from a volunteer database at the Birkbeck Centre for Brain and Cognitive Development. Infants could be enrolled in the study if they either had a first degree relative with ASD, a first degree relative with diagnosed or probable ADHD, or no first-degree relatives with either diagnosis. In phases 1 and 2, the children recruited were only at elevated likelihood (EL) for ASD, whilst in phase 3, children are at EL for ASD, ADHD, or both. Phase 3 is known as BASIS-STAARS (STudying Autism and ADHD riskS). Some families have taken part in more than one phase.  
+&lt;br&gt;&lt;br&gt;
+Infants were identified as being at EL if they had at least one older sibling with a community clinical diagnosis of autism, which was confirmed based on parent report using the Development and Wellbeing Assessment (DAWBA; Goodman et al., 2000), the Social Communication Questionnaire (SCQ; Berument et al., 1999) or parent confirmed community clinical autism diagnosis. Infants were identified as being at typical likelihood (TL) if they had at least one older sibling with typical development and no known autism in first-degree family members (as confirmed through parent interviews regarding family medical history). In phase 3, children were recruited and identified as being at EL for ADHD if they had either an older sibling or a parent with a diagnosis of ADHD,  confirmed through parent report using the Conner's Parent Rating Scale, and Conner's Adult. 
+&lt;br&gt;&lt;br&gt;
+Cohort members have been assessed at approximately 1, 5, 8, 14, 24, and 36 months, before being followed up during mid-childhood at approximately age 7 to 11 years. The follow up of children at mid-childhood in phase 1 is known as ‘BASIS-7’, whilst follow up for phases 2 and 3 is known as ‘SuperSTAARS’. Participants are administered a range of experimental, behavioural and cognitive tasks and interactive assessments of autistic symptomatology. Parents also complete a range of questionnaires and interviews relating to different aspects of early development. Phase 1 data collection ran from 2006-2015, phase 2 from 2009-2022, and phase 3 from 2013-2023. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phase 1: 104&lt;br&gt;
+Phase 2: 143&lt;br&gt;
+Phase 3: 300
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phase 1: 76&lt;br&gt;
+Phase 2: 97&lt;br&gt;
+Phase 3: ongoing
+</t>
+  </si>
+  <si>
+    <t>Birth (from prenatal to early infancy)</t>
+  </si>
+  <si>
+    <t>Project proposal, see data access guidance  &lt;a href="https://www.basisnetwork.org/basis-strategies-and-policies/"&gt;https://www.basisnetwork.org/basis-strategies-and-policies/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Phase 1: Elsabbagh, M., Mercure, E., Hudry, K., Chandler, S., Pasco, G., Charman, T., Pickles, A., Baron-Cohen, S., Bolton, P., Johnson, M. H. and the BASIS Team. (2012). Infant neural sensitivity to eye gaze is associated with later emerging autism. Current Biology, 33, 338-342.
+&lt;br&gt;
+&lt;a href="https://doi.org/10.1016/j.cub.2011.12.056"&gt;https://doi.org/10.1016/j.cub.2011.12.056&lt;/a&gt;
+&lt;br&gt;&lt;br&gt;
+Phase 2: Bussu, G., Jones, E. J. H., Charman, T., Johnson, M. H., Buitelaar, J. K., &amp; The BASIS Team. (2019). Latent trajectories of adaptive behaviour in infants at high and low familial risk for autism spectrum disorder. Molecular Autism, 10, 13.
+&lt;br&gt;
+&lt;a href="https://doi.org/10.1186/s13229-019-0264-6"&gt;https://doi.org/10.1186/s13229-019-0264-6&lt;/a&gt;
+&lt;br&gt;&lt;br&gt;
+Phase 3: Begum Ali, J., Goodwin, A., Mason, L., Pasco, G., Charman, T., Johnson, M. H., Jones, E. J. H., &amp; The STAARS Team. (in press). Altered theta beta-ratio in infancy associates with family history of ADHD and later ADHD-relevant temperamental traits. Journal of Child Psychology &amp; Psychiatry.
+&lt;br&gt;
+&lt;a href="https://doi.org/10.1111/jcpp.13563"&gt;https://doi.org/10.1111/jcpp.13563&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>MRC SFARI AuSpeaks Autistica EUCom IMI Horizon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomarkers,
+Cognitive decline,
+Ethnicity and race,
+Parenting and family,
+Sleep problems,
+Socioeconomic status and deprivation </t>
+  </si>
+  <si>
+    <t>CSDD</t>
+  </si>
+  <si>
+    <t>The Cambridge Study in Delinquent Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Cambridge Study in Delinquent Development (CSDD) is a prospective longitudinal cohort study of 411 males living in South London, first assessed in 1961. The original aim of the CSDD was to describe the development of delinquent and criminal behaviour in inner-city males, to investigate to what extent this could be predicted in advance, why juvenile delinquency began, and why it did or did not continue into adulthood. The focus was also on continuity in behavioural development, on the effects of life events on development, and on predicting future behaviour. The study was not set up to test any one particular theory of delinquency but aimed to test many different hypotheses about the causes and correlates of offending. </t>
+  </si>
+  <si>
+    <t>University of Cambridge</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.crim.cam.ac.uk/People/professor-david-farrington"&gt;http://www.crim.cam.ac.uk/People/professor-david-farrington&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sample is made up of 411 males born in 1952-1953, who were all living in a working-class area of South London at the time of the first assessment. Most of the sample was chosen by taking all the males who were then aged 8-9 and on the registers of 6 state primary schools within a 1-mile radius of the research offices. 12 individuals from a local special educational needs school were also included in the sample. 
+&lt;br&gt;&lt;br&gt;
+Of the 411 males, 87% were White, and of British origin, 12 were African-Caribbean, 14 had at least 1 parent from Ireland, 12 had parents from Cyprus and the other 16 participants were White, with 1 parent from another Western industrialized country. Based on the father’s occupations at the time of recruitment, 94% of the sample could be described as working-class. The sample was thus overwhelmingly a white, urban, working-class sample of British origin.
+&lt;br&gt;&lt;br&gt; 
+The participants have been interviewed 9 times throughout their lives, from ages 8-48 years. At all time points a high proportion of males have been interviewed, except at ages 21 and 25, due to inadequate funding. At these time points, only a subsample of participants were interviewed. Parents and teachers were also interviewed when the boys were aged 8-15, at the family home or in the boy’s school.  
+&lt;br&gt;&lt;br&gt;
+Criminal records were collected up to age 56, so self-report and official records of offending could be analysed. </t>
+  </si>
+  <si>
+    <t>8-9 years</t>
+  </si>
+  <si>
+    <t>1952-1953</t>
+  </si>
+  <si>
+    <t>Researchers wishing to access data should apply to David Farringdon via email on dpf1@cam.ac.uk.</t>
+  </si>
+  <si>
+    <t>Health data,
+Criminal records</t>
+  </si>
+  <si>
+    <t>Some original documentation for the Cambridge Study of Delinquent Development is no longer available, so some sweeps include less detailed information than other studies on the Catalogue. All mental health measures collected in the study from age 18 onwards are listed at item level. 
+&lt;br&gt;&lt;br&gt;
+Original documentation from data collected from age 8 to 15 years are not available, so datasets were used to the collect information displayed on the Catalogue. At these time points, these variables have been listed, but items, response scales and reporting period are not available. The interviews at these time points (ages 8, 10, 12, 14) were conducted with cohort members' parents and teachers and were mainly concerned with early conduct, behaviour and emotional problems, and personality. Self-reported measures were also collected from parents about their own mental health history. 
+&lt;br&gt;&lt;br&gt;
+Variables from interviews with parents and teachers are also not available for the age 16 sweep. However, documentation from employment interviews conducted with the cohort members are available, and these measures are listed at the item level.</t>
+  </si>
+  <si>
+    <t>Farringdon, D. P., Jolliffe, D., &amp; Coid, J. W. (2021). Cohort profile: The Cambridge Study in Delinquent Development (CSDD). Journal of Developmental and Life-Course Criminology, 7, 278-291. 
+&lt;br&gt;
+&lt;a href="https://doi.org/10.1007/s40865-021-00162-y"&gt;https://doi.org/10.1007/s40865-021-00162-y&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>HOUK DfE DoHSC Rayne SRFound BCTrust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cognitive measures,
+Education,
+Housing,
+Language and literacy,
+Parenting and family,
+Personality,
+Physical health assessment,
+Political and social attitudes,
+Sexuality and gender identity,
+Sleep problems,
+Socioeconomic status and deprivation,
+Victimisation and life events,
+Work and employment
+</t>
+  </si>
+  <si>
+    <t>England, local area</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3674,14 +3821,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3774,7 +3913,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3828,11 +3967,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3857,14 +3992,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3876,7 +4008,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3891,7 +4023,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4280,216 +4412,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AMJ87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="R14" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="T14" sqref="T14"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="V1" sqref="V1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U57" sqref="U57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="46.33203125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="47" style="35" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="47" style="32" customWidth="1"/>
     <col min="4" max="4" width="41" style="2" customWidth="1"/>
-    <col min="5" max="5" width="45.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="45.28515625" style="2" customWidth="1"/>
     <col min="6" max="7" width="44" style="2" customWidth="1"/>
-    <col min="8" max="8" width="47.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="47.28515625" style="2" customWidth="1"/>
     <col min="9" max="9" width="44" style="2" customWidth="1"/>
-    <col min="10" max="10" width="49.33203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="50.33203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="52.1640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="52.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="49.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="50.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="52.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="52.85546875" style="2" customWidth="1"/>
     <col min="14" max="14" width="56" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" style="2" customWidth="1"/>
     <col min="16" max="16" width="28" style="2" customWidth="1"/>
-    <col min="17" max="17" width="17.33203125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="28.83203125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="55.33203125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="55.1640625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="49.6640625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="50.1640625" style="3" customWidth="1"/>
-    <col min="23" max="23" width="28.6640625" style="4" customWidth="1"/>
-    <col min="24" max="24" width="25.33203125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="23" style="2" customWidth="1"/>
+    <col min="18" max="18" width="28.85546875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="55.28515625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="55.140625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="49.7109375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="50.140625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="28.7109375" style="4" customWidth="1"/>
+    <col min="24" max="24" width="25.28515625" style="4" customWidth="1"/>
     <col min="25" max="25" width="44" style="3" customWidth="1"/>
     <col min="26" max="26" width="24" style="4" customWidth="1"/>
-    <col min="27" max="27" width="43.6640625" style="40" customWidth="1"/>
-    <col min="28" max="34" width="8.83203125" style="5"/>
-    <col min="1024" max="1024" width="9.1640625" customWidth="1"/>
+    <col min="27" max="27" width="43.7109375" style="37" customWidth="1"/>
+    <col min="28" max="34" width="8.85546875" style="5"/>
+    <col min="1024" max="1024" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="29" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:1024" s="27" customFormat="1" ht="24" customHeight="1">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="24" t="s">
-        <v>731</v>
-      </c>
-      <c r="S1" s="24" t="s">
+      <c r="R1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="S1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="T1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="U1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="V1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="W1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="26" t="s">
+      <c r="X1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="Y1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="38" t="s">
+      <c r="Z1" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AMJ1" s="30"/>
+      <c r="AA1" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AMJ1" s="28"/>
     </row>
-    <row r="2" spans="1:1024" s="11" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1024" s="11" customFormat="1" ht="195" hidden="1" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="B2" s="21" t="s">
         <v>28</v>
       </c>
+      <c r="C2" s="40" t="s">
+        <v>29</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" s="8">
         <v>2007</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X2" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA2" s="39"/>
+        <v>49</v>
+      </c>
+      <c r="AA2" s="36"/>
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
       <c r="AD2" s="8"/>
@@ -4499,85 +4632,85 @@
       <c r="AH2" s="8"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="14" customFormat="1" ht="101" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1024" s="14" customFormat="1" ht="101.1" hidden="1" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="21" t="s">
         <v>51</v>
       </c>
+      <c r="C3" s="32" t="s">
+        <v>52</v>
+      </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H3" s="8">
         <v>1990</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="W3" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="X3" s="4"/>
       <c r="Y3" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z3" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA3" s="40" t="s">
-        <v>65</v>
+        <v>68</v>
+      </c>
+      <c r="AA3" s="37" t="s">
+        <v>69</v>
       </c>
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
@@ -4588,84 +4721,84 @@
       <c r="AH3" s="5"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="14" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1024" s="14" customFormat="1" ht="99.95" hidden="1" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H4" s="8">
         <v>1993</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="W4" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="X4" s="4"/>
       <c r="Y4" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Z4" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA4" s="40"/>
+        <v>89</v>
+      </c>
+      <c r="AA4" s="37"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
@@ -4675,81 +4808,81 @@
       <c r="AH4" s="5"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="2" customFormat="1" ht="110" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1024" s="2" customFormat="1" ht="110.1" hidden="1" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>92</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="Z5" s="4"/>
-      <c r="AA5" s="40"/>
+      <c r="AA5" s="37"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
@@ -4759,84 +4892,84 @@
       <c r="AH5" s="5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="14" customFormat="1" ht="296" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1024" s="14" customFormat="1" ht="276" hidden="1">
       <c r="A6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>102</v>
+        <v>106</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>108</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H6" s="8">
         <v>1970</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="O6" s="8">
         <v>1970</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>727</v>
+        <v>116</v>
       </c>
       <c r="S6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="W6" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="W6" s="10" t="s">
-        <v>105</v>
       </c>
       <c r="X6" s="10"/>
       <c r="Y6" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA6" s="40"/>
+        <v>121</v>
+      </c>
+      <c r="AA6" s="37"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
@@ -4846,84 +4979,84 @@
       <c r="AH6" s="2"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="16" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1024" s="16" customFormat="1" ht="131.1" hidden="1" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>117</v>
+        <v>122</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>124</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="H7" s="8">
         <v>2007</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>736</v>
+        <v>137</v>
       </c>
       <c r="W7" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X7" s="10" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z7" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA7" s="40"/>
+        <v>121</v>
+      </c>
+      <c r="AA7" s="37"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
@@ -4933,84 +5066,84 @@
       <c r="AH7" s="2"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="14" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1024" s="14" customFormat="1" ht="120" hidden="1" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>133</v>
+        <v>139</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>141</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="H8" s="8">
         <v>2016</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>737</v>
+        <v>150</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="X8" s="10" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z8" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA8" s="40"/>
+        <v>151</v>
+      </c>
+      <c r="AA8" s="37"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
@@ -5020,84 +5153,84 @@
       <c r="AH8" s="2"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="14" customFormat="1" ht="124" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1024" s="14" customFormat="1" ht="123.95" hidden="1" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>145</v>
+        <v>152</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H9" s="8">
         <v>2006</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Z9" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA9" s="40"/>
+        <v>168</v>
+      </c>
+      <c r="AA9" s="37"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
@@ -5107,84 +5240,84 @@
       <c r="AH9" s="5"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="14" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1024" s="14" customFormat="1" ht="96" hidden="1" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>162</v>
+        <v>169</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>171</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="H10" s="8">
         <v>2008</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="K10" s="13">
         <v>7762</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>738</v>
+        <v>182</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA10" s="40"/>
+        <v>183</v>
+      </c>
+      <c r="AA10" s="37"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
@@ -5194,84 +5327,84 @@
       <c r="AH10" s="5"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="14" customFormat="1" ht="155" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1024" s="14" customFormat="1" ht="155.1" hidden="1" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>176</v>
+        <v>184</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>186</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="H11" s="8">
         <v>1989</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="K11" s="13">
         <v>7365</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z11" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="U11" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="X11" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z11" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA11" s="40"/>
+      <c r="AA11" s="37"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
@@ -5281,84 +5414,84 @@
       <c r="AH11" s="5"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="14" customFormat="1" ht="208" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1024" s="14" customFormat="1" ht="207.95" hidden="1" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>188</v>
+        <v>197</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>199</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="H12" s="8">
         <v>2011</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="K12" s="13">
         <v>2197</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>738</v>
+        <v>182</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="Z12" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA12" s="40"/>
+        <v>183</v>
+      </c>
+      <c r="AA12" s="37"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
@@ -5368,82 +5501,82 @@
       <c r="AH12" s="5"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="14" customFormat="1" ht="142" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1024" s="14" customFormat="1" ht="141.94999999999999" hidden="1" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>201</v>
+        <v>210</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>212</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="K13" s="13">
         <v>6643</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>740</v>
+        <v>223</v>
       </c>
       <c r="W13" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X13" s="10" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z13" s="10"/>
-      <c r="AA13" s="40"/>
+      <c r="AA13" s="37"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
@@ -5453,84 +5586,84 @@
       <c r="AH13" s="2"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="16" customFormat="1" ht="115" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1024" s="16" customFormat="1" ht="162.75" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>214</v>
+        <v>224</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>226</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H14" s="8">
         <v>2002</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="L14" s="13">
         <v>7222</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R14" s="15" t="s">
-        <v>728</v>
+        <v>234</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="2" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>741</v>
+        <v>237</v>
       </c>
       <c r="W14" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X14" s="10" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="Z14" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA14" s="40"/>
+        <v>121</v>
+      </c>
+      <c r="AA14" s="37"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
@@ -5540,82 +5673,82 @@
       <c r="AH14" s="2"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="2" customFormat="1" ht="130" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1024" s="2" customFormat="1" ht="129.94999999999999" hidden="1" customHeight="1">
       <c r="A15" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>241</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H15" s="8">
         <v>2003</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S15" s="5"/>
       <c r="T15" s="2" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>742</v>
+        <v>252</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="Z15" s="4"/>
-      <c r="AA15" s="40"/>
+      <c r="AA15" s="37"/>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
@@ -5625,82 +5758,82 @@
       <c r="AH15" s="5"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024" s="14" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1024" s="14" customFormat="1" ht="87" hidden="1" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>242</v>
+        <v>255</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>257</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H16" s="8">
         <v>1998</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="S16" s="2"/>
       <c r="T16" s="2" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>743</v>
+        <v>269</v>
       </c>
       <c r="W16" s="4" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="X16" s="4"/>
       <c r="Y16" s="3" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="Z16" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA16" s="40"/>
+        <v>272</v>
+      </c>
+      <c r="AA16" s="37"/>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
@@ -5710,82 +5843,82 @@
       <c r="AH16" s="5"/>
       <c r="AMJ16"/>
     </row>
-    <row r="17" spans="1:1024" s="14" customFormat="1" ht="184" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1024" s="14" customFormat="1" ht="183.95" hidden="1" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>259</v>
+        <v>273</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>275</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H17" s="8">
         <v>2002</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="W17" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="Z17" s="4"/>
-      <c r="AA17" s="40"/>
+      <c r="AA17" s="37"/>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
@@ -5795,83 +5928,83 @@
       <c r="AH17" s="5"/>
       <c r="AMJ17"/>
     </row>
-    <row r="18" spans="1:1024" s="14" customFormat="1" ht="140" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1024" s="14" customFormat="1" ht="103.5" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>273</v>
+        <v>287</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>289</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>744</v>
+        <v>302</v>
       </c>
       <c r="W18" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X18" s="10"/>
       <c r="Y18" s="3" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA18" s="40" t="s">
-        <v>287</v>
+        <v>151</v>
+      </c>
+      <c r="AA18" s="37" t="s">
+        <v>304</v>
       </c>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
@@ -5882,84 +6015,84 @@
       <c r="AH18" s="2"/>
       <c r="AMJ18"/>
     </row>
-    <row r="19" spans="1:1024" s="14" customFormat="1" ht="140" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1024" s="14" customFormat="1" ht="140.1" hidden="1" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>289</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>290</v>
+        <v>305</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>307</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="G19" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H19" s="8">
         <v>2005</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>745</v>
+        <v>319</v>
       </c>
       <c r="W19" s="10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="X19" s="10"/>
       <c r="Y19" s="3" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="Z19" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA19" s="40"/>
+        <v>89</v>
+      </c>
+      <c r="AA19" s="37"/>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
@@ -5969,84 +6102,84 @@
       <c r="AH19" s="2"/>
       <c r="AMJ19"/>
     </row>
-    <row r="20" spans="1:1024" s="14" customFormat="1" ht="190" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1024" s="14" customFormat="1" ht="189.95" hidden="1" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>304</v>
+        <v>320</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>322</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="G20" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H20" s="8">
         <v>2005</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>746</v>
+        <v>327</v>
       </c>
       <c r="W20" s="10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="X20" s="4"/>
       <c r="Y20" s="3" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="Z20" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA20" s="40"/>
+        <v>89</v>
+      </c>
+      <c r="AA20" s="37"/>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
@@ -6056,84 +6189,84 @@
       <c r="AH20" s="5"/>
       <c r="AMJ20"/>
     </row>
-    <row r="21" spans="1:1024" s="14" customFormat="1" ht="233" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1024" s="14" customFormat="1" ht="233.1" hidden="1" customHeight="1">
       <c r="A21" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B21" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>311</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="G21" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H21" s="8">
         <v>2005</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="L21" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="P21" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="M21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N21" s="2" t="s">
+      <c r="Q21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R21" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="O21" s="8" t="s">
+      <c r="S21" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="P21" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="T21" s="2" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>747</v>
+        <v>336</v>
       </c>
       <c r="W21" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X21" s="10"/>
       <c r="Y21" s="3" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="Z21" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA21" s="40"/>
+        <v>89</v>
+      </c>
+      <c r="AA21" s="37"/>
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
@@ -6143,84 +6276,84 @@
       <c r="AH21" s="2"/>
       <c r="AMJ21"/>
     </row>
-    <row r="22" spans="1:1024" s="6" customFormat="1" ht="199" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1024" s="6" customFormat="1" ht="198.95" hidden="1" customHeight="1">
       <c r="A22" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>318</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>319</v>
+        <v>337</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>339</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="S22" s="2"/>
       <c r="T22" s="2" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>748</v>
+        <v>352</v>
       </c>
       <c r="W22" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z22" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA22" s="40"/>
+        <v>151</v>
+      </c>
+      <c r="AA22" s="37"/>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
@@ -6230,84 +6363,84 @@
       <c r="AH22" s="5"/>
       <c r="AMJ22"/>
     </row>
-    <row r="23" spans="1:1024" s="6" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1024" s="6" customFormat="1" ht="153" hidden="1" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>333</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>334</v>
+        <v>353</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>355</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="2" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>749</v>
+        <v>368</v>
       </c>
       <c r="W23" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X23" s="10" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="Y23" s="3" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="Z23" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA23" s="40"/>
+        <v>89</v>
+      </c>
+      <c r="AA23" s="37"/>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
@@ -6317,84 +6450,84 @@
       <c r="AH23" s="2"/>
       <c r="AMJ23"/>
     </row>
-    <row r="24" spans="1:1024" s="6" customFormat="1" ht="187" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1024" s="6" customFormat="1" ht="186.95" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>348</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>349</v>
+        <v>370</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>371</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="H24" s="8">
         <v>2007</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="K24" s="13">
         <v>2000</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="O24" s="8">
         <v>1993</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24" s="2" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="W24" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X24" s="10" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="Y24" s="3" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="Z24" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA24" s="40"/>
+        <v>49</v>
+      </c>
+      <c r="AA24" s="37"/>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
@@ -6404,36 +6537,36 @@
       <c r="AH24" s="2"/>
       <c r="AMJ24"/>
     </row>
-    <row r="25" spans="1:1024" s="6" customFormat="1" ht="216" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1024" s="6" customFormat="1" ht="216" hidden="1" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>361</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>362</v>
+        <v>382</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>384</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H25" s="8">
         <v>2003</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="K25" s="13">
         <v>10272</v>
@@ -6442,46 +6575,46 @@
         <v>8093</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="2" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="W25" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="Y25" s="3" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="Z25" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA25" s="40"/>
+        <v>89</v>
+      </c>
+      <c r="AA25" s="37"/>
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
@@ -6491,86 +6624,86 @@
       <c r="AH25" s="5"/>
       <c r="AMJ25"/>
     </row>
-    <row r="26" spans="1:1024" s="6" customFormat="1" ht="228" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1024" s="6" customFormat="1" ht="228" hidden="1" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="C26" s="35" t="s">
-        <v>377</v>
+        <v>397</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>399</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="H26" s="8">
         <v>1932</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="O26" s="8">
         <v>1921</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>750</v>
+        <v>410</v>
       </c>
       <c r="W26" s="10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="X26" s="10" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="Z26" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA26" s="40"/>
+        <v>151</v>
+      </c>
+      <c r="AA26" s="37"/>
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
@@ -6580,86 +6713,86 @@
       <c r="AH26" s="2"/>
       <c r="AMJ26"/>
     </row>
-    <row r="27" spans="1:1024" s="6" customFormat="1" ht="202" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1024" s="6" customFormat="1" ht="201.95" hidden="1" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>391</v>
+        <v>412</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>414</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="H27" s="8">
         <v>1947</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="O27" s="8">
         <v>1936</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>751</v>
+        <v>421</v>
       </c>
       <c r="W27" s="10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="X27" s="10" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Y27" s="3" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="Z27" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA27" s="40"/>
+        <v>151</v>
+      </c>
+      <c r="AA27" s="37"/>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
@@ -6669,84 +6802,84 @@
       <c r="AH27" s="2"/>
       <c r="AMJ27"/>
     </row>
-    <row r="28" spans="1:1024" s="6" customFormat="1" ht="215" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1024" s="6" customFormat="1" ht="215.1" hidden="1" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>399</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>400</v>
+        <v>422</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>424</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H28" s="8">
         <v>2004</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="K28" s="13">
         <v>15770</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>729</v>
+        <v>430</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>752</v>
+        <v>434</v>
       </c>
       <c r="W28" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X28" s="10"/>
       <c r="Y28" s="3" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="Z28" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA28" s="40"/>
+        <v>89</v>
+      </c>
+      <c r="AA28" s="37"/>
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
@@ -6756,87 +6889,87 @@
       <c r="AH28" s="2"/>
       <c r="AMJ28"/>
     </row>
-    <row r="29" spans="1:1024" s="6" customFormat="1" ht="221" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1024" s="6" customFormat="1" ht="221.1" hidden="1" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>411</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>412</v>
+        <v>435</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>437</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H29" s="8">
         <v>2000</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>414</v>
+        <v>439</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="O29" s="8">
         <v>2000</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>406</v>
+        <v>442</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>753</v>
+        <v>446</v>
       </c>
       <c r="W29" s="10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="X29" s="10" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="Y29" s="3" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="Z29" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA29" s="41" t="s">
-        <v>420</v>
+        <v>121</v>
+      </c>
+      <c r="AA29" s="38" t="s">
+        <v>447</v>
       </c>
       <c r="AB29" s="12"/>
       <c r="AC29" s="12"/>
@@ -6847,79 +6980,79 @@
       <c r="AH29" s="12"/>
       <c r="AMJ29"/>
     </row>
-    <row r="30" spans="1:1024" s="2" customFormat="1" ht="140" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1024" s="2" customFormat="1" ht="140.1" hidden="1" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>422</v>
-      </c>
-      <c r="C30" s="35" t="s">
-        <v>423</v>
+        <v>448</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>450</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H30" s="8">
         <v>1999</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>432</v>
+        <v>459</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>433</v>
+        <v>460</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>434</v>
+        <v>461</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>754</v>
+        <v>462</v>
       </c>
       <c r="W30" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X30" s="4"/>
       <c r="Y30" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Z30" s="4"/>
-      <c r="AA30" s="40"/>
+      <c r="AA30" s="37"/>
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
@@ -6929,82 +7062,82 @@
       <c r="AH30" s="5"/>
       <c r="AMJ30"/>
     </row>
-    <row r="31" spans="1:1024" s="6" customFormat="1" ht="152" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1024" s="6" customFormat="1" ht="152.1" hidden="1" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>436</v>
-      </c>
-      <c r="C31" s="35" t="s">
-        <v>437</v>
+        <v>463</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>465</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>438</v>
+        <v>466</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>439</v>
+        <v>467</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>440</v>
+        <v>468</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H31" s="8">
         <v>1996</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>441</v>
+        <v>469</v>
       </c>
       <c r="K31" s="13">
         <v>1319475</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="Q31" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="S31" s="2"/>
       <c r="T31" s="2" t="s">
-        <v>446</v>
+        <v>474</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>755</v>
+        <v>476</v>
       </c>
       <c r="W31" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X31" s="10" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Y31" s="3" t="s">
-        <v>440</v>
+        <v>468</v>
       </c>
       <c r="Z31" s="10"/>
-      <c r="AA31" s="39"/>
+      <c r="AA31" s="36"/>
       <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
       <c r="AD31" s="8"/>
@@ -7014,83 +7147,83 @@
       <c r="AH31" s="8"/>
       <c r="AMJ31"/>
     </row>
-    <row r="32" spans="1:1024" s="2" customFormat="1" ht="294" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1024" s="2" customFormat="1" ht="294" hidden="1" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>449</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>450</v>
+        <v>477</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>479</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>451</v>
+        <v>480</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>452</v>
+        <v>481</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>453</v>
+        <v>482</v>
       </c>
       <c r="H32" s="17">
         <v>2006</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>454</v>
+        <v>483</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>455</v>
+        <v>484</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>455</v>
+        <v>484</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="O32" s="8">
         <v>1921</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>457</v>
+        <v>486</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>458</v>
+        <v>487</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>756</v>
+        <v>489</v>
       </c>
       <c r="W32" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X32" s="4" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Y32" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z32" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA32" s="40"/>
+        <v>183</v>
+      </c>
+      <c r="AA32" s="37"/>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
@@ -7100,84 +7233,84 @@
       <c r="AH32" s="5"/>
       <c r="AMJ32"/>
     </row>
-    <row r="33" spans="1:1024" s="6" customFormat="1" ht="284" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1024" s="6" customFormat="1" ht="264" hidden="1">
       <c r="A33" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>461</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>462</v>
+        <v>490</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>492</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>463</v>
+        <v>493</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H33" s="8">
         <v>1958</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>464</v>
+        <v>494</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>465</v>
+        <v>495</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>466</v>
+        <v>496</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="O33" s="8">
         <v>1958</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>467</v>
+        <v>497</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>468</v>
+        <v>498</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>757</v>
+        <v>501</v>
       </c>
       <c r="W33" s="10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="X33" s="10"/>
       <c r="Y33" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Z33" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA33" s="40"/>
+        <v>121</v>
+      </c>
+      <c r="AA33" s="37"/>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
@@ -7187,86 +7320,86 @@
       <c r="AH33" s="2"/>
       <c r="AMJ33"/>
     </row>
-    <row r="34" spans="1:1024" s="6" customFormat="1" ht="234" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1024" s="6" customFormat="1" ht="228" hidden="1">
       <c r="A34" s="18" t="s">
-        <v>471</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>472</v>
-      </c>
-      <c r="C34" s="35" t="s">
-        <v>473</v>
+        <v>502</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>504</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>474</v>
+        <v>505</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>475</v>
+        <v>506</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>476</v>
+        <v>507</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H34" s="8">
         <v>2014</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>477</v>
+        <v>508</v>
       </c>
       <c r="K34" s="13">
         <v>8504</v>
       </c>
       <c r="L34" s="13" t="s">
-        <v>478</v>
+        <v>509</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>479</v>
+        <v>510</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>480</v>
+        <v>511</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>481</v>
+        <v>512</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>482</v>
+        <v>513</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>483</v>
+        <v>514</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>484</v>
+        <v>515</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>485</v>
+        <v>516</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>758</v>
+        <v>517</v>
       </c>
       <c r="W34" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X34" s="4" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Y34" s="3" t="s">
-        <v>486</v>
+        <v>518</v>
       </c>
       <c r="Z34" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA34" s="40"/>
+        <v>151</v>
+      </c>
+      <c r="AA34" s="37"/>
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
@@ -7276,86 +7409,86 @@
       <c r="AH34" s="5"/>
       <c r="AMJ34"/>
     </row>
-    <row r="35" spans="1:1024" s="6" customFormat="1" ht="308" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1024" s="6" customFormat="1" ht="288" hidden="1">
       <c r="A35" s="18" t="s">
-        <v>487</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="C35" s="35" t="s">
-        <v>489</v>
+        <v>519</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>521</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>490</v>
+        <v>522</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>491</v>
+        <v>523</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H35" s="8">
         <v>1946</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>492</v>
+        <v>524</v>
       </c>
       <c r="K35" s="13">
         <v>5362</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>493</v>
+        <v>525</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="O35" s="8">
         <v>1946</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>494</v>
+        <v>526</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>495</v>
+        <v>527</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>496</v>
+        <v>528</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>759</v>
+        <v>529</v>
       </c>
       <c r="W35" s="4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="X35" s="4" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Y35" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Z35" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="AA35" s="40"/>
+        <v>530</v>
+      </c>
+      <c r="AA35" s="37"/>
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
@@ -7365,36 +7498,36 @@
       <c r="AH35" s="5"/>
       <c r="AMJ35"/>
     </row>
-    <row r="36" spans="1:1024" ht="208" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1024" ht="192" hidden="1">
       <c r="A36" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>499</v>
-      </c>
-      <c r="C36" s="35" t="s">
-        <v>500</v>
+        <v>531</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>533</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>501</v>
+        <v>534</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>502</v>
+        <v>535</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H36" s="8">
         <v>2014</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>503</v>
+        <v>536</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>504</v>
+        <v>537</v>
       </c>
       <c r="K36" s="13">
         <v>14000</v>
@@ -7403,120 +7536,120 @@
         <v>25000</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>479</v>
+        <v>510</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>505</v>
+        <v>538</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>506</v>
+        <v>539</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>507</v>
+        <v>540</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>508</v>
+        <v>541</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>760</v>
+        <v>542</v>
       </c>
       <c r="W36" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X36" s="4" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Y36" s="3" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="Z36" s="4" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
-    <row r="37" spans="1:1024" ht="221" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1024" ht="204" hidden="1">
       <c r="A37" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>510</v>
-      </c>
-      <c r="C37" s="35" t="s">
-        <v>511</v>
+        <v>543</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>545</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>512</v>
+        <v>546</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>513</v>
+        <v>547</v>
       </c>
       <c r="H37" s="8">
         <v>2015</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>514</v>
+        <v>548</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>515</v>
+        <v>549</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>516</v>
+        <v>550</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>517</v>
+        <v>551</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>518</v>
+        <v>552</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>519</v>
+        <v>553</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>520</v>
+        <v>554</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>521</v>
+        <v>555</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>761</v>
+        <v>556</v>
       </c>
       <c r="W37" s="10" t="s">
-        <v>522</v>
+        <v>557</v>
       </c>
       <c r="X37" s="10" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="Y37" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z37" s="10" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
@@ -7526,233 +7659,233 @@
       <c r="AG37" s="2"/>
       <c r="AH37" s="2"/>
     </row>
-    <row r="38" spans="1:1024" ht="169" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1024" ht="192" hidden="1">
       <c r="A38" s="18" t="s">
-        <v>523</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>524</v>
-      </c>
-      <c r="C38" s="35" t="s">
-        <v>525</v>
+        <v>558</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>559</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>560</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="H38" s="8">
         <v>2006</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S38" s="5"/>
       <c r="T38" s="2" t="s">
-        <v>534</v>
+        <v>569</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>536</v>
+        <v>571</v>
       </c>
       <c r="W38" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Y38" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z38" s="10" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
-    <row r="39" spans="1:1024" ht="332" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1024" ht="384" hidden="1">
       <c r="A39" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>538</v>
-      </c>
-      <c r="C39" s="35" t="s">
-        <v>539</v>
+        <v>572</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>573</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>574</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>542</v>
+        <v>577</v>
       </c>
       <c r="H39" s="8">
         <v>1988</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>543</v>
+        <v>578</v>
       </c>
       <c r="K39" s="13">
         <v>4858</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>544</v>
+        <v>579</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>545</v>
+        <v>580</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>546</v>
+        <v>581</v>
       </c>
       <c r="P39" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="V39" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="W39" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="X39" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z39" s="10" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1024" ht="168" hidden="1">
+      <c r="A40" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>589</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="T39" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="U39" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="V39" s="3" t="s">
-        <v>762</v>
-      </c>
-      <c r="W39" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="X39" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="Y39" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z39" s="10" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1024" ht="182" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>552</v>
-      </c>
-      <c r="C40" s="35" t="s">
-        <v>553</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>513</v>
       </c>
       <c r="H40" s="8">
         <v>2008</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>555</v>
+        <v>591</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>556</v>
+        <v>592</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>557</v>
+        <v>593</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>558</v>
+        <v>594</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>559</v>
+        <v>595</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>560</v>
+        <v>596</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>561</v>
+        <v>597</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>763</v>
+        <v>598</v>
       </c>
       <c r="W40" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X40" s="10" t="s">
-        <v>562</v>
+        <v>599</v>
       </c>
       <c r="Y40" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z40" s="10" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
@@ -7762,312 +7895,312 @@
       <c r="AG40" s="2"/>
       <c r="AH40" s="2"/>
     </row>
-    <row r="41" spans="1:1024" ht="247" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1024" ht="300" hidden="1">
       <c r="A41" s="18" t="s">
-        <v>563</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>564</v>
-      </c>
-      <c r="C41" s="35" t="s">
-        <v>565</v>
+        <v>600</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>602</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>566</v>
+        <v>603</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>567</v>
+        <v>604</v>
       </c>
       <c r="H41" s="8">
         <v>1998</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>568</v>
+        <v>605</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>569</v>
+        <v>606</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>570</v>
+        <v>607</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>571</v>
+        <v>608</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>572</v>
+        <v>609</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>573</v>
+        <v>610</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="S41" s="5"/>
       <c r="T41" s="2" t="s">
-        <v>574</v>
+        <v>611</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>575</v>
+        <v>612</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>764</v>
+        <v>613</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y41" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z41" s="10" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:1024" ht="234" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1024" ht="276" hidden="1">
       <c r="A42" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>577</v>
-      </c>
-      <c r="C42" s="35" t="s">
-        <v>578</v>
+        <v>614</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>615</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>616</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>579</v>
+        <v>617</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H42" s="8">
         <v>1994</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>580</v>
+        <v>618</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>581</v>
+        <v>619</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>582</v>
+        <v>620</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>583</v>
+        <v>621</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>701</v>
+        <v>623</v>
       </c>
       <c r="S42" s="5"/>
       <c r="T42" s="2" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>586</v>
+        <v>625</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="W42" s="4" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="Y42" s="3" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="Z42" s="10" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
     </row>
-    <row r="43" spans="1:1024" ht="234" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1024" ht="252" hidden="1">
       <c r="A43" s="18" t="s">
-        <v>588</v>
-      </c>
-      <c r="B43" s="32" t="s">
-        <v>589</v>
-      </c>
-      <c r="C43" s="35" t="s">
-        <v>590</v>
+        <v>627</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>628</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>629</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>591</v>
+        <v>630</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>592</v>
+        <v>631</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H43" s="8">
         <v>1992</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>593</v>
+        <v>632</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>594</v>
+        <v>633</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>595</v>
+        <v>634</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>596</v>
+        <v>635</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>597</v>
+        <v>636</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>598</v>
+        <v>637</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="S43" s="5"/>
       <c r="T43" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="U43" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="W43" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z43" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA43" s="37" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1024" ht="153" hidden="1" customHeight="1">
+      <c r="A44" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>644</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>645</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="O44" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="U44" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="W44" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="X44" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="U43" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="V43" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="W43" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="Y43" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="Z43" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA43" s="40" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1024" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="B44" s="32" t="s">
-        <v>605</v>
-      </c>
-      <c r="C44" s="35" t="s">
-        <v>606</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>609</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="O44" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="Q44" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R44" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="S44" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="T44" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="U44" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="V44" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="W44" s="10" t="s">
-        <v>619</v>
-      </c>
-      <c r="X44" s="10" t="s">
-        <v>562</v>
-      </c>
       <c r="Y44" s="3" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="Z44" s="10" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
@@ -8077,264 +8210,264 @@
       <c r="AG44" s="2"/>
       <c r="AH44" s="2"/>
     </row>
-    <row r="45" spans="1:1024" ht="308" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1024" ht="360" hidden="1">
       <c r="A45" s="18" t="s">
-        <v>620</v>
-      </c>
-      <c r="B45" s="32" t="s">
-        <v>621</v>
-      </c>
-      <c r="C45" s="35" t="s">
-        <v>622</v>
+        <v>661</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>662</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>663</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>623</v>
+        <v>664</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>624</v>
+        <v>665</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>625</v>
+        <v>666</v>
       </c>
       <c r="H45" s="8">
         <v>2007</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>626</v>
+        <v>667</v>
       </c>
       <c r="K45" s="13" t="s">
-        <v>627</v>
+        <v>668</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>628</v>
+        <v>669</v>
       </c>
       <c r="O45" s="8" t="s">
-        <v>629</v>
+        <v>670</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>630</v>
+        <v>671</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>631</v>
+        <v>672</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>632</v>
+        <v>673</v>
       </c>
       <c r="W45" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y45" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z45" s="10" t="s">
-        <v>633</v>
+        <v>674</v>
       </c>
     </row>
-    <row r="46" spans="1:1024" ht="247" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1024" ht="228" hidden="1">
       <c r="A46" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="B46" s="32" t="s">
-        <v>635</v>
-      </c>
-      <c r="C46" s="35" t="s">
-        <v>636</v>
+        <v>675</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>676</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>677</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>637</v>
+        <v>678</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>638</v>
+        <v>679</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="H46" s="8">
         <v>1985</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>639</v>
+        <v>680</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>640</v>
+        <v>681</v>
       </c>
       <c r="K46" s="13">
         <v>10308</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>641</v>
+        <v>682</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>642</v>
+        <v>683</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>643</v>
+        <v>684</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>644</v>
+        <v>685</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>645</v>
+        <v>687</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>646</v>
+        <v>688</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>647</v>
+        <v>689</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>766</v>
+        <v>690</v>
       </c>
       <c r="W46" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X46" s="4" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="Y46" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z46" s="10" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:1024" ht="272" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1024" ht="300" hidden="1">
       <c r="A47" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="B47" s="32" t="s">
-        <v>649</v>
-      </c>
-      <c r="C47" s="35" t="s">
-        <v>650</v>
+        <v>691</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>692</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>693</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>651</v>
+        <v>694</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>652</v>
+        <v>695</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>653</v>
+        <v>696</v>
       </c>
       <c r="H47" s="8">
         <v>1986</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>522</v>
+        <v>557</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>654</v>
+        <v>697</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>655</v>
+        <v>698</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>656</v>
+        <v>699</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>657</v>
+        <v>700</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>658</v>
+        <v>701</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>659</v>
+        <v>702</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>660</v>
+        <v>703</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>767</v>
+        <v>704</v>
       </c>
       <c r="W47" s="4" t="s">
-        <v>522</v>
+        <v>557</v>
       </c>
       <c r="Y47" s="3" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="Z47" s="4" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:1024" ht="182" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1024" ht="168" hidden="1">
       <c r="A48" s="7" t="s">
-        <v>661</v>
-      </c>
-      <c r="B48" s="32" t="s">
-        <v>662</v>
-      </c>
-      <c r="C48" s="35" t="s">
-        <v>663</v>
+        <v>705</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>706</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>707</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>664</v>
+        <v>708</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>665</v>
+        <v>709</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>666</v>
+        <v>710</v>
       </c>
       <c r="H48" s="2">
         <v>2014</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>667</v>
+        <v>711</v>
       </c>
       <c r="K48" s="9">
         <v>6616</v>
@@ -8343,72 +8476,72 @@
         <v>648</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>668</v>
+        <v>712</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>669</v>
+        <v>713</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>670</v>
+        <v>714</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R48" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="U48" s="39" t="s">
+        <v>717</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="W48" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z48" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" ht="144" hidden="1">
+      <c r="A49" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="B49" s="21" t="s">
         <v>720</v>
       </c>
-      <c r="T48" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="U48" s="42" t="s">
-        <v>671</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="W48" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y48" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z48" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" ht="156" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="B49" s="32" t="s">
-        <v>674</v>
-      </c>
-      <c r="C49" s="35" t="s">
-        <v>675</v>
+      <c r="C49" s="32" t="s">
+        <v>721</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>664</v>
+        <v>708</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>676</v>
+        <v>722</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H49" s="2">
         <v>2004</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>677</v>
+        <v>723</v>
       </c>
       <c r="K49" s="9">
         <v>53000</v>
@@ -8417,412 +8550,526 @@
         <v>724</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>678</v>
+        <v>725</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>679</v>
+        <v>726</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R49" s="20" t="s">
-        <v>79</v>
+        <v>42</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="U49" s="42" t="s">
-        <v>725</v>
+        <v>727</v>
+      </c>
+      <c r="U49" s="39" t="s">
+        <v>728</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>680</v>
+        <v>729</v>
       </c>
       <c r="W49" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X49" s="4" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="Y49" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Z49" s="10" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="345" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" ht="31.5" hidden="1" customHeight="1">
       <c r="A50" s="7" t="s">
-        <v>681</v>
-      </c>
-      <c r="B50" s="32" t="s">
-        <v>682</v>
-      </c>
-      <c r="C50" s="35" t="s">
-        <v>683</v>
+        <v>730</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>731</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>732</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>684</v>
+        <v>733</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>685</v>
+        <v>734</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H50" s="2">
         <v>1990</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>686</v>
+        <v>735</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>726</v>
+        <v>736</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>687</v>
+        <v>737</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>688</v>
+        <v>738</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T50" s="8" t="s">
-        <v>716</v>
+        <v>739</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>768</v>
+        <v>740</v>
       </c>
       <c r="W50" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X50" s="4" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="Y50" s="3" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
     </row>
-    <row r="51" spans="1:26" ht="272" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" ht="25.5" hidden="1" customHeight="1">
       <c r="A51" s="7" t="s">
-        <v>689</v>
-      </c>
-      <c r="B51" s="32" t="s">
-        <v>689</v>
-      </c>
-      <c r="C51" s="35" t="s">
-        <v>691</v>
+        <v>741</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>741</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>742</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>692</v>
+        <v>743</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>693</v>
+        <v>744</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H51" s="2">
         <v>2008</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="J51" s="21" t="s">
-        <v>694</v>
+        <v>259</v>
+      </c>
+      <c r="J51" s="19" t="s">
+        <v>745</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>695</v>
-      </c>
-      <c r="L51" s="20" t="s">
-        <v>697</v>
+        <v>746</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>747</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>696</v>
+        <v>748</v>
       </c>
       <c r="O51" s="2">
         <v>2007</v>
       </c>
-      <c r="P51" s="20" t="s">
-        <v>698</v>
+      <c r="P51" s="2" t="s">
+        <v>749</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R51" s="20" t="s">
         <v>42</v>
       </c>
+      <c r="R51" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="T51" s="2" t="s">
-        <v>717</v>
+        <v>750</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>699</v>
+        <v>751</v>
       </c>
       <c r="W51" s="4" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="Y51" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="Z51" s="22" t="s">
-        <v>700</v>
+        <v>271</v>
+      </c>
+      <c r="Z51" s="20" t="s">
+        <v>752</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="155" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" ht="19.5" hidden="1" customHeight="1">
       <c r="A52" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="B52" s="32" t="s">
-        <v>704</v>
-      </c>
-      <c r="C52" s="35" t="s">
-        <v>705</v>
+        <v>753</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>753</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>754</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>706</v>
+        <v>755</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>719</v>
+        <v>756</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>707</v>
+        <v>757</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H52" s="2">
         <v>2015</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="J52" s="37" t="s">
-        <v>709</v>
+        <v>758</v>
+      </c>
+      <c r="J52" s="34" t="s">
+        <v>759</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>723</v>
+        <v>760</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>710</v>
+        <v>761</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>711</v>
+        <v>762</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>712</v>
+        <v>763</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>722</v>
+        <v>764</v>
       </c>
       <c r="Q52" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="U52" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="W52" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="X52" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" ht="146.25" hidden="1" customHeight="1">
+      <c r="A53" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>769</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>770</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="H53" s="2">
+        <v>2006</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J53" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="Q53" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R52" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T52" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="U52" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="W52" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="X52" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="Y52" s="3" t="s">
-        <v>239</v>
+      <c r="R53" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="U53" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="V53" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="W53" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y53" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z53" s="4" t="s">
+        <v>183</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A53" s="7"/>
-      <c r="B53" s="32"/>
-      <c r="J53" s="19" t="s">
-        <v>690</v>
+    <row r="54" spans="1:26" ht="33.75" hidden="1" customHeight="1">
+      <c r="A54" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>785</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="H54" s="2">
+        <v>1961</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="K54" s="2">
+        <v>411</v>
+      </c>
+      <c r="L54" s="2">
+        <v>365</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="U54" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="W54" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y54" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="Z54" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A54" s="7"/>
-      <c r="B54" s="32"/>
+    <row r="55" spans="1:26">
+      <c r="A55" s="7"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A55" s="7"/>
-      <c r="B55" s="32"/>
+    <row r="56" spans="1:26">
+      <c r="A56" s="7"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A56" s="7"/>
-      <c r="B56" s="32"/>
+    <row r="57" spans="1:26">
+      <c r="A57" s="7"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A57" s="7"/>
-      <c r="B57" s="32"/>
+    <row r="58" spans="1:26">
+      <c r="A58" s="7"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A58" s="7"/>
-      <c r="B58" s="32"/>
+    <row r="59" spans="1:26">
+      <c r="A59" s="7"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A59" s="7"/>
-      <c r="B59" s="32"/>
+    <row r="60" spans="1:26">
+      <c r="A60" s="7"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A60" s="7"/>
-      <c r="B60" s="32"/>
+    <row r="61" spans="1:26">
+      <c r="A61" s="7"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A61" s="7"/>
-      <c r="B61" s="32"/>
+    <row r="62" spans="1:26">
+      <c r="A62" s="7"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A62" s="7"/>
-      <c r="B62" s="32"/>
+    <row r="63" spans="1:26">
+      <c r="A63" s="7"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A63" s="7"/>
-      <c r="B63" s="32"/>
+    <row r="64" spans="1:26">
+      <c r="A64" s="7"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A64" s="7"/>
-      <c r="B64" s="32"/>
+    <row r="65" spans="1:1">
+      <c r="A65" s="7"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="7"/>
-      <c r="B65" s="32"/>
+    <row r="66" spans="1:1">
+      <c r="A66" s="7"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="7"/>
-      <c r="B66" s="32"/>
+    <row r="67" spans="1:1">
+      <c r="A67" s="7"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="7"/>
-      <c r="B67" s="32"/>
+    <row r="68" spans="1:1">
+      <c r="A68" s="7"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="7"/>
-      <c r="B68" s="32"/>
+    <row r="69" spans="1:1">
+      <c r="A69" s="7"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="7"/>
-      <c r="B69" s="32"/>
+    <row r="70" spans="1:1">
+      <c r="A70" s="7"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="7"/>
-      <c r="B70" s="32"/>
+    <row r="71" spans="1:1">
+      <c r="A71" s="7"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="7"/>
-      <c r="B71" s="32"/>
+    <row r="72" spans="1:1">
+      <c r="A72" s="7"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="7"/>
-      <c r="B72" s="32"/>
+    <row r="73" spans="1:1">
+      <c r="A73" s="7"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="7"/>
-      <c r="B73" s="32"/>
+    <row r="74" spans="1:1">
+      <c r="A74" s="7"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="7"/>
-      <c r="B74" s="32"/>
+    <row r="75" spans="1:1">
+      <c r="A75" s="7"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="7"/>
-      <c r="B75" s="32"/>
+    <row r="76" spans="1:1">
+      <c r="A76" s="7"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="7"/>
-      <c r="B76" s="32"/>
+    <row r="77" spans="1:1">
+      <c r="A77" s="7"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="7"/>
-      <c r="B77" s="32"/>
+    <row r="78" spans="1:1">
+      <c r="A78" s="7"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="7"/>
-      <c r="B78" s="32"/>
+    <row r="79" spans="1:1">
+      <c r="A79" s="7"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="7"/>
-      <c r="B79" s="32"/>
+    <row r="80" spans="1:1">
+      <c r="A80" s="7"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="7"/>
-      <c r="B80" s="32"/>
+    <row r="81" spans="1:1">
+      <c r="A81" s="7"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="7"/>
-      <c r="B81" s="32"/>
+    <row r="82" spans="1:1">
+      <c r="A82" s="7"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="7"/>
-      <c r="B82" s="32"/>
+    <row r="83" spans="1:1">
+      <c r="A83" s="7"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="7"/>
-      <c r="B83" s="32"/>
+    <row r="84" spans="1:1">
+      <c r="A84" s="7"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="7"/>
-      <c r="B84" s="32"/>
+    <row r="85" spans="1:1">
+      <c r="A85" s="7"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="7"/>
-      <c r="B85" s="32"/>
+    <row r="86" spans="1:1">
+      <c r="A86" s="7"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="7"/>
-      <c r="B86" s="32"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1">
       <c r="A87" s="7"/>
-      <c r="B87" s="32"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AH53" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:AH54" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="ELSA"/>
+        <filter val="GSSFHS"/>
+        <filter val="IMAGEN"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH47">
       <sortCondition ref="A1:A47"/>
     </sortState>

--- a/xlsx/studies.xlsx
+++ b/xlsx/studies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26611"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\john\workspace\catalogueMentalHealth\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emckclac-my.sharepoint.com/personal/k1780970_kcl_ac_uk/Documents/1. Catalogue + work documents/1. Catalogue shared files/1. Catalogue/2. Catalogue study updates/Resource folders/cmhm_20May22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1A74F44-6173-4ACD-AFA9-35C837C915EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="634" documentId="13_ncr:1_{6F82A259-41A7-4DF6-B3CE-4CB00C898517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DAA5005-9160-458A-A748-811A5BE69EF2}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="3585" windowWidth="23145" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study details" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="826">
   <si>
     <t>Code</t>
   </si>
@@ -841,7 +841,7 @@
     <t>&lt;a href="https://borninbradford.nhs.uk/what-we-do/pregnancy-early-years/better-start/"&gt;borninbradford.nhs.uk/what-we-do/pregnancy-early-years/better-start&lt;/a&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">The BiBBS study aims to recruit 5000 babies, their mothers and their mothers’ partners over 5 years from January 2016-December 2020 from the three BSB areas. The BSB areas are very ethnically diverse, have higher rates of mortality and  morbidity, infant mortality, obesity and poor oral health compared with Bradford district and England. All pregnant women living in BSB areas who are registered to give birth at Bradford Teaching Hospitals NHS Foundation Trust (BTHFT) will be eligible for recruitment. The BTHFT is the only maternity unit covering this area. All babies born to women who have consented to participate in the cohort study will be included in the cohort. The partners of the women who have consented to take part will also be invited to participate. 
+    <t xml:space="preserve">The BiBBS study's sample size is aimed to be 5000 pregnancies and children born of these pregnancies, with recruitment ongoing from January 2016-2024 from the three BSB areas. The BSB areas are very ethnically diverse, have higher rates of mortality and  morbidity, infant mortality, obesity and poor oral health compared with Bradford district and England. All pregnant women living in BSB areas who are registered to give birth at Bradford Teaching Hospitals NHS Foundation Trust (BTHFT) will be eligible for recruitment. The BTHFT is the only maternity unit covering this area. All babies born to women who have consented to participate in the cohort study will be included in the cohort. The partners of the women who have consented to take part will also be invited to participate. 
 &lt;br&gt;&lt;br&gt;
 A system has been developed to flag all women living in the BSB areas on the electronic maternity system. When women attend their first appointment (around 10–12 weeks gestation), the BSB flag will prompt midwives to provide women with information on BSB and the BiBBS cohort study and obtain verbal assent to data sharing with the BiBBS research team. Researchers will identify eligible women who have provided assent to data sharing, and will approach women during the GTT clinic or other appointment to invite them to participate in the cohort. </t>
   </si>
@@ -1409,7 +1409,7 @@
     <t>1994-5</t>
   </si>
   <si>
-    <t xml:space="preserve">Project proposal - see data access guidance &lt;a href="https://sites.google.com/site/moffittcaspiprojects/"&gt;sites.google.com/site/moffittcaspiprojects&lt;/a&gt; </t>
+    <t xml:space="preserve">Project proposal - see data access guidance &lt;a href="https://sites.duke.edu/moffittcaspiprojects/data-use-guidelines/&lt;/a&gt; </t>
   </si>
   <si>
     <t>Crime and justice data,
@@ -1663,7 +1663,7 @@
   </si>
   <si>
     <t>Project proposal - contact study team &lt;br&gt;
-&lt;a href="https://www.ed.ac.uk/generation-scotland/using-resources/access-to-resources/access-process"&gt;ed.ac.uk/generation-scotland/using-resources/access-to-resources/access-process&lt;/a&gt;</t>
+&lt;a href="https://www.ed.ac.uk/generation-scotland/for-researchers/access"&gt;ed.ac.uk/generation-scotland/for-researchers/access&lt;/a&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Cohort Profile: Generation Scotland: Scottish Family Health Study (GS:SFHS). The study, its participants and their potential for genetic research on health and illness. &lt;br&gt;
@@ -1867,7 +1867,7 @@
     <t>The Hertfordshire Cohort Study (HCS) is a nationally unique study of 3,000 men and women born over 1931-1939 and still resident in the English county of Hertfordshire during the 1990s. The principal objective of the study is to evaluate the relationship between prenatal and early postnatal growth, genetic influences, adult lifestyle and the risk of common age-related disorders such as osteoporosis, osteoarthritis, sarcopenia, type 2 diabetes and cardiovascular disease. The HCS has been a key source of evidence for life course influences on health and disease in later life.</t>
   </si>
   <si>
-    <t>MRC Lifecourse Epidemiology Unit, University of Southampton</t>
+    <t>MRC Lifecourse Epidemiology Centre, University of Southampton</t>
   </si>
   <si>
     <t>&lt;a href="https://www.mrc.soton.ac.uk/herts/"&gt;mrc.soton.ac.uk/herts&lt;/a&gt;</t>
@@ -1884,14 +1884,14 @@
   </si>
   <si>
     <t>42,974 births (Birth records)&lt;br&gt;
-3,225 (HCS1)</t>
-  </si>
-  <si>
-    <t>3,225 (HCS1)</t>
+3,225 (HCS Baseline)</t>
+  </si>
+  <si>
+    <t>3,225 (HCS Baseline)</t>
   </si>
   <si>
     <t>Birth records: birth&lt;br&gt;
-HCS: 59-67 years</t>
+59-73 years at HCS Baseline (1998-2004)</t>
   </si>
   <si>
     <t>1931-39</t>
@@ -1902,7 +1902,11 @@
   </si>
   <si>
     <t>Cohort Profile: The Hertfordshire Cohort Study. &lt;br&gt;
-&lt;a href="https://doi.org/10.1093/ije/dyi127"&gt;doi.org/10.1093/ije/dyi127&lt;/a&gt;</t>
+&lt;a href="https://doi.org/10.1093/ije/dyi127"&gt;doi.org/10.1093/ije/dyi127&lt;/a&gt;
+&lt;br&gt;&lt;br&gt;
+Cohort Profile Update: The Hertfordshire Cohort Study: an overview.&lt;br&gt;
+&lt;a
+href="https://doi.org/10.12688%2Ff1000research.17457.1"&gt;doi.org/10.12688%2Ff1000research.17457.1&lt;/a&gt;</t>
   </si>
   <si>
     <t>MRC BHF ARUK ROS Wellcome SOTON</t>
@@ -2020,13 +2024,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
       <t>EUCom ERC MRC NIHR VR</t>
     </r>
     <r>
@@ -2109,7 +2106,7 @@
   <si>
     <t>Defence Analytical Services and Advice (DASA) identified personnel in all branches who deployed on TELIC 1 in the Joint Operational Area (this will include, for example, Iraq, Cyprus and Oman) and those who did not, but were present in the UK Armed Forces on 1 March 2003. These two populations were stratified by service and enlistment type (regular or reserve), the number of personnel sampled in each era stratum was calculated from the proportion of personnel in each TELIC 1 stratum. Because of concerns about the effects of deployment on reservists, reservists were oversampled by a ratio of 2:1. Of the 17,698 individuals identified by DASA, 10,272 consented to participate and returned questionnaires (58.7%), and were included in the study. A comparison of responders and non-responders showed bias due to non-response to be small and that increasing the response rate had little effect on the results; non-response was not influenced by health status (as assessed by objective data on medical downgrading), but was associated with single and enlisted young men.
 &lt;br&gt;&lt;br&gt;
-The cohort was supplemented with two further groups: the first comprised individuals deployed to Afghanistan over a 12-month period from April 2006, and the second included a replenishment sample comprising personnel who joined the military since the initial sample was recruited in 2003.</t>
+The cohort was supplemented with two further groups in 2007: the first comprised individuals deployed to Afghanistan over a 12-month period from April 2006, and the second included a replenishment sample comprising personnel who joined the military since the initial sample was recruited in 2003. A further replenishment sample was added in 2014 comprising personnel who joined the military between 2009 and 2013.</t>
   </si>
   <si>
     <t>1941-1995</t>
@@ -2126,7 +2123,7 @@
 &lt;a href="https://doi.org/10.1192/bjp.2018.175 "&gt;doi.org/10.1192/bjp.2018.175 &lt;/a&gt;</t>
   </si>
   <si>
-    <t>MoD</t>
+    <t>MoD OfVA</t>
   </si>
   <si>
     <t>Covid-19 data collection,
@@ -2277,6 +2274,7 @@
   </si>
   <si>
     <t>Education data,
+Health data,
 Income/tax and benefits</t>
   </si>
   <si>
@@ -2288,7 +2286,9 @@
 &lt;b&gt;&lt;u&gt;Impactful papers using study data&lt;/b&gt;&lt;/u&gt;&lt;br&gt;
 Childhood psychological distress and youth unemployment: Evidence from two British cohort studies. &lt;a href="https://doi.org/10.1016/j.socscimed.2014.11.023"&gt;doi.org/10.1016/j.socscimed.2014.11.023&lt;/a&gt;&lt;br&gt;
 Pre-pandemic mental health and disruptions to healthcare, economic and housing outcomes during the COVID-19 pandemic: evidence from 12 UK longitudinal studies.  &lt;a href="https://doi.org/10.1192/bjp.2021.132"&gt;doi.org/10.1192/bjp.2021.132&lt;/a&gt;&lt;br&gt;
-Common mental disorders prevalence in adolescents: A systematic review and meta-analyses. &lt;a href="https://doi.org/10.1371/journal.pone.0232007"&gt;doi.org/10.1371/journal.pone.0232007&lt;/a&gt;</t>
+Common mental disorders prevalence in adolescents: A systematic review and meta-analyses. &lt;a href="https://doi.org/10.1371/journal.pone.0232007"&gt;doi.org/10.1371/journal.pone.0232007&lt;/a&gt;&lt;br&gt;
+Mental health during lockdown: evidence from four generations. &lt;a
+href="https://cls.ucl.ac.uk/wp-content/uploads/2017/02/Mental-health-during-lockdown-%E2%80%93-initial-findings-from-COVID-19-survey-1.pdf"&gt;cls.ucl.ac.uk/wp-content/uploads/2017/02/Mental-health-during-lockdown-%E2%80%93-initial-findings-from-COVID-19-survey-1.pdf&lt;/a&gt;</t>
   </si>
   <si>
     <t>ESRC DfE</t>
@@ -2353,7 +2353,7 @@
 &lt;b&gt;&lt;u&gt;Impactful papers using study data&lt;/b&gt;&lt;/u&gt;&lt;br&gt;
 The association between adolescent well-being and digital technology use. &lt;a href="https://doi.org/10.1038/s41562-018-0506-1"&gt;doi.org/10.1038/s41562-018-0506-1&lt;/a&gt;&lt;br&gt;
 Economic deprivation, maternal depression, parenting and children's cognitive and emotional development in early childhood 1. &lt;a href="https://doi.org/10.1111/j.1468-4446.2008.00219.x"&gt;doi.org/10.1111/j.1468-4446.2008.00219.x&lt;/a&gt;&lt;br&gt;
-Changes in millennial adolescent mental health and health-related behaviours over 10 years: a population cohort comparison study.  &lt;a href="https://doi.org/10.1093/ije/dyz006"&gt;doi.org/10.1093/ije/dyz006&lt;/a&gt;</t>
+Correlates of mental illness and wellbeing in children: are they the same? Results from the UK Millennium Cohort Study.  &lt;a href="https://doi.org/10.1016/j.jaac.2016.05.019"&gt;doi.org/10.1016/j.jaac.2016.05.019&lt;/a&gt;</t>
   </si>
   <si>
     <t>ESRC DfE DoHSC DfWP DfT HOUK MoJ NIE Scot Welsh ONS Wellcome DHHS NIH&lt;br&gt;
@@ -2487,7 +2487,7 @@
 &lt;a href="https://doi.org/10.1093/ije/dyy065"&gt;doi.org/10.1093/ije/dyy065&lt;/a&gt; </t>
   </si>
   <si>
-    <t>CRUK</t>
+    <t>CRUK MRC</t>
   </si>
   <si>
     <t>Diet and nutrition,
@@ -2620,6 +2620,12 @@
 Social care - need</t>
   </si>
   <si>
+    <t>Linked administrative data,
+Genetic/genomic data,
+Mapping/spatial data,
+Observational/qualitative data</t>
+  </si>
+  <si>
     <t>NICOLA</t>
   </si>
   <si>
@@ -2666,13 +2672,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
       <t>AtlPhil ESRC UKCRC_NI</t>
     </r>
     <r>
@@ -3183,6 +3182,9 @@
     <t>The Southampton Women’s Survey (SWS) is the only birth cohort study in Europe in which mothers were recruited before conception of the child. The SWS aims to assess the influence of maternal dietary, lifestyle, intrauterine, genetic and epigenetic factors on the children’s health and development, and on the health of the mothers themselves. Using this information, the survey can inform the development of interventions to optimize fetal, infant, and childhood growth and development.</t>
   </si>
   <si>
+    <t>MRC Lifecourse Epidemiology Unit, University of Southampton</t>
+  </si>
+  <si>
     <t>&lt;a href="https://www.mrc.soton.ac.uk/sws/"&gt;mrc.soton.ac.uk/sws&lt;/a&gt;</t>
   </si>
   <si>
@@ -3216,13 +3218,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">MRC BHF </t>
     </r>
     <r>
@@ -3715,7 +3710,7 @@
 &lt;br&gt;&lt;br&gt;
 Inclusion criteria for CYP were: had a referral to the GIDS accepted; awaiting first appointment with the service when baseline measures were completed; speak English; live in the UK or the Republic of Ireland. Exclusion criteria for CYP were: aged &gt;14 years at the time their referral to the GIDS was accepted; already attended an appointment at the GIDS before baseline measures were completed; do not provide assent to take part; and do not have parent/caregiver consent. Parents/caregivers of eligible CYP will be asked to provide informed consent in order to participate and must also be proficient in English and live within the UK or the Republic of Ireland. 
 &lt;br&gt;&lt;br&gt;
-The LOGIC-Q sub-sample was comprised of 40 families who took part in the quantitative LOGIC study. The group was purposively sampled to be diverse in relation to assigned sex at birth, current age, social transition status (socially transitioned, partially socially transitioned and no social transition), ethnicity, diagnosis of Autism Spectrum Disorder (ASD), socio-economic status and geographical location. </t>
+The LOGIC-Q sub-sample was comprised of 39 families who took part in the quantitative LOGIC study. The group was purposively sampled to be diverse in relation to assigned sex at birth, current age, social transition status (socially transitioned, partially socially transitioned and no social transition), ethnicity, diagnosis of Autism, socio-economic status and geographical location. </t>
   </si>
   <si>
     <t>3-17 years</t>
@@ -3727,10 +3722,16 @@
     <t>Includes waves of LOGIC-Q qualitative sub-study</t>
   </si>
   <si>
-    <t xml:space="preserve">Longitudinal Outcomes of Gender Identity in Children (LOGIC): protocol for a prospective longitudinal cohort study of children referred to the UK gender identity development service 
-&lt;br&gt;
+    <t xml:space="preserve">Longitudinal Outcomes of Gender Identity in Children (LOGIC): protocol for a prospective longitudinal cohort study of children referred to the UK gender identity development service &lt;br&gt;
 &lt;a href="http://dx.doi.org/10.1136/bmjopen-2020-045628"&gt;dx.doi.org/10.1136/bmjopen-2020-045628
-&lt;/a&gt; </t>
+&lt;/a&gt; &lt;br&gt;&lt;br&gt;
+Longitudinal Outcomes of Gender Identity in Children (LOGIC): a study protocol for a prospective longitudinal qualitative study of the experiences and well-being of families referred to the UK Gender Identity Development Service&lt;br&gt;
+&lt;a href="http://dx.doi.org/10.1136/bmjopen-2020-047875"&gt;dx.doi.org/10.1136/bmjopen-2020-047875
+&lt;/a&gt; &lt;br&gt;&lt;br&gt;
+Thinking Time, Shifting Goalposts and Ticking Time Bombs: Experiences of Waiting on the Gender Identity Development Service Waiting List&lt;br&gt;
+&lt;a href="https://doi.org/10.3390/ijerph192113883"&gt;doi.org/10.3390/ijerph192113883
+&lt;/a&gt; 
+</t>
   </si>
   <si>
     <t xml:space="preserve">Biomarkers, 
@@ -3773,12 +3774,11 @@
 &lt;a href="https://beta.ukdataservice.ac.uk/datacatalogue/studies/study?id=4800&amp;type=Data%20catalogue"&gt;https://beta.ukdataservice.ac.uk/datacatalogue/studies/study?id=4800&amp;type=Data%20catalogue&lt;/a&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Social work records,
+    <t>Social work records,
 Children’s hearing records,
 Police records,
 School records,
-Geographic records,
-</t>
+Geographic records</t>
   </si>
   <si>
     <t xml:space="preserve">Theory and method in the Edinburgh Study of Youth Transitions and Crime. &lt;a href="https://doi.org/10.1093/bjc/43.1.169"&gt;doi.org/10.1093/bjc/43.1.169
@@ -3812,7 +3812,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3867,30 +3867,16 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color rgb="FF444444"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3970,7 +3956,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4024,9 +4010,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4049,7 +4032,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4064,9 +4046,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4086,10 +4065,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4475,21 +4457,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AMJ87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="V1" sqref="V1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="47" style="32" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="47" style="30" customWidth="1"/>
     <col min="4" max="4" width="41" style="2" customWidth="1"/>
     <col min="5" max="5" width="45.28515625" style="2" customWidth="1"/>
     <col min="6" max="7" width="44" style="2" customWidth="1"/>
@@ -4512,110 +4493,111 @@
     <col min="24" max="24" width="25.28515625" style="4" customWidth="1"/>
     <col min="25" max="25" width="44" style="3" customWidth="1"/>
     <col min="26" max="26" width="24" style="4" customWidth="1"/>
-    <col min="27" max="27" width="43.7109375" style="37" customWidth="1"/>
+    <col min="27" max="27" width="43.7109375" style="34" customWidth="1"/>
     <col min="28" max="34" width="8.85546875" style="5"/>
-    <col min="1024" max="1024" width="9.140625" customWidth="1"/>
+    <col min="35" max="1023" width="8.85546875" style="6"/>
+    <col min="1024" max="1024" width="9.140625" style="6" customWidth="1"/>
+    <col min="1025" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="27" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:1024" s="26" customFormat="1" ht="24" customHeight="1">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="S1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="T1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="U1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="24" t="s">
+      <c r="V1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="25" t="s">
+      <c r="W1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="25" t="s">
+      <c r="X1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="24" t="s">
+      <c r="Y1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="25" t="s">
+      <c r="Z1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="35" t="s">
+      <c r="AA1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AMJ1" s="28"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
     </row>
-    <row r="2" spans="1:1024" s="11" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1024" s="11" customFormat="1" ht="195" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="30" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -4636,7 +4618,7 @@
       <c r="I2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="14" t="s">
         <v>34</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -4683,7 +4665,7 @@
         <v>47</v>
       </c>
       <c r="Z2" s="4"/>
-      <c r="AA2" s="37"/>
+      <c r="AA2" s="34"/>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
@@ -4691,16 +4673,16 @@
       <c r="AF2" s="5"/>
       <c r="AG2" s="5"/>
       <c r="AH2" s="5"/>
-      <c r="AMJ2"/>
+      <c r="AMJ2" s="6"/>
     </row>
-    <row r="3" spans="1:1024" s="14" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1024" s="14" customFormat="1" ht="126.75" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="37" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -4770,7 +4752,7 @@
       <c r="Z3" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AA3" s="36"/>
+      <c r="AA3" s="33"/>
       <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
       <c r="AD3" s="8"/>
@@ -4778,16 +4760,16 @@
       <c r="AF3" s="8"/>
       <c r="AG3" s="8"/>
       <c r="AH3" s="8"/>
-      <c r="AMJ3"/>
+      <c r="AMJ3" s="6"/>
     </row>
-    <row r="4" spans="1:1024" s="14" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1024" s="14" customFormat="1" ht="135.75" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="30" t="s">
         <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -4839,7 +4821,7 @@
       <c r="T4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="U4" s="39" t="s">
+      <c r="U4" s="36" t="s">
         <v>81</v>
       </c>
       <c r="V4" s="3" t="s">
@@ -4857,7 +4839,7 @@
       <c r="Z4" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AA4" s="37"/>
+      <c r="AA4" s="34"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
@@ -4865,16 +4847,16 @@
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
-      <c r="AMJ4"/>
+      <c r="AMJ4" s="6"/>
     </row>
-    <row r="5" spans="1:1024" s="2" customFormat="1" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1024" s="2" customFormat="1" ht="110.1" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="30" t="s">
         <v>87</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -4944,7 +4926,7 @@
       <c r="Z5" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="AA5" s="37" t="s">
+      <c r="AA5" s="34" t="s">
         <v>104</v>
       </c>
       <c r="AB5" s="5"/>
@@ -4954,16 +4936,16 @@
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
       <c r="AH5" s="5"/>
-      <c r="AMJ5"/>
+      <c r="AMJ5" s="6"/>
     </row>
-    <row r="6" spans="1:1024" s="14" customFormat="1" ht="276" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1024" s="14" customFormat="1" ht="264">
       <c r="A6" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="30" t="s">
         <v>107</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -5033,7 +5015,7 @@
       <c r="Z6" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="AA6" s="37"/>
+      <c r="AA6" s="34"/>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
@@ -5041,16 +5023,16 @@
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
       <c r="AH6" s="5"/>
-      <c r="AMJ6"/>
+      <c r="AMJ6" s="6"/>
     </row>
-    <row r="7" spans="1:1024" s="16" customFormat="1" ht="131.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1024" s="16" customFormat="1" ht="131.1" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="30" t="s">
         <v>124</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -5118,7 +5100,7 @@
         <v>83</v>
       </c>
       <c r="Z7" s="4"/>
-      <c r="AA7" s="37"/>
+      <c r="AA7" s="34"/>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
@@ -5126,16 +5108,16 @@
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
-      <c r="AMJ7"/>
+      <c r="AMJ7" s="6"/>
     </row>
-    <row r="8" spans="1:1024" s="14" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1024" s="14" customFormat="1" ht="120" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="30" t="s">
         <v>137</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -5203,7 +5185,7 @@
       <c r="Z8" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AA8" s="37"/>
+      <c r="AA8" s="34"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
@@ -5211,16 +5193,16 @@
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
-      <c r="AMJ8"/>
+      <c r="AMJ8" s="6"/>
     </row>
-    <row r="9" spans="1:1024" s="14" customFormat="1" ht="123.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1024" s="14" customFormat="1" ht="123.95" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="30" t="s">
         <v>153</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -5290,7 +5272,7 @@
       <c r="Z9" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="AA9" s="37"/>
+      <c r="AA9" s="34"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
@@ -5298,16 +5280,16 @@
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
-      <c r="AMJ9"/>
+      <c r="AMJ9" s="6"/>
     </row>
-    <row r="10" spans="1:1024" s="14" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1024" s="14" customFormat="1" ht="96" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="30" t="s">
         <v>169</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -5377,7 +5359,7 @@
       <c r="Z10" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="AA10" s="37"/>
+      <c r="AA10" s="34"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
@@ -5385,16 +5367,16 @@
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
-      <c r="AMJ10"/>
+      <c r="AMJ10" s="6"/>
     </row>
-    <row r="11" spans="1:1024" s="14" customFormat="1" ht="155.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1024" s="14" customFormat="1" ht="155.1" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="30" t="s">
         <v>186</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -5464,7 +5446,7 @@
       <c r="Z11" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AA11" s="37"/>
+      <c r="AA11" s="34"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
@@ -5472,16 +5454,16 @@
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
-      <c r="AMJ11"/>
+      <c r="AMJ11" s="6"/>
     </row>
-    <row r="12" spans="1:1024" s="14" customFormat="1" ht="207.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1024" s="14" customFormat="1" ht="207.95" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="30" t="s">
         <v>198</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -5551,7 +5533,7 @@
       <c r="Z12" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="AA12" s="37"/>
+      <c r="AA12" s="34"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
@@ -5559,16 +5541,16 @@
       <c r="AF12" s="5"/>
       <c r="AG12" s="5"/>
       <c r="AH12" s="5"/>
-      <c r="AMJ12"/>
+      <c r="AMJ12" s="6"/>
     </row>
-    <row r="13" spans="1:1024" s="14" customFormat="1" ht="141.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1024" s="14" customFormat="1" ht="141.94999999999999" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="30" t="s">
         <v>215</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -5638,7 +5620,7 @@
       <c r="Z13" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AA13" s="37"/>
+      <c r="AA13" s="34"/>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
@@ -5646,16 +5628,16 @@
       <c r="AF13" s="5"/>
       <c r="AG13" s="5"/>
       <c r="AH13" s="5"/>
-      <c r="AMJ13"/>
+      <c r="AMJ13" s="6"/>
     </row>
-    <row r="14" spans="1:1024" s="16" customFormat="1" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1024" s="16" customFormat="1" ht="162.75" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="30" t="s">
         <v>229</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -5725,7 +5707,7 @@
       <c r="Z14" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AA14" s="37"/>
+      <c r="AA14" s="34"/>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
@@ -5733,16 +5715,16 @@
       <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
-      <c r="AMJ14"/>
+      <c r="AMJ14" s="6"/>
     </row>
-    <row r="15" spans="1:1024" s="2" customFormat="1" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1024" s="2" customFormat="1" ht="129.94999999999999" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="30" t="s">
         <v>242</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -5811,7 +5793,7 @@
       <c r="Z15" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AA15" s="37"/>
+      <c r="AA15" s="34"/>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
@@ -5819,16 +5801,16 @@
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
       <c r="AH15" s="5"/>
-      <c r="AMJ15"/>
+      <c r="AMJ15" s="6"/>
     </row>
-    <row r="16" spans="1:1024" s="14" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1024" s="14" customFormat="1" ht="87" customHeight="1">
       <c r="A16" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="30" t="s">
         <v>255</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -5898,7 +5880,7 @@
       <c r="Z16" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="AA16" s="37"/>
+      <c r="AA16" s="34"/>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
@@ -5906,16 +5888,16 @@
       <c r="AF16" s="5"/>
       <c r="AG16" s="5"/>
       <c r="AH16" s="5"/>
-      <c r="AMJ16"/>
+      <c r="AMJ16" s="6"/>
     </row>
-    <row r="17" spans="1:1024" s="14" customFormat="1" ht="183.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1024" s="14" customFormat="1" ht="183.95" customHeight="1">
       <c r="A17" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="30" t="s">
         <v>271</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -5983,7 +5965,7 @@
         <v>67</v>
       </c>
       <c r="Z17" s="10"/>
-      <c r="AA17" s="37"/>
+      <c r="AA17" s="34"/>
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
@@ -5991,16 +5973,16 @@
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
-      <c r="AMJ17"/>
+      <c r="AMJ17" s="6"/>
     </row>
-    <row r="18" spans="1:1024" s="14" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1024" s="14" customFormat="1" ht="103.5" customHeight="1">
       <c r="A18" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="31" t="s">
         <v>285</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -6070,7 +6052,7 @@
       <c r="Z18" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="AA18" s="37"/>
+      <c r="AA18" s="34"/>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
@@ -6078,16 +6060,16 @@
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
-      <c r="AMJ18"/>
+      <c r="AMJ18" s="6"/>
     </row>
-    <row r="19" spans="1:1024" s="14" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1024" s="14" customFormat="1" ht="140.1" customHeight="1">
       <c r="A19" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="30" t="s">
         <v>300</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -6155,7 +6137,7 @@
         <v>47</v>
       </c>
       <c r="Z19" s="4"/>
-      <c r="AA19" s="37"/>
+      <c r="AA19" s="34"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
@@ -6163,16 +6145,16 @@
       <c r="AF19" s="5"/>
       <c r="AG19" s="5"/>
       <c r="AH19" s="5"/>
-      <c r="AMJ19"/>
+      <c r="AMJ19" s="6"/>
     </row>
-    <row r="20" spans="1:1024" s="14" customFormat="1" ht="189.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1024" s="14" customFormat="1" ht="189.95" customHeight="1">
       <c r="A20" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="30" t="s">
         <v>315</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -6240,7 +6222,7 @@
       <c r="Z20" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="AA20" s="37"/>
+      <c r="AA20" s="34"/>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
@@ -6248,16 +6230,16 @@
       <c r="AF20" s="5"/>
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
-      <c r="AMJ20"/>
+      <c r="AMJ20" s="6"/>
     </row>
-    <row r="21" spans="1:1024" s="14" customFormat="1" ht="233.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1024" s="14" customFormat="1" ht="233.1" customHeight="1">
       <c r="A21" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="30" t="s">
         <v>333</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -6325,7 +6307,7 @@
         <v>47</v>
       </c>
       <c r="Z21" s="4"/>
-      <c r="AA21" s="37"/>
+      <c r="AA21" s="34"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
@@ -6333,16 +6315,16 @@
       <c r="AF21" s="5"/>
       <c r="AG21" s="5"/>
       <c r="AH21" s="5"/>
-      <c r="AMJ21"/>
+      <c r="AMJ21" s="6"/>
     </row>
-    <row r="22" spans="1:1024" s="6" customFormat="1" ht="198.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1024" ht="198.95" customHeight="1">
       <c r="A22" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="30" t="s">
         <v>347</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -6390,7 +6372,6 @@
       <c r="R22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="S22" s="2"/>
       <c r="T22" s="8" t="s">
         <v>354</v>
       </c>
@@ -6409,25 +6390,15 @@
       <c r="Y22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="37"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5"/>
-      <c r="AF22" s="5"/>
-      <c r="AG22" s="5"/>
-      <c r="AH22" s="5"/>
-      <c r="AMJ22"/>
     </row>
-    <row r="23" spans="1:1024" s="6" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1024" ht="153" customHeight="1">
       <c r="A23" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="30" t="s">
         <v>358</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -6448,7 +6419,7 @@
       <c r="I23" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="J23" s="19" t="s">
+      <c r="J23" s="39" t="s">
         <v>361</v>
       </c>
       <c r="K23" s="9" t="s">
@@ -6475,7 +6446,6 @@
       <c r="R23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="S23" s="2"/>
       <c r="T23" s="2" t="s">
         <v>366</v>
       </c>
@@ -6488,31 +6458,21 @@
       <c r="W23" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="X23" s="4"/>
       <c r="Y23" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="Z23" s="20" t="s">
+      <c r="Z23" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="AA23" s="37"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
-      <c r="AG23" s="5"/>
-      <c r="AH23" s="5"/>
-      <c r="AMJ23"/>
     </row>
-    <row r="24" spans="1:1024" s="6" customFormat="1" ht="186.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1024" ht="186.95" customHeight="1">
       <c r="A24" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="30" t="s">
         <v>372</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -6560,7 +6520,6 @@
       <c r="R24" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="S24" s="2"/>
       <c r="T24" s="2" t="s">
         <v>383</v>
       </c>
@@ -6580,7 +6539,7 @@
       <c r="Z24" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AA24" s="37" t="s">
+      <c r="AA24" s="34" t="s">
         <v>387</v>
       </c>
       <c r="AB24" s="2"/>
@@ -6590,16 +6549,15 @@
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
-      <c r="AMJ24"/>
     </row>
-    <row r="25" spans="1:1024" s="6" customFormat="1" ht="216" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1024" ht="216" customHeight="1">
       <c r="A25" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="20" t="s">
         <v>389</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="30" t="s">
         <v>390</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -6669,7 +6627,6 @@
       <c r="Z25" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="AA25" s="37"/>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
@@ -6677,16 +6634,15 @@
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
-      <c r="AMJ25"/>
     </row>
-    <row r="26" spans="1:1024" s="6" customFormat="1" ht="228" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1024" ht="228" customHeight="1">
       <c r="A26" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="20" t="s">
         <v>404</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="30" t="s">
         <v>405</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -6749,31 +6705,21 @@
       <c r="W26" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="X26" s="4"/>
       <c r="Y26" s="3" t="s">
         <v>386</v>
       </c>
       <c r="Z26" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="AA26" s="37"/>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="5"/>
-      <c r="AD26" s="5"/>
-      <c r="AE26" s="5"/>
-      <c r="AF26" s="5"/>
-      <c r="AG26" s="5"/>
-      <c r="AH26" s="5"/>
-      <c r="AMJ26"/>
     </row>
-    <row r="27" spans="1:1024" s="6" customFormat="1" ht="201.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1024" ht="201.95" customHeight="1">
       <c r="A27" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="20" t="s">
         <v>412</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="30" t="s">
         <v>413</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -6843,7 +6789,6 @@
       <c r="Z27" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="AA27" s="37"/>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
@@ -6851,16 +6796,15 @@
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
-      <c r="AMJ27"/>
     </row>
-    <row r="28" spans="1:1024" s="6" customFormat="1" ht="215.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1024" ht="215.1" customHeight="1">
       <c r="A28" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="20" t="s">
         <v>421</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="30" t="s">
         <v>422</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -6908,7 +6852,6 @@
       <c r="R28" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="S28" s="2"/>
       <c r="T28" s="2" t="s">
         <v>433</v>
       </c>
@@ -6930,24 +6873,15 @@
       <c r="Z28" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AA28" s="37"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="5"/>
-      <c r="AG28" s="5"/>
-      <c r="AH28" s="5"/>
-      <c r="AMJ28"/>
     </row>
-    <row r="29" spans="1:1024" s="6" customFormat="1" ht="221.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1024" ht="221.1" customHeight="1">
       <c r="A29" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="20" t="s">
         <v>437</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="30" t="s">
         <v>438</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -6995,7 +6929,6 @@
       <c r="R29" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="S29" s="2"/>
       <c r="T29" s="2" t="s">
         <v>449</v>
       </c>
@@ -7017,7 +6950,6 @@
       <c r="Z29" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="AA29" s="37"/>
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
@@ -7025,16 +6957,15 @@
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
       <c r="AH29" s="2"/>
-      <c r="AMJ29"/>
     </row>
-    <row r="30" spans="1:1024" s="2" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1024" s="2" customFormat="1" ht="140.1" customHeight="1">
       <c r="A30" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="20" t="s">
         <v>453</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="30" t="s">
         <v>454</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -7103,17 +7034,17 @@
       <c r="Z30" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AA30" s="37"/>
-      <c r="AMJ30"/>
+      <c r="AA30" s="34"/>
+      <c r="AMJ30" s="6"/>
     </row>
-    <row r="31" spans="1:1024" s="6" customFormat="1" ht="152.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1024" ht="152.1" customHeight="1">
       <c r="A31" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="30" t="s">
         <v>467</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -7161,7 +7092,6 @@
       <c r="R31" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="S31" s="2"/>
       <c r="T31" s="2" t="s">
         <v>476</v>
       </c>
@@ -7183,24 +7113,15 @@
       <c r="Z31" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="AA31" s="37"/>
-      <c r="AB31" s="5"/>
-      <c r="AC31" s="5"/>
-      <c r="AD31" s="5"/>
-      <c r="AE31" s="5"/>
-      <c r="AF31" s="5"/>
-      <c r="AG31" s="5"/>
-      <c r="AH31" s="5"/>
-      <c r="AMJ31"/>
     </row>
-    <row r="32" spans="1:1024" s="2" customFormat="1" ht="294" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1024" s="2" customFormat="1" ht="294" customHeight="1">
       <c r="A32" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="20" t="s">
         <v>480</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="30" t="s">
         <v>481</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -7272,17 +7193,17 @@
       <c r="Z32" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AA32" s="37"/>
-      <c r="AMJ32"/>
+      <c r="AA32" s="34"/>
+      <c r="AMJ32" s="6"/>
     </row>
-    <row r="33" spans="1:1024" s="6" customFormat="1" ht="204" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" ht="213.75">
       <c r="A33" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="20" t="s">
         <v>495</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="30" t="s">
         <v>496</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -7354,7 +7275,6 @@
       <c r="Z33" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AA33" s="37"/>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
@@ -7362,16 +7282,15 @@
       <c r="AF33" s="2"/>
       <c r="AG33" s="2"/>
       <c r="AH33" s="2"/>
-      <c r="AMJ33"/>
     </row>
-    <row r="34" spans="1:1024" s="6" customFormat="1" ht="228" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" ht="264">
       <c r="A34" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="30" t="s">
         <v>506</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -7441,7 +7360,6 @@
       <c r="Z34" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="AA34" s="37"/>
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
@@ -7449,16 +7367,15 @@
       <c r="AF34" s="2"/>
       <c r="AG34" s="2"/>
       <c r="AH34" s="2"/>
-      <c r="AMJ34"/>
     </row>
-    <row r="35" spans="1:1024" s="6" customFormat="1" ht="300" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" ht="301.5">
       <c r="A35" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="20" t="s">
         <v>518</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="30" t="s">
         <v>519</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -7530,7 +7447,7 @@
       <c r="Z35" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="AA35" s="38" t="s">
+      <c r="AA35" s="35" t="s">
         <v>529</v>
       </c>
       <c r="AB35" s="12"/>
@@ -7540,16 +7457,15 @@
       <c r="AF35" s="12"/>
       <c r="AG35" s="12"/>
       <c r="AH35" s="12"/>
-      <c r="AMJ35"/>
     </row>
-    <row r="36" spans="1:1024" ht="180" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" ht="162.75">
       <c r="A36" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="20" t="s">
         <v>531</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="30" t="s">
         <v>532</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -7613,14 +7529,14 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:1024" ht="168" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" ht="150.75">
       <c r="A37" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="20" t="s">
         <v>546</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="30" t="s">
         <v>547</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -7687,7 +7603,7 @@
         <v>550</v>
       </c>
       <c r="Z37" s="10"/>
-      <c r="AA37" s="36"/>
+      <c r="AA37" s="33"/>
       <c r="AB37" s="8"/>
       <c r="AC37" s="8"/>
       <c r="AD37" s="8"/>
@@ -7696,14 +7612,14 @@
       <c r="AG37" s="8"/>
       <c r="AH37" s="8"/>
     </row>
-    <row r="38" spans="1:1024" ht="228" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" ht="213.75">
       <c r="A38" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="28" t="s">
         <v>560</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="30" t="s">
         <v>561</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -7773,14 +7689,14 @@
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:1024" ht="264" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" ht="264">
       <c r="A39" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="20" t="s">
         <v>573</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="30" t="s">
         <v>574</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -7848,7 +7764,7 @@
         <v>83</v>
       </c>
       <c r="Z39" s="10" t="s">
-        <v>166</v>
+        <v>584</v>
       </c>
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
@@ -7858,24 +7774,24 @@
       <c r="AG39" s="2"/>
       <c r="AH39" s="2"/>
     </row>
-    <row r="40" spans="1:1024" ht="228" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" ht="213.75">
       <c r="A40" s="18" t="s">
-        <v>584</v>
-      </c>
-      <c r="B40" s="21" t="s">
         <v>585</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="B40" s="20" t="s">
         <v>586</v>
       </c>
+      <c r="C40" s="30" t="s">
+        <v>587</v>
+      </c>
       <c r="D40" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>32</v>
@@ -7887,43 +7803,43 @@
         <v>211</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="K40" s="13">
         <v>8504</v>
       </c>
       <c r="L40" s="13" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>58</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Q40" s="2" t="s">
         <v>62</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="W40" s="4" t="s">
         <v>45</v>
@@ -7932,27 +7848,27 @@
         <v>211</v>
       </c>
       <c r="Y40" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="Z40" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:1024" ht="276" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" ht="288.75">
       <c r="A41" s="18" t="s">
-        <v>601</v>
-      </c>
-      <c r="B41" s="21" t="s">
         <v>602</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="B41" s="20" t="s">
         <v>603</v>
       </c>
+      <c r="C41" s="30" t="s">
+        <v>604</v>
+      </c>
       <c r="D41" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>74</v>
@@ -7967,13 +7883,13 @@
         <v>211</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="K41" s="13">
         <v>5362</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M41" s="2" t="s">
         <v>58</v>
@@ -7985,7 +7901,7 @@
         <v>1946</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="Q41" s="2" t="s">
         <v>62</v>
@@ -7994,16 +7910,16 @@
         <v>79</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="U41" s="2" t="s">
         <v>64</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="W41" s="4" t="s">
         <v>156</v>
@@ -8015,24 +7931,24 @@
         <v>83</v>
       </c>
       <c r="Z41" s="10" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
-    <row r="42" spans="1:1024" ht="204" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" ht="200.25">
       <c r="A42" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="B42" s="21" t="s">
         <v>614</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="B42" s="20" t="s">
         <v>615</v>
       </c>
+      <c r="C42" s="30" t="s">
+        <v>616</v>
+      </c>
       <c r="D42" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>470</v>
@@ -8044,10 +7960,10 @@
         <v>2014</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="K42" s="13">
         <v>14000</v>
@@ -8062,10 +7978,10 @@
         <v>204</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="Q42" s="2" t="s">
         <v>62</v>
@@ -8074,13 +7990,13 @@
         <v>41</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="W42" s="4" t="s">
         <v>45</v>
@@ -8095,21 +8011,21 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:1024" ht="192" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" ht="200.25">
       <c r="A43" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="B43" s="21" t="s">
         <v>626</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="B43" s="20" t="s">
         <v>627</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>628</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>53</v>
@@ -8121,13 +8037,13 @@
         <v>2015</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>190</v>
@@ -8136,13 +8052,13 @@
         <v>58</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="Q43" s="2" t="s">
         <v>62</v>
@@ -8151,16 +8067,16 @@
         <v>41</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="W43" s="10" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="X43" s="10" t="s">
         <v>183</v>
@@ -8179,27 +8095,27 @@
       <c r="AG43" s="2"/>
       <c r="AH43" s="2"/>
     </row>
-    <row r="44" spans="1:1024" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" ht="153" customHeight="1">
       <c r="A44" s="18" t="s">
-        <v>639</v>
-      </c>
-      <c r="B44" s="21" t="s">
         <v>640</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="B44" s="20" t="s">
         <v>641</v>
       </c>
+      <c r="C44" s="30" t="s">
+        <v>642</v>
+      </c>
       <c r="D44" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H44" s="8">
         <v>2006</v>
@@ -8208,13 +8124,13 @@
         <v>45</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="K44" s="13" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M44" s="2" t="s">
         <v>58</v>
@@ -8223,10 +8139,10 @@
         <v>460</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="Q44" s="2" t="s">
         <v>62</v>
@@ -8236,13 +8152,13 @@
       </c>
       <c r="S44" s="5"/>
       <c r="T44" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="W44" s="4" t="s">
         <v>45</v>
@@ -8254,27 +8170,27 @@
         <v>212</v>
       </c>
     </row>
-    <row r="45" spans="1:1024" ht="384" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" ht="351.75">
       <c r="A45" s="7" t="s">
-        <v>653</v>
-      </c>
-      <c r="B45" s="21" t="s">
         <v>654</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="B45" s="20" t="s">
         <v>655</v>
       </c>
+      <c r="C45" s="30" t="s">
+        <v>656</v>
+      </c>
       <c r="D45" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H45" s="8">
         <v>1988</v>
@@ -8283,25 +8199,25 @@
         <v>45</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K45" s="13">
         <v>4858</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="M45" s="2" t="s">
         <v>58</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="Q45" s="2" t="s">
         <v>62</v>
@@ -8310,48 +8226,48 @@
         <v>79</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="W45" s="10" t="s">
         <v>45</v>
       </c>
       <c r="X45" s="10" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>67</v>
       </c>
       <c r="Z45" s="10" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
-    <row r="46" spans="1:1024" ht="168" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" ht="175.5">
       <c r="A46" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="B46" s="21" t="s">
         <v>669</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="B46" s="20" t="s">
         <v>670</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>671</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H46" s="2">
         <v>2014</v>
@@ -8360,7 +8276,7 @@
         <v>45</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="K46" s="9">
         <v>6616</v>
@@ -8372,28 +8288,28 @@
         <v>58</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="Q46" s="2" t="s">
         <v>62</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="U46" s="39" t="s">
         <v>679</v>
       </c>
+      <c r="U46" s="36" t="s">
+        <v>680</v>
+      </c>
       <c r="V46" s="3" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="W46" s="4" t="s">
         <v>45</v>
@@ -8405,21 +8321,21 @@
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:1024" ht="168" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" ht="175.5">
       <c r="A47" s="7" t="s">
-        <v>681</v>
-      </c>
-      <c r="B47" s="21" t="s">
         <v>682</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="B47" s="20" t="s">
         <v>683</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>684</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>53</v>
@@ -8434,13 +8350,13 @@
         <v>45</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="M47" s="2" t="s">
         <v>58</v>
@@ -8449,10 +8365,10 @@
         <v>129</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="Q47" s="2" t="s">
         <v>62</v>
@@ -8461,19 +8377,19 @@
         <v>79</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="W47" s="10" t="s">
         <v>45</v>
       </c>
       <c r="X47" s="10" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="Y47" s="3" t="s">
         <v>67</v>
@@ -8489,27 +8405,27 @@
       <c r="AG47" s="2"/>
       <c r="AH47" s="2"/>
     </row>
-    <row r="48" spans="1:1024" ht="300" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" ht="264">
       <c r="A48" s="18" t="s">
-        <v>694</v>
-      </c>
-      <c r="B48" s="21" t="s">
         <v>695</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="B48" s="20" t="s">
         <v>696</v>
       </c>
+      <c r="C48" s="30" t="s">
+        <v>697</v>
+      </c>
       <c r="D48" s="2" t="s">
-        <v>423</v>
+        <v>698</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H48" s="8">
         <v>1998</v>
@@ -8518,25 +8434,25 @@
         <v>45</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="M48" s="2" t="s">
         <v>58</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="Q48" s="2" t="s">
         <v>62</v>
@@ -8546,13 +8462,13 @@
       </c>
       <c r="S48" s="5"/>
       <c r="T48" s="2" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="U48" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="W48" s="4" t="s">
         <v>91</v>
@@ -8564,21 +8480,21 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:34" ht="276" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" ht="251.25">
       <c r="A49" s="18" t="s">
-        <v>708</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>709</v>
-      </c>
-      <c r="C49" s="32" t="s">
         <v>710</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>711</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>712</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>230</v>
@@ -8593,13 +8509,13 @@
         <v>317</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>58</v>
@@ -8608,26 +8524,26 @@
         <v>95</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="Q49" s="2" t="s">
         <v>62</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="S49" s="5"/>
       <c r="T49" s="2" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="W49" s="4" t="s">
         <v>328</v>
@@ -8639,21 +8555,21 @@
         <v>330</v>
       </c>
     </row>
-    <row r="50" spans="1:34" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" ht="117" customHeight="1">
       <c r="A50" s="18" t="s">
-        <v>721</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>722</v>
-      </c>
-      <c r="C50" s="32" t="s">
         <v>723</v>
       </c>
+      <c r="B50" s="20" t="s">
+        <v>724</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>725</v>
+      </c>
       <c r="D50" s="2" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>470</v>
@@ -8665,28 +8581,28 @@
         <v>1992</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="M50" s="2" t="s">
         <v>58</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>39</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="Q50" s="2" t="s">
         <v>62</v>
@@ -8696,16 +8612,16 @@
       </c>
       <c r="S50" s="5"/>
       <c r="T50" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="W50" s="4" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="Y50" s="3" t="s">
         <v>47</v>
@@ -8713,25 +8629,25 @@
       <c r="Z50" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="AA50" s="37" t="s">
-        <v>736</v>
+      <c r="AA50" s="34" t="s">
+        <v>738</v>
       </c>
     </row>
-    <row r="51" spans="1:34" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" ht="78" customHeight="1">
       <c r="A51" s="7" t="s">
-        <v>737</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>738</v>
-      </c>
-      <c r="C51" s="32" t="s">
         <v>739</v>
       </c>
+      <c r="B51" s="20" t="s">
+        <v>740</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>741</v>
+      </c>
       <c r="D51" s="2" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>470</v>
@@ -8740,19 +8656,19 @@
         <v>32</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>58</v>
@@ -8764,31 +8680,31 @@
         <v>39</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="Q51" s="2" t="s">
         <v>62</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="W51" s="10" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="X51" s="10" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="Y51" s="3" t="s">
         <v>47</v>
@@ -8804,27 +8720,27 @@
       <c r="AG51" s="2"/>
       <c r="AH51" s="2"/>
     </row>
-    <row r="52" spans="1:34" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" ht="87.75" customHeight="1">
       <c r="A52" s="18" t="s">
-        <v>754</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>755</v>
-      </c>
-      <c r="C52" s="32" t="s">
         <v>756</v>
       </c>
+      <c r="B52" s="20" t="s">
+        <v>757</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>758</v>
+      </c>
       <c r="D52" s="2" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="H52" s="8">
         <v>2007</v>
@@ -8833,10 +8749,10 @@
         <v>91</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="K52" s="13" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>190</v>
@@ -8845,13 +8761,13 @@
         <v>58</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="O52" s="8" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="Q52" s="2" t="s">
         <v>62</v>
@@ -8860,13 +8776,13 @@
         <v>179</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="U52" s="2" t="s">
         <v>64</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="W52" s="4" t="s">
         <v>91</v>
@@ -8875,24 +8791,24 @@
         <v>67</v>
       </c>
       <c r="Z52" s="10" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
-    <row r="53" spans="1:34" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" ht="146.25" customHeight="1">
       <c r="A53" s="7" t="s">
-        <v>768</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>769</v>
-      </c>
-      <c r="C53" s="32" t="s">
         <v>770</v>
       </c>
+      <c r="B53" s="20" t="s">
+        <v>771</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>772</v>
+      </c>
       <c r="D53" s="2" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>53</v>
@@ -8904,46 +8820,46 @@
         <v>1985</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="K53" s="13">
         <v>10308</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>58</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="Q53" s="2" t="s">
         <v>62</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="W53" s="4" t="s">
         <v>45</v>
@@ -8958,54 +8874,54 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54" spans="1:34" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" ht="113.25" customHeight="1">
       <c r="A54" s="7" t="s">
-        <v>784</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>785</v>
-      </c>
-      <c r="C54" s="32" t="s">
         <v>786</v>
       </c>
+      <c r="B54" s="20" t="s">
+        <v>787</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>788</v>
+      </c>
       <c r="D54" s="2" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>375</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="H54" s="8">
         <v>1986</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>58</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="Q54" s="2" t="s">
         <v>62</v>
@@ -9014,16 +8930,16 @@
         <v>41</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="U54" s="2" t="s">
         <v>64</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="W54" s="4" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="Y54" s="3" t="s">
         <v>493</v>
@@ -9032,24 +8948,24 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:34" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" ht="389.25">
       <c r="A55" s="7" t="s">
-        <v>798</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>799</v>
-      </c>
-      <c r="C55" s="32" t="s">
         <v>800</v>
       </c>
+      <c r="B55" s="20" t="s">
+        <v>801</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>802</v>
+      </c>
       <c r="D55" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="E55" s="41" t="s">
-        <v>802</v>
+        <v>803</v>
+      </c>
+      <c r="E55" s="40" t="s">
+        <v>804</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>32</v>
@@ -9061,25 +8977,25 @@
         <v>45</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="K55" s="2">
         <v>628</v>
       </c>
       <c r="L55" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M55" s="2" t="s">
         <v>58</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="O55" s="2" t="s">
         <v>39</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="Q55" s="2" t="s">
         <v>41</v>
@@ -9087,23 +9003,23 @@
       <c r="R55" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="S55" s="42" t="s">
-        <v>807</v>
+      <c r="S55" s="38" t="s">
+        <v>809</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="U55" s="2" t="s">
         <v>181</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="W55" s="4" t="s">
         <v>45</v>
       </c>
       <c r="X55" s="4" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="Y55" s="3" t="s">
         <v>47</v>
@@ -9112,27 +9028,27 @@
         <v>121</v>
       </c>
     </row>
-    <row r="56" spans="1:34" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" ht="389.25">
       <c r="A56" s="7" t="s">
-        <v>811</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>812</v>
-      </c>
-      <c r="C56" s="32" t="s">
         <v>813</v>
       </c>
+      <c r="B56" s="20" t="s">
+        <v>814</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>815</v>
+      </c>
       <c r="D56" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="E56" s="41" t="s">
-        <v>815</v>
+        <v>816</v>
+      </c>
+      <c r="E56" s="40" t="s">
+        <v>817</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>375</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="H56" s="2">
         <v>1998</v>
@@ -9141,7 +9057,7 @@
         <v>45</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="K56" s="9">
         <v>4300</v>
@@ -9159,22 +9075,22 @@
         <v>1986</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="Q56" s="2" t="s">
         <v>41</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="W56" s="4" t="s">
         <v>45</v>
@@ -9183,100 +9099,100 @@
         <v>375</v>
       </c>
       <c r="Z56" s="10" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34">
       <c r="A58" s="7"/>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34">
       <c r="A59" s="7"/>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34">
       <c r="A60" s="7"/>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34">
       <c r="A61" s="7"/>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:34">
       <c r="A62" s="7"/>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34">
       <c r="A63" s="7"/>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34">
       <c r="A64" s="7"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1">
       <c r="A65" s="7"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1">
       <c r="A66" s="7"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1">
       <c r="A67" s="7"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1">
       <c r="A69" s="7"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1">
       <c r="A70" s="7"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1">
       <c r="A71" s="7"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1">
       <c r="A72" s="7"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1">
       <c r="A73" s="7"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1">
       <c r="A74" s="7"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1">
       <c r="A75" s="7"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1">
       <c r="A76" s="7"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1">
       <c r="A77" s="7"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1">
       <c r="A78" s="7"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1">
       <c r="A79" s="7"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1">
       <c r="A80" s="7"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1">
       <c r="A81" s="7"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1">
       <c r="A82" s="7"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1">
       <c r="A83" s="7"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1">
       <c r="A84" s="7"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1">
       <c r="A85" s="7"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1">
       <c r="A86" s="7"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1">
       <c r="A87" s="7"/>
     </row>
   </sheetData>

--- a/xlsx/studies.xlsx
+++ b/xlsx/studies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emckclac-my.sharepoint.com/personal/k1780970_kcl_ac_uk/Documents/1. Catalogue + work documents/1. Catalogue shared files/1. Catalogue/2. Catalogue study updates/Resource folders/cmhm_20May22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="634" documentId="13_ncr:1_{6F82A259-41A7-4DF6-B3CE-4CB00C898517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DAA5005-9160-458A-A748-811A5BE69EF2}"/>
+  <xr:revisionPtr revIDLastSave="640" documentId="13_ncr:1_{6F82A259-41A7-4DF6-B3CE-4CB00C898517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{750BC0F4-85F3-41AF-B2DA-39F8D370BFEA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1409,7 +1409,7 @@
     <t>1994-5</t>
   </si>
   <si>
-    <t xml:space="preserve">Project proposal - see data access guidance &lt;a href="https://sites.duke.edu/moffittcaspiprojects/data-use-guidelines/&lt;/a&gt; </t>
+    <t xml:space="preserve">Project proposal - see data access guidance &lt;br&gt; &lt;a href="https://sites.duke.edu/moffittcaspiprojects/data-use-guidelines/"&gt;sites.duke.edu/moffittcaspiprojects/data-use-guidelines/&lt;/a&gt; </t>
   </si>
   <si>
     <t>Crime and justice data,
@@ -1494,7 +1494,7 @@
   </si>
   <si>
     <t>Available on ESS Data Portal &lt;br&gt;
-&lt;a href="https://ess-search.nsd.no/"&gt;https://ess-search.nsd.no/&lt;/a&gt;</t>
+&lt;a href="https://ess-search.nsd.no/"&gt;ess-search.nsd.no/&lt;/a&gt;</t>
   </si>
   <si>
     <t>See &lt;a href="https://www.europeansocialsurvey.org/"&gt;europeansocialsurvey.org&lt;/a&gt;</t>
@@ -2352,8 +2352,8 @@
 &lt;a href="http://dx.doi.org/10.14301/llcs.v7i4.410"&gt;doi.org/10.14301/llcs.v7i4.410&lt;/a&gt; &lt;br&gt;&lt;br&gt; 
 &lt;b&gt;&lt;u&gt;Impactful papers using study data&lt;/b&gt;&lt;/u&gt;&lt;br&gt;
 The association between adolescent well-being and digital technology use. &lt;a href="https://doi.org/10.1038/s41562-018-0506-1"&gt;doi.org/10.1038/s41562-018-0506-1&lt;/a&gt;&lt;br&gt;
-Economic deprivation, maternal depression, parenting and children's cognitive and emotional development in early childhood 1. &lt;a href="https://doi.org/10.1111/j.1468-4446.2008.00219.x"&gt;doi.org/10.1111/j.1468-4446.2008.00219.x&lt;/a&gt;&lt;br&gt;
-Correlates of mental illness and wellbeing in children: are they the same? Results from the UK Millennium Cohort Study.  &lt;a href="https://doi.org/10.1016/j.jaac.2016.05.019"&gt;doi.org/10.1016/j.jaac.2016.05.019&lt;/a&gt;</t>
+Economic deprivation, maternal depression, parenting and children's cognitive and emotional development in early childhood. &lt;a href="https://doi.org/10.1111/j.1468-4446.2008.00219.x"&gt;doi.org/10.1111/j.1468-4446.2008.00219.x&lt;/a&gt;&lt;br&gt;
+Correlates of mental illness and wellbeing in children: Are they the same? Results from the UK Millennium Cohort Study.  &lt;a href="https://doi.org/10.1016/j.jaac.2016.05.019"&gt;doi.org/10.1016/j.jaac.2016.05.019&lt;/a&gt;</t>
   </si>
   <si>
     <t>ESRC DfE DoHSC DfWP DfT HOUK MoJ NIE Scot Welsh ONS Wellcome DHHS NIH&lt;br&gt;
@@ -4460,8 +4460,8 @@
   <dimension ref="A1:AMJ87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O19" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="P20" sqref="P20"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="V1" sqref="V1"/>
     </sheetView>

--- a/xlsx/studies.xlsx
+++ b/xlsx/studies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emckclac-my.sharepoint.com/personal/k1780970_kcl_ac_uk/Documents/1. Catalogue + work documents/1. Catalogue shared files/1. Catalogue/2. Catalogue study updates/Resource folders/cmhm_20May22/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\john\workspace\catalogueMentalHealth\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="640" documentId="13_ncr:1_{6F82A259-41A7-4DF6-B3CE-4CB00C898517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{750BC0F4-85F3-41AF-B2DA-39F8D370BFEA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B551BB2F-4ED4-4435-B53A-A9551AE02B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19260" yWindow="4065" windowWidth="18975" windowHeight="15885" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study details" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="826">
   <si>
     <t>Code</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>ADVANCE</t>
+  </si>
+  <si>
+    <t>ADVANCE (Armed Services Trauma Rehabilitation Outcome Study)</t>
   </si>
   <si>
     <t xml:space="preserve">The Armed Services Trauma Rehabilitation Outcome (ADVANCE) Study is a prospective longitudinal cohort study investigating the long-term physical and psychosocial outcomes of UK military personnel who sustained severe combat-related trauma during the Afghanistan conflict. ADVANCE aims to study the incidence of a wide variety of outcomes, including cardiovascular and musculoskeletal disease, mental health, functional and social outcomes, quality of life, employment, and mortality. Data is collected using various methods, including self-report questionnaires and clinical assessments. </t>
@@ -1114,7 +1117,7 @@
     <t>CSDD</t>
   </si>
   <si>
-    <t>The Cambridge Study in Delinquent Development</t>
+    <t>The Cambridge Study in Delinquent Development (CSDD)</t>
   </si>
   <si>
     <t xml:space="preserve">The Cambridge Study in Delinquent Development (CSDD) is a prospective longitudinal cohort study of 411 males living in South London, first assessed in 1961. The original aim of the CSDD was to describe the development of delinquent and criminal behaviour in inner-city males, to investigate to what extent this could be predicted in advance, why juvenile delinquency began, and why it did or did not continue into adulthood. The focus was also on continuity in behavioural development, on the effects of life events on development, and on predicting future behaviour. The study was not set up to test any one particular theory of delinquency but aimed to test many different hypotheses about the causes and correlates of offending. </t>
@@ -1996,7 +1999,7 @@
     <t>The IMAGEN study is a large‐scale, longitudinal, imaging genetic study that combines brain imaging, genetics, and psychiatry to increase our understanding of adolescent brain development and behaviour – namely, sensitivity to rewards, impulsivity, and emotional processing. Research teams from London, Nottingham, Dublin, Paris, Berlin, Hamburg, Mannheim and Dresden have been following 2,000 young people and their parents from the age of 14, collecting data from brain imaging, cognitive and behavioural assessments, questionnaires and blood sampling.</t>
   </si>
   <si>
-    <t>&lt;a href="https://imagen-europe.com/"&gt;imagen-europe.com&lt;/a&gt;</t>
+    <t>&lt;a href="https://imagen-project.org/"&gt;imagen-project.org&lt;/a&gt;</t>
   </si>
   <si>
     <t>England &lt;br&gt;
@@ -2947,9 +2950,6 @@
     <t>Neuroscience in Psychiatry Network (NSPN), University of Cambridge</t>
   </si>
   <si>
-    <t>&lt;a href="http://www.roots.group.cam.ac.uk/"&gt;roots.group.cam.ac.uk&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Cambridgeshire</t>
   </si>
   <si>
@@ -3007,7 +3007,7 @@
     <t>Institute of Cardiovascular Science, University College London</t>
   </si>
   <si>
-    <t>&lt;a href="https://mrc.ukri.org/research/facilities-and-resources-for-researchers/cohort-directory/southall-and-brent-revisited-sabre/"&gt;mrc.ukri.org/research/facilities-and-resources-for-researchers/cohort-directory/southall-and-brent-revisited-sabre&lt;/a&gt;</t>
+    <t>&lt;a href="https://www.sabrestudy.org/"&gt;sabrestudy.org&lt;/a&gt;</t>
   </si>
   <si>
     <t>London - Southall; Brent</t>
@@ -3812,7 +3812,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4460,13 +4460,13 @@
   <dimension ref="A1:AMJ87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O19" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="P20" sqref="P20"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V1" sqref="V1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="V1" sqref="V1"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.28515625" style="20" customWidth="1"/>
@@ -4500,7 +4500,7 @@
     <col min="1025" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="26" customFormat="1" ht="24" customHeight="1">
+    <row r="1" spans="1:1024" s="26" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -4590,79 +4590,79 @@
       <c r="AG1" s="25"/>
       <c r="AH1" s="25"/>
     </row>
-    <row r="2" spans="1:1024" s="11" customFormat="1" ht="195" customHeight="1">
+    <row r="2" spans="1:1024" s="11" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" s="2">
         <v>2015</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z2" s="4"/>
       <c r="AA2" s="34"/>
@@ -4675,82 +4675,82 @@
       <c r="AH2" s="5"/>
       <c r="AMJ2" s="6"/>
     </row>
-    <row r="3" spans="1:1024" s="14" customFormat="1" ht="126.75" customHeight="1">
+    <row r="3" spans="1:1024" s="14" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H3" s="8">
         <v>2007</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z3" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AA3" s="33"/>
       <c r="AB3" s="8"/>
@@ -4762,82 +4762,82 @@
       <c r="AH3" s="8"/>
       <c r="AMJ3" s="6"/>
     </row>
-    <row r="4" spans="1:1024" s="14" customFormat="1" ht="135.75" customHeight="1">
+    <row r="4" spans="1:1024" s="14" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" s="2">
         <v>2004</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K4" s="9">
         <v>53000</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U4" s="36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z4" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA4" s="34"/>
       <c r="AB4" s="5"/>
@@ -4849,85 +4849,85 @@
       <c r="AH4" s="5"/>
       <c r="AMJ4" s="6"/>
     </row>
-    <row r="5" spans="1:1024" s="2" customFormat="1" ht="110.1" customHeight="1">
+    <row r="5" spans="1:1024" s="2" customFormat="1" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H5" s="8">
         <v>1990</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="T5" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="W5" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="T5" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AA5" s="34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
@@ -4938,82 +4938,82 @@
       <c r="AH5" s="5"/>
       <c r="AMJ5" s="6"/>
     </row>
-    <row r="6" spans="1:1024" s="14" customFormat="1" ht="264">
+    <row r="6" spans="1:1024" s="14" customFormat="1" ht="276" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="8">
         <v>1993</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="W6" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="X6" s="4"/>
       <c r="Y6" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA6" s="34"/>
       <c r="AB6" s="5"/>
@@ -5025,79 +5025,79 @@
       <c r="AH6" s="5"/>
       <c r="AMJ6" s="6"/>
     </row>
-    <row r="7" spans="1:1024" s="16" customFormat="1" ht="131.1" customHeight="1">
+    <row r="7" spans="1:1024" s="16" customFormat="1" ht="131.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z7" s="4"/>
       <c r="AA7" s="34"/>
@@ -5110,80 +5110,80 @@
       <c r="AH7" s="5"/>
       <c r="AMJ7" s="6"/>
     </row>
-    <row r="8" spans="1:1024" s="14" customFormat="1" ht="120" customHeight="1">
+    <row r="8" spans="1:1024" s="14" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H8" s="2">
         <v>2006</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X8" s="4"/>
       <c r="Y8" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AA8" s="34"/>
       <c r="AB8" s="5"/>
@@ -5195,82 +5195,82 @@
       <c r="AH8" s="5"/>
       <c r="AMJ8" s="6"/>
     </row>
-    <row r="9" spans="1:1024" s="14" customFormat="1" ht="123.95" customHeight="1">
+    <row r="9" spans="1:1024" s="14" customFormat="1" ht="123.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H9" s="8">
         <v>1970</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O9" s="8">
         <v>1970</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="W9" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X9" s="10"/>
       <c r="Y9" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z9" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AA9" s="34"/>
       <c r="AB9" s="2"/>
@@ -5282,82 +5282,82 @@
       <c r="AH9" s="2"/>
       <c r="AMJ9" s="6"/>
     </row>
-    <row r="10" spans="1:1024" s="14" customFormat="1" ht="96" customHeight="1">
+    <row r="10" spans="1:1024" s="14" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H10" s="8">
         <v>2007</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="X10" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z10" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AA10" s="34"/>
       <c r="AB10" s="2"/>
@@ -5369,82 +5369,82 @@
       <c r="AH10" s="2"/>
       <c r="AMJ10" s="6"/>
     </row>
-    <row r="11" spans="1:1024" s="14" customFormat="1" ht="155.1" customHeight="1">
+    <row r="11" spans="1:1024" s="14" customFormat="1" ht="155.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H11" s="8">
         <v>2016</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="W11" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X11" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z11" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA11" s="34"/>
       <c r="AB11" s="2"/>
@@ -5456,82 +5456,82 @@
       <c r="AH11" s="2"/>
       <c r="AMJ11" s="6"/>
     </row>
-    <row r="12" spans="1:1024" s="14" customFormat="1" ht="207.95" customHeight="1">
+    <row r="12" spans="1:1024" s="14" customFormat="1" ht="207.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C12" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12" s="8">
         <v>2006</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z12" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AA12" s="34"/>
       <c r="AB12" s="5"/>
@@ -5543,82 +5543,82 @@
       <c r="AH12" s="5"/>
       <c r="AMJ12" s="6"/>
     </row>
-    <row r="13" spans="1:1024" s="14" customFormat="1" ht="141.94999999999999" customHeight="1">
+    <row r="13" spans="1:1024" s="14" customFormat="1" ht="141.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H13" s="8">
         <v>2008</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K13" s="13">
         <v>7762</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AA13" s="34"/>
       <c r="AB13" s="5"/>
@@ -5630,82 +5630,82 @@
       <c r="AH13" s="5"/>
       <c r="AMJ13" s="6"/>
     </row>
-    <row r="14" spans="1:1024" s="16" customFormat="1" ht="162.75" customHeight="1">
+    <row r="14" spans="1:1024" s="16" customFormat="1" ht="162.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H14" s="8">
         <v>1989</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K14" s="13">
         <v>7365</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Z14" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AA14" s="34"/>
       <c r="AB14" s="5"/>
@@ -5717,81 +5717,81 @@
       <c r="AH14" s="5"/>
       <c r="AMJ14" s="6"/>
     </row>
-    <row r="15" spans="1:1024" s="2" customFormat="1" ht="129.94999999999999" customHeight="1">
+    <row r="15" spans="1:1024" s="2" customFormat="1" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H15" s="8">
         <v>2011</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K15" s="13">
         <v>2197</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Z15" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AA15" s="34"/>
       <c r="AB15" s="5"/>
@@ -5803,36 +5803,36 @@
       <c r="AH15" s="5"/>
       <c r="AMJ15" s="6"/>
     </row>
-    <row r="16" spans="1:1024" s="14" customFormat="1" ht="87" customHeight="1">
+    <row r="16" spans="1:1024" s="14" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H16" s="2">
         <v>1961</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K16" s="2">
         <v>411</v>
@@ -5841,44 +5841,44 @@
         <v>365</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="W16" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X16" s="4"/>
       <c r="Y16" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Z16" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA16" s="34"/>
       <c r="AB16" s="5"/>
@@ -5890,79 +5890,79 @@
       <c r="AH16" s="5"/>
       <c r="AMJ16" s="6"/>
     </row>
-    <row r="17" spans="1:1024" s="14" customFormat="1" ht="183.95" customHeight="1">
+    <row r="17" spans="1:1024" s="14" customFormat="1" ht="183.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K17" s="13">
         <v>6643</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W17" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X17" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z17" s="10"/>
       <c r="AA17" s="34"/>
@@ -5975,82 +5975,82 @@
       <c r="AH17" s="2"/>
       <c r="AMJ17" s="6"/>
     </row>
-    <row r="18" spans="1:1024" s="14" customFormat="1" ht="103.5" customHeight="1">
+    <row r="18" spans="1:1024" s="14" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H18" s="8">
         <v>2002</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L18" s="13">
         <v>7222</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q18" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R18" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="W18" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X18" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AA18" s="34"/>
       <c r="AB18" s="2"/>
@@ -6062,79 +6062,79 @@
       <c r="AH18" s="2"/>
       <c r="AMJ18" s="6"/>
     </row>
-    <row r="19" spans="1:1024" s="14" customFormat="1" ht="140.1" customHeight="1">
+    <row r="19" spans="1:1024" s="14" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H19" s="8">
         <v>2003</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S19" s="5"/>
       <c r="T19" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="X19" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Y19" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z19" s="4"/>
       <c r="AA19" s="34"/>
@@ -6147,80 +6147,80 @@
       <c r="AH19" s="5"/>
       <c r="AMJ19" s="6"/>
     </row>
-    <row r="20" spans="1:1024" s="14" customFormat="1" ht="189.95" customHeight="1">
+    <row r="20" spans="1:1024" s="14" customFormat="1" ht="189.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H20" s="8">
         <v>1998</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W20" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="X20" s="4"/>
       <c r="Y20" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z20" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AA20" s="34"/>
       <c r="AB20" s="5"/>
@@ -6232,79 +6232,79 @@
       <c r="AH20" s="5"/>
       <c r="AMJ20" s="6"/>
     </row>
-    <row r="21" spans="1:1024" s="14" customFormat="1" ht="233.1" customHeight="1">
+    <row r="21" spans="1:1024" s="14" customFormat="1" ht="233.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H21" s="8">
         <v>2002</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="W21" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="X21" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Y21" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z21" s="4"/>
       <c r="AA21" s="34"/>
@@ -6317,230 +6317,230 @@
       <c r="AH21" s="5"/>
       <c r="AMJ21" s="6"/>
     </row>
-    <row r="22" spans="1:1024" ht="198.95" customHeight="1">
+    <row r="22" spans="1:1024" ht="198.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H22" s="2">
         <v>1990</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T22" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="W22" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:1024" ht="153" customHeight="1">
+    <row r="23" spans="1:1024" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H23" s="2">
         <v>2008</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J23" s="39" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O23" s="2">
         <v>2007</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="W23" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Y23" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z23" s="19" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="24" spans="1:1024" ht="186.95" customHeight="1">
+    <row r="24" spans="1:1024" ht="186.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="W24" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X24" s="10"/>
       <c r="Y24" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Z24" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA24" s="34" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
@@ -6550,82 +6550,82 @@
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
     </row>
-    <row r="25" spans="1:1024" ht="216" customHeight="1">
+    <row r="25" spans="1:1024" ht="216" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H25" s="8">
         <v>2005</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="W25" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X25" s="10"/>
       <c r="Y25" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Z25" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
@@ -6635,159 +6635,159 @@
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
     </row>
-    <row r="26" spans="1:1024" ht="228" customHeight="1">
+    <row r="26" spans="1:1024" ht="228" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H26" s="8">
         <v>2005</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="W26" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Z26" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:1024" ht="201.95" customHeight="1">
+    <row r="27" spans="1:1024" ht="201.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H27" s="8">
         <v>2005</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="W27" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X27" s="10"/>
       <c r="Y27" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Z27" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
@@ -6797,158 +6797,158 @@
       <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
     </row>
-    <row r="28" spans="1:1024" ht="215.1" customHeight="1">
+    <row r="28" spans="1:1024" ht="215.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="W28" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X28" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y28" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z28" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:1024" ht="221.1" customHeight="1">
+    <row r="29" spans="1:1024" ht="221.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="W29" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X29" s="10" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Y29" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Z29" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
@@ -6958,115 +6958,115 @@
       <c r="AG29" s="2"/>
       <c r="AH29" s="2"/>
     </row>
-    <row r="30" spans="1:1024" s="2" customFormat="1" ht="140.1" customHeight="1">
+    <row r="30" spans="1:1024" s="2" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H30" s="8">
         <v>2007</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K30" s="13">
         <v>2000</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O30" s="8">
         <v>1993</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="W30" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X30" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Y30" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z30" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AA30" s="34"/>
       <c r="AMJ30" s="6"/>
     </row>
-    <row r="31" spans="1:1024" ht="152.1" customHeight="1">
+    <row r="31" spans="1:1024" ht="152.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H31" s="8">
         <v>2003</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K31" s="13">
         <v>10272</v>
@@ -7075,205 +7075,205 @@
         <v>8093</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="W31" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X31" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y31" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z31" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:1024" s="2" customFormat="1" ht="294" customHeight="1">
+    <row r="32" spans="1:1024" s="2" customFormat="1" ht="294" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H32" s="8">
         <v>1932</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="O32" s="8">
         <v>1921</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="W32" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X32" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y32" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Z32" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA32" s="34"/>
       <c r="AMJ32" s="6"/>
     </row>
-    <row r="33" spans="1:34" ht="213.75">
+    <row r="33" spans="1:34" ht="204" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H33" s="8">
         <v>1947</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="O33" s="8">
         <v>1936</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="W33" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X33" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y33" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Z33" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
@@ -7283,82 +7283,82 @@
       <c r="AG33" s="2"/>
       <c r="AH33" s="2"/>
     </row>
-    <row r="34" spans="1:34" ht="264">
+    <row r="34" spans="1:34" ht="300" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H34" s="8">
         <v>2004</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K34" s="13">
         <v>15770</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="W34" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X34" s="10"/>
       <c r="Y34" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Z34" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
@@ -7368,87 +7368,87 @@
       <c r="AG34" s="2"/>
       <c r="AH34" s="2"/>
     </row>
-    <row r="35" spans="1:34" ht="301.5">
+    <row r="35" spans="1:34" ht="288" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H35" s="8">
         <v>2000</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O35" s="8">
         <v>2000</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="W35" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X35" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y35" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z35" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AA35" s="35" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AB35" s="12"/>
       <c r="AC35" s="12"/>
@@ -7458,149 +7458,149 @@
       <c r="AG35" s="12"/>
       <c r="AH35" s="12"/>
     </row>
-    <row r="36" spans="1:34" ht="162.75">
+    <row r="36" spans="1:34" ht="180" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H36" s="8">
         <v>1999</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="W36" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y36" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:34" ht="150.75">
+    <row r="37" spans="1:34" ht="168" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H37" s="8">
         <v>1996</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="K37" s="13">
         <v>1319475</v>
       </c>
       <c r="L37" s="13" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Q37" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="W37" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X37" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y37" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="Z37" s="10"/>
       <c r="AA37" s="33"/>
@@ -7612,159 +7612,159 @@
       <c r="AG37" s="8"/>
       <c r="AH37" s="8"/>
     </row>
-    <row r="38" spans="1:34" ht="213.75">
+    <row r="38" spans="1:34" ht="228" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H38" s="17">
         <v>2006</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="O38" s="8">
         <v>1921</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="W38" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X38" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y38" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z38" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:34" ht="264">
+    <row r="39" spans="1:34" ht="264" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H39" s="8">
         <v>1958</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O39" s="8">
         <v>1958</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="W39" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X39" s="10"/>
       <c r="Y39" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z39" s="10" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
@@ -7774,196 +7774,196 @@
       <c r="AG39" s="2"/>
       <c r="AH39" s="2"/>
     </row>
-    <row r="40" spans="1:34" ht="213.75">
+    <row r="40" spans="1:34" ht="228" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H40" s="8">
         <v>2014</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="K40" s="13">
         <v>8504</v>
       </c>
       <c r="L40" s="13" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y40" s="3" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="Z40" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:34" ht="288.75">
+    <row r="41" spans="1:34" ht="276" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H41" s="8">
         <v>1946</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="K41" s="13">
         <v>5362</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O41" s="8">
         <v>1946</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y41" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z41" s="10" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
-    <row r="42" spans="1:34" ht="200.25">
+    <row r="42" spans="1:34" ht="204" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H42" s="8">
         <v>2014</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="K42" s="13">
         <v>14000</v>
@@ -7972,120 +7972,120 @@
         <v>25000</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="W42" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X42" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y42" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z42" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="43" spans="1:34" ht="200.25">
+    <row r="43" spans="1:34" ht="192" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H43" s="8">
         <v>2015</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="W43" s="10" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="X43" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y43" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z43" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
@@ -8095,24 +8095,21 @@
       <c r="AG43" s="2"/>
       <c r="AH43" s="2"/>
     </row>
-    <row r="44" spans="1:34" ht="153" customHeight="1">
+    <row r="44" spans="1:34" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="E44" s="2" t="s">
         <v>644</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>645</v>
@@ -8121,7 +8118,7 @@
         <v>2006</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>646</v>
@@ -8133,10 +8130,10 @@
         <v>648</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O44" s="8" t="s">
         <v>649</v>
@@ -8145,10 +8142,10 @@
         <v>650</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S44" s="5"/>
       <c r="T44" s="2" t="s">
@@ -8161,16 +8158,16 @@
         <v>653</v>
       </c>
       <c r="W44" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y44" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z44" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
-    <row r="45" spans="1:34" ht="351.75">
+    <row r="45" spans="1:34" ht="384" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>654</v>
       </c>
@@ -8187,7 +8184,7 @@
         <v>658</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>659</v>
@@ -8196,7 +8193,7 @@
         <v>1988</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>660</v>
@@ -8208,7 +8205,7 @@
         <v>661</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>662</v>
@@ -8220,10 +8217,10 @@
         <v>664</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T45" s="2" t="s">
         <v>665</v>
@@ -8235,19 +8232,19 @@
         <v>667</v>
       </c>
       <c r="W45" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X45" s="10" t="s">
         <v>668</v>
       </c>
       <c r="Y45" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z45" s="10" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
-    <row r="46" spans="1:34" ht="175.5">
+    <row r="46" spans="1:34" ht="168" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>669</v>
       </c>
@@ -8258,13 +8255,13 @@
         <v>671</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>672</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>673</v>
@@ -8273,7 +8270,7 @@
         <v>2014</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>674</v>
@@ -8285,7 +8282,7 @@
         <v>648</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>675</v>
@@ -8297,7 +8294,7 @@
         <v>677</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R46" s="2" t="s">
         <v>678</v>
@@ -8312,16 +8309,16 @@
         <v>681</v>
       </c>
       <c r="W46" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y46" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z46" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="47" spans="1:34" ht="175.5">
+    <row r="47" spans="1:34" ht="168" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>682</v>
       </c>
@@ -8332,22 +8329,22 @@
         <v>684</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>685</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H47" s="8">
         <v>2008</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>686</v>
@@ -8359,10 +8356,10 @@
         <v>688</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O47" s="8" t="s">
         <v>689</v>
@@ -8371,10 +8368,10 @@
         <v>690</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T47" s="2" t="s">
         <v>691</v>
@@ -8386,16 +8383,16 @@
         <v>693</v>
       </c>
       <c r="W47" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X47" s="10" t="s">
         <v>694</v>
       </c>
       <c r="Y47" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z47" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
@@ -8405,7 +8402,7 @@
       <c r="AG47" s="2"/>
       <c r="AH47" s="2"/>
     </row>
-    <row r="48" spans="1:34" ht="264">
+    <row r="48" spans="1:34" ht="300" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
         <v>695</v>
       </c>
@@ -8422,7 +8419,7 @@
         <v>699</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>700</v>
@@ -8431,7 +8428,7 @@
         <v>1998</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>701</v>
@@ -8443,7 +8440,7 @@
         <v>703</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>704</v>
@@ -8455,10 +8452,10 @@
         <v>706</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S48" s="5"/>
       <c r="T48" s="2" t="s">
@@ -8471,16 +8468,16 @@
         <v>709</v>
       </c>
       <c r="W48" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y48" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z48" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:34" ht="251.25">
+    <row r="49" spans="1:34" ht="276" x14ac:dyDescent="0.2">
       <c r="A49" s="18" t="s">
         <v>710</v>
       </c>
@@ -8491,22 +8488,22 @@
         <v>712</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>713</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H49" s="8">
         <v>1994</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>714</v>
@@ -8518,10 +8515,10 @@
         <v>716</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O49" s="8" t="s">
         <v>717</v>
@@ -8530,7 +8527,7 @@
         <v>718</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R49" s="2" t="s">
         <v>719</v>
@@ -8546,16 +8543,16 @@
         <v>722</v>
       </c>
       <c r="W49" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Y49" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z49" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
-    <row r="50" spans="1:34" ht="117" customHeight="1">
+    <row r="50" spans="1:34" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
         <v>723</v>
       </c>
@@ -8572,10 +8569,10 @@
         <v>727</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H50" s="8">
         <v>1992</v>
@@ -8593,22 +8590,22 @@
         <v>731</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>732</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>733</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S50" s="5"/>
       <c r="T50" s="2" t="s">
@@ -8624,16 +8621,16 @@
         <v>737</v>
       </c>
       <c r="Y50" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z50" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AA50" s="34" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="51" spans="1:34" ht="78" customHeight="1">
+    <row r="51" spans="1:34" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>739</v>
       </c>
@@ -8650,10 +8647,10 @@
         <v>743</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>744</v>
@@ -8671,19 +8668,19 @@
         <v>748</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O51" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>749</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R51" s="2" t="s">
         <v>750</v>
@@ -8707,10 +8704,10 @@
         <v>694</v>
       </c>
       <c r="Y51" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z51" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB51" s="2"/>
       <c r="AC51" s="2"/>
@@ -8720,7 +8717,7 @@
       <c r="AG51" s="2"/>
       <c r="AH51" s="2"/>
     </row>
-    <row r="52" spans="1:34" ht="87.75" customHeight="1">
+    <row r="52" spans="1:34" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="18" t="s">
         <v>756</v>
       </c>
@@ -8737,7 +8734,7 @@
         <v>760</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>761</v>
@@ -8746,7 +8743,7 @@
         <v>2007</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>762</v>
@@ -8755,10 +8752,10 @@
         <v>763</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>764</v>
@@ -8770,31 +8767,31 @@
         <v>766</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T52" s="2" t="s">
         <v>767</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>768</v>
       </c>
       <c r="W52" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y52" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z52" s="10" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="53" spans="1:34" ht="146.25" customHeight="1">
+    <row r="53" spans="1:34" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>770</v>
       </c>
@@ -8811,10 +8808,10 @@
         <v>774</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H53" s="8">
         <v>1985</v>
@@ -8832,7 +8829,7 @@
         <v>777</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>778</v>
@@ -8844,7 +8841,7 @@
         <v>780</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R53" s="2" t="s">
         <v>781</v>
@@ -8862,19 +8859,19 @@
         <v>785</v>
       </c>
       <c r="W53" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X53" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Y53" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z53" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="54" spans="1:34" ht="113.25" customHeight="1">
+    <row r="54" spans="1:34" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>786</v>
       </c>
@@ -8891,7 +8888,7 @@
         <v>790</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>791</v>
@@ -8900,7 +8897,7 @@
         <v>1986</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>792</v>
@@ -8912,7 +8909,7 @@
         <v>794</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>795</v>
@@ -8924,31 +8921,31 @@
         <v>797</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T54" s="2" t="s">
         <v>798</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V54" s="3" t="s">
         <v>799</v>
       </c>
       <c r="W54" s="4" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="Y54" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Z54" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:34" ht="389.25">
+    <row r="55" spans="1:34" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>800</v>
       </c>
@@ -8968,13 +8965,13 @@
         <v>805</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H55" s="2">
         <v>2019</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>806</v>
@@ -8986,22 +8983,22 @@
         <v>499</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>807</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P55" s="2" t="s">
         <v>808</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S55" s="38" t="s">
         <v>809</v>
@@ -9010,25 +9007,25 @@
         <v>810</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="V55" s="3" t="s">
         <v>811</v>
       </c>
       <c r="W55" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X55" s="4" t="s">
         <v>812</v>
       </c>
       <c r="Y55" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z55" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:34" ht="389.25">
+    <row r="56" spans="1:34" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>813</v>
       </c>
@@ -9045,7 +9042,7 @@
         <v>817</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>818</v>
@@ -9054,7 +9051,7 @@
         <v>1998</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>819</v>
@@ -9066,7 +9063,7 @@
         <v>4257</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N56" s="2">
         <v>12</v>
@@ -9078,7 +9075,7 @@
         <v>820</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R56" s="2" t="s">
         <v>821</v>
@@ -9093,106 +9090,106 @@
         <v>824</v>
       </c>
       <c r="W56" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y56" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Z56" s="10" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A60" s="7"/>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A62" s="7"/>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A63" s="7"/>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A64" s="7"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="7"/>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="7"/>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="7"/>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="7"/>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="7"/>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="7"/>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="7"/>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="7"/>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="7"/>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="7"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="7"/>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="7"/>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="7"/>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="7"/>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="7"/>
     </row>
   </sheetData>
@@ -9204,4 +9201,257 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006651BF32B521A046AF14BF632D6B295F" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="09153fd41ce1666f2d769619857e3bdc">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b67f489d-6419-4cb0-8238-506a3a8f1300" xmlns:ns3="0ce01a67-a604-4be1-a4ca-c8b766b5a068" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="de1bb72c62ccf761f278c18d78bd3734" ns2:_="" ns3:_="">
+    <xsd:import namespace="b67f489d-6419-4cb0-8238-506a3a8f1300"/>
+    <xsd:import namespace="0ce01a67-a604-4be1-a4ca-c8b766b5a068"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b67f489d-6419-4cb0-8238-506a3a8f1300" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="731d7151-b795-48f9-9207-6285658e27ad" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="15" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0ce01a67-a604-4be1-a4ca-c8b766b5a068" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{537184a3-a170-4643-9528-45eb536d835e}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="0ce01a67-a604-4be1-a4ca-c8b766b5a068">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b67f489d-6419-4cb0-8238-506a3a8f1300">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0ce01a67-a604-4be1-a4ca-c8b766b5a068" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C8B3C7C-6A2F-4690-AF82-2D0388819DFC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E23DE8AC-2A9C-42E3-AC06-D37A01CE10EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b67f489d-6419-4cb0-8238-506a3a8f1300"/>
+    <ds:schemaRef ds:uri="0ce01a67-a604-4be1-a4ca-c8b766b5a068"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A888961D-86EF-4E4E-8A38-F33DFFA3A067}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b67f489d-6419-4cb0-8238-506a3a8f1300"/>
+    <ds:schemaRef ds:uri="0ce01a67-a604-4be1-a4ca-c8b766b5a068"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/xlsx/studies.xlsx
+++ b/xlsx/studies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\john\workspace\catalogueMentalHealth\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emckclac-my.sharepoint.com/personal/k1780970_kcl_ac_uk/Documents/1. Catalogue + work documents/1. Catalogue shared files/1. Catalogue/2. Catalogue study updates/Resource folders/cmhm_20May22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B551BB2F-4ED4-4435-B53A-A9551AE02B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="695" documentId="13_ncr:1_{6F82A259-41A7-4DF6-B3CE-4CB00C898517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F3B4F9D-D9B7-4DB9-A9D6-6E04D057A946}"/>
   <bookViews>
-    <workbookView xWindow="19260" yWindow="4065" windowWidth="18975" windowHeight="15885" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study details" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="841">
   <si>
     <t>Code</t>
   </si>
@@ -338,6 +338,10 @@
   <si>
     <t>Linked administrative data,
 Genetic/genomic data</t>
+  </si>
+  <si>
+    <t>&lt;a
+href="https://web.www.healthdatagateway.org/dataset/98bfe17f-be12-47b1-943a-2d3a621b7618"&gt;https://web.www.healthdatagateway.org/dataset/98bfe17f-be12-47b1-943a-2d3a621b7618&lt;/a&gt;</t>
   </si>
   <si>
     <t>ALSPAC</t>
@@ -754,6 +758,10 @@
 Mapping/spatial data</t>
   </si>
   <si>
+    <t>&lt;a
+href="https://web.www.healthdatagateway.org/dataset/929186f3-e230-4b52-a9f5-0c20af7f5ce2"&gt;https://web.www.healthdatagateway.org/dataset/929186f3-e230-4b52-a9f5-0c20af7f5ce2&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>BiB</t>
   </si>
   <si>
@@ -961,6 +969,10 @@
 Brain activity and structures</t>
   </si>
   <si>
+    <t>&lt;a
+href="https://web.www.healthdatagateway.org/dataset/6a9f93ad-2434-41d9-93bf-6e9d2eee04e5"&gt;https://web.www.healthdatagateway.org/dataset/6a9f93ad-2434-41d9-93bf-6e9d2eee04e5&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>CFAS_II</t>
   </si>
   <si>
@@ -1240,6 +1252,10 @@
 Work and employment,
 Parenting and family,
 Social care - need</t>
+  </si>
+  <si>
+    <t>&lt;a
+href="https://web.www.healthdatagateway.org/dataset/9d242d12-2d2e-4941-93e4-9ec40d239dd1"&gt;https://web.www.healthdatagateway.org/dataset/9d242d12-2d2e-4941-93e4-9ec40d239dd1&lt;/a&gt;</t>
   </si>
   <si>
     <t>ELSA</t>
@@ -1317,6 +1333,10 @@
     <t>England, National</t>
   </si>
   <si>
+    <t>&lt;a
+href="https://web.www.healthdatagateway.org/dataset/f12cb023-1402-49d1-aa27-e0fe4ed19fd7"&gt;https://web.www.healthdatagateway.org/dataset/f12cb023-1402-49d1-aa27-e0fe4ed19fd7&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>EQLS</t>
   </si>
   <si>
@@ -1991,6 +2011,10 @@
   </si>
   <si>
     <t>Ageing cohort, Occupational cohort</t>
+  </si>
+  <si>
+    <t>&lt;a
+href="https://web.www.healthdatagateway.org/dataset/ea2d54a2-a6d4-4e82-b2e4-95184f00bbdc"&gt;https://web.www.healthdatagateway.org/dataset/ea2d54a2-a6d4-4e82-b2e4-95184f00bbdc&lt;/a&gt;</t>
   </si>
   <si>
     <t>IMAGEN</t>
@@ -2201,6 +2225,10 @@
     <t>Scotland, Local area</t>
   </si>
   <si>
+    <t>&lt;a
+href="https://web.www.healthdatagateway.org/dataset/df288318-6663-417d-9870-666e75920bed"&gt;https://web.www.healthdatagateway.org/dataset/df288318-6663-417d-9870-666e75920bed&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>LBC1936</t>
   </si>
   <si>
@@ -2249,6 +2277,10 @@
 Sleep problems,
 Social care - receipt,
 Social care - need</t>
+  </si>
+  <si>
+    <t>&lt;a
+href="https://web.www.healthdatagateway.org/dataset/e63613a9-92e9-4147-8a76-40e4a87ec131"&gt;https://web.www.healthdatagateway.org/dataset/e63613a9-92e9-4147-8a76-40e4a87ec131&lt;/a&gt;</t>
   </si>
   <si>
     <t>LSYPE</t>
@@ -2316,6 +2348,10 @@
 Social care - receipt,
 Social care - provision,
 Social care - need</t>
+  </si>
+  <si>
+    <t>&lt;a
+href="https://web.www.healthdatagateway.org/dataset/0ad7a3dd-e720-49ef-9d27-c394a32b0326"&gt;https://web.www.healthdatagateway.org/dataset/0ad7a3dd-e720-49ef-9d27-c394a32b0326&lt;/a&gt;</t>
   </si>
   <si>
     <t>MCS</t>
@@ -2505,6 +2541,10 @@
 Social care - need</t>
   </si>
   <si>
+    <t>&lt;a
+href="https://web.www.healthdatagateway.org/dataset/97ac8a7d-30b9-4fa6-84db-b4f9430fc1d6"&gt;https://web.www.healthdatagateway.org/dataset/97ac8a7d-30b9-4fa6-84db-b4f9430fc1d6&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>N85</t>
   </si>
   <si>
@@ -2627,6 +2667,10 @@
 Genetic/genomic data,
 Mapping/spatial data,
 Observational/qualitative data</t>
+  </si>
+  <si>
+    <t>&lt;a
+href="https://web.www.healthdatagateway.org/dataset/0ceaaedc-4904-4820-8b74-d6a8e679fb11"&gt;https://web.www.healthdatagateway.org/dataset/0ceaaedc-4904-4820-8b74-d6a8e679fb11&lt;/a&gt;</t>
   </si>
   <si>
     <t>NICOLA</t>
@@ -2828,6 +2872,10 @@
 Brain activity and structures</t>
   </si>
   <si>
+    <t>&lt;a
+href="https://web.www.healthdatagateway.org/dataset/a2017e30-5257-40ec-8bae-9b221724121e"&gt;https://web.www.healthdatagateway.org/dataset/a2017e30-5257-40ec-8bae-9b221724121e&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>PROTECT</t>
   </si>
   <si>
@@ -2938,6 +2986,10 @@
     <t>Accelerated cohort study</t>
   </si>
   <si>
+    <t>&lt;a
+href="https://web.www.healthdatagateway.org/dataset/0f754b8b-353e-4e8d-9ff0-03d5e0817e02"&gt;https://web.www.healthdatagateway.org/dataset/0f754b8b-353e-4e8d-9ff0-03d5e0817e02&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>ROOTS</t>
   </si>
   <si>
@@ -3171,6 +3223,10 @@
   <si>
     <t>Ethnicity and race, 
 Migration and immigration</t>
+  </si>
+  <si>
+    <t>&lt;a
+href="https://web.www.healthdatagateway.org/dataset/cda770e3-0d4d-466f-8102-c56beff04848"&gt;https://web.www.healthdatagateway.org/dataset/cda770e3-0d4d-466f-8102-c56beff04848&lt;/a&gt;</t>
   </si>
   <si>
     <t>SWS</t>
@@ -3474,6 +3530,10 @@
     <t>Household panel study</t>
   </si>
   <si>
+    <t>&lt;a
+href="https://web.www.healthdatagateway.org/dataset/932cecdf-65fb-4e3d-9454-7a2d0585e970"&gt;https://web.www.healthdatagateway.org/dataset/932cecdf-65fb-4e3d-9454-7a2d0585e970&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>WCHADS</t>
   </si>
   <si>
@@ -3812,7 +3872,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4460,13 +4520,13 @@
   <dimension ref="A1:AMJ87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="AA5" sqref="AA5"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="V1" sqref="V1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.28515625" style="20" customWidth="1"/>
@@ -4500,7 +4560,7 @@
     <col min="1025" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="26" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1024" s="26" customFormat="1" ht="24" customHeight="1">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -4590,7 +4650,7 @@
       <c r="AG1" s="25"/>
       <c r="AH1" s="25"/>
     </row>
-    <row r="2" spans="1:1024" s="11" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1024" s="11" customFormat="1" ht="195" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>27</v>
       </c>
@@ -4675,7 +4735,7 @@
       <c r="AH2" s="5"/>
       <c r="AMJ2" s="6"/>
     </row>
-    <row r="3" spans="1:1024" s="14" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1024" s="14" customFormat="1" ht="126.75" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>49</v>
       </c>
@@ -4762,7 +4822,7 @@
       <c r="AH3" s="8"/>
       <c r="AMJ3" s="6"/>
     </row>
-    <row r="4" spans="1:1024" s="14" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1024" s="14" customFormat="1" ht="135.75" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>70</v>
       </c>
@@ -4839,7 +4899,9 @@
       <c r="Z4" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AA4" s="34"/>
+      <c r="AA4" s="35" t="s">
+        <v>86</v>
+      </c>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
@@ -4849,85 +4911,85 @@
       <c r="AH4" s="5"/>
       <c r="AMJ4" s="6"/>
     </row>
-    <row r="5" spans="1:1024" s="2" customFormat="1" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1024" s="2" customFormat="1" ht="110.1" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H5" s="8">
         <v>1990</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="T5" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="3" t="s">
         <v>68</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA5" s="34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
@@ -4938,24 +5000,24 @@
       <c r="AH5" s="5"/>
       <c r="AMJ5" s="6"/>
     </row>
-    <row r="6" spans="1:1024" s="14" customFormat="1" ht="276" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1024" s="14" customFormat="1" ht="264">
       <c r="A6" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>33</v>
@@ -4964,28 +5026,28 @@
         <v>1993</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>42</v>
@@ -4994,26 +5056,26 @@
         <v>80</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="X6" s="4"/>
       <c r="Y6" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AA6" s="34"/>
       <c r="AB6" s="5"/>
@@ -5025,21 +5087,21 @@
       <c r="AH6" s="5"/>
       <c r="AMJ6" s="6"/>
     </row>
-    <row r="7" spans="1:1024" s="16" customFormat="1" ht="131.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1024" s="16" customFormat="1" ht="131.1" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>75</v>
@@ -5048,13 +5110,13 @@
         <v>33</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>40</v>
@@ -5066,13 +5128,13 @@
         <v>59</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>40</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>42</v>
@@ -5082,19 +5144,19 @@
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y7" s="3" t="s">
         <v>84</v>
@@ -5110,27 +5172,27 @@
       <c r="AH7" s="5"/>
       <c r="AMJ7" s="6"/>
     </row>
-    <row r="8" spans="1:1024" s="14" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1024" s="14" customFormat="1" ht="120" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H8" s="2">
         <v>2006</v>
@@ -5139,25 +5201,25 @@
         <v>46</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>63</v>
@@ -5167,13 +5229,13 @@
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="W8" s="4" t="s">
         <v>46</v>
@@ -5183,7 +5245,7 @@
         <v>48</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA8" s="34"/>
       <c r="AB8" s="5"/>
@@ -5195,21 +5257,21 @@
       <c r="AH8" s="5"/>
       <c r="AMJ8" s="6"/>
     </row>
-    <row r="9" spans="1:1024" s="14" customFormat="1" ht="123.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1024" s="14" customFormat="1" ht="123.95" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>75</v>
@@ -5221,58 +5283,60 @@
         <v>1970</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O9" s="8">
         <v>1970</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="W9" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="X9" s="10"/>
       <c r="Y9" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Z9" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA9" s="34"/>
+        <v>168</v>
+      </c>
+      <c r="AA9" s="34" t="s">
+        <v>169</v>
+      </c>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
@@ -5282,82 +5346,82 @@
       <c r="AH9" s="2"/>
       <c r="AMJ9" s="6"/>
     </row>
-    <row r="10" spans="1:1024" s="14" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1024" s="14" customFormat="1" ht="96" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H10" s="8">
         <v>2007</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="X10" s="10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Y10" s="3" t="s">
         <v>68</v>
       </c>
       <c r="Z10" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AA10" s="34"/>
       <c r="AB10" s="2"/>
@@ -5369,76 +5433,76 @@
       <c r="AH10" s="2"/>
       <c r="AMJ10" s="6"/>
     </row>
-    <row r="11" spans="1:1024" s="14" customFormat="1" ht="155.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1024" s="14" customFormat="1" ht="155.1" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H11" s="8">
         <v>2016</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="W11" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="X11" s="10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Y11" s="3" t="s">
         <v>68</v>
@@ -5456,21 +5520,21 @@
       <c r="AH11" s="2"/>
       <c r="AMJ11" s="6"/>
     </row>
-    <row r="12" spans="1:1024" s="14" customFormat="1" ht="207.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1024" s="14" customFormat="1" ht="207.95" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>75</v>
@@ -5482,58 +5546,60 @@
         <v>2006</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="W12" s="4" t="s">
         <v>46</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Y12" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Z12" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA12" s="34"/>
+        <v>215</v>
+      </c>
+      <c r="AA12" s="35" t="s">
+        <v>216</v>
+      </c>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
@@ -5543,27 +5609,27 @@
       <c r="AH12" s="5"/>
       <c r="AMJ12" s="6"/>
     </row>
-    <row r="13" spans="1:1024" s="14" customFormat="1" ht="141.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1024" s="14" customFormat="1" ht="141.94999999999999" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H13" s="8">
         <v>2008</v>
@@ -5572,25 +5638,25 @@
         <v>46</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K13" s="13">
         <v>7762</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>63</v>
@@ -5600,25 +5666,25 @@
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="W13" s="4" t="s">
         <v>46</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Y13" s="3" t="s">
         <v>68</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA13" s="34"/>
       <c r="AB13" s="5"/>
@@ -5630,27 +5696,27 @@
       <c r="AH13" s="5"/>
       <c r="AMJ13" s="6"/>
     </row>
-    <row r="14" spans="1:1024" s="16" customFormat="1" ht="162.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1024" s="16" customFormat="1" ht="162.75" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H14" s="8">
         <v>1989</v>
@@ -5659,25 +5725,25 @@
         <v>46</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K14" s="13">
         <v>7365</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>63</v>
@@ -5687,25 +5753,25 @@
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="W14" s="4" t="s">
         <v>46</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Z14" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA14" s="34"/>
       <c r="AB14" s="5"/>
@@ -5717,27 +5783,27 @@
       <c r="AH14" s="5"/>
       <c r="AMJ14" s="6"/>
     </row>
-    <row r="15" spans="1:1024" s="2" customFormat="1" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1024" s="2" customFormat="1" ht="129.94999999999999" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H15" s="8">
         <v>2011</v>
@@ -5746,25 +5812,25 @@
         <v>46</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K15" s="13">
         <v>2197</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>63</v>
@@ -5773,25 +5839,25 @@
         <v>42</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="W15" s="4" t="s">
         <v>46</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Z15" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA15" s="34"/>
       <c r="AB15" s="5"/>
@@ -5803,27 +5869,27 @@
       <c r="AH15" s="5"/>
       <c r="AMJ15" s="6"/>
     </row>
-    <row r="16" spans="1:1024" s="14" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1024" s="14" customFormat="1" ht="87" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H16" s="2">
         <v>1961</v>
@@ -5832,7 +5898,7 @@
         <v>46</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K16" s="2">
         <v>411</v>
@@ -5844,41 +5910,41 @@
         <v>38</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>42</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="W16" s="4" t="s">
         <v>46</v>
       </c>
       <c r="X16" s="4"/>
       <c r="Y16" s="3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Z16" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AA16" s="34"/>
       <c r="AB16" s="5"/>
@@ -5890,54 +5956,54 @@
       <c r="AH16" s="5"/>
       <c r="AMJ16" s="6"/>
     </row>
-    <row r="17" spans="1:1024" s="14" customFormat="1" ht="183.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1024" s="14" customFormat="1" ht="183.95" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>46</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K17" s="13">
         <v>6643</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>42</v>
@@ -5947,25 +6013,27 @@
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="U17" s="2" t="s">
         <v>65</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="W17" s="10" t="s">
         <v>46</v>
       </c>
       <c r="X17" s="10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Y17" s="3" t="s">
         <v>68</v>
       </c>
       <c r="Z17" s="10"/>
-      <c r="AA17" s="34"/>
+      <c r="AA17" s="34" t="s">
+        <v>287</v>
+      </c>
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
@@ -5975,21 +6043,21 @@
       <c r="AH17" s="2"/>
       <c r="AMJ17" s="6"/>
     </row>
-    <row r="18" spans="1:1024" s="14" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1024" s="14" customFormat="1" ht="103.5" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>54</v>
@@ -6001,13 +6069,13 @@
         <v>2002</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L18" s="13">
         <v>7222</v>
@@ -6016,43 +6084,45 @@
         <v>59</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>40</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q18" s="15" t="s">
         <v>63</v>
       </c>
       <c r="R18" s="15" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="W18" s="10" t="s">
         <v>46</v>
       </c>
       <c r="X18" s="10" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA18" s="34"/>
+        <v>168</v>
+      </c>
+      <c r="AA18" s="34" t="s">
+        <v>303</v>
+      </c>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
@@ -6062,24 +6132,24 @@
       <c r="AH18" s="2"/>
       <c r="AMJ18" s="6"/>
     </row>
-    <row r="19" spans="1:1024" s="14" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1024" s="14" customFormat="1" ht="140.1" customHeight="1">
       <c r="A19" s="18" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>33</v>
@@ -6088,28 +6158,28 @@
         <v>2003</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>40</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>42</v>
@@ -6119,19 +6189,19 @@
       </c>
       <c r="S19" s="5"/>
       <c r="T19" s="2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="X19" s="4" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Y19" s="3" t="s">
         <v>48</v>
@@ -6147,24 +6217,24 @@
       <c r="AH19" s="5"/>
       <c r="AMJ19" s="6"/>
     </row>
-    <row r="20" spans="1:1024" s="14" customFormat="1" ht="189.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1024" s="14" customFormat="1" ht="189.95" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>33</v>
@@ -6173,54 +6243,54 @@
         <v>1998</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20" s="2" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="W20" s="4" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="X20" s="4"/>
       <c r="Y20" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Z20" s="10" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="AA20" s="34"/>
       <c r="AB20" s="5"/>
@@ -6232,24 +6302,24 @@
       <c r="AH20" s="5"/>
       <c r="AMJ20" s="6"/>
     </row>
-    <row r="21" spans="1:1024" s="14" customFormat="1" ht="233.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1024" s="14" customFormat="1" ht="233.1" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>33</v>
@@ -6258,28 +6328,28 @@
         <v>2002</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>40</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>42</v>
@@ -6289,19 +6359,19 @@
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="2" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="W21" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="X21" s="4" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Y21" s="3" t="s">
         <v>48</v>
@@ -6317,24 +6387,24 @@
       <c r="AH21" s="5"/>
       <c r="AMJ21" s="6"/>
     </row>
-    <row r="22" spans="1:1024" ht="198.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1024" ht="198.95" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>33</v>
@@ -6343,28 +6413,28 @@
         <v>1990</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>40</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>42</v>
@@ -6373,42 +6443,42 @@
         <v>42</v>
       </c>
       <c r="T22" s="8" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="W22" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:1024" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1024" ht="153" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>33</v>
@@ -6417,28 +6487,28 @@
         <v>2008</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="J23" s="39" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="O23" s="2">
         <v>2007</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="Q23" s="2" t="s">
         <v>63</v>
@@ -6447,72 +6517,72 @@
         <v>42</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="W23" s="4" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Y23" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Z23" s="19" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
-    <row r="24" spans="1:1024" ht="186.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1024" ht="186.95" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>46</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="Q24" s="2" t="s">
         <v>63</v>
@@ -6521,26 +6591,26 @@
         <v>80</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="W24" s="10" t="s">
         <v>46</v>
       </c>
       <c r="X24" s="10"/>
       <c r="Y24" s="3" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="Z24" s="10" t="s">
         <v>85</v>
       </c>
       <c r="AA24" s="34" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
@@ -6550,24 +6620,24 @@
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
     </row>
-    <row r="25" spans="1:1024" ht="216" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1024" ht="216" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>33</v>
@@ -6576,56 +6646,56 @@
         <v>2005</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="Q25" s="2" t="s">
         <v>42</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="W25" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="X25" s="10"/>
       <c r="Y25" s="3" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="Z25" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
@@ -6635,24 +6705,24 @@
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
     </row>
-    <row r="26" spans="1:1024" ht="228" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1024" ht="228" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>33</v>
@@ -6661,75 +6731,75 @@
         <v>2005</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="Q26" s="2" t="s">
         <v>42</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="W26" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="Z26" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:1024" ht="201.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1024" ht="201.95" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>33</v>
@@ -6741,53 +6811,53 @@
         <v>46</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="Q27" s="2" t="s">
         <v>42</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="W27" s="10" t="s">
         <v>46</v>
       </c>
       <c r="X27" s="10"/>
       <c r="Y27" s="3" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="Z27" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
@@ -6797,54 +6867,54 @@
       <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
     </row>
-    <row r="28" spans="1:1024" ht="215.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1024" ht="215.1" customHeight="1">
       <c r="A28" s="18" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>46</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="Q28" s="2" t="s">
         <v>63</v>
@@ -6853,19 +6923,19 @@
         <v>80</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="W28" s="10" t="s">
         <v>46</v>
       </c>
       <c r="X28" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Y28" s="3" t="s">
         <v>68</v>
@@ -6874,21 +6944,21 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:1024" ht="221.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1024" ht="221.1" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>54</v>
@@ -6897,31 +6967,31 @@
         <v>33</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="Q29" s="2" t="s">
         <v>42</v>
@@ -6930,25 +7000,28 @@
         <v>80</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="W29" s="10" t="s">
         <v>46</v>
       </c>
       <c r="X29" s="10" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="Y29" s="3" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Z29" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AA29" s="34" t="s">
+        <v>459</v>
       </c>
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
@@ -6958,27 +7031,27 @@
       <c r="AG29" s="2"/>
       <c r="AH29" s="2"/>
     </row>
-    <row r="30" spans="1:1024" s="2" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1024" s="2" customFormat="1" ht="140.1" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="H30" s="8">
         <v>2007</v>
@@ -6987,25 +7060,25 @@
         <v>46</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="K30" s="13">
         <v>2000</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="O30" s="8">
         <v>1993</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q30" s="2" t="s">
         <v>63</v>
@@ -7014,19 +7087,19 @@
         <v>42</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="W30" s="10" t="s">
         <v>46</v>
       </c>
       <c r="X30" s="10" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Y30" s="3" t="s">
         <v>48</v>
@@ -7037,24 +7110,24 @@
       <c r="AA30" s="34"/>
       <c r="AMJ30" s="6"/>
     </row>
-    <row r="31" spans="1:1024" ht="152.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1024" ht="152.1" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>33</v>
@@ -7063,10 +7136,10 @@
         <v>2003</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="K31" s="13">
         <v>10272</v>
@@ -7078,28 +7151,28 @@
         <v>59</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="Q31" s="2" t="s">
         <v>42</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="W31" s="4" t="s">
         <v>46</v>
@@ -7111,30 +7184,30 @@
         <v>48</v>
       </c>
       <c r="Z31" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:1024" s="2" customFormat="1" ht="294" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1024" s="2" customFormat="1" ht="294" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="H32" s="8">
         <v>1932</v>
@@ -7143,25 +7216,25 @@
         <v>46</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="O32" s="8">
         <v>1921</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="Q32" s="2" t="s">
         <v>63</v>
@@ -7170,53 +7243,55 @@
         <v>80</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="W32" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="X32" s="10" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Y32" s="3" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="Z32" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AA32" s="34"/>
+      <c r="AA32" s="34" t="s">
+        <v>501</v>
+      </c>
       <c r="AMJ32" s="6"/>
     </row>
-    <row r="33" spans="1:34" ht="204" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34" ht="213.75">
       <c r="A33" s="7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="H33" s="8">
         <v>1947</v>
@@ -7225,25 +7300,25 @@
         <v>46</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="O33" s="8">
         <v>1936</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="Q33" s="2" t="s">
         <v>63</v>
@@ -7252,28 +7327,31 @@
         <v>80</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="W33" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="X33" s="10" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Y33" s="3" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="Z33" s="10" t="s">
         <v>85</v>
+      </c>
+      <c r="AA33" s="34" t="s">
+        <v>512</v>
       </c>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
@@ -7283,21 +7361,21 @@
       <c r="AG33" s="2"/>
       <c r="AH33" s="2"/>
     </row>
-    <row r="34" spans="1:34" ht="300" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34" ht="264">
       <c r="A34" s="7" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>54</v>
@@ -7312,53 +7390,56 @@
         <v>46</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="K34" s="13">
         <v>15770</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q34" s="2" t="s">
         <v>42</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="W34" s="10" t="s">
         <v>46</v>
       </c>
       <c r="X34" s="10"/>
       <c r="Y34" s="3" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Z34" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AA34" s="35" t="s">
+        <v>526</v>
       </c>
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
@@ -7368,24 +7449,24 @@
       <c r="AG34" s="2"/>
       <c r="AH34" s="2"/>
     </row>
-    <row r="35" spans="1:34" ht="288" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34" ht="301.5">
       <c r="A35" s="7" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>33</v>
@@ -7394,61 +7475,61 @@
         <v>2000</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O35" s="8">
         <v>2000</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q35" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="W35" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="X35" s="10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Y35" s="3" t="s">
         <v>48</v>
       </c>
       <c r="Z35" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AA35" s="35" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="AB35" s="12"/>
       <c r="AC35" s="12"/>
@@ -7458,24 +7539,24 @@
       <c r="AG35" s="12"/>
       <c r="AH35" s="12"/>
     </row>
-    <row r="36" spans="1:34" ht="180" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34" ht="162.75">
       <c r="A36" s="7" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>33</v>
@@ -7484,28 +7565,28 @@
         <v>1999</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>40</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="Q36" s="2" t="s">
         <v>42</v>
@@ -7514,39 +7595,39 @@
         <v>42</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="W36" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y36" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:34" ht="168" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34" ht="150.75">
       <c r="A37" s="7" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>33</v>
@@ -7558,25 +7639,25 @@
         <v>46</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="K37" s="13">
         <v>1319475</v>
       </c>
       <c r="L37" s="13" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="Q37" s="15" t="s">
         <v>63</v>
@@ -7585,25 +7666,27 @@
         <v>80</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="W37" s="10" t="s">
         <v>46</v>
       </c>
       <c r="X37" s="10" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Y37" s="3" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="Z37" s="10"/>
-      <c r="AA37" s="33"/>
+      <c r="AA37" s="35" t="s">
+        <v>569</v>
+      </c>
       <c r="AB37" s="8"/>
       <c r="AC37" s="8"/>
       <c r="AD37" s="8"/>
@@ -7612,27 +7695,27 @@
       <c r="AG37" s="8"/>
       <c r="AH37" s="8"/>
     </row>
-    <row r="38" spans="1:34" ht="228" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34" ht="213.75">
       <c r="A38" s="7" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="H38" s="17">
         <v>2006</v>
@@ -7641,25 +7724,25 @@
         <v>46</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="O38" s="8">
         <v>1921</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>63</v>
@@ -7668,42 +7751,42 @@
         <v>80</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="W38" s="4" t="s">
         <v>46</v>
       </c>
       <c r="X38" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Y38" s="3" t="s">
         <v>68</v>
       </c>
       <c r="Z38" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
-    <row r="39" spans="1:34" ht="264" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34" ht="264">
       <c r="A39" s="7" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>75</v>
@@ -7715,56 +7798,59 @@
         <v>1958</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O39" s="8">
         <v>1958</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q39" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="W39" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="X39" s="10"/>
       <c r="Y39" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Z39" s="10" t="s">
-        <v>585</v>
+        <v>595</v>
+      </c>
+      <c r="AA39" s="35" t="s">
+        <v>596</v>
       </c>
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
@@ -7774,24 +7860,24 @@
       <c r="AG39" s="2"/>
       <c r="AH39" s="2"/>
     </row>
-    <row r="40" spans="1:34" ht="228" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34" ht="213.75">
       <c r="A40" s="18" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>33</v>
@@ -7800,75 +7886,75 @@
         <v>2014</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="K40" s="13">
         <v>8504</v>
       </c>
       <c r="L40" s="13" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="Q40" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="W40" s="4" t="s">
         <v>46</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Y40" s="3" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="Z40" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:34" ht="276" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34" ht="288.75">
       <c r="A41" s="18" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>75</v>
@@ -7880,28 +7966,28 @@
         <v>1946</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="K41" s="13">
         <v>5362</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="M41" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O41" s="8">
         <v>1946</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="Q41" s="2" t="s">
         <v>63</v>
@@ -7910,48 +7996,51 @@
         <v>80</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="U41" s="2" t="s">
         <v>65</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Y41" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Z41" s="10" t="s">
-        <v>614</v>
+        <v>625</v>
+      </c>
+      <c r="AA41" s="35" t="s">
+        <v>626</v>
       </c>
     </row>
-    <row r="42" spans="1:34" ht="204" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34" ht="200.25">
       <c r="A42" s="7" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>33</v>
@@ -7960,10 +8049,10 @@
         <v>2014</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="K42" s="13">
         <v>14000</v>
@@ -7975,13 +8064,13 @@
         <v>59</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="Q42" s="2" t="s">
         <v>63</v>
@@ -7990,75 +8079,75 @@
         <v>42</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="W42" s="4" t="s">
         <v>46</v>
       </c>
       <c r="X42" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Y42" s="3" t="s">
         <v>48</v>
       </c>
       <c r="Z42" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
-    <row r="43" spans="1:34" ht="192" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34" ht="200.25">
       <c r="A43" s="7" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H43" s="8">
         <v>2015</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="Q43" s="2" t="s">
         <v>63</v>
@@ -8067,25 +8156,28 @@
         <v>42</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="W43" s="10" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="X43" s="10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Y43" s="3" t="s">
         <v>68</v>
       </c>
       <c r="Z43" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AA43" s="35" t="s">
+        <v>653</v>
       </c>
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
@@ -8095,24 +8187,24 @@
       <c r="AG43" s="2"/>
       <c r="AH43" s="2"/>
     </row>
-    <row r="44" spans="1:34" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:34" ht="153" customHeight="1">
       <c r="A44" s="18" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>642</v>
+        <v>655</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
       <c r="H44" s="8">
         <v>2006</v>
@@ -8121,25 +8213,25 @@
         <v>46</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="K44" s="13" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="M44" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>649</v>
+        <v>662</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>650</v>
+        <v>663</v>
       </c>
       <c r="Q44" s="2" t="s">
         <v>63</v>
@@ -8149,13 +8241,13 @@
       </c>
       <c r="S44" s="5"/>
       <c r="T44" s="2" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>652</v>
+        <v>665</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>653</v>
+        <v>666</v>
       </c>
       <c r="W44" s="4" t="s">
         <v>46</v>
@@ -8164,30 +8256,30 @@
         <v>68</v>
       </c>
       <c r="Z44" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
-    <row r="45" spans="1:34" ht="384" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34" ht="351.75">
       <c r="A45" s="7" t="s">
-        <v>654</v>
+        <v>667</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>655</v>
+        <v>668</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>656</v>
+        <v>669</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
       <c r="H45" s="8">
         <v>1988</v>
@@ -8196,25 +8288,25 @@
         <v>46</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
       <c r="K45" s="13">
         <v>4858</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>661</v>
+        <v>674</v>
       </c>
       <c r="M45" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>662</v>
+        <v>675</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>664</v>
+        <v>677</v>
       </c>
       <c r="Q45" s="2" t="s">
         <v>63</v>
@@ -8223,48 +8315,48 @@
         <v>80</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>666</v>
+        <v>679</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>667</v>
+        <v>680</v>
       </c>
       <c r="W45" s="10" t="s">
         <v>46</v>
       </c>
       <c r="X45" s="10" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>68</v>
       </c>
       <c r="Z45" s="10" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
-    <row r="46" spans="1:34" ht="168" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:34" ht="175.5">
       <c r="A46" s="7" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>671</v>
+        <v>684</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="H46" s="2">
         <v>2014</v>
@@ -8273,7 +8365,7 @@
         <v>46</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>674</v>
+        <v>687</v>
       </c>
       <c r="K46" s="9">
         <v>6616</v>
@@ -8285,28 +8377,28 @@
         <v>59</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="Q46" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>678</v>
+        <v>691</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
       <c r="U46" s="36" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="W46" s="4" t="s">
         <v>46</v>
@@ -8315,30 +8407,30 @@
         <v>68</v>
       </c>
       <c r="Z46" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:34" ht="168" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34" ht="175.5">
       <c r="A47" s="7" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>685</v>
+        <v>698</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H47" s="8">
         <v>2008</v>
@@ -8347,25 +8439,25 @@
         <v>46</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="M47" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="Q47" s="2" t="s">
         <v>63</v>
@@ -8374,25 +8466,28 @@
         <v>80</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
       <c r="W47" s="10" t="s">
         <v>46</v>
       </c>
       <c r="X47" s="10" t="s">
-        <v>694</v>
+        <v>707</v>
       </c>
       <c r="Y47" s="3" t="s">
         <v>68</v>
       </c>
       <c r="Z47" s="10" t="s">
         <v>85</v>
+      </c>
+      <c r="AA47" s="35" t="s">
+        <v>708</v>
       </c>
       <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
@@ -8402,27 +8497,27 @@
       <c r="AG47" s="2"/>
       <c r="AH47" s="2"/>
     </row>
-    <row r="48" spans="1:34" ht="300" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:34" ht="264">
       <c r="A48" s="18" t="s">
-        <v>695</v>
+        <v>709</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>696</v>
+        <v>710</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>697</v>
+        <v>711</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>698</v>
+        <v>712</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>699</v>
+        <v>713</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>700</v>
+        <v>714</v>
       </c>
       <c r="H48" s="8">
         <v>1998</v>
@@ -8431,25 +8526,25 @@
         <v>46</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>701</v>
+        <v>715</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>702</v>
+        <v>716</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>703</v>
+        <v>717</v>
       </c>
       <c r="M48" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>705</v>
+        <v>719</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>706</v>
+        <v>720</v>
       </c>
       <c r="Q48" s="2" t="s">
         <v>63</v>
@@ -8459,16 +8554,16 @@
       </c>
       <c r="S48" s="5"/>
       <c r="T48" s="2" t="s">
-        <v>707</v>
+        <v>721</v>
       </c>
       <c r="U48" s="2" t="s">
-        <v>708</v>
+        <v>722</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>709</v>
+        <v>723</v>
       </c>
       <c r="W48" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>68</v>
@@ -8477,24 +8572,24 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:34" ht="276" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34" ht="251.25">
       <c r="A49" s="18" t="s">
-        <v>710</v>
+        <v>724</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>711</v>
+        <v>725</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>712</v>
+        <v>726</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>713</v>
+        <v>727</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>33</v>
@@ -8503,73 +8598,73 @@
         <v>1994</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>714</v>
+        <v>728</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>715</v>
+        <v>729</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>716</v>
+        <v>730</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>717</v>
+        <v>731</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>718</v>
+        <v>732</v>
       </c>
       <c r="Q49" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>719</v>
+        <v>733</v>
       </c>
       <c r="S49" s="5"/>
       <c r="T49" s="2" t="s">
-        <v>720</v>
+        <v>734</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>721</v>
+        <v>735</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
       <c r="W49" s="4" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Y49" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Z49" s="10" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
-    <row r="50" spans="1:34" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:34" ht="117" customHeight="1">
       <c r="A50" s="18" t="s">
-        <v>723</v>
+        <v>737</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>724</v>
+        <v>738</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>726</v>
+        <v>740</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>727</v>
+        <v>741</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>33</v>
@@ -8578,28 +8673,28 @@
         <v>1992</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>728</v>
+        <v>742</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>729</v>
+        <v>743</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>730</v>
+        <v>744</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>731</v>
+        <v>745</v>
       </c>
       <c r="M50" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>732</v>
+        <v>746</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>40</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>733</v>
+        <v>747</v>
       </c>
       <c r="Q50" s="2" t="s">
         <v>63</v>
@@ -8609,63 +8704,63 @@
       </c>
       <c r="S50" s="5"/>
       <c r="T50" s="2" t="s">
-        <v>734</v>
+        <v>748</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>735</v>
+        <v>749</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>736</v>
+        <v>750</v>
       </c>
       <c r="W50" s="4" t="s">
-        <v>737</v>
+        <v>751</v>
       </c>
       <c r="Y50" s="3" t="s">
         <v>48</v>
       </c>
       <c r="Z50" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AA50" s="34" t="s">
-        <v>738</v>
+        <v>752</v>
       </c>
     </row>
-    <row r="51" spans="1:34" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34" ht="78" customHeight="1">
       <c r="A51" s="7" t="s">
-        <v>739</v>
+        <v>753</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>740</v>
+        <v>754</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>741</v>
+        <v>755</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>742</v>
+        <v>756</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>743</v>
+        <v>757</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>744</v>
+        <v>758</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>745</v>
+        <v>759</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>746</v>
+        <v>760</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>747</v>
+        <v>761</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>748</v>
+        <v>762</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>59</v>
@@ -8677,37 +8772,40 @@
         <v>40</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>749</v>
+        <v>763</v>
       </c>
       <c r="Q51" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>750</v>
+        <v>764</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>751</v>
+        <v>765</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>752</v>
+        <v>766</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>753</v>
+        <v>767</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>754</v>
+        <v>768</v>
       </c>
       <c r="W51" s="10" t="s">
-        <v>755</v>
+        <v>769</v>
       </c>
       <c r="X51" s="10" t="s">
-        <v>694</v>
+        <v>707</v>
       </c>
       <c r="Y51" s="3" t="s">
         <v>48</v>
       </c>
       <c r="Z51" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="AA51" s="35" t="s">
+        <v>770</v>
       </c>
       <c r="AB51" s="2"/>
       <c r="AC51" s="2"/>
@@ -8717,208 +8815,208 @@
       <c r="AG51" s="2"/>
       <c r="AH51" s="2"/>
     </row>
-    <row r="52" spans="1:34" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:34" ht="87.75" customHeight="1">
       <c r="A52" s="18" t="s">
-        <v>756</v>
+        <v>771</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>757</v>
+        <v>772</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>758</v>
+        <v>773</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>759</v>
+        <v>774</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>760</v>
+        <v>775</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>761</v>
+        <v>776</v>
       </c>
       <c r="H52" s="8">
         <v>2007</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>762</v>
+        <v>777</v>
       </c>
       <c r="K52" s="13" t="s">
-        <v>763</v>
+        <v>778</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>764</v>
+        <v>779</v>
       </c>
       <c r="O52" s="8" t="s">
-        <v>765</v>
+        <v>780</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="Q52" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>767</v>
+        <v>782</v>
       </c>
       <c r="U52" s="2" t="s">
         <v>65</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>768</v>
+        <v>783</v>
       </c>
       <c r="W52" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y52" s="3" t="s">
         <v>68</v>
       </c>
       <c r="Z52" s="10" t="s">
-        <v>769</v>
+        <v>784</v>
       </c>
     </row>
-    <row r="53" spans="1:34" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:34" ht="146.25" customHeight="1">
       <c r="A53" s="7" t="s">
-        <v>770</v>
+        <v>785</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>771</v>
+        <v>786</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>772</v>
+        <v>787</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>773</v>
+        <v>788</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>774</v>
+        <v>789</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H53" s="8">
         <v>1985</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>775</v>
+        <v>790</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>776</v>
+        <v>791</v>
       </c>
       <c r="K53" s="13">
         <v>10308</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>777</v>
+        <v>792</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>778</v>
+        <v>793</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>779</v>
+        <v>794</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>780</v>
+        <v>795</v>
       </c>
       <c r="Q53" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>781</v>
+        <v>796</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>782</v>
+        <v>797</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>783</v>
+        <v>798</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>784</v>
+        <v>799</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>785</v>
+        <v>800</v>
       </c>
       <c r="W53" s="4" t="s">
         <v>46</v>
       </c>
       <c r="X53" s="4" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="Y53" s="3" t="s">
         <v>68</v>
       </c>
       <c r="Z53" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
-    <row r="54" spans="1:34" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:34" ht="113.25" customHeight="1">
       <c r="A54" s="7" t="s">
-        <v>786</v>
+        <v>801</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>787</v>
+        <v>802</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>788</v>
+        <v>803</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>789</v>
+        <v>804</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>790</v>
+        <v>805</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="H54" s="8">
         <v>1986</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>792</v>
+        <v>807</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>793</v>
+        <v>808</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>794</v>
+        <v>809</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>795</v>
+        <v>810</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>796</v>
+        <v>811</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>797</v>
+        <v>812</v>
       </c>
       <c r="Q54" s="2" t="s">
         <v>63</v>
@@ -8927,42 +9025,42 @@
         <v>42</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>798</v>
+        <v>813</v>
       </c>
       <c r="U54" s="2" t="s">
         <v>65</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>799</v>
+        <v>814</v>
       </c>
       <c r="W54" s="4" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="Y54" s="3" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="Z54" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:34" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:34" ht="389.25">
       <c r="A55" s="7" t="s">
-        <v>800</v>
+        <v>815</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>801</v>
+        <v>816</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>802</v>
+        <v>817</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>803</v>
+        <v>818</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>804</v>
+        <v>819</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>805</v>
+        <v>820</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>33</v>
@@ -8974,7 +9072,7 @@
         <v>46</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>806</v>
+        <v>821</v>
       </c>
       <c r="K55" s="2">
         <v>628</v>
@@ -8986,13 +9084,13 @@
         <v>59</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>807</v>
+        <v>822</v>
       </c>
       <c r="O55" s="2" t="s">
         <v>40</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>808</v>
+        <v>823</v>
       </c>
       <c r="Q55" s="2" t="s">
         <v>42</v>
@@ -9001,51 +9099,51 @@
         <v>80</v>
       </c>
       <c r="S55" s="38" t="s">
-        <v>809</v>
+        <v>824</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>810</v>
+        <v>825</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>811</v>
+        <v>826</v>
       </c>
       <c r="W55" s="4" t="s">
         <v>46</v>
       </c>
       <c r="X55" s="4" t="s">
-        <v>812</v>
+        <v>827</v>
       </c>
       <c r="Y55" s="3" t="s">
         <v>48</v>
       </c>
       <c r="Z55" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:34" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:34" ht="389.25">
       <c r="A56" s="7" t="s">
-        <v>813</v>
+        <v>828</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>814</v>
+        <v>829</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>815</v>
+        <v>830</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>816</v>
+        <v>831</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>817</v>
+        <v>832</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>818</v>
+        <v>833</v>
       </c>
       <c r="H56" s="2">
         <v>1998</v>
@@ -9054,7 +9152,7 @@
         <v>46</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>819</v>
+        <v>834</v>
       </c>
       <c r="K56" s="9">
         <v>4300</v>
@@ -9072,124 +9170,124 @@
         <v>1986</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>820</v>
+        <v>835</v>
       </c>
       <c r="Q56" s="2" t="s">
         <v>42</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>821</v>
+        <v>836</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>822</v>
+        <v>837</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>823</v>
+        <v>838</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>824</v>
+        <v>839</v>
       </c>
       <c r="W56" s="4" t="s">
         <v>46</v>
       </c>
       <c r="Y56" s="3" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="Z56" s="10" t="s">
-        <v>825</v>
+        <v>840</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:34">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:34">
       <c r="A58" s="7"/>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:34">
       <c r="A59" s="7"/>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:34">
       <c r="A60" s="7"/>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:34">
       <c r="A61" s="7"/>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:34">
       <c r="A62" s="7"/>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:34">
       <c r="A63" s="7"/>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:34">
       <c r="A64" s="7"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1">
       <c r="A65" s="7"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1">
       <c r="A66" s="7"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1">
       <c r="A67" s="7"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1">
       <c r="A69" s="7"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1">
       <c r="A70" s="7"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1">
       <c r="A71" s="7"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1">
       <c r="A72" s="7"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1">
       <c r="A73" s="7"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1">
       <c r="A74" s="7"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1">
       <c r="A75" s="7"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1">
       <c r="A76" s="7"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1">
       <c r="A77" s="7"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1">
       <c r="A78" s="7"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1">
       <c r="A79" s="7"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1">
       <c r="A80" s="7"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1">
       <c r="A81" s="7"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1">
       <c r="A82" s="7"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1">
       <c r="A83" s="7"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1">
       <c r="A84" s="7"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1">
       <c r="A85" s="7"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1">
       <c r="A86" s="7"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1">
       <c r="A87" s="7"/>
     </row>
   </sheetData>
@@ -9204,6 +9302,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b67f489d-6419-4cb0-8238-506a3a8f1300">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0ce01a67-a604-4be1-a4ca-c8b766b5a068" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -9212,9 +9321,9 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006651BF32B521A046AF14BF632D6B295F" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="09153fd41ce1666f2d769619857e3bdc">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b67f489d-6419-4cb0-8238-506a3a8f1300" xmlns:ns3="0ce01a67-a604-4be1-a4ca-c8b766b5a068" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="de1bb72c62ccf761f278c18d78bd3734" ns2:_="" ns3:_="">
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006651BF32B521A046AF14BF632D6B295F" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61ec2f5c856a4823ff415f9801744ae6">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b67f489d-6419-4cb0-8238-506a3a8f1300" xmlns:ns3="0ce01a67-a604-4be1-a4ca-c8b766b5a068" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ab3e104a5ef823f6b61bc0a70e361c14" ns2:_="" ns3:_="">
     <xsd:import namespace="b67f489d-6419-4cb0-8238-506a3a8f1300"/>
     <xsd:import namespace="0ce01a67-a604-4be1-a4ca-c8b766b5a068"/>
     <xsd:element name="properties">
@@ -9233,6 +9342,8 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -9306,6 +9417,32 @@
           </xsd:extension>
         </xsd:complexContent>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -9407,51 +9544,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b67f489d-6419-4cb0-8238-506a3a8f1300">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0ce01a67-a604-4be1-a4ca-c8b766b5a068" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C8B3C7C-6A2F-4690-AF82-2D0388819DFC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A888961D-86EF-4E4E-8A38-F33DFFA3A067}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E23DE8AC-2A9C-42E3-AC06-D37A01CE10EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b67f489d-6419-4cb0-8238-506a3a8f1300"/>
-    <ds:schemaRef ds:uri="0ce01a67-a604-4be1-a4ca-c8b766b5a068"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C8B3C7C-6A2F-4690-AF82-2D0388819DFC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A888961D-86EF-4E4E-8A38-F33DFFA3A067}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b67f489d-6419-4cb0-8238-506a3a8f1300"/>
-    <ds:schemaRef ds:uri="0ce01a67-a604-4be1-a4ca-c8b766b5a068"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C96B5693-B164-4A92-AE30-985AE2C42908}"/>
 </file>
--- a/xlsx/studies.xlsx
+++ b/xlsx/studies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emckclac-my.sharepoint.com/personal/k1780970_kcl_ac_uk/Documents/1. Catalogue + work documents/1. Catalogue shared files/1. Catalogue/2. Catalogue study updates/Resource folders/cmhm_20May22/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\john\workspace\catalogueMentalHealth\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="695" documentId="13_ncr:1_{6F82A259-41A7-4DF6-B3CE-4CB00C898517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F3B4F9D-D9B7-4DB9-A9D6-6E04D057A946}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9038C18-B791-4F61-B0DD-3DFE6CFB61C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study details" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="855">
   <si>
     <t>Code</t>
   </si>
@@ -3867,12 +3867,65 @@
     <t>Linked administrative data,
 Mapping/spatial data</t>
   </si>
+  <si>
+    <t>SEP-MD</t>
+  </si>
+  <si>
+    <t>Social and Economic Predictors of the Severe Mental Disorders Study (SEP-MD)</t>
+  </si>
+  <si>
+    <t>The SEP-MD Data Linkage Study is a large linked cohort connecting individual-level records from the 2011 UK Census with de-identified clinical records from the South London &amp; Maudsley Trust, which provides mental health care across South East London, as well as death registrations. The study aims to explore how neighbourhood and individual-level factors are related to mortality, in-patient admissions and long-term worklessness in people with severe mental health conditions. The study will also explore ethnic inequalities to deepen understanding of disparities in outcomes.</t>
+  </si>
+  <si>
+    <t>King's College London</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.kcl.ac.uk/research/the-sep-md-data-linkage-study/"&gt;https://www.kcl.ac.uk/research/the-sep-md-data-linkage-study/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>South East London</t>
+  </si>
+  <si>
+    <t>Linked cohort</t>
+  </si>
+  <si>
+    <t>The sample consists of de-identified clinical records from South London &amp; Maudsley (SLaM) Trust, one of Europe's largest secondary mental health service providers, which are extracted and accessible through the Clinical Record Interactive Search (CRIS) system. The trust provides mental health care to an ethnically diverse, urbanised location in South East London, with a catchment area of 1.3 million people and only 38.7% of SlaM service users reporting their ethnicity as 'White' in 2020-21. This includes all mental health services provided by the NHS, such as the Improving Access to Psychological Therapies (IAPT) service. These clinical records are linked to individual-level records from the 2011 UK Census, containing information on individual's social and environmental conditions, and death registrations.
+The linked cohort includes 19,808 de-identified records of SLaM service users with a diagnosis of severe mental illness, including Schizophrenia-spectrum disorders, Bipolar affective disorders and non-organic psychoses, linked with available data from the 2011 census. In addition to the linked cohort, an additional sample is available to facilitate further research. For each indivdiual in the SEP-MD cohort, data were matched with 5 controls from the study area who had completed Census questions but did not have a history of severe mental health problems, allowing for examination of the social determinants of onset, course, and outcomes (admissions, worklessness and mortality) in people living with severe mental health conditions.</t>
+  </si>
+  <si>
+    <t>19,808 individuals with a diagnosis of severe mental illness</t>
+  </si>
+  <si>
+    <t>The linked dataset is hosted in an ONS secure setting and is accessible to accredited researchers working on the study, subject to completing an approvals process. Contact Dr Das-Munshi for more information: jayati.das-munshi@kcl.ac.uk</t>
+  </si>
+  <si>
+    <t>Cybulski et al. (2023). Improving our understanding of the social determinants of mental health: A data linkage study of mental health records and the 2011 UK census. &lt;br&gt;
+&lt;a
+href="https://doi.org/10.1101/2023.03.10.23287114"&gt;doi.org/10.1101/2023.03.10.23287114&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>ESRC</t>
+  </si>
+  <si>
+    <t>Cognitive measures,
+Ethnicity and race,
+Housing,
+Language and literacy,
+Neighbourhood,
+Social care - provision,
+Socioeconomic status and deprivation,
+Work and employment</t>
+  </si>
+  <si>
+    <t>Ethnicity and race,
+Patients and clinical cohorts</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3938,8 +3991,27 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF2E2E2E"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3961,6 +4033,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4016,7 +4094,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4133,6 +4211,24 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4520,13 +4616,13 @@
   <dimension ref="A1:AMJ87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="AA5" sqref="AA5"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V1" sqref="V1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="V1" sqref="V1"/>
+      <selection pane="bottomRight" activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.28515625" style="20" customWidth="1"/>
@@ -4560,7 +4656,7 @@
     <col min="1025" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="26" customFormat="1" ht="24" customHeight="1">
+    <row r="1" spans="1:1024" s="26" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -4650,7 +4746,7 @@
       <c r="AG1" s="25"/>
       <c r="AH1" s="25"/>
     </row>
-    <row r="2" spans="1:1024" s="11" customFormat="1" ht="195" customHeight="1">
+    <row r="2" spans="1:1024" s="11" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>27</v>
       </c>
@@ -4735,7 +4831,7 @@
       <c r="AH2" s="5"/>
       <c r="AMJ2" s="6"/>
     </row>
-    <row r="3" spans="1:1024" s="14" customFormat="1" ht="126.75" customHeight="1">
+    <row r="3" spans="1:1024" s="14" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>49</v>
       </c>
@@ -4822,7 +4918,7 @@
       <c r="AH3" s="8"/>
       <c r="AMJ3" s="6"/>
     </row>
-    <row r="4" spans="1:1024" s="14" customFormat="1" ht="135.75" customHeight="1">
+    <row r="4" spans="1:1024" s="14" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>70</v>
       </c>
@@ -4911,7 +5007,7 @@
       <c r="AH4" s="5"/>
       <c r="AMJ4" s="6"/>
     </row>
-    <row r="5" spans="1:1024" s="2" customFormat="1" ht="110.1" customHeight="1">
+    <row r="5" spans="1:1024" s="2" customFormat="1" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>87</v>
       </c>
@@ -5000,7 +5096,7 @@
       <c r="AH5" s="5"/>
       <c r="AMJ5" s="6"/>
     </row>
-    <row r="6" spans="1:1024" s="14" customFormat="1" ht="264">
+    <row r="6" spans="1:1024" s="14" customFormat="1" ht="276" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>107</v>
       </c>
@@ -5087,7 +5183,7 @@
       <c r="AH6" s="5"/>
       <c r="AMJ6" s="6"/>
     </row>
-    <row r="7" spans="1:1024" s="16" customFormat="1" ht="131.1" customHeight="1">
+    <row r="7" spans="1:1024" s="16" customFormat="1" ht="131.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>124</v>
       </c>
@@ -5172,7 +5268,7 @@
       <c r="AH7" s="5"/>
       <c r="AMJ7" s="6"/>
     </row>
-    <row r="8" spans="1:1024" s="14" customFormat="1" ht="120" customHeight="1">
+    <row r="8" spans="1:1024" s="14" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>137</v>
       </c>
@@ -5257,7 +5353,7 @@
       <c r="AH8" s="5"/>
       <c r="AMJ8" s="6"/>
     </row>
-    <row r="9" spans="1:1024" s="14" customFormat="1" ht="123.95" customHeight="1">
+    <row r="9" spans="1:1024" s="14" customFormat="1" ht="123.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>153</v>
       </c>
@@ -5346,7 +5442,7 @@
       <c r="AH9" s="2"/>
       <c r="AMJ9" s="6"/>
     </row>
-    <row r="10" spans="1:1024" s="14" customFormat="1" ht="96" customHeight="1">
+    <row r="10" spans="1:1024" s="14" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>170</v>
       </c>
@@ -5433,7 +5529,7 @@
       <c r="AH10" s="2"/>
       <c r="AMJ10" s="6"/>
     </row>
-    <row r="11" spans="1:1024" s="14" customFormat="1" ht="155.1" customHeight="1">
+    <row r="11" spans="1:1024" s="14" customFormat="1" ht="155.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>187</v>
       </c>
@@ -5520,7 +5616,7 @@
       <c r="AH11" s="2"/>
       <c r="AMJ11" s="6"/>
     </row>
-    <row r="12" spans="1:1024" s="14" customFormat="1" ht="207.95" customHeight="1">
+    <row r="12" spans="1:1024" s="14" customFormat="1" ht="207.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>199</v>
       </c>
@@ -5609,7 +5705,7 @@
       <c r="AH12" s="5"/>
       <c r="AMJ12" s="6"/>
     </row>
-    <row r="13" spans="1:1024" s="14" customFormat="1" ht="141.94999999999999" customHeight="1">
+    <row r="13" spans="1:1024" s="14" customFormat="1" ht="141.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>217</v>
       </c>
@@ -5696,7 +5792,7 @@
       <c r="AH13" s="5"/>
       <c r="AMJ13" s="6"/>
     </row>
-    <row r="14" spans="1:1024" s="16" customFormat="1" ht="162.75" customHeight="1">
+    <row r="14" spans="1:1024" s="16" customFormat="1" ht="162.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>231</v>
       </c>
@@ -5783,7 +5879,7 @@
       <c r="AH14" s="5"/>
       <c r="AMJ14" s="6"/>
     </row>
-    <row r="15" spans="1:1024" s="2" customFormat="1" ht="129.94999999999999" customHeight="1">
+    <row r="15" spans="1:1024" s="2" customFormat="1" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>244</v>
       </c>
@@ -5869,7 +5965,7 @@
       <c r="AH15" s="5"/>
       <c r="AMJ15" s="6"/>
     </row>
-    <row r="16" spans="1:1024" s="14" customFormat="1" ht="87" customHeight="1">
+    <row r="16" spans="1:1024" s="14" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>257</v>
       </c>
@@ -5956,7 +6052,7 @@
       <c r="AH16" s="5"/>
       <c r="AMJ16" s="6"/>
     </row>
-    <row r="17" spans="1:1024" s="14" customFormat="1" ht="183.95" customHeight="1">
+    <row r="17" spans="1:1024" s="14" customFormat="1" ht="183.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>273</v>
       </c>
@@ -6043,7 +6139,7 @@
       <c r="AH17" s="2"/>
       <c r="AMJ17" s="6"/>
     </row>
-    <row r="18" spans="1:1024" s="14" customFormat="1" ht="103.5" customHeight="1">
+    <row r="18" spans="1:1024" s="14" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>288</v>
       </c>
@@ -6132,7 +6228,7 @@
       <c r="AH18" s="2"/>
       <c r="AMJ18" s="6"/>
     </row>
-    <row r="19" spans="1:1024" s="14" customFormat="1" ht="140.1" customHeight="1">
+    <row r="19" spans="1:1024" s="14" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
         <v>304</v>
       </c>
@@ -6217,7 +6313,7 @@
       <c r="AH19" s="5"/>
       <c r="AMJ19" s="6"/>
     </row>
-    <row r="20" spans="1:1024" s="14" customFormat="1" ht="189.95" customHeight="1">
+    <row r="20" spans="1:1024" s="14" customFormat="1" ht="189.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>319</v>
       </c>
@@ -6302,7 +6398,7 @@
       <c r="AH20" s="5"/>
       <c r="AMJ20" s="6"/>
     </row>
-    <row r="21" spans="1:1024" s="14" customFormat="1" ht="233.1" customHeight="1">
+    <row r="21" spans="1:1024" s="14" customFormat="1" ht="233.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>337</v>
       </c>
@@ -6387,7 +6483,7 @@
       <c r="AH21" s="5"/>
       <c r="AMJ21" s="6"/>
     </row>
-    <row r="22" spans="1:1024" ht="198.95" customHeight="1">
+    <row r="22" spans="1:1024" ht="198.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>351</v>
       </c>
@@ -6461,7 +6557,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:1024" ht="153" customHeight="1">
+    <row r="23" spans="1:1024" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>363</v>
       </c>
@@ -6535,7 +6631,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="24" spans="1:1024" ht="186.95" customHeight="1">
+    <row r="24" spans="1:1024" ht="186.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>376</v>
       </c>
@@ -6620,7 +6716,7 @@
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
     </row>
-    <row r="25" spans="1:1024" ht="216" customHeight="1">
+    <row r="25" spans="1:1024" ht="216" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>394</v>
       </c>
@@ -6705,7 +6801,7 @@
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
     </row>
-    <row r="26" spans="1:1024" ht="228" customHeight="1">
+    <row r="26" spans="1:1024" ht="228" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>409</v>
       </c>
@@ -6782,7 +6878,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:1024" ht="201.95" customHeight="1">
+    <row r="27" spans="1:1024" ht="201.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>417</v>
       </c>
@@ -6867,7 +6963,7 @@
       <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
     </row>
-    <row r="28" spans="1:1024" ht="215.1" customHeight="1">
+    <row r="28" spans="1:1024" ht="215.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
         <v>426</v>
       </c>
@@ -6944,7 +7040,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:1024" ht="221.1" customHeight="1">
+    <row r="29" spans="1:1024" ht="221.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>442</v>
       </c>
@@ -7031,7 +7127,7 @@
       <c r="AG29" s="2"/>
       <c r="AH29" s="2"/>
     </row>
-    <row r="30" spans="1:1024" s="2" customFormat="1" ht="140.1" customHeight="1">
+    <row r="30" spans="1:1024" s="2" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>460</v>
       </c>
@@ -7110,7 +7206,7 @@
       <c r="AA30" s="34"/>
       <c r="AMJ30" s="6"/>
     </row>
-    <row r="31" spans="1:1024" ht="152.1" customHeight="1">
+    <row r="31" spans="1:1024" ht="152.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>472</v>
       </c>
@@ -7187,7 +7283,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:1024" s="2" customFormat="1" ht="294" customHeight="1">
+    <row r="32" spans="1:1024" s="2" customFormat="1" ht="294" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>486</v>
       </c>
@@ -7271,7 +7367,7 @@
       </c>
       <c r="AMJ32" s="6"/>
     </row>
-    <row r="33" spans="1:34" ht="213.75">
+    <row r="33" spans="1:34" ht="204" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>502</v>
       </c>
@@ -7361,7 +7457,7 @@
       <c r="AG33" s="2"/>
       <c r="AH33" s="2"/>
     </row>
-    <row r="34" spans="1:34" ht="264">
+    <row r="34" spans="1:34" ht="300" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>513</v>
       </c>
@@ -7449,7 +7545,7 @@
       <c r="AG34" s="2"/>
       <c r="AH34" s="2"/>
     </row>
-    <row r="35" spans="1:34" ht="301.5">
+    <row r="35" spans="1:34" ht="288" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>527</v>
       </c>
@@ -7539,7 +7635,7 @@
       <c r="AG35" s="12"/>
       <c r="AH35" s="12"/>
     </row>
-    <row r="36" spans="1:34" ht="162.75">
+    <row r="36" spans="1:34" ht="180" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>540</v>
       </c>
@@ -7610,7 +7706,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:34" ht="150.75">
+    <row r="37" spans="1:34" ht="168" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>555</v>
       </c>
@@ -7695,7 +7791,7 @@
       <c r="AG37" s="8"/>
       <c r="AH37" s="8"/>
     </row>
-    <row r="38" spans="1:34" ht="213.75">
+    <row r="38" spans="1:34" ht="228" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>570</v>
       </c>
@@ -7772,7 +7868,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="1:34" ht="264">
+    <row r="39" spans="1:34" ht="264" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>583</v>
       </c>
@@ -7860,7 +7956,7 @@
       <c r="AG39" s="2"/>
       <c r="AH39" s="2"/>
     </row>
-    <row r="40" spans="1:34" ht="213.75">
+    <row r="40" spans="1:34" ht="228" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
         <v>597</v>
       </c>
@@ -7940,7 +8036,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:34" ht="288.75">
+    <row r="41" spans="1:34" ht="276" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
         <v>614</v>
       </c>
@@ -8023,7 +8119,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="42" spans="1:34" ht="200.25">
+    <row r="42" spans="1:34" ht="204" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>627</v>
       </c>
@@ -8100,7 +8196,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="43" spans="1:34" ht="200.25">
+    <row r="43" spans="1:34" ht="192" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>639</v>
       </c>
@@ -8187,7 +8283,7 @@
       <c r="AG43" s="2"/>
       <c r="AH43" s="2"/>
     </row>
-    <row r="44" spans="1:34" ht="153" customHeight="1">
+    <row r="44" spans="1:34" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
         <v>654</v>
       </c>
@@ -8259,7 +8355,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="45" spans="1:34" ht="351.75">
+    <row r="45" spans="1:34" ht="384" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>667</v>
       </c>
@@ -8336,7 +8432,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="46" spans="1:34" ht="175.5">
+    <row r="46" spans="1:34" ht="168" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>682</v>
       </c>
@@ -8410,7 +8506,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:34" ht="175.5">
+    <row r="47" spans="1:34" ht="168" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>695</v>
       </c>
@@ -8497,7 +8593,7 @@
       <c r="AG47" s="2"/>
       <c r="AH47" s="2"/>
     </row>
-    <row r="48" spans="1:34" ht="264">
+    <row r="48" spans="1:34" ht="300" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
         <v>709</v>
       </c>
@@ -8572,7 +8668,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:34" ht="251.25">
+    <row r="49" spans="1:34" ht="276" x14ac:dyDescent="0.2">
       <c r="A49" s="18" t="s">
         <v>724</v>
       </c>
@@ -8647,7 +8743,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="50" spans="1:34" ht="117" customHeight="1">
+    <row r="50" spans="1:34" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
         <v>737</v>
       </c>
@@ -8725,7 +8821,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="51" spans="1:34" ht="78" customHeight="1">
+    <row r="51" spans="1:34" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>753</v>
       </c>
@@ -8815,7 +8911,7 @@
       <c r="AG51" s="2"/>
       <c r="AH51" s="2"/>
     </row>
-    <row r="52" spans="1:34" ht="87.75" customHeight="1">
+    <row r="52" spans="1:34" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="18" t="s">
         <v>771</v>
       </c>
@@ -8889,7 +8985,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="53" spans="1:34" ht="146.25" customHeight="1">
+    <row r="53" spans="1:34" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>785</v>
       </c>
@@ -8969,7 +9065,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="54" spans="1:34" ht="113.25" customHeight="1">
+    <row r="54" spans="1:34" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>801</v>
       </c>
@@ -9043,7 +9139,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:34" ht="389.25">
+    <row r="55" spans="1:34" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>815</v>
       </c>
@@ -9123,7 +9219,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:34" ht="389.25">
+    <row r="56" spans="1:34" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>828</v>
       </c>
@@ -9197,97 +9293,173 @@
         <v>840</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
-      <c r="A57" s="7"/>
+    <row r="57" spans="1:34" ht="360" x14ac:dyDescent="0.2">
+      <c r="A57" s="46" t="s">
+        <v>841</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>842</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>843</v>
+      </c>
+      <c r="D57" s="41" t="s">
+        <v>844</v>
+      </c>
+      <c r="E57" s="42" t="s">
+        <v>845</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>846</v>
+      </c>
+      <c r="H57" s="14">
+        <v>2018</v>
+      </c>
+      <c r="I57" s="43" t="s">
+        <v>847</v>
+      </c>
+      <c r="J57" s="44" t="s">
+        <v>848</v>
+      </c>
+      <c r="K57" s="45" t="s">
+        <v>849</v>
+      </c>
+      <c r="L57" s="45" t="s">
+        <v>849</v>
+      </c>
+      <c r="M57" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="N57" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="O57" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="P57" s="43" t="s">
+        <v>850</v>
+      </c>
+      <c r="Q57" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="R57" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="S57" s="14"/>
+      <c r="T57" s="14" t="s">
+        <v>851</v>
+      </c>
+      <c r="U57" s="14" t="s">
+        <v>852</v>
+      </c>
+      <c r="V57" s="14" t="s">
+        <v>853</v>
+      </c>
+      <c r="W57" s="43" t="s">
+        <v>847</v>
+      </c>
+      <c r="X57" s="14" t="s">
+        <v>854</v>
+      </c>
+      <c r="Y57" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z57" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA57" s="14"/>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
     </row>
-    <row r="60" spans="1:34">
-      <c r="A60" s="7"/>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A62" s="7"/>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A63" s="7"/>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A64" s="7"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="7"/>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="7"/>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="7"/>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="7"/>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="7"/>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="7"/>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="7"/>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="7"/>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="7"/>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="7"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="7"/>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="7"/>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="7"/>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="7"/>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="7"/>
     </row>
   </sheetData>
@@ -9296,12 +9468,24 @@
       <sortCondition ref="A1:A54"/>
     </sortState>
   </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="E57" r:id="rId1" display="https://www.kcl.ac.uk/research/the-sep-md-data-linkage-study" xr:uid="{556AD618-5565-4E79-A417-EB9E2E90EF22}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="b67f489d-6419-4cb0-8238-506a3a8f1300">
@@ -9312,18 +9496,9 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006651BF32B521A046AF14BF632D6B295F" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61ec2f5c856a4823ff415f9801744ae6">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b67f489d-6419-4cb0-8238-506a3a8f1300" xmlns:ns3="0ce01a67-a604-4be1-a4ca-c8b766b5a068" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ab3e104a5ef823f6b61bc0a70e361c14" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006651BF32B521A046AF14BF632D6B295F" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="55423843e2650ade946de227fdfd3c86">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b67f489d-6419-4cb0-8238-506a3a8f1300" xmlns:ns3="0ce01a67-a604-4be1-a4ca-c8b766b5a068" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b15cf6a4d7b0b7ca33e0fb73ec1791d3" ns2:_="" ns3:_="">
     <xsd:import namespace="b67f489d-6419-4cb0-8238-506a3a8f1300"/>
     <xsd:import namespace="0ce01a67-a604-4be1-a4ca-c8b766b5a068"/>
     <xsd:element name="properties">
@@ -9344,6 +9519,7 @@
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -9399,6 +9575,11 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="21" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -9545,13 +9726,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A888961D-86EF-4E4E-8A38-F33DFFA3A067}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C8B3C7C-6A2F-4690-AF82-2D0388819DFC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C8B3C7C-6A2F-4690-AF82-2D0388819DFC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A888961D-86EF-4E4E-8A38-F33DFFA3A067}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b67f489d-6419-4cb0-8238-506a3a8f1300"/>
+    <ds:schemaRef ds:uri="0ce01a67-a604-4be1-a4ca-c8b766b5a068"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C96B5693-B164-4A92-AE30-985AE2C42908}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B6E6444-F52A-4A7D-907E-4485397AB440}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b67f489d-6419-4cb0-8238-506a3a8f1300"/>
+    <ds:schemaRef ds:uri="0ce01a67-a604-4be1-a4ca-c8b766b5a068"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/xlsx/studies.xlsx
+++ b/xlsx/studies.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\john\workspace\catalogueMentalHealth\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9038C18-B791-4F61-B0DD-3DFE6CFB61C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38699A6C-BE56-484A-8650-E24CD0B98D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6585" yWindow="2415" windowWidth="18975" windowHeight="15885" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study details" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="855">
   <si>
     <t>Code</t>
   </si>
@@ -3352,8 +3355,8 @@
 Social media data</t>
   </si>
   <si>
-    <t>Twins Early Development Study: A Genetically Sensitive Investigation into Behavioral and Cognitive Development from Infancy to Emerging Adulthood. &lt;br&gt;
-&lt;a href="https://doi.org/10.1017/thg.2019.56"&gt;doi:10.1017/thg.2019.56&lt;/a&gt;</t>
+    <t>Twins Early Development Study (TEDS): A genetically sensitive investigation of mental health outcomes in the mid-twenties &lt;br&gt;
+&lt;a href="https://doi.org/10.1002/jcv2.12154"&gt;doi.org/10.1002/jcv2.12154&lt;/a&gt;</t>
   </si>
   <si>
     <t>MRC NIH</t>
@@ -3874,10 +3877,7 @@
     <t>Social and Economic Predictors of the Severe Mental Disorders Study (SEP-MD)</t>
   </si>
   <si>
-    <t>The SEP-MD Data Linkage Study is a large linked cohort connecting individual-level records from the 2011 UK Census with de-identified clinical records from the South London &amp; Maudsley Trust, which provides mental health care across South East London, as well as death registrations. The study aims to explore how neighbourhood and individual-level factors are related to mortality, in-patient admissions and long-term worklessness in people with severe mental health conditions. The study will also explore ethnic inequalities to deepen understanding of disparities in outcomes.</t>
-  </si>
-  <si>
-    <t>King's College London</t>
+    <t>The SEP-MD Study is a large, linked cohort connecting individual data from the 2011 UK Census with clinical records from the South London &amp; Maudsley Trust and death registrations. The study aims to explore how neighbourhood and individual-level factors are related to mortality, in-patient admissions and long-term worklessness in people with severe mental health conditions. The study will also explore ethnic inequalities to deepen understanding of disparities in outcomes.</t>
   </si>
   <si>
     <t>&lt;a href="https://www.kcl.ac.uk/research/the-sep-md-data-linkage-study/"&gt;https://www.kcl.ac.uk/research/the-sep-md-data-linkage-study/&lt;/a&gt;</t>
@@ -3889,8 +3889,8 @@
     <t>Linked cohort</t>
   </si>
   <si>
-    <t>The sample consists of de-identified clinical records from South London &amp; Maudsley (SLaM) Trust, one of Europe's largest secondary mental health service providers, which are extracted and accessible through the Clinical Record Interactive Search (CRIS) system. The trust provides mental health care to an ethnically diverse, urbanised location in South East London, with a catchment area of 1.3 million people and only 38.7% of SlaM service users reporting their ethnicity as 'White' in 2020-21. This includes all mental health services provided by the NHS, such as the Improving Access to Psychological Therapies (IAPT) service. These clinical records are linked to individual-level records from the 2011 UK Census, containing information on individual's social and environmental conditions, and death registrations.
-The linked cohort includes 19,808 de-identified records of SLaM service users with a diagnosis of severe mental illness, including Schizophrenia-spectrum disorders, Bipolar affective disorders and non-organic psychoses, linked with available data from the 2011 census. In addition to the linked cohort, an additional sample is available to facilitate further research. For each indivdiual in the SEP-MD cohort, data were matched with 5 controls from the study area who had completed Census questions but did not have a history of severe mental health problems, allowing for examination of the social determinants of onset, course, and outcomes (admissions, worklessness and mortality) in people living with severe mental health conditions.</t>
+    <t>The linked cohort includes clinical data from 19,808 SLaM service users with a diagnosis of severe mental illness, including schizophrenia-spectrum disorders, bipolar affective disorders and non-organic psychoses, linked with available data from the 2011 census and death registrations. SLaM provides mental health care to an ethnically diverse, urbanised location in South East London, with a catchment area of 1.3 million people and only 38.7% of SlaM service users reporting their ethnicity as 'White' in 2020-21.
+In addition to the linked cohort, an additional sample is available to facilitate further research. For each indivdiual in the SEP-MD cohort, data were matched with 5 controls from the study area who had completed census questions but did not have a history of severe mental health problems, allowing for examination of the social determinants of onset, course, and outcomes (admissions, worklessness and mortality) in people living with severe mental health conditions.</t>
   </si>
   <si>
     <t>19,808 individuals with a diagnosis of severe mental illness</t>
@@ -3919,6 +3919,9 @@
   <si>
     <t>Ethnicity and race,
 Patients and clinical cohorts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -3983,6 +3986,7 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -3995,7 +3999,7 @@
       <sz val="9"/>
       <color rgb="FF2E2E2E"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -4008,6 +4012,7 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4094,7 +4099,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4212,23 +4217,20 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4613,13 +4615,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AMJ87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="V1" sqref="V1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A57" sqref="A57"/>
+      <selection pane="bottomRight" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -9293,84 +9296,84 @@
         <v>840</v>
       </c>
     </row>
-    <row r="57" spans="1:34" ht="360" x14ac:dyDescent="0.2">
-      <c r="A57" s="46" t="s">
+    <row r="57" spans="1:34" s="5" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
         <v>841</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="D57" s="41" t="s">
+      <c r="D57" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" s="41" t="s">
         <v>844</v>
       </c>
-      <c r="E57" s="42" t="s">
+      <c r="F57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="F57" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G57" s="14" t="s">
+      <c r="H57" s="2">
+        <v>2018</v>
+      </c>
+      <c r="I57" s="43" t="s">
         <v>846</v>
       </c>
-      <c r="H57" s="14">
-        <v>2018</v>
-      </c>
-      <c r="I57" s="43" t="s">
+      <c r="J57" s="44" t="s">
         <v>847</v>
       </c>
-      <c r="J57" s="44" t="s">
+      <c r="K57" s="45" t="s">
         <v>848</v>
       </c>
-      <c r="K57" s="45" t="s">
+      <c r="L57" s="45" t="s">
+        <v>848</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P57" s="43" t="s">
         <v>849</v>
       </c>
-      <c r="L57" s="45" t="s">
-        <v>849</v>
-      </c>
-      <c r="M57" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="N57" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="O57" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="P57" s="43" t="s">
+      <c r="Q57" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="Q57" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="R57" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="S57" s="14"/>
-      <c r="T57" s="14" t="s">
+      <c r="U57" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="U57" s="14" t="s">
+      <c r="V57" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="V57" s="14" t="s">
+      <c r="W57" s="43" t="s">
+        <v>846</v>
+      </c>
+      <c r="X57" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="W57" s="43" t="s">
-        <v>847</v>
-      </c>
-      <c r="X57" s="14" t="s">
-        <v>854</v>
-      </c>
-      <c r="Y57" s="14" t="s">
+      <c r="Y57" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Z57" s="14" t="s">
+      <c r="Z57" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AA57" s="14"/>
+      <c r="AA57" s="2"/>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
@@ -9380,6 +9383,9 @@
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
+      <c r="C60" s="30" t="s">
+        <v>854</v>
+      </c>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
@@ -9463,7 +9469,7 @@
       <c r="A87" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AH56" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:AH57" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH54">
       <sortCondition ref="A1:A54"/>
     </sortState>
@@ -9477,15 +9483,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="b67f489d-6419-4cb0-8238-506a3a8f1300">
@@ -9496,7 +9493,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006651BF32B521A046AF14BF632D6B295F" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="55423843e2650ade946de227fdfd3c86">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b67f489d-6419-4cb0-8238-506a3a8f1300" xmlns:ns3="0ce01a67-a604-4be1-a4ca-c8b766b5a068" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b15cf6a4d7b0b7ca33e0fb73ec1791d3" ns2:_="" ns3:_="">
     <xsd:import namespace="b67f489d-6419-4cb0-8238-506a3a8f1300"/>
@@ -9725,15 +9722,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C8B3C7C-6A2F-4690-AF82-2D0388819DFC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A888961D-86EF-4E4E-8A38-F33DFFA3A067}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9744,7 +9742,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B6E6444-F52A-4A7D-907E-4485397AB440}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9761,4 +9759,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C8B3C7C-6A2F-4690-AF82-2D0388819DFC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/xlsx/studies.xlsx
+++ b/xlsx/studies.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\john\workspace\catalogueMentalHealth\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38699A6C-BE56-484A-8650-E24CD0B98D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C72F3FC-2913-4467-9E96-20502353E43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6585" yWindow="2415" windowWidth="18975" windowHeight="15885" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7515" yWindow="3180" windowWidth="27045" windowHeight="15885" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study details" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Study details'!$A$1:$AH$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Study details'!$A$1:$AH$57</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="864">
   <si>
     <t>Code</t>
   </si>
@@ -137,7 +137,7 @@
     <t>Academic Department of Military Rehabilitation (Ministry of Defence); Imperial College London; King’s College London.</t>
   </si>
   <si>
-    <t>&lt;a href="https://www.advancestudydmrc.org.uk/"&gt;https:/www.advancestudydmrc.org.uk/&lt;/a&gt;</t>
+    <t>&lt;a href="https://www.advancestudydmrc.org.uk/"&gt;advancestudydmrc.org.uk&lt;/a&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">England, Scotland, Wales, Northern Ireland &lt;br&gt;
@@ -216,7 +216,7 @@
     <t>Institute of Psychiatry, Psychology &amp; Neuroscience (IoPPN), King's College London</t>
   </si>
   <si>
-    <t>&lt;a href="https://www.kcl.ac.uk/ioppn/depts/ps/research/firstepisode/AESOP"&gt;kcl.ac.uk/ioppn/depts/ps/research/firstepisode/AESOP&lt;/a&gt;</t>
+    <t>&lt;a href="https://www.kcl.ac.uk/research/aesop-10"&gt;kcl.ac.uk/research/aesop-10&lt;/a&gt;</t>
   </si>
   <si>
     <t>England</t>
@@ -231,7 +231,7 @@
     <t>532 (Baseline)</t>
   </si>
   <si>
-    <t>219 (10 year follow up)</t>
+    <t>219 (2010 - 10 year follow-up)</t>
   </si>
   <si>
     <t>All</t>
@@ -293,7 +293,7 @@
     <t>Imperial College London</t>
   </si>
   <si>
-    <t>&lt;a href="https://police-health.org.uk/"&gt;https://police-health.org.uk/&lt;/a&gt;</t>
+    <t>&lt;a href="https://police-health.org.uk/"&gt;police-health.org.uk&lt;/a&gt;</t>
   </si>
   <si>
     <t>England, Scotland, Wales</t>
@@ -302,7 +302,7 @@
     <t>Employees of all 54 police forces as well as police-related agencies within Great Britain were invited to participate. Since the commencement of the study, a total of 28 forces have agreed to participate. Participants completed enrolment questionnaires during the first phase of the study. The second phase of the study consisted of a health screening performed locally by trained nurses. Overall, 16% of participants completed only phase one, 58% completed only phase two, and 26% completed both phases. Additionally, 62.9% of the participants are men, and the average age at enrolment was 40.9 years for men and 38.5 years for women.</t>
   </si>
   <si>
-    <t>18,000 (ongoing)</t>
+    <t>17,577 (2015 - Follow-up Clinic Questionnaire)</t>
   </si>
   <si>
     <t>18+</t>
@@ -361,7 +361,7 @@
     <t>University of Bristol</t>
   </si>
   <si>
-    <t>&lt;a href="http://www.bristol.ac.uk/alspac/"&gt;http://www.bristol.ac.uk/alspac/&lt;/a&gt;</t>
+    <t>&lt;a href="http://www.bristol.ac.uk/alspac/"&gt;bristol.ac.uk/alspac&lt;/a&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Bristol &amp; District Health Authority (Former Avon Health Authority Area) </t>
@@ -385,7 +385,7 @@
 14,901 children (cohort members) alive at 1 year of age </t>
   </si>
   <si>
-    <t>~3,400 (cohort members) (Life at 27+)</t>
+    <t>Approximately 3,400 (cohort members) (2023 - Life at 27+)</t>
   </si>
   <si>
     <t>Birth</t>
@@ -486,6 +486,9 @@
     <t>Approx 7,500 participants in each survey</t>
   </si>
   <si>
+    <t>Approximately 7,500 participants in each survey</t>
+  </si>
+  <si>
     <t xml:space="preserve">16 years + </t>
   </si>
   <si>
@@ -502,7 +505,7 @@
     <t xml:space="preserve">Data resource profile: Adult Psychiatric Morbidity Survey (APMS).  &lt;br&gt;
 &lt;a href="https://academic.oup.com/ije/article-abstract/49/2/361/5625684?redirectedFrom=fulltext"&gt;doi.org/10.1093/ije/dyz224&lt;/a&gt; 
 Mental health and wellbeing in England: Adult Psychiatric Morbidity Survey 2014. &lt;br&gt;
-&lt;a href="http://digital.nhs.uk/catalogue/PUB21748 "&gt;digital.nhs.uk/catalogue/PUB21748&lt;/a&gt; 
+&lt;a href="http://digital.nhs.uk/catalogue/PUB21748"&gt;digital.nhs.uk/catalogue/PUB21748&lt;/a&gt; 
 </t>
   </si>
   <si>
@@ -620,7 +623,7 @@
     <t>King’s College London; Birkbeck, University of London</t>
   </si>
   <si>
-    <t>&lt;a href="https://www.basisnetwork.org/"&gt;https://www.basisnetwork.org/&lt;/a&gt;</t>
+    <t>&lt;a href="https://www.basisnetwork.org/"&gt;basisnetwork.org&lt;/a&gt;</t>
   </si>
   <si>
     <t>England, Scotland, Wales, Nothern Ireland</t>
@@ -643,10 +646,9 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Phase 1: 76&lt;br&gt;
+    <t>Phase 1: 76&lt;br&gt;
 Phase 2: 97&lt;br&gt;
-Phase 3: ongoing
-</t>
+Phase 3: ongoing</t>
   </si>
   <si>
     <t>Birth (from prenatal to early infancy)</t>
@@ -706,7 +708,7 @@
     <t>17,198 births</t>
   </si>
   <si>
-    <t>9,841 (BCS 2012)</t>
+    <t>8,581 (2018 - Age 47)</t>
   </si>
   <si>
     <t xml:space="preserve">UK Data Service &lt;br&gt; &lt;a href="https://cls.ucl.ac.uk/data-access-training/access-ukds/"&gt;https://cls.ucl.ac.uk/data-access-training/access-ukds/&lt;/a&gt; </t>
@@ -783,9 +785,6 @@
     <t>Bradford</t>
   </si>
   <si>
-    <t>Pregnancy Cohort</t>
-  </si>
-  <si>
     <t>All women booked for delivery at the Bradford Royal Infirmary were offered an oral glucose tolerance test (OGTT) at 26–28 weeks gestation. Around 80% took up this offer. Study information was given to women by their mid-wife at their booking appointment and they were invited to take part. On attendance at the OGTT clinic, full consent was obtained for recruitment to BiB, and the woman was invited to complete an interviewer-administered questionnaire. Between March 2007 and November 2010, over 80% of the women who attended the OGTT took up the invitation, and 12 453 women with 13 776 pregnancies were recruited to the cohort. All babies born to women who agreed to participate in the cohort study were eligible for recruitment. 
 &lt;br&gt;&lt;br&gt;
 Partners of the women who were recruited to the cohort were also invited to participate. Only a small proportion of fathers attended the OGTT clinic with their partners. Others were approached when they attended the hospital with their partner for other appointments or when a member of the study team visits the family home during follow-up visits.</t>
@@ -852,15 +851,15 @@
     <t>Born in Bradford’s Better Start (BiBBS) is an innovative experimental birth cohort that will simultaneously evaluate the impact of multiple early life interventions using efficient study designs. Better Start Bradford (BSB) has been allocated £49 million from the Big Lottery Fund to implement 22 interventions to improve outcomes for children aged 0–3 in three deprived and ethnically diverse inner-city areas of Bradford. BiBBS aims to evaluate the effects of these interventions on social and emotional development, communication and language development, and nutrition and obesity by following families from pregnancy into childhood and using linkage to routinely collected data.</t>
   </si>
   <si>
-    <t>&lt;a href="https://borninbradford.nhs.uk/what-we-do/pregnancy-early-years/better-start/"&gt;borninbradford.nhs.uk/what-we-do/pregnancy-early-years/better-start&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The BiBBS study's sample size is aimed to be 5000 pregnancies and children born of these pregnancies, with recruitment ongoing from January 2016-2024 from the three BSB areas. The BSB areas are very ethnically diverse, have higher rates of mortality and  morbidity, infant mortality, obesity and poor oral health compared with Bradford district and England. All pregnant women living in BSB areas who are registered to give birth at Bradford Teaching Hospitals NHS Foundation Trust (BTHFT) will be eligible for recruitment. The BTHFT is the only maternity unit covering this area. All babies born to women who have consented to participate in the cohort study will be included in the cohort. The partners of the women who have consented to take part will also be invited to participate. 
+    <t>&lt;a href="https://borninbradford.nhs.uk/what-we-do/cohort-studies/better-start/"&gt;borninbradford.nhs.uk/what-we-do/cohort-studies/better-start&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The BiBBS study's sample size is aimed to be 5,000 pregnancies and children born of these pregnancies, with recruitment ongoing from January 2016-2024 from the three BSB areas. The BSB areas are very ethnically diverse, have higher rates of mortality and  morbidity, infant mortality, obesity and poor oral health compared with Bradford district and England. All pregnant women living in BSB areas who are registered to give birth at Bradford Teaching Hospitals NHS Foundation Trust (BTHFT) will be eligible for recruitment. The BTHFT is the only maternity unit covering this area. All babies born to women who have consented to participate in the cohort study will be included in the cohort. The partners of the women who have consented to take part will also be invited to participate. 
 &lt;br&gt;&lt;br&gt;
 A system has been developed to flag all women living in the BSB areas on the electronic maternity system. When women attend their first appointment (around 10–12 weeks gestation), the BSB flag will prompt midwives to provide women with information on BSB and the BiBBS cohort study and obtain verbal assent to data sharing with the BiBBS research team. Researchers will identify eligible women who have provided assent to data sharing, and will approach women during the GTT clinic or other appointment to invite them to participate in the cohort. </t>
   </si>
   <si>
-    <t>Expected: 4,930 babies, 4440 mothers and 1125 of their mothers' partners (Dickerson et al. 2016). Recruitment is ongoing.</t>
+    <t>Expected: 4,930 babies, 4,440 mothers and 1,125 of their mothers' partners (Dickerson et al. 2016). Recruitment is ongoing.</t>
   </si>
   <si>
     <t>N/A</t>
@@ -915,10 +914,10 @@
 The sample is not representative of the general population on a variety of sociodemographic, physical, lifestyle and health-related characteristics, with evidence of a 'healthy volunteer' selection bias. However, the large sample size and heterogeneity of exposure measures allow for valid scientific inferences of associations between exposures and health outcomes that are generalizable to the wider population. </t>
   </si>
   <si>
-    <t>Approx 500,000 individuals</t>
-  </si>
-  <si>
-    <t>158,000 - Online mental health follow up</t>
+    <t>Approximately 500,000 individuals</t>
+  </si>
+  <si>
+    <t>158,000 (2020 - Mental Health Questionnaire)</t>
   </si>
   <si>
     <t>40 years +</t>
@@ -997,7 +996,8 @@
     <t xml:space="preserve">Building on the design and infrastructure of the initial (MRC CFAS) study, new cohorts were recruited. A population based sample of 2,500 individuals born before 1942 from each centre were drawn from general practice records, sampling 1,250 individuals from each of the age groups 65-74 and 75 years and over.  </t>
   </si>
   <si>
-    <t>5,288 (Wave 2)</t>
+    <t>5,288 (2013 - Wave 2)&lt;br&gt;
+650 (original cohort members) (2021 - Covid-19)</t>
   </si>
   <si>
     <t>65 years +</t>
@@ -1109,7 +1109,7 @@
     <t xml:space="preserve">A population based sample from each site, born before 1944 were drawn from general practice records, with 50% of the individuals being from each of the age groups 65-74 and 75 years and over. Individuals ascertained from GP records received a letter from the GP followed by personal approach by interviewers. </t>
   </si>
   <si>
-    <t>1,498 (Wave 2)</t>
+    <t>1,498 (2015 - Wave 2)</t>
   </si>
   <si>
     <t>Before 1944</t>
@@ -1141,7 +1141,7 @@
     <t>University of Cambridge</t>
   </si>
   <si>
-    <t>&lt;a href="http://www.crim.cam.ac.uk/People/professor-david-farrington"&gt;http://www.crim.cam.ac.uk/People/professor-david-farrington&lt;/a&gt;</t>
+    <t>&lt;a href="http://www.crim.cam.ac.uk/People/professor-david-farrington"&gt;crim.cam.ac.uk/People/professor-david-farrington&lt;/a&gt;</t>
   </si>
   <si>
     <t>South London</t>
@@ -1154,6 +1154,9 @@
 The participants have been interviewed 9 times throughout their lives, from ages 8-48 years. At all time points a high proportion of males have been interviewed, except at ages 21 and 25, due to inadequate funding. At these time points, only a subsample of participants were interviewed. Parents and teachers were also interviewed when the boys were aged 8-15, at the family home or in the boy’s school.  
 &lt;br&gt;&lt;br&gt;
 Criminal records were collected up to age 56, so self-report and official records of offending could be analysed. </t>
+  </si>
+  <si>
+    <t>365 (2004 - Age 48)</t>
   </si>
   <si>
     <t>8-9 years</t>
@@ -1226,8 +1229,8 @@
     <t>DASH recruited over 6,500 pupils from 51 schools across 10 inner London boroughs. Pupils were aged 11-13 years old at the start of the study. DASH was designed to have a sizeable number of respondents from the major ethnic minority groups, and in particular has a significant sub-sample of students of African origin, allowing for comparisons between African nationalities.</t>
   </si>
   <si>
-    <t>4,779 (Wave 2) &lt;br&gt;
-650+ (Wave 3 feasibility study)</t>
+    <t>4,779 (2006 - Wave 2) &lt;br&gt;
+665 (2012 - Wave 3 Feasibility study)</t>
   </si>
   <si>
     <t>11-13 years</t>
@@ -1283,6 +1286,10 @@
   </si>
   <si>
     <t>12,100 individuals</t>
+  </si>
+  <si>
+    <t>8,445 (total) (2017 - Wave 8)&lt;br&gt;
+7,223 (original sample members)</t>
   </si>
   <si>
     <t>50+</t>
@@ -1367,8 +1374,8 @@
     <t>1,000 (approx) - UK sample, EQLS 2003</t>
   </si>
   <si>
-    <t>1,304 - UK sample, EQLS 2016
-36,908 - Total European sample, EQLS 2016</t>
+    <t>1,304 (UK sample) (2016 - EQLS 4)&lt;br&gt;
+36,908 (Total European sample) (2016 - EQLS 4)</t>
   </si>
   <si>
     <t>18 years +</t>
@@ -1425,7 +1432,7 @@
     <t>2,232 individuals</t>
   </si>
   <si>
-    <t>2,066 individuals</t>
+    <t>2,066 (individuals) (2013 - 18 Years)</t>
   </si>
   <si>
     <t>1.5 years - TEDS First Contact&lt;br&gt;
@@ -1547,7 +1554,7 @@
     <t xml:space="preserve">The European Working Conditions Survey is a unique pan-European survey carried out every 5 years to assess and quantify working conditions of both employees and the self-employed across Europe. It aims to provide a comprehensive picture of the everyday reality of men and women at work, and to do so covers a wide range of themes such as employment status, working time duration, learning and training, physical and psychosocial risk factors, health and safety, work-life balance, financial security and worker participation. The survey has also allowed researchers to analyse relationships between different aspects of working conditions, identify risk groups and issues of concern as well as progress, and monitor the trends of these issues. </t>
   </si>
   <si>
-    <t>&lt;a href="https://www.eurofound.europa.eu/surveys/european-working-conditions-surveys-ewcs"&gt;https://www.eurofound.europa.eu/surveys/european-working-conditions-surveys-ewcs&lt;/a&gt;</t>
+    <t>&lt;a href="https://www.eurofound.europa.eu/surveys/european-working-conditions-surveys-ewcs"&gt;eurofound.europa.eu/surveys/european-working-conditions-surveys-ewcs&lt;/a&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">England, Scotland, Wales, Northern Ireland &lt;br&gt;
@@ -1568,10 +1575,8 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1,600 – UK sample, EWCS 2015
-&lt;br&gt;&lt;br&gt;
-43,850 – Total European sample, EWCS 2015
-</t>
+    <t>1,600 (UK sample) (2015 - EWCS 6)&lt;br&gt;
+43,850 (Total European sample) (2015 - EWCS 6)</t>
   </si>
   <si>
     <t>UK Data Service&lt;br&gt;
@@ -1605,7 +1610,7 @@
     <t>University College London</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;a href="https://www.geministudy.co.uk/"&gt;https://www.geministudy.co.uk/&lt;/a&gt; </t>
+    <t xml:space="preserve">&lt;a href="https://www.geministudy.co.uk/"&gt;geministudy.co.uk&lt;/a&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">Families with twins born in England and Wales between March and December 2007 were approached on behalf of Gemini by the Office for National Statistics (N = 6,754) in January 2008. 3,435 families agreed to be contacted by the research team, with 2,402 families (36% of the target population) returning a completed baseline questionnaire. The sample comprises of 1,586 same-sex and 816 opposite-sex twin pairs. 
@@ -1616,7 +1621,7 @@
     <t>2,402 families</t>
   </si>
   <si>
-    <t>987 twins, 492 parents (Time 9)</t>
+    <t>987 twins, 492 parents (2020 - Time 9)</t>
   </si>
   <si>
     <t>8 months</t>
@@ -1679,7 +1684,7 @@
 5,573 families</t>
   </si>
   <si>
-    <t>9,618 individuals (STRADL follow-up)</t>
+    <t>9,618 individuals (2019 - STRADL Phase 2)</t>
   </si>
   <si>
     <t>18-100 years</t>
@@ -1752,7 +1757,9 @@
     <t>Birth Cohort 1 (BC1): 5,217</t>
   </si>
   <si>
-    <t>2,943 (2,669 main sample + 274 boost sample; BC1 Sweep 10)</t>
+    <t>2,943 (2020 - BC1 Sweep 10)&lt;br&gt;
+2,669 (main sample)&lt;br&gt;
+274 (boost sample)</t>
   </si>
   <si>
     <t>2004-5</t>
@@ -1771,7 +1778,7 @@
     <t>International 'Growing Up' studies include &lt;a href="https://www.growingup.ie/"&gt;Growing Up in Ireland&lt;/a&gt;, &lt;a href="https://growingupinaustralia.gov.au/"&gt;Growing Up in Australia&lt;/a&gt; and &lt;a href="http://www.growingup.co.nz/en.html"&gt;Growing Up in New Zealand&lt;/a&gt;.</t>
   </si>
   <si>
-    <t>See &lt;a href="https://growingupinscotland.org.uk/publications"&gt;growingupinscotland.org.uk/publications&lt;/a&gt;</t>
+    <t>See &lt;a href="https://www.gov.scot/publications/life-age-14-initial-findings-growing-up-scotland-study/"&gt;www.gov.scot/publications/life-age-14-initial-findings-growing-up-scotland-study&lt;/a&gt;</t>
   </si>
   <si>
     <t>Scot</t>
@@ -1816,7 +1823,7 @@
     <t>Birth Cohort 2 (BC2): 6,127</t>
   </si>
   <si>
-    <t>4,434 (BC2 Sweep 3)</t>
+    <t>4,434 (2015 - BC2 Sweep 3)</t>
   </si>
   <si>
     <t>2010-11</t>
@@ -1857,13 +1864,16 @@
     <t>Child Cohort (CC): 2,858</t>
   </si>
   <si>
-    <t>2,200 (BC1 &amp; CC Sweep 4)</t>
+    <t>2,200 (2009 - BC1 &amp; CC Sweep 4)</t>
   </si>
   <si>
     <t>3 years</t>
   </si>
   <si>
     <t>2002-3</t>
+  </si>
+  <si>
+    <t>See &lt;a href="https://growingupinscotland.org.uk/publications"&gt;growingupinscotland.org.uk/publications&lt;/a&gt;</t>
   </si>
   <si>
     <t>Cognitive measures,
@@ -1890,7 +1900,10 @@
     <t>Hertfordshire Cohort Study (HCS)</t>
   </si>
   <si>
-    <t>The Hertfordshire Cohort Study (HCS) is a nationally unique study of 3,000 men and women born over 1931-1939 and still resident in the English county of Hertfordshire during the 1990s. The principal objective of the study is to evaluate the relationship between prenatal and early postnatal growth, genetic influences, adult lifestyle and the risk of common age-related disorders such as osteoporosis, osteoarthritis, sarcopenia, type 2 diabetes and cardiovascular disease. The HCS has been a key source of evidence for life course influences on health and disease in later life.</t>
+    <t xml:space="preserve">The 1930's Hertfordshire Cohort Study (HCS) is a nationally unique study of 3,000 men and women born over 1931-1939 and still resident in the English county of Hertfordshire during the 1990s. The principal objective of the study is to evaluate the relationship between prenatal and early postnatal growth, genetic influences, adult lifestyle and the risk of common age-related disorders such as osteoporosis, osteoarthritis, sarcopenia, type 2 diabetes and cardiovascular disease. The HCS has been a key source of evidence for life course influences on health and disease later in life.
+&lt;br&gt;
+&lt;b&gt;This page shows information about the 1930's cohort of HCS&lt;/b&gt;, the second of three cohorts in the HCS series. The series also includes the 1920's cohort of men and women born in Hertfordshire in the 1920s, and the Hertfordshire 3GS cohort comprising the grandchildren of the 1930's cohort.
+</t>
   </si>
   <si>
     <t>MRC Lifecourse Epidemiology Centre, University of Southampton</t>
@@ -1913,7 +1926,7 @@
 3,225 (HCS Baseline)</t>
   </si>
   <si>
-    <t>3,225 (HCS Baseline)</t>
+    <t>3,225 (2004 - HCS Baseline)</t>
   </si>
   <si>
     <t>Birth records: birth&lt;br&gt;
@@ -1963,7 +1976,19 @@
     <t>Health and Employment After Fifty (HEAF)</t>
   </si>
   <si>
-    <t>HEAF is a prospective cohort study of adults in England aged 50 and over that aims to examine the relationship between extended working life and health and shed light on how to best to support the well-being of older workers. Main study questions focused on the impact of common health problems (especially musculoskeletal disorders) on work capability and participation; the social, occupational, personal and medical co-factors which influence vocational outcomes among older people, and the impact of job loss on physical and psychological health.</t>
+    <r>
+      <t>This page shows information about the 1930's cohort of HCS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>, the second of three cohorts in the HCS series. The series also includes the 1920's cohort of men and women born in Hertfordshire in the 1920s, and the Hertfordshire 3GS cohort comprising the grandchildren of the 1930's cohort.</t>
+    </r>
   </si>
   <si>
     <t>University of Southampton</t>
@@ -1984,7 +2009,7 @@
     <t>8,134 individuals</t>
   </si>
   <si>
-    <t>Approx 6,500 (Follow Up 1)</t>
+    <t>6,100+ (2018 - Follow Up 4)</t>
   </si>
   <si>
     <t>50-64 years</t>
@@ -2039,7 +2064,7 @@
     <t>Participants were recruited from high schools at age 14. To obtain a diverse sample in terms of socio-economic status, emotional and cognitive development, private, state-funded and special units were targeted equally. To maximize ethnic (Caucasian) homogeneity, at each study centre recruitment focused on geographical areas with minimal ethnic diversity. Full inclusion and exclusion criteria are detailed in Schumann and colleagues (2010).</t>
   </si>
   <si>
-    <t>~1,200 (Follow Up 2, age 19)</t>
+    <t>Approximately 1,200 (2015 - Second Follow-Up)</t>
   </si>
   <si>
     <t>14 years</t>
@@ -2139,6 +2164,9 @@
 The cohort was supplemented with two further groups in 2007: the first comprised individuals deployed to Afghanistan over a 12-month period from April 2006, and the second included a replenishment sample comprising personnel who joined the military since the initial sample was recruited in 2003. A further replenishment sample was added in 2014 comprising personnel who joined the military between 2009 and 2013.</t>
   </si>
   <si>
+    <t>8,094 (2016 - Phase 3)</t>
+  </si>
+  <si>
     <t>1941-1995</t>
   </si>
   <si>
@@ -2150,7 +2178,7 @@
   </si>
   <si>
     <t>Mental health outcomes at the end of the British involvement in the Iraq and Afghanistan conflicts: a cohort study. &lt;br&gt;
-&lt;a href="https://doi.org/10.1192/bjp.2018.175 "&gt;doi.org/10.1192/bjp.2018.175 &lt;/a&gt;</t>
+&lt;a href="https://doi.org/10.1192/bjp.2018.175"&gt;doi.org/10.1192/bjp.2018.175 &lt;/a&gt;</t>
   </si>
   <si>
     <t>MoD OfVA</t>
@@ -2188,7 +2216,7 @@
 550 (LBC1921 Wave 1)</t>
   </si>
   <si>
-    <t>59 (Wave 5)</t>
+    <t>59 (2013 - Wave 5)</t>
   </si>
   <si>
     <t>10-11 years</t>
@@ -2248,7 +2276,7 @@
 1,091 (LBC1936 Wave 1)</t>
   </si>
   <si>
-    <t>Approx 440 (Wave 5)</t>
+    <t>Approximately 440 (2019 - Wave 5)</t>
   </si>
   <si>
     <t>First wave known as the Scottish Mental Survey 1947</t>
@@ -2302,7 +2330,7 @@
 Sample boosts took place for some minority ethnic groups when cohort members were aged 16-17 at the fourth wave.</t>
   </si>
   <si>
-    <t>8,682 (LSYPE 7)</t>
+    <t>7,707 (2016 - Age 25)</t>
   </si>
   <si>
     <t>13-14 years</t>
@@ -2377,7 +2405,7 @@
 18,552 families</t>
   </si>
   <si>
-    <t>11,726 children (MCS6)</t>
+    <t>10,757 (Cohort members), 10,625 (families) (2019 - MCS7)</t>
   </si>
   <si>
     <t>Education data</t>
@@ -2461,7 +2489,7 @@
     <t>7,977 (MHCYP 2004)</t>
   </si>
   <si>
-    <t>9,117 (MHCYP 2017)</t>
+    <t>9,117 (2017 - MHCYP)</t>
   </si>
   <si>
     <t>2 - 19 years (most recent survey)</t>
@@ -2511,8 +2539,7 @@
 </t>
   </si>
   <si>
-    <t>661,583 (8-year re-survey) &lt;br&gt;
-Less than 1% loss to follow up for linked NHS data</t>
+    <t>837,985 (2005 - 3-year re-survey)</t>
   </si>
   <si>
     <t>Women only</t>
@@ -2619,8 +2646,8 @@
     <t>17,000+</t>
   </si>
   <si>
-    <t>9,100 (NCDS9 2013) &lt;br&gt;
-9,337 have biosamples</t>
+    <t>9,137 (2014 - NCDS9)&lt;br&gt;
+9,337 biosamples</t>
   </si>
   <si>
     <t>Environmental data,
@@ -2698,7 +2725,7 @@
 Householders received an introductory letter, followed by contact from ﬁeldworkers who obtained the name and informed consent from eligible participants.  Individuals who were institutionalised or who lacked the capacity to provide informed consent were excluded from participating in the NICOLA study.  Spouses or partners of eligible participants who wished to take part in the study did not have to have been born on or before September 30th 1962, but had to be living at the same address as the selected age-eligible participant. A total of 195 who were aged less than 50 chose to participate, resulting in a total of 8,504 participants in NICOLA Wave 1.</t>
   </si>
   <si>
-    <t>8,504 (Wave 1)</t>
+    <t>6,152 (2019 - Wave 2)</t>
   </si>
   <si>
     <t>50 years +</t>
@@ -2829,7 +2856,7 @@
     <t>From an initial maternity survey of 13,687 of all births recorded in England, Scotland and Wales during one week of March, 1946, a class stratified sample of 5,362 singleton babies born to married parents was selected for follow-up. The sample was distributed geographically in proportion to the national population. The study population has not been augmented in any way and now aims to be as far as possible representative of single, native born individuals born to married mothers who are still resident in England, Wales, or Scotland; it cannot therefore be representative of immigrants.</t>
   </si>
   <si>
-    <t>2,648 - 2014-16 Follow-Up</t>
+    <t>2,648 (2014-16 Follow-Up)</t>
   </si>
   <si>
     <t>Data request&lt;br&gt;
@@ -2952,6 +2979,9 @@
     <t>Approx 1,000</t>
   </si>
   <si>
+    <t>4,000+ (2019 - Follow Up 2)</t>
+  </si>
+  <si>
     <t>11-14 years</t>
   </si>
   <si>
@@ -3005,6 +3035,9 @@
     <t>Neuroscience in Psychiatry Network (NSPN), University of Cambridge</t>
   </si>
   <si>
+    <t>&lt;a href="https://www.cedar.iph.cam.ac.uk/research/directory/roots/"&gt;cedar.iph.cam.ac.uk/research/directory/roots&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>Cambridgeshire</t>
   </si>
   <si>
@@ -3016,8 +3049,8 @@
 1,141 parents</t>
   </si>
   <si>
-    <t>1,074 - Age 17 fMRI sub-study&lt;br&gt;
-157 - Age 21 stress reactivity sub-study</t>
+    <t>1,074 (2008 - Age 17 fMRI sub-study)&lt;br&gt;
+157 (2012 - Age 21 Stress reactivity sub-study)</t>
   </si>
   <si>
     <t>1991-2</t>
@@ -3074,7 +3107,7 @@
 All South Asian and African Caribbean participants are first-generation migrants to the UK.</t>
   </si>
   <si>
-    <t>2,572 (SABRE V2)</t>
+    <t>2,572 (2011 - SABRE V2)</t>
   </si>
   <si>
     <t>40-69 years</t>
@@ -3125,13 +3158,16 @@
 </t>
   </si>
   <si>
-    <t>&lt;a href="https://www.scampstudy.org/"&gt;https://www.scampstudy.org/&lt;/a&gt;</t>
+    <t>&lt;a href="https://www.scampstudy.org/"&gt;scampstudy.org&lt;/a&gt;</t>
   </si>
   <si>
     <t>Greater London</t>
   </si>
   <si>
     <t>Secondary school pupils from 39 eligible schools from within the Greater London area were invited to participate. Eligible schools were selected from the Department for Education’s register of educational establishments (EduBase) and from the January 2012 school census. Pupils completed computerised assessments at school, which were complemented by online questionnaires that could be completed in any environment by both and pupils and their parents.</t>
+  </si>
+  <si>
+    <t>5,023 (2015 - Wave 2)</t>
   </si>
   <si>
     <t>11 years</t>
@@ -3191,7 +3227,7 @@
     <t>1,698 participants</t>
   </si>
   <si>
-    <t>500 participants (Phase 3 sub-sample)</t>
+    <t>500 (2016 - Phase 3)</t>
   </si>
   <si>
     <t>1994 or earlier</t>
@@ -3238,7 +3274,7 @@
     <t>Southampton Women's Survey (SWS)</t>
   </si>
   <si>
-    <t>The Southampton Women’s Survey (SWS) is the only birth cohort study in Europe in which mothers were recruited before conception of the child. The SWS aims to assess the influence of maternal dietary, lifestyle, intrauterine, genetic and epigenetic factors on the children’s health and development, and on the health of the mothers themselves. Using this information, the survey can inform the development of interventions to optimize fetal, infant, and childhood growth and development.</t>
+    <t>The Southampton Women’s Survey (SWS) is the only birth cohort study in Europe in which mothers were recruited before conception of the child. The SWS aims to assess the influence of maternal dietary, lifestyle, intrauterine, genetic and epigenetic factors on the children’s health and development, and on the health of the mothers themselves. Using this information, the survey can inform the development of interventions to optimize foetal, infant, and childhood growth and development.</t>
   </si>
   <si>
     <t>MRC Lifecourse Epidemiology Unit, University of Southampton</t>
@@ -3258,7 +3294,7 @@
 2,567 babies</t>
   </si>
   <si>
-    <t>789 babies - 3 year sweep</t>
+    <t>1,214 (Cohort members) (2014 - 8-9 Year Questionnaire)</t>
   </si>
   <si>
     <t>20-34 years (women)
@@ -3340,7 +3376,7 @@
     <t>13,694 families</t>
   </si>
   <si>
-    <t>Approx 4,300 families</t>
+    <t>Approximately 4,300 families</t>
   </si>
   <si>
     <t>1994-6</t>
@@ -3355,8 +3391,11 @@
 Social media data</t>
   </si>
   <si>
-    <t>Twins Early Development Study (TEDS): A genetically sensitive investigation of mental health outcomes in the mid-twenties &lt;br&gt;
-&lt;a href="https://doi.org/10.1002/jcv2.12154"&gt;doi.org/10.1002/jcv2.12154&lt;/a&gt;</t>
+    <t>Twins Early Development Study: A genetically sensitive investigation into behavioral and cognitive development from infancy to emerging adulthood &lt;br&gt;
+&lt;a href="https://doi.org/10.1017/thg.2019.56"&gt;doi:10.1017/thg.2019.56&lt;/a&gt;
+&lt;br&gt;&lt;br&gt;
+Twins Early Development Study (TEDS): A genetically sensitive investigation of mental health outcomes in the mid-twenties &lt;br&gt;
+&lt;a href="https://acamh.onlinelibrary.wiley.com/doi/full/10.1002/jcv2.12154"&gt;doi.org/10.1002/jcv2.12154&lt;/a&gt;</t>
   </si>
   <si>
     <t>MRC NIH</t>
@@ -3406,9 +3445,8 @@
     <t>Ongoing recruitment means that 15,063 twins over the age of 18 are now on the registry</t>
   </si>
   <si>
-    <t>10,200 twins registered as research-active&lt;br&gt;
-More than 9,000 twins for whom TwinsUK hold clinical and/or questionnaire data&lt;br&gt;
-More than 7,000 twins with multiple mental health measures</t>
+    <t>3,300 (2017 - LCQ)&lt;br&gt;
+15,000+ twins on the registry</t>
   </si>
   <si>
     <t xml:space="preserve">18 years +&lt;br&gt;
@@ -3479,7 +3517,7 @@
     <t>39,802 households (Wave 1 Understanding Society)</t>
   </si>
   <si>
-    <t>32,000 individuals (Wave 11 Understanding Society)</t>
+    <t>21,161 (2022 - Wave 12)</t>
   </si>
   <si>
     <t>UK Data Service &lt;br&gt;
@@ -3496,7 +3534,7 @@
   </si>
   <si>
     <t>Understanding Society: design overview. &lt;br&gt;
-&lt;a href="hhttp://dx.doi.org/10.14301/llcs.v3i1.159"&gt;doi.org/10.14301/llcs.v3i1.159&lt;/a&gt; &lt;br&gt;&lt;br&gt;
+&lt;a href="http://dx.doi.org/10.14301/llcs.v3i1.159"&gt;doi.org/10.14301/llcs.v3i1.159&lt;/a&gt; &lt;br&gt;&lt;br&gt;
 &lt;a href="https://www.understandingsociety.ac.uk/documentation/mainstage/user-guide"&gt;User guides&lt;/a&gt; also available.</t>
   </si>
   <si>
@@ -3563,6 +3601,9 @@
     <t>1,233 infants</t>
   </si>
   <si>
+    <t>888 (Cohort members) (2020 - Phase 15)</t>
+  </si>
+  <si>
     <t>Infants: 20 weeks gestation
 Mothers: 18-51 years</t>
   </si>
@@ -3622,8 +3663,8 @@
     <t>The target population for the Whitehall II study was all civil servants aged 35–55 years working in the London offices of 20 Whitehall departments in 1985–88. Members of the target population were invited to participate by letter. The achieved sample size was 10,308 people; 3413 women and 6895 men. The participants, who were from clerical and office support grades, middle-ranking executive grades, and senior administrative grades, differ widely in salary. Some have remained in the civil service. Many have retired, and others have taken employment elsewhere; some are unemployed. For more details see Marmot &amp; Brunner 2005.</t>
   </si>
   <si>
-    <t>6,318 - Phase 11 (2012-13)&lt;br&gt;
-5,632 - Phase 12 (2015-16)</t>
+    <t>6,318 (2013 - Phase 11)&lt;br&gt;
+5,632 (2016 - Phase 12)</t>
   </si>
   <si>
     <t>35-55 years</t>
@@ -3684,7 +3725,7 @@
     <t>MRC Social and Public Health Sciences Unit, University of Glasgow</t>
   </si>
   <si>
-    <t>&lt;a href="http://2007study.sphsu.mrc.ac.uk/"&gt;2007study.sphsu.mrc.ac.uk/&lt;/a&gt;</t>
+    <t>&lt;a href="http://2007study.sphsu.mrc.ac.uk/"&gt;2007study.sphsu.mrc.ac.uk&lt;/a&gt;</t>
   </si>
   <si>
     <t>Central Clydeside Conurbation, West of Scotland</t>
@@ -3701,7 +3742,7 @@
 1,515 - 1970s cohort</t>
   </si>
   <si>
-    <t>2,580 total (Wave 5, 2008)&lt;br&gt;
+    <t>2,580 total (2008 - Wave 5)&lt;br&gt;
 633 - 1930s cohort&lt;br&gt;
 994 - 1950s cohort&lt;br&gt;
 923 - 1970s cohort</t>
@@ -3763,7 +3804,7 @@
     <t xml:space="preserve">University College London (UCL), Tavistock and Portman NHS Foundation Trust, University of Liverpool, University College London Hospitals NHS Trust, University of Cambridge. </t>
   </si>
   <si>
-    <t>&lt;a href="https://logicstudy.uk/"&gt;logicstudy.uk/&lt;/a&gt;</t>
+    <t>&lt;a href="https://logicstudy.uk/"&gt;logicstudy.uk&lt;/a&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">UK and Republic of Ireland </t>
@@ -3822,7 +3863,7 @@
     <t>The University of Edinburgh</t>
   </si>
   <si>
-    <t>&lt;a href="https://www.edinstudy.law.ed.ac.uk/ "&gt;www.edinstudy.law.ed.ac.uk/ &lt;/a&gt;</t>
+    <t>&lt;a href="https://www.edinstudy.law.ed.ac.uk/ "&gt;www.edinstudy.law.ed.ac.uk&lt;/a&gt;</t>
   </si>
   <si>
     <t>Edinburgh</t>
@@ -3831,6 +3872,9 @@
     <t>The cohort is composed of individuals who started their first year of secondary school in the City of Edinburgh in the autumn of 1998. Eligibility for participation was primarily based on whether, at the time, the pupil was attending one of the 40 schools which had agreed to participate in this study, out of the possible 49 mainstream, independent, and special education needs schools in Edinburgh. The 4,313 pupils attending the participating schools represented 92.2% of all eligible children starting secondary school in 1998. All 40 participating schools took part throughout the first six phases of the study, between 1998 and 2003.&lt;br&gt;&lt;br&gt;
 Parents were contacted by the school about the school’s participation in the study, with the option for them to opt-out their child(ren). The initial sample at phase 1 consisted of 4,300 pupils. In phase 2 and 3, all new pupils joining the participating schools in the target year group were invited to participate in the study. Any pupils who left the Edinburgh area were not tracked during these phases (except for those going to local authority-funded special or residential schools outside Edinburgh). From phase 4 onwards, there were no further changes to the membership and the final eligible cohort was set at 4,389. &lt;br&gt;&lt;br&gt;
 In phase 7, 4,098 cohort members (out of 4,243 contacted) did not deny the study access to their criminal convictions data from administrative records. In addition, 252 participated in quasi-experimental interviews aimed to explore the impact of both early and late juvenile justice contact, by the age of 12 and 15 respectively, on longer term criminal justice transitions. In phase 8, 4,257 cohort members (out of the 4,280 contacted) did not deny the study access to their criminal convictions data, 770 completed an online survey, and 73 participated in interviews.</t>
+  </si>
+  <si>
+    <t>4,098 (2012 - Phase 7)</t>
   </si>
   <si>
     <t>UK Data Service &lt;br&gt;
@@ -3846,8 +3890,7 @@
   <si>
     <t xml:space="preserve">Theory and method in the Edinburgh Study of Youth Transitions and Crime. &lt;a href="https://doi.org/10.1093/bjc/43.1.169"&gt;doi.org/10.1093/bjc/43.1.169
 &lt;/a&gt;&lt;br&gt;&lt;br&gt; 
- &lt;a href="https://www.edinstudy.law.ed.ac.uk/wp-content/uploads/sites/36/2019/11/ESYTC-2001-Key-findings-at-ages-12-13.pdf"&gt;The Edinburgh Study of Youth Transitions and Crime: Key findings at ages 12 and 13&lt;/a&gt; 
-</t>
+ &lt;a href="https://www.edinstudy.law.ed.ac.uk/wp-content/uploads/sites/36/2019/11/ESYTC-2001-Key-findings-at-ages-12-13.pdf"&gt;The Edinburgh Study of Youth Transitions and Crime: Key findings at ages 12 and 13&lt;/a&gt; </t>
   </si>
   <si>
     <t>Scot Nuffield ESRC</t>
@@ -3880,7 +3923,7 @@
     <t>The SEP-MD Study is a large, linked cohort connecting individual data from the 2011 UK Census with clinical records from the South London &amp; Maudsley Trust and death registrations. The study aims to explore how neighbourhood and individual-level factors are related to mortality, in-patient admissions and long-term worklessness in people with severe mental health conditions. The study will also explore ethnic inequalities to deepen understanding of disparities in outcomes.</t>
   </si>
   <si>
-    <t>&lt;a href="https://www.kcl.ac.uk/research/the-sep-md-data-linkage-study/"&gt;https://www.kcl.ac.uk/research/the-sep-md-data-linkage-study/&lt;/a&gt;</t>
+    <t>&lt;a href="https://www.kcl.ac.uk/research/the-sep-md-data-linkage-study/"&gt;kcl.ac.uk/research/the-sep-md-data-linkage-study&lt;/a&gt;</t>
   </si>
   <si>
     <t>South East London</t>
@@ -3928,7 +3971,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3986,7 +4029,6 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -3999,21 +4041,27 @@
       <sz val="9"/>
       <color rgb="FF2E2E2E"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4099,7 +4147,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4217,21 +4265,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4615,14 +4665,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AMJ87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="V1" sqref="V1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C57" sqref="C57"/>
+      <selection pane="bottomRight" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4637,7 +4687,7 @@
     <col min="9" max="9" width="44" style="2" customWidth="1"/>
     <col min="10" max="10" width="49.28515625" style="2" customWidth="1"/>
     <col min="11" max="11" width="50.28515625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="52.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="52.140625" style="13" customWidth="1"/>
     <col min="13" max="13" width="52.85546875" style="2" customWidth="1"/>
     <col min="14" max="14" width="56" style="2" customWidth="1"/>
     <col min="15" max="15" width="15.28515625" style="2" customWidth="1"/>
@@ -4749,7 +4799,7 @@
       <c r="AG1" s="25"/>
       <c r="AH1" s="25"/>
     </row>
-    <row r="2" spans="1:1024" s="11" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1024" s="11" customFormat="1" ht="195" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>27</v>
       </c>
@@ -4783,7 +4833,7 @@
       <c r="K2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="13" t="s">
         <v>37</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -4834,7 +4884,7 @@
       <c r="AH2" s="5"/>
       <c r="AMJ2" s="6"/>
     </row>
-    <row r="3" spans="1:1024" s="14" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1024" s="14" customFormat="1" ht="126.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>49</v>
       </c>
@@ -4868,7 +4918,7 @@
       <c r="K3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="13" t="s">
         <v>58</v>
       </c>
       <c r="M3" s="2" t="s">
@@ -4921,7 +4971,7 @@
       <c r="AH3" s="8"/>
       <c r="AMJ3" s="6"/>
     </row>
-    <row r="4" spans="1:1024" s="14" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1024" s="14" customFormat="1" ht="135.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>70</v>
       </c>
@@ -4955,7 +5005,7 @@
       <c r="K4" s="9">
         <v>53000</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="13" t="s">
         <v>77</v>
       </c>
       <c r="M4" s="2" t="s">
@@ -5010,7 +5060,7 @@
       <c r="AH4" s="5"/>
       <c r="AMJ4" s="6"/>
     </row>
-    <row r="5" spans="1:1024" s="2" customFormat="1" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1024" s="2" customFormat="1" ht="110.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>87</v>
       </c>
@@ -5044,7 +5094,7 @@
       <c r="K5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="13" t="s">
         <v>96</v>
       </c>
       <c r="M5" s="2" t="s">
@@ -5068,7 +5118,7 @@
       <c r="S5" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="T5" s="15" t="s">
+      <c r="T5" s="2" t="s">
         <v>102</v>
       </c>
       <c r="U5" s="2" t="s">
@@ -5099,7 +5149,7 @@
       <c r="AH5" s="5"/>
       <c r="AMJ5" s="6"/>
     </row>
-    <row r="6" spans="1:1024" s="14" customFormat="1" ht="276" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1024" s="14" customFormat="1" ht="276" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>107</v>
       </c>
@@ -5112,7 +5162,7 @@
       <c r="D6" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>111</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -5133,20 +5183,20 @@
       <c r="K6" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>115</v>
+      <c r="L6" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>42</v>
@@ -5155,16 +5205,16 @@
         <v>80</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W6" s="4" t="s">
         <v>113</v>
@@ -5174,7 +5224,7 @@
         <v>84</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA6" s="34"/>
       <c r="AB6" s="5"/>
@@ -5186,21 +5236,21 @@
       <c r="AH6" s="5"/>
       <c r="AMJ6" s="6"/>
     </row>
-    <row r="7" spans="1:1024" s="16" customFormat="1" ht="131.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1024" s="16" customFormat="1" ht="131.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>75</v>
@@ -5209,31 +5259,31 @@
         <v>33</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>113</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="13" t="s">
         <v>40</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>40</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>42</v>
@@ -5243,19 +5293,19 @@
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W7" s="4" t="s">
         <v>113</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y7" s="3" t="s">
         <v>84</v>
@@ -5271,27 +5321,27 @@
       <c r="AH7" s="5"/>
       <c r="AMJ7" s="6"/>
     </row>
-    <row r="8" spans="1:1024" s="14" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1024" s="14" customFormat="1" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H8" s="2">
         <v>2006</v>
@@ -5300,25 +5350,25 @@
         <v>46</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="L8" s="2" t="s">
         <v>146</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>63</v>
@@ -5328,13 +5378,13 @@
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="W8" s="4" t="s">
         <v>46</v>
@@ -5344,7 +5394,7 @@
         <v>48</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA8" s="34"/>
       <c r="AB8" s="5"/>
@@ -5356,21 +5406,21 @@
       <c r="AH8" s="5"/>
       <c r="AMJ8" s="6"/>
     </row>
-    <row r="9" spans="1:1024" s="14" customFormat="1" ht="123.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1024" s="14" customFormat="1" ht="123.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>75</v>
@@ -5382,16 +5432,16 @@
         <v>1970</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="L9" s="2" t="s">
         <v>161</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>162</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>59</v>
@@ -5403,38 +5453,38 @@
         <v>1970</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W9" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="X9" s="10"/>
       <c r="Y9" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Z9" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AA9" s="34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
@@ -5445,33 +5495,33 @@
       <c r="AH9" s="2"/>
       <c r="AMJ9" s="6"/>
     </row>
-    <row r="10" spans="1:1024" s="14" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1024" s="14" customFormat="1" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H10" s="8">
         <v>2007</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>176</v>
+        <v>93</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>177</v>
@@ -5479,7 +5529,7 @@
       <c r="K10" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="13" t="s">
         <v>179</v>
       </c>
       <c r="M10" s="2" t="s">
@@ -5520,7 +5570,7 @@
         <v>68</v>
       </c>
       <c r="Z10" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AA10" s="34"/>
       <c r="AB10" s="2"/>
@@ -5532,7 +5582,7 @@
       <c r="AH10" s="2"/>
       <c r="AMJ10" s="6"/>
     </row>
-    <row r="11" spans="1:1024" s="14" customFormat="1" ht="155.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1024" s="14" customFormat="1" ht="155.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>187</v>
       </c>
@@ -5543,7 +5593,7 @@
         <v>189</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>190</v>
@@ -5552,13 +5602,13 @@
         <v>54</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H11" s="8">
         <v>2016</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>191</v>
@@ -5566,7 +5616,7 @@
       <c r="K11" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="13" t="s">
         <v>193</v>
       </c>
       <c r="M11" s="2" t="s">
@@ -5598,7 +5648,7 @@
         <v>198</v>
       </c>
       <c r="W11" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="X11" s="10" t="s">
         <v>186</v>
@@ -5619,7 +5669,7 @@
       <c r="AH11" s="2"/>
       <c r="AMJ11" s="6"/>
     </row>
-    <row r="12" spans="1:1024" s="14" customFormat="1" ht="207.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1024" s="14" customFormat="1" ht="207.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>199</v>
       </c>
@@ -5653,7 +5703,7 @@
       <c r="K12" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="13" t="s">
         <v>206</v>
       </c>
       <c r="M12" s="2" t="s">
@@ -5708,7 +5758,7 @@
       <c r="AH12" s="5"/>
       <c r="AMJ12" s="6"/>
     </row>
-    <row r="13" spans="1:1024" s="14" customFormat="1" ht="141.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1024" s="14" customFormat="1" ht="141.94999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>217</v>
       </c>
@@ -5721,7 +5771,7 @@
       <c r="D13" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="2" t="s">
         <v>221</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -5742,7 +5792,7 @@
       <c r="K13" s="13">
         <v>7762</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="13" t="s">
         <v>224</v>
       </c>
       <c r="M13" s="2" t="s">
@@ -5783,7 +5833,7 @@
         <v>68</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA13" s="34"/>
       <c r="AB13" s="5"/>
@@ -5795,7 +5845,7 @@
       <c r="AH13" s="5"/>
       <c r="AMJ13" s="6"/>
     </row>
-    <row r="14" spans="1:1024" s="16" customFormat="1" ht="162.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1024" s="16" customFormat="1" ht="162.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>231</v>
       </c>
@@ -5808,7 +5858,7 @@
       <c r="D14" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="2" t="s">
         <v>221</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -5829,7 +5879,7 @@
       <c r="K14" s="13">
         <v>7365</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="13" t="s">
         <v>237</v>
       </c>
       <c r="M14" s="2" t="s">
@@ -5870,7 +5920,7 @@
         <v>243</v>
       </c>
       <c r="Z14" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA14" s="34"/>
       <c r="AB14" s="5"/>
@@ -5882,7 +5932,7 @@
       <c r="AH14" s="5"/>
       <c r="AMJ14" s="6"/>
     </row>
-    <row r="15" spans="1:1024" s="2" customFormat="1" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1024" s="2" customFormat="1" ht="129.94999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>244</v>
       </c>
@@ -5916,7 +5966,7 @@
       <c r="K15" s="13">
         <v>2197</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="13" t="s">
         <v>251</v>
       </c>
       <c r="M15" s="2" t="s">
@@ -5956,7 +6006,7 @@
         <v>256</v>
       </c>
       <c r="Z15" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA15" s="34"/>
       <c r="AB15" s="5"/>
@@ -5968,7 +6018,7 @@
       <c r="AH15" s="5"/>
       <c r="AMJ15" s="6"/>
     </row>
-    <row r="16" spans="1:1024" s="14" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1024" s="14" customFormat="1" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>257</v>
       </c>
@@ -6002,48 +6052,48 @@
       <c r="K16" s="2">
         <v>411</v>
       </c>
-      <c r="L16" s="2">
-        <v>365</v>
+      <c r="L16" s="13" t="s">
+        <v>264</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>38</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>42</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="W16" s="4" t="s">
         <v>46</v>
       </c>
       <c r="X16" s="4"/>
       <c r="Y16" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z16" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA16" s="34"/>
       <c r="AB16" s="5"/>
@@ -6055,54 +6105,54 @@
       <c r="AH16" s="5"/>
       <c r="AMJ16" s="6"/>
     </row>
-    <row r="17" spans="1:1024" s="14" customFormat="1" ht="183.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1024" s="14" customFormat="1" ht="183.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>46</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K17" s="13">
         <v>6643</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>42</v>
@@ -6112,13 +6162,13 @@
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="U17" s="2" t="s">
         <v>65</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="W17" s="10" t="s">
         <v>46</v>
@@ -6131,7 +6181,7 @@
       </c>
       <c r="Z17" s="10"/>
       <c r="AA17" s="34" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
@@ -6142,21 +6192,21 @@
       <c r="AH17" s="2"/>
       <c r="AMJ17" s="6"/>
     </row>
-    <row r="18" spans="1:1024" s="14" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1024" s="14" customFormat="1" ht="103.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>54</v>
@@ -6168,44 +6218,44 @@
         <v>2002</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="L18" s="13">
-        <v>7222</v>
+        <v>296</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>297</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>40</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q18" s="15" t="s">
         <v>63</v>
       </c>
       <c r="R18" s="15" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="W18" s="10" t="s">
         <v>46</v>
@@ -6214,13 +6264,13 @@
         <v>214</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AA18" s="34" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
@@ -6231,24 +6281,24 @@
       <c r="AH18" s="2"/>
       <c r="AMJ18" s="6"/>
     </row>
-    <row r="19" spans="1:1024" s="14" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1024" s="14" customFormat="1" ht="140.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>33</v>
@@ -6260,25 +6310,25 @@
         <v>113</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>314</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>40</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>42</v>
@@ -6288,19 +6338,19 @@
       </c>
       <c r="S19" s="5"/>
       <c r="T19" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="W19" s="4" t="s">
         <v>113</v>
       </c>
       <c r="X19" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Y19" s="3" t="s">
         <v>48</v>
@@ -6316,21 +6366,21 @@
       <c r="AH19" s="5"/>
       <c r="AMJ19" s="6"/>
     </row>
-    <row r="20" spans="1:1024" s="14" customFormat="1" ht="189.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1024" s="14" customFormat="1" ht="189.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>234</v>
@@ -6342,54 +6392,54 @@
         <v>1998</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>328</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="W20" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="X20" s="4"/>
       <c r="Y20" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Z20" s="10" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AA20" s="34"/>
       <c r="AB20" s="5"/>
@@ -6401,24 +6451,24 @@
       <c r="AH20" s="5"/>
       <c r="AMJ20" s="6"/>
     </row>
-    <row r="21" spans="1:1024" s="14" customFormat="1" ht="233.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1024" s="14" customFormat="1" ht="233.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>33</v>
@@ -6430,25 +6480,25 @@
         <v>113</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>347</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>40</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>42</v>
@@ -6458,19 +6508,19 @@
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="W21" s="4" t="s">
         <v>113</v>
       </c>
       <c r="X21" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Y21" s="3" t="s">
         <v>48</v>
@@ -6486,24 +6536,24 @@
       <c r="AH21" s="5"/>
       <c r="AMJ21" s="6"/>
     </row>
-    <row r="22" spans="1:1024" ht="198.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1024" ht="198.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>33</v>
@@ -6515,25 +6565,25 @@
         <v>113</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>360</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>40</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>42</v>
@@ -6542,39 +6592,39 @@
         <v>42</v>
       </c>
       <c r="T22" s="8" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="W22" s="4" t="s">
         <v>113</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:1024" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1024" ht="153" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>234</v>
@@ -6586,28 +6636,28 @@
         <v>2008</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J23" s="39" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>371</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="O23" s="2">
         <v>2007</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q23" s="2" t="s">
         <v>63</v>
@@ -6616,72 +6666,72 @@
         <v>42</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="W23" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Y23" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Z23" s="19" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
-    <row r="24" spans="1:1024" ht="186.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1024" ht="186.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>46</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>387</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q24" s="2" t="s">
         <v>63</v>
@@ -6690,26 +6740,26 @@
         <v>80</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="W24" s="10" t="s">
         <v>46</v>
       </c>
       <c r="X24" s="10"/>
       <c r="Y24" s="3" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Z24" s="10" t="s">
         <v>85</v>
       </c>
       <c r="AA24" s="34" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
@@ -6719,24 +6769,24 @@
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
     </row>
-    <row r="25" spans="1:1024" ht="216" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1024" ht="216" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>33</v>
@@ -6745,16 +6795,16 @@
         <v>2005</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>403</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>59</v>
@@ -6763,38 +6813,38 @@
         <v>97</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q25" s="2" t="s">
         <v>42</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="W25" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="X25" s="10"/>
       <c r="Y25" s="3" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Z25" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
@@ -6804,24 +6854,24 @@
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
     </row>
-    <row r="26" spans="1:1024" ht="228" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1024" ht="228" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>33</v>
@@ -6830,16 +6880,16 @@
         <v>2005</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>414</v>
+        <v>415</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>416</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>59</v>
@@ -6848,57 +6898,57 @@
         <v>97</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q26" s="2" t="s">
         <v>42</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="W26" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Z26" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:1024" ht="201.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1024" ht="201.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>33</v>
@@ -6910,53 +6960,53 @@
         <v>46</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>422</v>
+        <v>423</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>424</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q27" s="2" t="s">
         <v>42</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="W27" s="10" t="s">
         <v>46</v>
       </c>
       <c r="X27" s="10"/>
       <c r="Y27" s="3" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Z27" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
@@ -6966,54 +7016,54 @@
       <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
     </row>
-    <row r="28" spans="1:1024" ht="215.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1024" ht="215.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>427</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>428</v>
+        <v>430</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>431</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>46</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>438</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="Q28" s="2" t="s">
         <v>63</v>
@@ -7022,13 +7072,13 @@
         <v>80</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="W28" s="10" t="s">
         <v>46</v>
@@ -7043,21 +7093,21 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:1024" ht="221.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1024" ht="221.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>443</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>444</v>
+        <v>446</v>
+      </c>
+      <c r="C29" s="47" t="s">
+        <v>447</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>54</v>
@@ -7066,31 +7116,31 @@
         <v>33</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>454</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="Q29" s="2" t="s">
         <v>42</v>
@@ -7099,28 +7149,28 @@
         <v>80</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="W29" s="10" t="s">
         <v>46</v>
       </c>
       <c r="X29" s="10" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="Y29" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Z29" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA29" s="34" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
@@ -7130,27 +7180,27 @@
       <c r="AG29" s="2"/>
       <c r="AH29" s="2"/>
     </row>
-    <row r="30" spans="1:1024" s="2" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1024" s="2" customFormat="1" ht="140.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="H30" s="8">
         <v>2007</v>
@@ -7159,25 +7209,25 @@
         <v>46</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="K30" s="13">
         <v>2000</v>
       </c>
-      <c r="L30" s="2" t="s">
-        <v>466</v>
+      <c r="L30" s="13" t="s">
+        <v>469</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="O30" s="8">
         <v>1993</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="Q30" s="2" t="s">
         <v>63</v>
@@ -7186,19 +7236,19 @@
         <v>42</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="W30" s="10" t="s">
         <v>46</v>
       </c>
       <c r="X30" s="10" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Y30" s="3" t="s">
         <v>48</v>
@@ -7209,24 +7259,24 @@
       <c r="AA30" s="34"/>
       <c r="AMJ30" s="6"/>
     </row>
-    <row r="31" spans="1:1024" ht="152.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1024" ht="152.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>33</v>
@@ -7235,43 +7285,43 @@
         <v>2003</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K31" s="13">
         <v>10272</v>
       </c>
-      <c r="L31" s="13">
-        <v>8093</v>
+      <c r="L31" s="13" t="s">
+        <v>483</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="Q31" s="2" t="s">
         <v>42</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="W31" s="4" t="s">
         <v>46</v>
@@ -7283,30 +7333,30 @@
         <v>48</v>
       </c>
       <c r="Z31" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:1024" s="2" customFormat="1" ht="294" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1024" s="2" customFormat="1" ht="294" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="H32" s="8">
         <v>1932</v>
@@ -7315,25 +7365,25 @@
         <v>46</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>493</v>
+        <v>496</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>497</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="O32" s="8">
         <v>1921</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="Q32" s="2" t="s">
         <v>63</v>
@@ -7342,55 +7392,55 @@
         <v>80</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="W32" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="X32" s="10" t="s">
         <v>214</v>
       </c>
       <c r="Y32" s="3" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="Z32" s="10" t="s">
         <v>85</v>
       </c>
       <c r="AA32" s="34" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="AMJ32" s="6"/>
     </row>
-    <row r="33" spans="1:34" ht="204" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34" ht="204" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="H33" s="8">
         <v>1947</v>
@@ -7399,25 +7449,25 @@
         <v>46</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>507</v>
+        <v>510</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>511</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="O33" s="8">
         <v>1936</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="Q33" s="2" t="s">
         <v>63</v>
@@ -7426,31 +7476,31 @@
         <v>80</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="W33" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="X33" s="10" t="s">
         <v>214</v>
       </c>
       <c r="Y33" s="3" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="Z33" s="10" t="s">
         <v>85</v>
       </c>
       <c r="AA33" s="34" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
@@ -7460,21 +7510,21 @@
       <c r="AG33" s="2"/>
       <c r="AH33" s="2"/>
     </row>
-    <row r="34" spans="1:34" ht="300" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34" ht="300" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>54</v>
@@ -7489,56 +7539,56 @@
         <v>46</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="K34" s="13">
         <v>15770</v>
       </c>
-      <c r="L34" s="8" t="s">
-        <v>518</v>
+      <c r="L34" s="13" t="s">
+        <v>522</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="W34" s="10" t="s">
         <v>46</v>
       </c>
       <c r="X34" s="10"/>
       <c r="Y34" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Z34" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA34" s="35" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
@@ -7548,24 +7598,24 @@
       <c r="AG34" s="2"/>
       <c r="AH34" s="2"/>
     </row>
-    <row r="35" spans="1:34" ht="288" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34" ht="288" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>33</v>
@@ -7574,16 +7624,16 @@
         <v>2000</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="L35" s="9" t="s">
-        <v>533</v>
+        <v>536</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>537</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>59</v>
@@ -7595,28 +7645,28 @@
         <v>2000</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q35" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="W35" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="X35" s="10" t="s">
         <v>186</v>
@@ -7625,10 +7675,10 @@
         <v>48</v>
       </c>
       <c r="Z35" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AA35" s="35" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="AB35" s="12"/>
       <c r="AC35" s="12"/>
@@ -7638,24 +7688,24 @@
       <c r="AG35" s="12"/>
       <c r="AH35" s="12"/>
     </row>
-    <row r="36" spans="1:34" ht="180" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34" ht="180" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>33</v>
@@ -7664,28 +7714,28 @@
         <v>1999</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>549</v>
+        <v>552</v>
+      </c>
+      <c r="L36" s="13" t="s">
+        <v>553</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>40</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="Q36" s="2" t="s">
         <v>42</v>
@@ -7694,13 +7744,13 @@
         <v>42</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="W36" s="4" t="s">
         <v>113</v>
@@ -7711,22 +7761,22 @@
     </row>
     <row r="37" spans="1:34" ht="168" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>33</v>
@@ -7738,25 +7788,25 @@
         <v>46</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="K37" s="13">
         <v>1319475</v>
       </c>
       <c r="L37" s="13" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="Q37" s="15" t="s">
         <v>63</v>
@@ -7765,13 +7815,13 @@
         <v>80</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="W37" s="10" t="s">
         <v>46</v>
@@ -7780,11 +7830,11 @@
         <v>214</v>
       </c>
       <c r="Y37" s="3" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="Z37" s="10"/>
       <c r="AA37" s="35" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="AB37" s="8"/>
       <c r="AC37" s="8"/>
@@ -7794,27 +7844,27 @@
       <c r="AG37" s="8"/>
       <c r="AH37" s="8"/>
     </row>
-    <row r="38" spans="1:34" ht="228" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34" ht="228" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="H38" s="17">
         <v>2006</v>
@@ -7823,25 +7873,25 @@
         <v>46</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>577</v>
+        <v>581</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>581</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="O38" s="8">
         <v>1921</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>63</v>
@@ -7850,13 +7900,13 @@
         <v>80</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="W38" s="4" t="s">
         <v>46</v>
@@ -7868,24 +7918,24 @@
         <v>68</v>
       </c>
       <c r="Z38" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="39" spans="1:34" ht="264" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34" ht="264" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>75</v>
@@ -7897,16 +7947,16 @@
         <v>1958</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>589</v>
+        <v>592</v>
+      </c>
+      <c r="L39" s="13" t="s">
+        <v>593</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>59</v>
@@ -7918,38 +7968,38 @@
         <v>1958</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q39" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="W39" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="X39" s="10"/>
       <c r="Y39" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Z39" s="10" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="AA39" s="35" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
@@ -7959,24 +8009,24 @@
       <c r="AG39" s="2"/>
       <c r="AH39" s="2"/>
     </row>
-    <row r="40" spans="1:34" ht="228" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34" ht="228" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>33</v>
@@ -7988,43 +8038,43 @@
         <v>214</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="K40" s="13">
         <v>8504</v>
       </c>
       <c r="L40" s="13" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="Q40" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="W40" s="4" t="s">
         <v>46</v>
@@ -8033,27 +8083,27 @@
         <v>214</v>
       </c>
       <c r="Y40" s="3" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="Z40" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:34" ht="276" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34" ht="276" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>75</v>
@@ -8068,13 +8118,13 @@
         <v>214</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="K41" s="13">
         <v>5362</v>
       </c>
-      <c r="L41" s="2" t="s">
-        <v>620</v>
+      <c r="L41" s="13" t="s">
+        <v>624</v>
       </c>
       <c r="M41" s="2" t="s">
         <v>59</v>
@@ -8086,7 +8136,7 @@
         <v>1946</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="Q41" s="2" t="s">
         <v>63</v>
@@ -8095,19 +8145,19 @@
         <v>80</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="U41" s="2" t="s">
         <v>65</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="X41" s="4" t="s">
         <v>214</v>
@@ -8116,30 +8166,30 @@
         <v>84</v>
       </c>
       <c r="Z41" s="10" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="AA41" s="35" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
     </row>
-    <row r="42" spans="1:34" ht="204" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34" ht="204" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>631</v>
+        <v>634</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>635</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>33</v>
@@ -8148,10 +8198,10 @@
         <v>2014</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="K42" s="13">
         <v>14000</v>
@@ -8166,10 +8216,10 @@
         <v>207</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="Q42" s="2" t="s">
         <v>63</v>
@@ -8178,13 +8228,13 @@
         <v>42</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="W42" s="4" t="s">
         <v>46</v>
@@ -8196,24 +8246,24 @@
         <v>48</v>
       </c>
       <c r="Z42" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="43" spans="1:34" ht="192" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>54</v>
@@ -8225,28 +8275,28 @@
         <v>2015</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>193</v>
+        <v>649</v>
+      </c>
+      <c r="L43" s="13" t="s">
+        <v>650</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="Q43" s="2" t="s">
         <v>63</v>
@@ -8255,16 +8305,16 @@
         <v>42</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="W43" s="10" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="X43" s="10" t="s">
         <v>186</v>
@@ -8273,10 +8323,10 @@
         <v>68</v>
       </c>
       <c r="Z43" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA43" s="35" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
@@ -8286,24 +8336,27 @@
       <c r="AG43" s="2"/>
       <c r="AH43" s="2"/>
     </row>
-    <row r="44" spans="1:34" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:34" ht="153" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>657</v>
+        <v>662</v>
+      </c>
+      <c r="E44" s="45" t="s">
+        <v>663</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="H44" s="8">
         <v>2006</v>
@@ -8312,25 +8365,25 @@
         <v>46</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="K44" s="13" t="s">
-        <v>660</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>661</v>
+        <v>666</v>
+      </c>
+      <c r="L44" s="13" t="s">
+        <v>667</v>
       </c>
       <c r="M44" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="Q44" s="2" t="s">
         <v>63</v>
@@ -8340,13 +8393,13 @@
       </c>
       <c r="S44" s="5"/>
       <c r="T44" s="2" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="W44" s="4" t="s">
         <v>46</v>
@@ -8358,27 +8411,27 @@
         <v>215</v>
       </c>
     </row>
-    <row r="45" spans="1:34" ht="384" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34" ht="384" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="H45" s="8">
         <v>1988</v>
@@ -8387,25 +8440,25 @@
         <v>46</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="K45" s="13">
         <v>4858</v>
       </c>
-      <c r="L45" s="2" t="s">
-        <v>674</v>
+      <c r="L45" s="13" t="s">
+        <v>680</v>
       </c>
       <c r="M45" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="Q45" s="2" t="s">
         <v>63</v>
@@ -8414,48 +8467,48 @@
         <v>80</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="W45" s="10" t="s">
         <v>46</v>
       </c>
       <c r="X45" s="10" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>68</v>
       </c>
       <c r="Z45" s="10" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
-    <row r="46" spans="1:34" ht="168" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:34" ht="168" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="H46" s="2">
         <v>2014</v>
@@ -8464,40 +8517,40 @@
         <v>46</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="K46" s="9">
         <v>6616</v>
       </c>
-      <c r="L46" s="2">
-        <v>648</v>
+      <c r="L46" s="13" t="s">
+        <v>694</v>
       </c>
       <c r="M46" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="Q46" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="U46" s="36" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="W46" s="4" t="s">
         <v>46</v>
@@ -8506,24 +8559,24 @@
         <v>68</v>
       </c>
       <c r="Z46" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:34" ht="168" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34" ht="168" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>54</v>
@@ -8538,25 +8591,25 @@
         <v>46</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>701</v>
+        <v>707</v>
+      </c>
+      <c r="L47" s="13" t="s">
+        <v>708</v>
       </c>
       <c r="M47" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="Q47" s="2" t="s">
         <v>63</v>
@@ -8565,19 +8618,19 @@
         <v>80</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="W47" s="10" t="s">
         <v>46</v>
       </c>
       <c r="X47" s="10" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="Y47" s="3" t="s">
         <v>68</v>
@@ -8586,7 +8639,7 @@
         <v>85</v>
       </c>
       <c r="AA47" s="35" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
@@ -8596,27 +8649,27 @@
       <c r="AG47" s="2"/>
       <c r="AH47" s="2"/>
     </row>
-    <row r="48" spans="1:34" ht="300" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:34" ht="300" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="H48" s="8">
         <v>1998</v>
@@ -8625,25 +8678,25 @@
         <v>46</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>717</v>
+        <v>723</v>
+      </c>
+      <c r="L48" s="13" t="s">
+        <v>724</v>
       </c>
       <c r="M48" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="Q48" s="2" t="s">
         <v>63</v>
@@ -8653,13 +8706,13 @@
       </c>
       <c r="S48" s="5"/>
       <c r="T48" s="2" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="U48" s="2" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="W48" s="4" t="s">
         <v>93</v>
@@ -8671,21 +8724,21 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:34" ht="276" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34" ht="276" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="18" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>234</v>
@@ -8697,16 +8750,16 @@
         <v>1994</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>730</v>
+        <v>736</v>
+      </c>
+      <c r="L49" s="13" t="s">
+        <v>737</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>59</v>
@@ -8715,55 +8768,55 @@
         <v>97</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="Q49" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="S49" s="5"/>
       <c r="T49" s="2" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="W49" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Y49" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Z49" s="10" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
-    <row r="50" spans="1:34" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:34" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>33</v>
@@ -8772,28 +8825,28 @@
         <v>1992</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>745</v>
+        <v>751</v>
+      </c>
+      <c r="L50" s="13" t="s">
+        <v>752</v>
       </c>
       <c r="M50" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>40</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="Q50" s="2" t="s">
         <v>63</v>
@@ -8803,16 +8856,16 @@
       </c>
       <c r="S50" s="5"/>
       <c r="T50" s="2" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="W50" s="4" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="Y50" s="3" t="s">
         <v>48</v>
@@ -8821,45 +8874,45 @@
         <v>215</v>
       </c>
       <c r="AA50" s="34" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
-    <row r="51" spans="1:34" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>762</v>
+        <v>768</v>
+      </c>
+      <c r="L51" s="13" t="s">
+        <v>769</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>59</v>
@@ -8871,40 +8924,40 @@
         <v>40</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
       <c r="Q51" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="W51" s="10" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="X51" s="10" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="Y51" s="3" t="s">
         <v>48</v>
       </c>
       <c r="Z51" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AA51" s="35" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="AB51" s="2"/>
       <c r="AC51" s="2"/>
@@ -8914,27 +8967,27 @@
       <c r="AG51" s="2"/>
       <c r="AH51" s="2"/>
     </row>
-    <row r="52" spans="1:34" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:34" ht="87.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="18" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
       <c r="H52" s="8">
         <v>2007</v>
@@ -8943,25 +8996,25 @@
         <v>93</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="K52" s="13" t="s">
-        <v>778</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>193</v>
+        <v>785</v>
+      </c>
+      <c r="L52" s="13" t="s">
+        <v>786</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="O52" s="8" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="Q52" s="2" t="s">
         <v>63</v>
@@ -8970,13 +9023,13 @@
         <v>182</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="U52" s="2" t="s">
         <v>65</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="W52" s="4" t="s">
         <v>93</v>
@@ -8985,137 +9038,137 @@
         <v>68</v>
       </c>
       <c r="Z52" s="10" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
-    <row r="53" spans="1:34" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:34" ht="146.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H53" s="8">
         <v>1985</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="K53" s="13">
         <v>10308</v>
       </c>
-      <c r="L53" s="2" t="s">
-        <v>792</v>
+      <c r="L53" s="13" t="s">
+        <v>800</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="Q53" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
       <c r="W53" s="4" t="s">
         <v>46</v>
       </c>
       <c r="X53" s="4" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="Y53" s="3" t="s">
         <v>68</v>
       </c>
       <c r="Z53" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="54" spans="1:34" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:34" ht="113.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>804</v>
+        <v>812</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>805</v>
+        <v>813</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
       <c r="H54" s="8">
         <v>1986</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>807</v>
+        <v>815</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>809</v>
+        <v>816</v>
+      </c>
+      <c r="L54" s="13" t="s">
+        <v>817</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>811</v>
+        <v>819</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>812</v>
+        <v>820</v>
       </c>
       <c r="Q54" s="2" t="s">
         <v>63</v>
@@ -9124,42 +9177,42 @@
         <v>42</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>813</v>
+        <v>821</v>
       </c>
       <c r="U54" s="2" t="s">
         <v>65</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>814</v>
+        <v>822</v>
       </c>
       <c r="W54" s="4" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="Y54" s="3" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="Z54" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:34" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:34" ht="409.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>815</v>
+        <v>823</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>817</v>
+        <v>825</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>818</v>
+        <v>826</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>33</v>
@@ -9171,25 +9224,25 @@
         <v>46</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="K55" s="2">
         <v>628</v>
       </c>
-      <c r="L55" s="2">
+      <c r="L55" s="13">
         <v>499</v>
       </c>
       <c r="M55" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>822</v>
+        <v>830</v>
       </c>
       <c r="O55" s="2" t="s">
         <v>40</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>823</v>
+        <v>831</v>
       </c>
       <c r="Q55" s="2" t="s">
         <v>42</v>
@@ -9198,51 +9251,51 @@
         <v>80</v>
       </c>
       <c r="S55" s="38" t="s">
-        <v>824</v>
+        <v>832</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>825</v>
+        <v>833</v>
       </c>
       <c r="U55" s="2" t="s">
         <v>184</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>826</v>
+        <v>834</v>
       </c>
       <c r="W55" s="4" t="s">
         <v>46</v>
       </c>
       <c r="X55" s="4" t="s">
-        <v>827</v>
+        <v>835</v>
       </c>
       <c r="Y55" s="3" t="s">
         <v>48</v>
       </c>
       <c r="Z55" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:34" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:34" ht="409.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>828</v>
+        <v>836</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>829</v>
+        <v>837</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>830</v>
+        <v>838</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>833</v>
+        <v>841</v>
       </c>
       <c r="H56" s="2">
         <v>1998</v>
@@ -9251,13 +9304,13 @@
         <v>46</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>834</v>
+        <v>842</v>
       </c>
       <c r="K56" s="9">
         <v>4300</v>
       </c>
-      <c r="L56" s="9">
-        <v>4257</v>
+      <c r="L56" s="13" t="s">
+        <v>843</v>
       </c>
       <c r="M56" s="2" t="s">
         <v>59</v>
@@ -9269,69 +9322,69 @@
         <v>1986</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>835</v>
+        <v>844</v>
       </c>
       <c r="Q56" s="2" t="s">
         <v>42</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>836</v>
+        <v>845</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>837</v>
+        <v>846</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>838</v>
+        <v>847</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>839</v>
+        <v>848</v>
       </c>
       <c r="W56" s="4" t="s">
         <v>46</v>
       </c>
       <c r="Y56" s="3" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Z56" s="10" t="s">
-        <v>840</v>
+        <v>849</v>
       </c>
     </row>
-    <row r="57" spans="1:34" s="5" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" s="5" customFormat="1" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>841</v>
+        <v>850</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>842</v>
+        <v>851</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="D57" s="42" t="s">
+        <v>852</v>
+      </c>
+      <c r="D57" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="E57" s="41" t="s">
-        <v>844</v>
+      <c r="E57" s="46" t="s">
+        <v>853</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>845</v>
+        <v>854</v>
       </c>
       <c r="H57" s="2">
         <v>2018</v>
       </c>
-      <c r="I57" s="43" t="s">
-        <v>846</v>
-      </c>
-      <c r="J57" s="44" t="s">
-        <v>847</v>
-      </c>
-      <c r="K57" s="45" t="s">
-        <v>848</v>
-      </c>
-      <c r="L57" s="45" t="s">
-        <v>848</v>
+      <c r="I57" s="42" t="s">
+        <v>855</v>
+      </c>
+      <c r="J57" s="43" t="s">
+        <v>856</v>
+      </c>
+      <c r="K57" s="44" t="s">
+        <v>857</v>
+      </c>
+      <c r="L57" s="13" t="s">
+        <v>857</v>
       </c>
       <c r="M57" s="2" t="s">
         <v>59</v>
@@ -9342,8 +9395,8 @@
       <c r="O57" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="P57" s="43" t="s">
-        <v>849</v>
+      <c r="P57" s="42" t="s">
+        <v>858</v>
       </c>
       <c r="Q57" s="2" t="s">
         <v>42</v>
@@ -9353,25 +9406,25 @@
       </c>
       <c r="S57" s="2"/>
       <c r="T57" s="2" t="s">
-        <v>850</v>
+        <v>859</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>851</v>
+        <v>860</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="W57" s="43" t="s">
-        <v>846</v>
+        <v>861</v>
+      </c>
+      <c r="W57" s="42" t="s">
+        <v>855</v>
       </c>
       <c r="X57" s="2" t="s">
-        <v>853</v>
+        <v>862</v>
       </c>
       <c r="Y57" s="2" t="s">
         <v>68</v>
       </c>
       <c r="Z57" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA57" s="2"/>
     </row>
@@ -9384,7 +9437,7 @@
     <row r="60" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="C60" s="30" t="s">
-        <v>854</v>
+        <v>863</v>
       </c>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.2">
@@ -9470,30 +9523,18 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AH57" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH54">
-      <sortCondition ref="A1:A54"/>
-    </sortState>
+    <filterColumn colId="0">
+      <filters>
+        <filter val="MWS"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
-  <hyperlinks>
-    <hyperlink ref="E57" r:id="rId1" display="https://www.kcl.ac.uk/research/the-sep-md-data-linkage-study" xr:uid="{556AD618-5565-4E79-A417-EB9E2E90EF22}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b67f489d-6419-4cb0-8238-506a3a8f1300">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0ce01a67-a604-4be1-a4ca-c8b766b5a068" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006651BF32B521A046AF14BF632D6B295F" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="55423843e2650ade946de227fdfd3c86">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b67f489d-6419-4cb0-8238-506a3a8f1300" xmlns:ns3="0ce01a67-a604-4be1-a4ca-c8b766b5a068" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b15cf6a4d7b0b7ca33e0fb73ec1791d3" ns2:_="" ns3:_="">
     <xsd:import namespace="b67f489d-6419-4cb0-8238-506a3a8f1300"/>
@@ -9722,6 +9763,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b67f489d-6419-4cb0-8238-506a3a8f1300">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0ce01a67-a604-4be1-a4ca-c8b766b5a068" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9732,17 +9784,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A888961D-86EF-4E4E-8A38-F33DFFA3A067}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b67f489d-6419-4cb0-8238-506a3a8f1300"/>
-    <ds:schemaRef ds:uri="0ce01a67-a604-4be1-a4ca-c8b766b5a068"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B6E6444-F52A-4A7D-907E-4485397AB440}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9761,6 +9802,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A888961D-86EF-4E4E-8A38-F33DFFA3A067}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b67f489d-6419-4cb0-8238-506a3a8f1300"/>
+    <ds:schemaRef ds:uri="0ce01a67-a604-4be1-a4ca-c8b766b5a068"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C8B3C7C-6A2F-4690-AF82-2D0388819DFC}">
   <ds:schemaRefs>

--- a/xlsx/studies.xlsx
+++ b/xlsx/studies.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\john\workspace\catalogueMentalHealth\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/Workspace/catalogue-mental-health/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C72F3FC-2913-4467-9E96-20502353E43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72AEE72-5EFF-B445-9092-CE28E67A6922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7515" yWindow="3180" windowWidth="27045" windowHeight="15885" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study details" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Study details'!$A$1:$AH$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Study details'!$A$1:$AH$61</definedName>
   </definedNames>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="916">
   <si>
     <t>Code</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>HDR UK Innovation Gateway</t>
+  </si>
+  <si>
+    <t>Extra info - sweep sample sizes</t>
   </si>
   <si>
     <t>ADVANCE</t>
@@ -244,7 +247,7 @@
   </si>
   <si>
     <t>Data request - contact study team&lt;br&gt;
-&lt;a href="https://www.kcl.ac.uk/ioppn/depts/ps/research/firstepisode/AESOP"&gt;kcl.ac.uk/ioppn/depts/ps/research/firstepisode/AESOP&lt;/a&gt;</t>
+&lt;a href="https://www.kcl.ac.uk/research/aesop-10"&gt;kcl.ac.uk/research/aesop-10&lt;/a&gt;</t>
   </si>
   <si>
     <t>Yes</t>
@@ -308,7 +311,7 @@
     <t>18+</t>
   </si>
   <si>
-    <t>Data request - Dementias Platform UK &lt;br&gt;
+    <t>Data request &lt;br&gt;
 &lt;a href="https://police-health.org.uk/applying-access-resource"&gt;https://police-health.org.uk/applying-access-resource&lt;/a&gt;</t>
   </si>
   <si>
@@ -385,7 +388,7 @@
 14,901 children (cohort members) alive at 1 year of age </t>
   </si>
   <si>
-    <t>Approximately 3,400 (cohort members) (2023 - Life at 27+)</t>
+    <t>Approximately 3,400 (2023 - Life at 27+)</t>
   </si>
   <si>
     <t>Birth</t>
@@ -455,13 +458,16 @@
     <t>&lt;a href="https://web.www.healthdatagateway.org/dataset/255d70c6-9a50-4b62-adc0-44216606a216"&gt;https://web.www.healthdatagateway.org/dataset/255d70c6-9a50-4b62-adc0-44216606a216&lt;/a&gt;</t>
   </si>
   <si>
+    <t>Approximately 3,400 (cohort members) (2023 - Life at 27+)</t>
+  </si>
+  <si>
     <t>APMS</t>
   </si>
   <si>
     <t>Adult Psychiatric Morbidity Survey (APMS)</t>
   </si>
   <si>
-    <t>The Adult Psychiatric Morbidity Survey (APMS) is a series of four repeated cross-sectional surveys of adults living in private households in England. The main aim of the survey series is to collect data on poor mental health among adults in order to facilitate the estimation of the prevalence of psychiatric morbidity, allow for examination of trends over time and gauge the level and nature of treatment and service use. The APMS provides key context for understanding mental illness in England and for informing initiatives in this area.</t>
+    <t>The Adult Psychiatric Morbidity Survey (APMS) is a series of four repeated cross-sectional surveys of adults living in private households in England, Scotland and Wales. The main aim of the survey series is to collect data on poor mental health among adults in order to facilitate the estimation of the prevalence of psychiatric morbidity, allow for examination of trends over time and gauge the level and nature of treatment and service use. The APMS provides key context for understanding mental illness in England, Scotland and Wales, and for informing initiatives in these areas.</t>
   </si>
   <si>
     <t>NHS Digital, NatCen Social Research &amp; University of Leicester</t>
@@ -479,7 +485,7 @@
     <t xml:space="preserve">Each survey involved interviewing a large stratified probability sample of the general population, covering people living in private households. A new sample is recruited for each survey.&lt;br&gt;&lt;br&gt;
 The two-phase survey design involved an initial interview with the whole sample, followed up with a structured assessment carried out by clinically trained interviewers with a subset of participants. People were assessed or screened for a range of different types of mental disorder, from common conditions like depression and anxiety disorder through to rarer
 neurological and mental conditions such as psychotic disorder, attention-deficit/hyperactivity disorder (ADHD), and autism spectrum disorder (ASD).&lt;br&gt;&lt;br&gt;
-The stratified multi-stage random probability sample used for the phase one interview involved two stages of sample selection: the sampling of the primary sampling units (PSUs) followed by the sampling of addresses within the selected PSUs. One adult aged 16 years or over was randomly selected for interview in each eligible household
+The stratified multi-stage random probability sample used for the phase one interview involved two stages of sample selection: the sampling of the primary sampling units (PSUs) followed by the sampling of addresses within the selected PSUs. One adult aged 16 years or over was randomly selected for interview in each eligible household.
 </t>
   </si>
   <si>
@@ -492,7 +498,7 @@
     <t xml:space="preserve">16 years + </t>
   </si>
   <si>
-    <t>1926-1998</t>
+    <t>1926-98</t>
   </si>
   <si>
     <t>UK Data Service 
@@ -537,7 +543,7 @@
     <t>APMS_other</t>
   </si>
   <si>
-    <t>Surveys of Psychiatric Morbidity - marginalised populations</t>
+    <t>Surveys of Psychiatric Morbidity</t>
   </si>
   <si>
     <t>The Surveys of Psychiatric Morbidity aim to provide information about the prevalence of psychiatric problems among people in Great Britain, as well as their associated social disabilities and use of services. The surveys covering adults in private households (undertaken in 1993, 2000, 2007 and 2014) and children and adolescents (1999, 2004 and 2017), are detailed elsewhere on the Catalogue. The  surveys detailed on this page were designed to show the prevalence of psychiatric morbidity in a series of marginalised populations: adults in institutions specifically catering for people with mental illness (1994); homeless people (1994); prisoners (1997); and children and young people looked after by local authorities (2001/2). These surveys provide key context for understanding mental illness in Britain and for informing initiatives in this area.</t>
@@ -636,8 +642,7 @@
 &lt;br&gt;&lt;br&gt;
 Infants were identified as being at EL if they had at least one older sibling with a community clinical diagnosis of autism, which was confirmed based on parent report using the Development and Wellbeing Assessment (DAWBA; Goodman et al., 2000), the Social Communication Questionnaire (SCQ; Berument et al., 1999) or parent confirmed community clinical autism diagnosis. Infants were identified as being at typical likelihood (TL) if they had at least one older sibling with typical development and no known autism in first-degree family members (as confirmed through parent interviews regarding family medical history). In phase 3, children were recruited and identified as being at EL for ADHD if they had either an older sibling or a parent with a diagnosis of ADHD,  confirmed through parent report using the Conner's Parent Rating Scale, and Conner's Adult. 
 &lt;br&gt;&lt;br&gt;
-Cohort members have been assessed at approximately 1, 5, 8, 14, 24, and 36 months, before being followed up during mid-childhood at approximately age 7 to 11 years. The follow up of children at mid-childhood in phase 1 is known as ‘BASIS-7’, whilst follow up for phases 2 and 3 is known as ‘SuperSTAARS’. Participants are administered a range of experimental, behavioural and cognitive tasks and interactive assessments of autistic symptomatology. Parents also complete a range of questionnaires and interviews relating to different aspects of early development. Phase 1 data collection ran from 2006-2015, phase 2 from 2009-2022, and phase 3 from 2013-2023. 
-</t>
+Cohort members have been assessed at approximately 1, 5, 8, 14, 24, and 36 months, before being followed up during mid-childhood at approximately age 7 to 11 years. The follow up of children at mid-childhood in phase 1 is known as ‘BASIS-7’, whilst follow up for phases 2 and 3 is known as ‘SuperSTAARS’. Participants are administered a range of experimental, behavioural and cognitive tasks and interactive assessments of autistic symptomatology. Parents also complete a range of questionnaires and interviews relating to different aspects of early development. Phase 1 data collection ran from 2006-2015, phase 2 from 2009-2022, and phase 3 from 2013-2023. </t>
   </si>
   <si>
     <t xml:space="preserve">Phase 1: 104&lt;br&gt;
@@ -725,7 +730,7 @@
 Cohort Profile: 1970 British birth cohort (BCS70). &lt;br&gt;
 &lt;a href="https://doi.org/10.1093/ije/dyl174"&gt;doi.org/10.1093/ije/dyl174&lt;/a&gt;&lt;br&gt;&lt;br&gt; 
 &lt;b&gt;&lt;u&gt;Impactful papers using study data&lt;/b&gt;&lt;/u&gt;&lt;br&gt;
-Understanding differences in health behaviors by education. &lt;a href="https://doi.org/10.1016%2Fj.jhealeco.2009.10.003"&gt;doi.org/10.1016%2Fj.jhealeco.2009.10.003&lt;/a&gt;&lt;br&gt;
+Understanding differences in health behaviours by education. &lt;a href="https://doi.org/10.1016%2Fj.jhealeco.2009.10.003"&gt;doi.org/10.1016%2Fj.jhealeco.2009.10.003&lt;/a&gt;&lt;br&gt;
 Sexual orientation and symptoms of common mental disorder or low wellbeing: combined meta-analysis of 12 UK population health surveys. &lt;a href="https://doi.org/10.1186/s12888-016-0767-z"&gt;doi.org/10.1186/s12888-016-0767-z&lt;/a&gt;&lt;br&gt;
 Childhood self-control and unemployment throughout the life span: Evidence from two British cohort studies. &lt;a href="https://psycnet.apa.org/doi/10.1177/0956797615569001"&gt;psycnet.apa.org/doi/10.1177/0956797615569001&lt;/a&gt;</t>
   </si>
@@ -842,6 +847,10 @@
     <t>Ethnicity and race</t>
   </si>
   <si>
+    <t>&lt;a
+href="https://web.www.healthdatagateway.org/dataset/fe1684ef-69ee-4490-9ab8-b26e990c9060"&gt;https://web.www.healthdatagateway.org/dataset/fe1684ef-69ee-4490-9ab8-b26e990c9060&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>BiBBS</t>
   </si>
   <si>
@@ -923,7 +932,7 @@
     <t>40 years +</t>
   </si>
   <si>
-    <t>1937-1970</t>
+    <t>1937-70</t>
   </si>
   <si>
     <t>Project proposal - see registration and data access guidance
@@ -934,7 +943,7 @@
 Health data</t>
   </si>
   <si>
-    <t>UK biobank: an open access resource for identifying the causes of a wide range of complex diseases of middle and old age.&lt;br&gt;
+    <t>UK biobank: An open access resource for identifying the causes of a wide range of complex diseases of middle and old age.&lt;br&gt;
 &lt;a href="https://doi.org/10.1371/journal.pmed.1001779"&gt;doi.org/10.1371/journal.pmed.1001779&lt;/a&gt;
 &lt;br&gt;
 Indicators of mental disorders in UK Biobank—a comparison of approaches.&lt;br&gt;
@@ -997,7 +1006,7 @@
   </si>
   <si>
     <t>5,288 (2013 - Wave 2)&lt;br&gt;
-650 (original cohort members) (2021 - Covid-19)</t>
+650 original cohort members (2021 - Covid-19)</t>
   </si>
   <si>
     <t>65 years +</t>
@@ -1033,6 +1042,10 @@
 Social care - need</t>
   </si>
   <si>
+    <t>5,288 (2013 - Wave 2)&lt;br&gt;
+650 (original cohort members) (2021 - Covid-19)</t>
+  </si>
+  <si>
     <t>CFAS_MRC</t>
   </si>
   <si>
@@ -1052,7 +1065,7 @@
     <t>Random samples of people in their 65th year and above were obtained from Family Health Service Authority lists from each centre. The sample was stratified by age group (65-74 years and 75 years and over) and equal numbers were randomly selected from each age group to produce an overall sample size of approximately 2500 people in each of the areas.</t>
   </si>
   <si>
-    <t>905 (Assessment interview)</t>
+    <t>905 (assessment interview)</t>
   </si>
   <si>
     <t>Before 1924</t>
@@ -1087,6 +1100,9 @@
     <t>England, Wales, Local area</t>
   </si>
   <si>
+    <t>905 (Assessment interview)</t>
+  </si>
+  <si>
     <t>CFAS_Wales</t>
   </si>
   <si>
@@ -1282,14 +1298,14 @@
     <t>Cohort Survey (Replenished); Ageing cohort</t>
   </si>
   <si>
-    <t>Sample members are drawn from respondents to the Health Survey for England (HSE). Around 12,000 respondents from three separate years of the HSE survey were recruited to provide a representative sample of the English population aged 50 and over and their partners. At waves 3, 4, 6 and 7 the study was replenished with new study participants (refreshments) from HSE to maintain the size and representativeness of the panel.</t>
+    <t>Sample members are drawn from respondents to the Health Survey for England (HSE). Around 12,000 respondents from three separate years of the HSE survey were recruited to provide a representative sample of the English population aged 50 and over and their partners. At waves 3, 4, 6, 7, 9 and 10 the study was replenished with new study participants (refreshments) from HSE to maintain the size and representativeness of the panel. Two waves of data were also collected during the Covid-19 pandemic in 2020.</t>
   </si>
   <si>
     <t>12,100 individuals</t>
   </si>
   <si>
-    <t>8,445 (total) (2017 - Wave 8)&lt;br&gt;
-7,223 (original sample members)</t>
+    <t xml:space="preserve">7,242 (wave 10)
+</t>
   </si>
   <si>
     <t>50+</t>
@@ -1308,8 +1324,8 @@
 &lt;a href="https://doi.org/10.1093/ije/dys168"&gt;doi.org/10.1093/ije/dys168&lt;/a&gt; &lt;br&gt;&lt;br&gt; 
 &lt;b&gt;&lt;u&gt;Impactful papers using study data&lt;/b&gt;&lt;/u&gt;&lt;br&gt;
 Social isolation, loneliness, and all-cause mortality in older men and women. &lt;a href="https://doi.org/10.1073/pnas.1219686110"&gt;doi.org/10.1073/pnas.1219686110&lt;/a&gt;&lt;br&gt;
-The relationship between physical and mental health: A mediation analysis. &lt;a href="https://psycnet.apa.org/doi/10.1016/j.socscimed.2017.11.008"&gt;psycnet.apa.org/doi/10.1016/j.socscimed.2017.11.008&lt;/a&gt;&lt;br&gt;
-Childhood self-control and unemployment throughout the life span: Evidence from two British cohort studies. &lt;a href="https://doi.org/10.1007/s10508-014-0465-1"&gt;doi.org/10.1007/s10508-014-0465-1&lt;/a&gt;</t>
+The art of life and death: 14-year follow-up analyses of the association between arts engagement and mortality in the English Longitudinal Study of Ageing. &lt;a href="https://doi.org/10.1136/bmj.l6377"&gt;doi.org/10.1136/bmj.l6377&lt;/a&gt;&lt;br&gt;
+Immediate and Longer-Term Changes in the Mental Health and Well-being of Older Adults in England During the COVID-19 Pandemic. &lt;a href=https://jamanetwork.com/journals/jamapsychiatry/article-abstract/2787196"&gt;doi:10.1001/jamapsychiatry.2021.3749&lt;/a&gt;</t>
   </si>
   <si>
     <t>NIA DfT DoHSC DfWP</t>
@@ -1347,6 +1363,59 @@
 href="https://web.www.healthdatagateway.org/dataset/f12cb023-1402-49d1-aa27-e0fe4ed19fd7"&gt;https://web.www.healthdatagateway.org/dataset/f12cb023-1402-49d1-aa27-e0fe4ed19fd7&lt;/a&gt;</t>
   </si>
   <si>
+    <t>EPAD</t>
+  </si>
+  <si>
+    <t>Early Prediction of Adolescent Depression (EPAD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Early Prediction of Adolescent Depression (EPAD) Study is a longitudinal study aiming to improve the understanding of the causes of mental health problems. Also known as the Cardiff University Mood and Wellbeing Study, researchers aimed to follow families where an individual had been affected by low mood. </t>
+  </si>
+  <si>
+    <t>Cardiff University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;a href="https://www.cardiff.ac.uk/research/explore/find-a-project/view/the-cardiff-university-mood-and-wellbeing-study"&gt;www.cardiff.ac.uk/research/explore/find-a-project/view/the-cardiff-university-mood-and-wellbeing-study&lt;/a&gt;  </t>
+  </si>
+  <si>
+    <t>Families were mainly recruited grom general practices in South Wales. Parents were confirmed to have had at least two previous episodes of DSM-IV mejor depressive disorder. The youngest children between the ages of 9-17 were included in the study. All children were biologically related to and living with the parent. Children with serious physical illnesses, or IQ less than 50 were exluded. Parents with phychosis, bipolar disorder, or mania or hypomania were also excluded.</t>
+  </si>
+  <si>
+    <t>331 families</t>
+  </si>
+  <si>
+    <t>262 families</t>
+  </si>
+  <si>
+    <t>9-17 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact study team to express an interest in accessing the data &lt;br&gt;
+&lt;a href="https://www.cardiff.ac.uk/research/explore/find-a-project/view/the-cardiff-university-mood-and-wellbeing-study"&gt;www.cardiff.ac.uk/research/explore/find-a-project/view/the-cardiff-university-mood-and-wellbeing-study&lt;/a&gt;  </t>
+  </si>
+  <si>
+    <t>Also known as the Cardiff University Mood and Wellbeing Study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mental health resilience in the adolescent offspring of parents with depression: a prospective longitudinal study &lt;br&gt;
+&lt;a href="https://doi.org/10.1016/S2215-0366(15)00358-2"&gt;doi.org/10.1016/S2215-0366(15)00358-2&lt;/a&gt;  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sir Jules Thorn Charitable Trust ESRC </t>
+  </si>
+  <si>
+    <t>Diet and nutrition,
+Education,
+Loneliness and social isolation,
+Neighbourhood,
+Parenting and family,
+Political and social attitudes,
+Sleep problems,
+Socioeconomic status and deprivation,
+Victimisation and life events,
+Work and employment</t>
+  </si>
+  <si>
     <t>EQLS</t>
   </si>
   <si>
@@ -1432,14 +1501,14 @@
     <t>2,232 individuals</t>
   </si>
   <si>
-    <t>2,066 (individuals) (2013 - 18 Years)</t>
+    <t>2,066 individuals (2013 - 18 Years)</t>
   </si>
   <si>
     <t>1.5 years - TEDS First Contact&lt;br&gt;
 5 years - E-Risk</t>
   </si>
   <si>
-    <t>1994-5</t>
+    <t>1994-95</t>
   </si>
   <si>
     <t xml:space="preserve">Project proposal - see data access guidance &lt;br&gt; &lt;a href="https://sites.duke.edu/moffittcaspiprojects/data-use-guidelines/"&gt;sites.duke.edu/moffittcaspiprojects/data-use-guidelines/&lt;/a&gt; </t>
@@ -1495,6 +1564,9 @@
 Observational/qualitative data</t>
   </si>
   <si>
+    <t>2,066 (individuals) (2013 - 18 Years)</t>
+  </si>
+  <si>
     <t>ESS</t>
   </si>
   <si>
@@ -1545,6 +1617,73 @@
 Sleep problems</t>
   </si>
   <si>
+    <t>ESYTC</t>
+  </si>
+  <si>
+    <t>The Edinburgh Study of Youth Transitions and Crime (ESYTC)</t>
+  </si>
+  <si>
+    <t>The Edinburgh Study of Youth Transitions and Crime is a prospective longitudinal cohort study aimed to examine criminal offending in young people by investigating the causes and consequences of young people’s involvement in crime and anti-social behaviour.&lt;br&gt;&lt;br&gt;
+The study follows a cohort of around 4,300 young people who started secondary school in the City of Edinburgh in the autumn of 1998. Data collection spans from their early adolescence (age 12) to adulthood (age 33) through self-report questionnaires as well as in-depth interviews with two cohort sub-samples at ages 24 and 35 years. The study also includes linked administrative data from official records, including education, social work, and criminal conviction records.</t>
+  </si>
+  <si>
+    <t>The University of Edinburgh</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.edinstudy.law.ed.ac.uk/ "&gt;www.edinstudy.law.ed.ac.uk&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>Edinburgh</t>
+  </si>
+  <si>
+    <t>The cohort is composed of individuals who started their first year of secondary school in the City of Edinburgh in the autumn of 1998. Eligibility for participation was primarily based on whether, at the time, the pupil was attending one of the 40 schools which had agreed to participate in this study, out of the possible 49 mainstream, independent, and special education needs schools in Edinburgh. The 4,313 pupils attending the participating schools represented 92.2% of all eligible children starting secondary school in 1998. All 40 participating schools took part throughout the first six phases of the study, between 1998 and 2003.&lt;br&gt;&lt;br&gt;
+Parents were contacted by the school about the school’s participation in the study, with the option for them to opt-out their child(ren). The initial sample at phase 1 consisted of 4,300 pupils. In phase 2 and 3, all new pupils joining the participating schools in the target year group were invited to participate in the study. Any pupils who left the Edinburgh area were not tracked during these phases (except for those going to local authority-funded special or residential schools outside Edinburgh). From phase 4 onwards, there were no further changes to the membership and the final eligible cohort was set at 4,389. &lt;br&gt;&lt;br&gt;
+In phase 7, 4,098 cohort members (out of 4,243 contacted) did not deny the study access to their criminal convictions data from administrative records. In addition, 252 participated in quasi-experimental interviews aimed to explore the impact of both early and late juvenile justice contact, by the age of 12 and 15 respectively, on longer term criminal justice transitions. In phase 8, 4,257 cohort members (out of the 4,280 contacted) did not deny the study access to their criminal convictions data, 770 completed an online survey, and 73 participated in interviews.</t>
+  </si>
+  <si>
+    <t>4,098 (2012 - Phase 7)</t>
+  </si>
+  <si>
+    <t>UK Data Service &lt;br&gt;
+&lt;a href="https://beta.ukdataservice.ac.uk/datacatalogue/studies/study?id=4800&amp;type=Data%20catalogue"&gt;https://beta.ukdataservice.ac.uk/datacatalogue/studies/study?id=4800&amp;type=Data%20catalogue&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Social work records,
+Children’s hearing records,
+Police records,
+School records,
+Geographic records</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theory and method in the Edinburgh Study of Youth Transitions and Crime. &lt;a href="https://doi.org/10.1093/bjc/43.1.169"&gt;doi.org/10.1093/bjc/43.1.169
+&lt;/a&gt;&lt;br&gt;&lt;br&gt; 
+ &lt;a href="https://www.edinstudy.law.ed.ac.uk/wp-content/uploads/sites/36/2019/11/ESYTC-2001-Key-findings-at-ages-12-13.pdf"&gt;The Edinburgh Study of Youth Transitions and Crime: Key findings at ages 12 and 13&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t>Scot Nuffield ESRC</t>
+  </si>
+  <si>
+    <t>Diet and nutrition,
+education,   
+ethnicity and race,   
+housing,   
+neighbourhood,   
+parenting and family,    
+puberty,   
+sexuality and gender identity,   
+social care - receipt,   
+socioeconomic status and deprivation,   
+victimisation and life events,   
+work and employment</t>
+  </si>
+  <si>
+    <t>Linked administrative data,
+Mapping/spatial data</t>
+  </si>
+  <si>
     <t>EWCS</t>
   </si>
   <si>
@@ -1575,13 +1714,8 @@
 </t>
   </si>
   <si>
-    <t>1,600 (UK sample) (2015 - EWCS 6)&lt;br&gt;
-43,850 (Total European sample) (2015 - EWCS 6)</t>
-  </si>
-  <si>
-    <t>UK Data Service&lt;br&gt;
-&lt;a href=""https://www.eurofound.europa.eu/surveys/about-eurofound-surveys/data-availability""&gt;eurofound.europa.eu/surveys/about-eurofound-surveys/data-availability&lt;/a&gt;&lt;br&gt;
-&lt;a href=""https://beta.ukdataservice.ac.uk/datacatalogue/studies/study?id=7348""&gt;beta.ukdataservice.ac.uk/datacatalogue/studies/study?id=7348&lt;/a&gt;</t>
+    <t>2,134 (UK sample) (2021 - EWCS 7)&lt;br&gt;
+71,764 (Total European sample) (2021 - EWCS 7)</t>
   </si>
   <si>
     <t>Sixth European Working Conditions Survey – Overview report (2017 update).
@@ -1668,9 +1802,6 @@
   </si>
   <si>
     <t>&lt;a href="https://www.ed.ac.uk/generation-scotland"&gt;ed.ac.uk/generation-scotland&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Scotland</t>
   </si>
   <si>
     <t>2006-10</t>
@@ -1758,11 +1889,11 @@
   </si>
   <si>
     <t>2,943 (2020 - BC1 Sweep 10)&lt;br&gt;
-2,669 (main sample)&lt;br&gt;
-274 (boost sample)</t>
-  </si>
-  <si>
-    <t>2004-5</t>
+2,669 main sample&lt;br&gt;
+274 boost sample</t>
+  </si>
+  <si>
+    <t>2004-05</t>
   </si>
   <si>
     <t xml:space="preserve">UK Data Service &lt;br&gt;
@@ -1807,6 +1938,11 @@
 Social care - need</t>
   </si>
   <si>
+    <t>2,943 (2020 - BC1 Sweep 10)&lt;br&gt;
+2,669 (main sample)&lt;br&gt;
+274 (boost sample)</t>
+  </si>
+  <si>
     <t>GUSBC2</t>
   </si>
   <si>
@@ -1870,9 +2006,6 @@
     <t>3 years</t>
   </si>
   <si>
-    <t>2002-3</t>
-  </si>
-  <si>
     <t>See &lt;a href="https://growingupinscotland.org.uk/publications"&gt;growingupinscotland.org.uk/publications&lt;/a&gt;</t>
   </si>
   <si>
@@ -1976,19 +2109,7 @@
     <t>Health and Employment After Fifty (HEAF)</t>
   </si>
   <si>
-    <r>
-      <t>This page shows information about the 1930's cohort of HCS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>, the second of three cohorts in the HCS series. The series also includes the 1920's cohort of men and women born in Hertfordshire in the 1920s, and the Hertfordshire 3GS cohort comprising the grandchildren of the 1930's cohort.</t>
-    </r>
+    <t>HEAF is a prospective cohort study of adults in England aged 50 and over that aims to examine the relationship between extended working life and health and shed light on how to best to support the well-being of older workers. Main study questions focused on the impact of common health problems (especially musculoskeletal disorders) on work capability and participation; the social, occupational, personal and medical co-factors which influence vocational outcomes among older people, and the impact of job loss on physical and psychological health.</t>
   </si>
   <si>
     <t>University of Southampton</t>
@@ -2074,7 +2195,7 @@
 &lt;a href="https://imagen-europe.com/resources/imagen-project-proposal/"&gt;imagen-europe.com/resources/imagen-project-proposal&lt;/a&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">The IMAGEN study: reinforcement-related behaviour in normal brain function and psychopathology. &lt;br&gt;
+    <t xml:space="preserve">The IMAGEN study: Reinforcement-related behaviour in normal brain function and psychopathology. &lt;br&gt;
 &lt;a href="https://doi.org/10.1038/mp.2010.4"&gt;doi.org/10.1038/mp.2010.4&lt;/a&gt; </t>
   </si>
   <si>
@@ -2167,7 +2288,7 @@
     <t>8,094 (2016 - Phase 3)</t>
   </si>
   <si>
-    <t>1941-1995</t>
+    <t>1941-95</t>
   </si>
   <si>
     <t>Contact study team to express an interest in accessing the data &lt;br&gt;
@@ -2276,7 +2397,7 @@
 1,091 (LBC1936 Wave 1)</t>
   </si>
   <si>
-    <t>Approximately 440 (2019 - Wave 5)</t>
+    <t>293 (2023 - Wave 6)</t>
   </si>
   <si>
     <t>First wave known as the Scottish Mental Survey 1947</t>
@@ -2312,6 +2433,68 @@
   <si>
     <t>&lt;a
 href="https://web.www.healthdatagateway.org/dataset/e63613a9-92e9-4147-8a76-40e4a87ec131"&gt;https://web.www.healthdatagateway.org/dataset/e63613a9-92e9-4147-8a76-40e4a87ec131&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>LOGIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longitudinal Outcomes of Gender Identity in Children (LOGIC) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This study aims to investigate the outcomes of children and young people referred to the UK Gender Identity Development Service and the factors associated with these outcomes. Specifically, the study aims to establish: (1) the proportion of children and young people who experience ongoing gender dysphoria and access medical treatment; (2) factors that are associated with ongoing gender dysphoria and treatment choice; and (3) how (A) medical treatment, (B) social transition and (C) co-occurring autism impact physical health, well-being, quality of life, peer and family relationships and cost to the National Health Service (NHS) and other public services.  
+&lt;br&gt;&lt;br&gt;
+The study has recruited children, young people and parents/caregivers prior to being seen by the service and is committed to following them over time, regardless of whether families choose to remain in contact with clinical services or not. 
+&lt;br&gt;&lt;br&gt;
+The qualitative sub-study of LOGIC, LOGIC-Q, aims to explore the experiences and well-being of a diverse sample of children and young people referred to the UK GIDS, and their parent/caregiver over a 2-year period. Specifically, the study aims to explore and examine (1) children and young people's experiences of gender identity, how this changes over time and links to health and well-being; (2) parental experiences of having a gender-questioning child, how this changes over time and support needed to promote their child's health and well-being; (3) children, young people and parental perspectives on outcomes that are important for evaluating health services and treatments for gender-diverse children; (4) children, young people and parental experiences of health services, therapies and support and how these can be enhanced. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">University College London (UCL), Tavistock and Portman NHS Foundation Trust, University of Liverpool, University College London Hospitals NHS Trust, University of Cambridge. </t>
+  </si>
+  <si>
+    <t>&lt;a href="https://logicstudy.uk/"&gt;logicstudy.uk&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UK and Republic of Ireland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants were children and young people (CYP) aged 3–14 years at the time that their referral to the Gender Identity Development Service (GIDS) was accepted, and their parent or caregiver. Referrals to the service can be made by Child and Adolescent Mental Health Services, or from other health, social care, or educational professionals, including GPs. The service does not accept self-referrals from CYP or their families. In order for the referral to be accepted, the referral must indicate that the CYP is experiencing concerns or distress around their gender identity.
+&lt;br&gt;&lt;br&gt;
+Inclusion criteria for CYP were: had a referral to the GIDS accepted; awaiting first appointment with the service when baseline measures were completed; speak English; live in the UK or the Republic of Ireland. Exclusion criteria for CYP were: aged &gt;14 years at the time their referral to the GIDS was accepted; already attended an appointment at the GIDS before baseline measures were completed; do not provide assent to take part; and do not have parent/caregiver consent. Parents/caregivers of eligible CYP will be asked to provide informed consent in order to participate and must also be proficient in English and live within the UK or the Republic of Ireland. 
+&lt;br&gt;&lt;br&gt;
+The LOGIC-Q sub-sample was comprised of 39 families who took part in the quantitative LOGIC study. The group was purposively sampled to be diverse in relation to assigned sex at birth, current age, social transition status (socially transitioned, partially socially transitioned and no social transition), ethnicity, diagnosis of Autism, socio-economic status and geographical location. </t>
+  </si>
+  <si>
+    <t>3-17 years</t>
+  </si>
+  <si>
+    <t>Contact study team by emailing logicenquiries@tavi-port.nhs.uk to express an interest in accessing the data</t>
+  </si>
+  <si>
+    <t>Includes waves of LOGIC-Q qualitative sub-study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longitudinal Outcomes of Gender Identity in Children (LOGIC): protocol for a prospective longitudinal cohort study of children referred to the UK gender identity development service &lt;br&gt;
+&lt;a href="http://dx.doi.org/10.1136/bmjopen-2020-045628"&gt;dx.doi.org/10.1136/bmjopen-2020-045628
+&lt;/a&gt; &lt;br&gt;&lt;br&gt;
+Longitudinal Outcomes of Gender Identity in Children (LOGIC): a study protocol for a prospective longitudinal qualitative study of the experiences and well-being of families referred to the UK Gender Identity Development Service&lt;br&gt;
+&lt;a href="http://dx.doi.org/10.1136/bmjopen-2020-047875"&gt;dx.doi.org/10.1136/bmjopen-2020-047875
+&lt;/a&gt; &lt;br&gt;&lt;br&gt;
+Thinking Time, Shifting Goalposts and Ticking Time Bombs: Experiences of Waiting on the Gender Identity Development Service Waiting List&lt;br&gt;
+&lt;a href="https://doi.org/10.3390/ijerph192113883"&gt;doi.org/10.3390/ijerph192113883
+&lt;/a&gt; 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomarkers, 
+Loneliness and social isolation,
+Puberty,
+Physical health assessment,
+Reproductive health, 
+Sexuality and gender identity, 
+Victimisation and life events </t>
+  </si>
+  <si>
+    <t>Patients and clinical cohorts</t>
   </si>
   <si>
     <t>LSYPE</t>
@@ -2405,7 +2588,7 @@
 18,552 families</t>
   </si>
   <si>
-    <t>10,757 (Cohort members), 10,625 (families) (2019 - MCS7)</t>
+    <t>10,757 cohort members, 10,625 families (2019 - MCS7)</t>
   </si>
   <si>
     <t>Education data</t>
@@ -2460,6 +2643,9 @@
     <t>&lt;a href="https://web.www.healthdatagateway.org/dataset/2b09ea87-5b22-4049-b7dd-de0889699115"&gt;https://web.www.healthdatagateway.org/dataset/2b09ea87-5b22-4049-b7dd-de0889699115&lt;/a&gt;</t>
   </si>
   <si>
+    <t>10,757 (Cohort members), 10,625 (families) (2019 - MCS7)</t>
+  </si>
+  <si>
     <t>MHCYP</t>
   </si>
   <si>
@@ -2496,7 +2682,7 @@
   </si>
   <si>
     <t>UK Data Service &lt;br&gt;
-&lt;a href="https://beta.ukdataservice.ac.uk/datacatalogue/series/series?id=2000044"&gt;beta.ukdataservice.ac.uk/datacatalogue/series/series?id=2000044&lt;/a&gt;</t>
+&lt;a href="https://beta.ukdataservice.ac.uk/datacatalogue/studies/study?id=9128"&gt;beta.ukdataservice.ac.uk/datacatalogue/studies/study?id=9128&lt;/a&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">See &lt;a href="https://digital.nhs.uk/data-and-information/publications/statistical/mental-health-of-children-and-young-people-in-england/2017/2017"&gt;digital.nhs.uk/data-and-information/publications/statistical/mental-health-of-children-and-young-people-in-england/2017/2017&lt;/a&gt;   </t>
@@ -2545,14 +2731,14 @@
     <t>Women only</t>
   </si>
   <si>
-    <t>1935-1950</t>
+    <t>1935-50</t>
   </si>
   <si>
     <t xml:space="preserve">Project proposal - see data access guidance &lt;br&gt;
 &lt;a href="http://www.millionwomenstudy.org/data_access/"&gt;http://www.millionwomenstudy.org/data_access/&lt;/a&gt;  </t>
   </si>
   <si>
-    <t xml:space="preserve">Cohort Profile: the Million Women Study. &lt;br&gt;
+    <t xml:space="preserve">Cohort Profile: The Million Women Study. &lt;br&gt;
 &lt;a href="https://doi.org/10.1093/ije/dyy065"&gt;doi.org/10.1093/ije/dyy065&lt;/a&gt; </t>
   </si>
   <si>
@@ -2575,6 +2761,55 @@
 href="https://web.www.healthdatagateway.org/dataset/97ac8a7d-30b9-4fa6-84db-b4f9430fc1d6"&gt;https://web.www.healthdatagateway.org/dataset/97ac8a7d-30b9-4fa6-84db-b4f9430fc1d6&lt;/a&gt;</t>
   </si>
   <si>
+    <t>NATSAL</t>
+  </si>
+  <si>
+    <t>The National Surveys of Sexual Attitudes and Lifestyles</t>
+  </si>
+  <si>
+    <t>The National Surveys of Sexual Attitudes and Lifestyles (NATSAL) aims to investigate sexual behaviour in Britain.  It is a repeated cross sectional study, with the objective of collecting data once every ten years. The project is intended to study a large representative sample of people who are living in the U.K., recruited with probability sampling, to understand more about their sexual behaviour, attitudes, health and wellbeing.</t>
+  </si>
+  <si>
+    <t>UCL, London School of Hygiene &amp; Tropical Medicine, NatCen Social Research</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.natsal.ac.uk/"&gt;www.natsal.ac.uk&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each wave of the study recruited their participants using probability sampling, to ensure that the study was nationally representative. A new sample is recruited every survey, thus ages vary between samples. However, the minimum age is always 16 years old.&lt;br&gt;&lt;br&gt;
+The first and third wave of the study (NATSAL-1, NATSAL-3) first employed a qualitative analysis to understand what the best way to ask the questions about sexual behaviour would be. The fourth wave of the study (NATSAL-4) involved two fieldwork pilots, which were delayed due to COVID-19. &lt;br&gt;&lt;br&gt;
+Participants are asked to complete a computer assisted personal interviewing questionnaire (CAPI), and a computer assisted self-interviewing questionnaire (CASI) at every wave. </t>
+  </si>
+  <si>
+    <t>NATSAL-1: 18,876&lt;br&gt;
+NATSAL-2: 12,110&lt;br&gt;
+NATSAL-3: 15,162
+NATSAL-COVID Study-1: 6,500</t>
+  </si>
+  <si>
+    <t>6,500 (2021 - NATSAL Covid Wave 2)</t>
+  </si>
+  <si>
+    <t>UK Data Service &lt;a href="https://beta.ukdataservice.ac.uk/datacatalogue/studies/#!?Search=national%20survey%20of%20sexual%20attitudes%20and%20lifestyles&amp;amp;Rows=10&amp;amp;Sort=1&amp;amp;DateFrom=440&amp;amp;DateTo=2021&amp;amp;Page=1&amp;Page=1&amp;Rows=10&amp;Sort=1&amp;DateFrom=440&amp;DateTo=2023"&gt;beta.ukdataservice.ac.uk/datacatalogue/studies/#!?Search=national%20survey%20of%20sexual%20attitudes%20and%20lifestyles&amp;amp;Rows=10&amp;amp;Sort=1&amp;amp;DateFrom=440&amp;amp;DateTo=2021&amp;amp;Page=1&amp;Page=1&amp;Rows=10&amp;Sort=1&amp;DateFrom=440&amp;DateTo=2023&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sexual behaviour in Britain: partnerships, practices, and HIV risk behaviours &lt;br&gt;
+&lt;a href="https://doi.org/10.1016/S0140-6736(01)06883-0"&gt;doi.org/10.1016/S0140-6736(01)06883-04&lt;/a&gt; 
+Changes in sexual attitudes and lifestyles in Britain through the life course and over time: findings from the National Surveys of Sexual Attitudes and Lifestyles (Natsal) &lt;br&gt; 
+&lt;a href="https://doi.org/10.1016/S0140-6736(13)62035-8"&gt;doi.org/10.1016/S0140-6736(13)62035-8&lt;/a&gt; 
+Sexual behaviour in Britain: Early heterosexual experience &lt;br&gt; 
+&lt;a href="https://doi.org/10.1016/s0140-6736(01)06885-4"&gt;doi.org/10.1016/s0140-6736(01)06885-4&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t>MRC Wellcome ESRC</t>
+  </si>
+  <si>
+    <t>Linked health data</t>
+  </si>
+  <si>
+    <t>NATSAL-COVID Study-2: 6,500</t>
+  </si>
+  <si>
     <t>N85</t>
   </si>
   <si>
@@ -2607,7 +2842,7 @@
  &lt;a href="https://research.ncl.ac.uk/85plus/datarequests/"&gt;research.ncl.ac.uk/85plus/datarequests&lt;/a&gt;</t>
   </si>
   <si>
-    <t>The Newcastle 85+ study: biological, clinical and psychosocial factors associated with healthy ageing: study protocol. &lt;br&gt;
+    <t>The Newcastle 85+ study: Biological, clinical and psychosocial factors associated with healthy ageing: study protocol. &lt;br&gt;
 &lt;a href="https://doi.org/10.1186/1471-2318-7-14"&gt;doi.org/10.1186/1471-2318-7-14&lt;/a&gt;</t>
   </si>
   <si>
@@ -2647,7 +2882,7 @@
   </si>
   <si>
     <t>9,137 (2014 - NCDS9)&lt;br&gt;
-9,337 biosamples</t>
+9,337 with biological samples</t>
   </si>
   <si>
     <t>Environmental data,
@@ -2701,6 +2936,10 @@
   <si>
     <t>&lt;a
 href="https://web.www.healthdatagateway.org/dataset/0ceaaedc-4904-4820-8b74-d6a8e679fb11"&gt;https://web.www.healthdatagateway.org/dataset/0ceaaedc-4904-4820-8b74-d6a8e679fb11&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>9,137 (2014 - NCDS9)&lt;br&gt;
+9,337 bio samples</t>
   </si>
   <si>
     <t>NICOLA</t>
@@ -2856,7 +3095,7 @@
     <t>From an initial maternity survey of 13,687 of all births recorded in England, Scotland and Wales during one week of March, 1946, a class stratified sample of 5,362 singleton babies born to married parents was selected for follow-up. The sample was distributed geographically in proportion to the national population. The study population has not been augmented in any way and now aims to be as far as possible representative of single, native born individuals born to married mothers who are still resident in England, Wales, or Scotland; it cannot therefore be representative of immigrants.</t>
   </si>
   <si>
-    <t>2,648 (2014-16 Follow-Up)</t>
+    <t>2,648 (2016 - 2014-16 Follow-Up)</t>
   </si>
   <si>
     <t>Data request&lt;br&gt;
@@ -2906,6 +3145,9 @@
 href="https://web.www.healthdatagateway.org/dataset/a2017e30-5257-40ec-8bae-9b221724121e"&gt;https://web.www.healthdatagateway.org/dataset/a2017e30-5257-40ec-8bae-9b221724121e&lt;/a&gt;</t>
   </si>
   <si>
+    <t>2,648 (2014-16 Follow-Up)</t>
+  </si>
+  <si>
     <t>PROTECT</t>
   </si>
   <si>
@@ -2928,7 +3170,7 @@
 Participants are followed up annually, with data collection taking place approximately yearly after baseline such that data is collected across the year. Minor updates are made to questionnaires approximately yearly, as detailed in the data collection timeline below.</t>
   </si>
   <si>
-    <t>1914-1970</t>
+    <t>1914-70</t>
   </si>
   <si>
     <t>Contact study team by emailing support.protect@exeter.ac.uk to express an interest in accessing the data</t>
@@ -3053,14 +3295,14 @@
 157 (2012 - Age 21 Stress reactivity sub-study)</t>
   </si>
   <si>
-    <t>1991-2</t>
+    <t>1991-92</t>
   </si>
   <si>
     <t>Data request - contact study team&lt;br&gt;
 &lt;a href="http://www.nspn.org.uk/contact-us/"&gt;www.nspn.org.uk/contact-us&lt;/a&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">The ROOTS study: a 10-year review of findings on adolescent depression, and recommendations for future longitudinal research.&lt;br&gt;
+    <t xml:space="preserve">The ROOTS study: A 10-year review of findings on adolescent depression, and recommendations for future longitudinal research.&lt;br&gt;
 &lt;a href="https://doi.org/10.1007/s00127-015-1150-y"&gt;doi.org/10.1007/s00127-015-1150-y&lt;/a&gt;&lt;br&gt;&lt;br&gt;
 Cohort Profile: Risk patterns and processes for psychopathology emerging during adolescence: the ROOTS project.&lt;br&gt;
 &lt;a href="https://doi.org/10.1093/ije/dyp173"&gt;doi.org/10.1093/ije/dyp173&lt;/a&gt; </t>
@@ -3107,7 +3349,7 @@
 All South Asian and African Caribbean participants are first-generation migrants to the UK.</t>
   </si>
   <si>
-    <t>2,572 (2011 - SABRE V2)</t>
+    <t>3000 (2018 - SABRE V3)</t>
   </si>
   <si>
     <t>40-69 years</t>
@@ -3167,13 +3409,10 @@
     <t>Secondary school pupils from 39 eligible schools from within the Greater London area were invited to participate. Eligible schools were selected from the Department for Education’s register of educational establishments (EduBase) and from the January 2012 school census. Pupils completed computerised assessments at school, which were complemented by online questionnaires that could be completed in any environment by both and pupils and their parents.</t>
   </si>
   <si>
-    <t>5,023 (2015 - Wave 2)</t>
-  </si>
-  <si>
-    <t>11 years</t>
-  </si>
-  <si>
-    <t>2002-2003</t>
+    <t>1,328 (2020-2021 - Wave 4)</t>
+  </si>
+  <si>
+    <t>11-12 years</t>
   </si>
   <si>
     <t>Project proposal - see data access guidance &lt;br&gt;
@@ -3185,7 +3424,7 @@
 Digital footprint data</t>
   </si>
   <si>
-    <t>Cohort profile: the study of cognition, adolescents and mobile phones (SCAMP).
+    <t>Cohort profile: The study of cognition, adolescents and mobile phones (SCAMP).
 &lt;br&gt;
 &lt;a href="https://doi.org/10.1093/ije/dyy192"&gt;doi.org/10.1093/ije/dyy192&lt;/a&gt;</t>
   </si>
@@ -3209,6 +3448,10 @@
 Sleep problems</t>
   </si>
   <si>
+    <t>5,023 (2015 - Wave 2)&lt;br&gt;
+1328 (2020-2021 - Wave 3 and 4)</t>
+  </si>
+  <si>
     <t>SELCoH</t>
   </si>
   <si>
@@ -3268,6 +3511,56 @@
 href="https://web.www.healthdatagateway.org/dataset/cda770e3-0d4d-466f-8102-c56beff04848"&gt;https://web.www.healthdatagateway.org/dataset/cda770e3-0d4d-466f-8102-c56beff04848&lt;/a&gt;</t>
   </si>
   <si>
+    <t>SEP-MD</t>
+  </si>
+  <si>
+    <t>Social and Economic Predictors of the Severe Mental Disorders Study (SEP-MD)</t>
+  </si>
+  <si>
+    <t>The SEP-MD Study is a large, linked cohort connecting individual data from the 2011 UK Census with clinical records from the South London &amp; Maudsley Trust and death registrations. The study aims to explore how neighbourhood and individual-level factors are related to mortality, in-patient admissions and long-term worklessness in people with severe mental health conditions. The study will also explore ethnic inequalities to deepen understanding of disparities in outcomes.</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.kcl.ac.uk/research/the-sep-md-data-linkage-study/"&gt;kcl.ac.uk/research/the-sep-md-data-linkage-study&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>South East London</t>
+  </si>
+  <si>
+    <t>Linked cohort</t>
+  </si>
+  <si>
+    <t>The linked cohort includes clinical data from 19,808 SLaM service users with a diagnosis of severe mental illness, including schizophrenia-spectrum disorders, bipolar affective disorders and non-organic psychoses, linked with available data from the 2011 census and death registrations. SLaM provides mental health care to an ethnically diverse, urbanised location in South East London, with a catchment area of 1.3 million people and only 38.7% of SlaM service users reporting their ethnicity as 'White' in 2020-21.
+In addition to the linked cohort, an additional sample is available to facilitate further research. For each individual in the SEP-MD cohort, data were matched with 5 controls from the study area who had completed census questions but did not have a history of severe mental health problems, allowing for examination of the social determinants of onset, course, and outcomes (admissions, worklessness and mortality) in people living with severe mental health conditions.</t>
+  </si>
+  <si>
+    <t>19,808 individuals with a diagnosis of severe mental illness</t>
+  </si>
+  <si>
+    <t>The linked dataset is hosted in an ONS secure setting and is accessible to accredited researchers working on the study, subject to completing an approvals process. Contact Dr Das-Munshi for more information: jayati.das-munshi@kcl.ac.uk</t>
+  </si>
+  <si>
+    <t>Improving our understanding of the social determinants of mental health: A data linkage study of mental health records and the 2011 UK census. &lt;br&gt;
+&lt;a
+href="https://doi.org/10.1101/2023.03.10.23287114"&gt;doi.org/10.1101/2023.03.10.23287114&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>ESRC</t>
+  </si>
+  <si>
+    <t>Cognitive measures,
+Ethnicity and race,
+Housing,
+Language and literacy,
+Neighbourhood,
+Social care - provision,
+Socioeconomic status and deprivation,
+Work and employment</t>
+  </si>
+  <si>
+    <t>Ethnicity and race,
+Patients and clinical cohorts</t>
+  </si>
+  <si>
     <t>SWS</t>
   </si>
   <si>
@@ -3294,7 +3587,7 @@
 2,567 babies</t>
   </si>
   <si>
-    <t>1,214 (Cohort members) (2014 - 8-9 Year Questionnaire)</t>
+    <t>1,214 cohort members (2014 - 8-9 Year Questionnaire)</t>
   </si>
   <si>
     <t>20-34 years (women)
@@ -3357,6 +3650,9 @@
 Social care - need</t>
   </si>
   <si>
+    <t>1,214 (Cohort members) (2014 - 8-9 Year Questionnaire)</t>
+  </si>
+  <si>
     <t>TEDS</t>
   </si>
   <si>
@@ -3379,7 +3675,7 @@
     <t>Approximately 4,300 families</t>
   </si>
   <si>
-    <t>1994-6</t>
+    <t>1994-96</t>
   </si>
   <si>
     <t>Project proposal - see data access guidance &lt;br&gt;
@@ -3391,7 +3687,7 @@
 Social media data</t>
   </si>
   <si>
-    <t>Twins Early Development Study: A genetically sensitive investigation into behavioral and cognitive development from infancy to emerging adulthood &lt;br&gt;
+    <t>Twins Early Development Study: A genetically sensitive investigation into behavioural and cognitive development from infancy to emerging adulthood &lt;br&gt;
 &lt;a href="https://doi.org/10.1017/thg.2019.56"&gt;doi:10.1017/thg.2019.56&lt;/a&gt;
 &lt;br&gt;&lt;br&gt;
 Twins Early Development Study (TEDS): A genetically sensitive investigation of mental health outcomes in the mid-twenties &lt;br&gt;
@@ -3442,10 +3738,10 @@
 The TwinsUK registry now consists of over 15,000 monozygotic (MZ) and dizygotic (DZ) twins aged 18 and over and includes same-sex and opposite sex-twin pairs. The majority of the twins are female, with a mean age of 59. The number of MZ and DZ twins in the sample is approximately equal. TwinsUK recently obtained approval to recruit twins under 18, and so will begin to recruit in this age group in the near future.</t>
   </si>
   <si>
-    <t>Ongoing recruitment means that 15,063 twins over the age of 18 are now on the registry</t>
-  </si>
-  <si>
-    <t>3,300 (2017 - LCQ)&lt;br&gt;
+    <t>Ongoing recruitment means that more than 15,000 twins over the age of 18 are now on the registry</t>
+  </si>
+  <si>
+    <t>5,364 (2022 - LCQ)&lt;br&gt;
 15,000+ twins on the registry</t>
   </si>
   <si>
@@ -3479,7 +3775,12 @@
 Victimisation and life events,
 Reproductive health,
 Work and employment,
-Sleep problems</t>
+Sleep problems,
+Ethnicity and race, 
+Housing,
+Social care - need,
+Social care - provision,
+Social care - receipt</t>
   </si>
   <si>
     <t>Registry, Twin study</t>
@@ -3514,7 +3815,8 @@
 Understanding Society is an annual survey. Each year, adult household members (age 16 or older) are interviewed and complete a self-completion questionnaire, whilst household members aged 10-15 years are asked to complete a short self-completion youth questionnaire. Children become eligible for a full interview once they reach the age of 16. Data is also collected on household members under the age of 10 from their parents or guardians. New household members at each wave are recruited to the study – detailed following rules are available in the UKHLS User Guide.</t>
   </si>
   <si>
-    <t>39,802 households (Wave 1 Understanding Society)</t>
+    <t>5,500 households (Wave 1 BHPS) &lt;br&gt;
+39,802 households (Wave 1 Understanding Society)</t>
   </si>
   <si>
     <t>21,161 (2022 - Wave 12)</t>
@@ -3533,7 +3835,7 @@
     <t>Includes all waves of the British Household Panel Survey (BHPS). Northern Ireland included in the BHPS after 2001.</t>
   </si>
   <si>
-    <t>Understanding Society: design overview. &lt;br&gt;
+    <t>Understanding Society: Design overview. &lt;br&gt;
 &lt;a href="http://dx.doi.org/10.14301/llcs.v3i1.159"&gt;doi.org/10.14301/llcs.v3i1.159&lt;/a&gt; &lt;br&gt;&lt;br&gt;
 &lt;a href="https://www.understandingsociety.ac.uk/documentation/mainstage/user-guide"&gt;User guides&lt;/a&gt; also available.</t>
   </si>
@@ -3598,10 +3900,10 @@
 Inter-partner psychological abuse reported by the women was used as the stratification variable because of its known association with a variety of risk factors for early development. All participants scoring above the threshold for psychological abuse towards themselves or their partners at 20 weeks gestation were eligible for inclusion in the intensive sample plus a random selection from those below the threshold. 51% of the intensive sample were drawn from the women with high psychosocial risk and 49% from those with low psychosocial risk.</t>
   </si>
   <si>
-    <t>1,233 infants</t>
-  </si>
-  <si>
-    <t>888 (Cohort members) (2020 - Phase 15)</t>
+    <t>1,233 cohort members</t>
+  </si>
+  <si>
+    <t>888 cohort members (2020 - Phase 15)</t>
   </si>
   <si>
     <t>Infants: 20 weeks gestation
@@ -3642,16 +3944,19 @@
 Observational/qualitative data,</t>
   </si>
   <si>
+    <t>888 (Cohort members) (2020 - Phase 15)</t>
+  </si>
+  <si>
     <t>Whitehall</t>
   </si>
   <si>
     <t>Whitehall II</t>
   </si>
   <si>
-    <t>The Whitehall II study was established to investigate the causes of social inequalities in health with a cohort of 10,308 participants was recruited from the British Civil Service in 1985. The study has shown the importance of psychosocial factors such as work stress and work-family conflict in heart disease and diabetes in addition to the contribution of unhealthy behaviours and traditional risk factors such as high blood pressure. The study is now a study on ageing, with the 30-year follow-up allowing research on multimorbidity, functional decline, frailty, disability, and dementia.</t>
-  </si>
-  <si>
-    <t>Department of Epidemiology &amp; Public Health, University College London</t>
+    <t>The Whitehall II study was established to investigate the causes of social inequalities in health with a cohort of 10,308 participants was recruited from the British Civil Service in 1985. The study has shown the importance of psychosocial factors such as work stress and work-family conflict in heart disease and diabetes in addition to the contribution of unhealthy behaviours and traditional risk factors such as high blood pressure. The study is now a study on ageing, with the 35-year follow-up allowing research on multimorbidity, functional decline, frailty, disability, and dementia.</t>
+  </si>
+  <si>
+    <t>UCL Brain Science, University College London</t>
   </si>
   <si>
     <t>&lt;a href="https://www.ucl.ac.uk/epidemiology-health-care/research/epidemiology-and-public-health/research/whitehall-ii"&gt;ucl.ac.uk/epidemiology-health-care/research/epidemiology-and-public-health/research/whitehall-ii&lt;/a&gt;</t>
@@ -3663,8 +3968,7 @@
     <t>The target population for the Whitehall II study was all civil servants aged 35–55 years working in the London offices of 20 Whitehall departments in 1985–88. Members of the target population were invited to participate by letter. The achieved sample size was 10,308 people; 3413 women and 6895 men. The participants, who were from clerical and office support grades, middle-ranking executive grades, and senior administrative grades, differ widely in salary. Some have remained in the civil service. Many have retired, and others have taken employment elsewhere; some are unemployed. For more details see Marmot &amp; Brunner 2005.</t>
   </si>
   <si>
-    <t>6,318 (2013 - Phase 11)&lt;br&gt;
-5,632 (2016 - Phase 12)</t>
+    <t>4,307 (2022 - Phase 13)</t>
   </si>
   <si>
     <t>35-55 years</t>
@@ -3674,7 +3978,7 @@
   </si>
   <si>
     <t>Data request - Dementias Platform UK&lt;br&gt;
-&lt;a href="https://portal.dementiasplatform.uk/Apply"&gt;https://portal.dementiasplatform.uk/Apply&lt;/a&gt;</t>
+&lt;a href="https://portal.dementiasplatform.uk/Apply"&gt;portal.dementiasplatform.uk/Apply&lt;/a&gt;</t>
   </si>
   <si>
     <t>Education data,
@@ -3687,10 +3991,6 @@
   <si>
     <t>Cohort Profile: The Whitehall II Study. &lt;br&gt;
 &lt;a href="https://doi.org/10.1093/ije/dyh372"&gt;doi.org/10.1093/ije/dyh372&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>MRC BHF NIA ESRC EU_flag ERC&lt;br&gt;
-National Heart, Lung &amp; Blood Institute</t>
   </si>
   <si>
     <t>Biomarkers,
@@ -3711,6 +4011,11 @@
 Social care - receipt,
 Social care - provision,
 Social care - need</t>
+  </si>
+  <si>
+    <t>6,318 (2013 - Phase 11)&lt;br&gt;
+5,632 (2016 - Phase 12)&lt;br&gt;
+4,307 (2022 - Phase 13)</t>
   </si>
   <si>
     <t>WOS</t>
@@ -3788,183 +4093,82 @@
 Social care - need</t>
   </si>
   <si>
-    <t>LOGIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longitudinal Outcomes of Gender Identity in Children (LOGIC) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This study aims to investigate the outcomes of children and young people referred to the UK Gender Identity Development Service and the factors associated with these outcomes. Specifically, the study aims to establish: (1) the proportion of children and young people who experience ongoing gender dysphoria and access medical treatment; (2) factors that are associated with ongoing gender dysphoria and treatment choice; and (3) how (A) medical treatment, (B) social transition and (C) co-occurring autism impact physical health, well-being, quality of life, peer and family relationships and cost to the National Health Service (NHS) and other public services.  
+    <t>COSMO</t>
+  </si>
+  <si>
+    <t>COVID Social Mobility &amp; Opportunities Study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The COVID Social Mobility &amp; Opportunities Study (COSMO) is a longitudinal youth cohort study that was initiated following the onset of the COVID-19 pandemic. The study is following the lives of over 13,000 young people in England who were in Year 11 during the 2020-21 academic year. The main aim of COSMO is to generate high-quality evidence for answering the question of how the pandemic affected socio-economic inequalities in life chances, including short-term educational attainment and wellbeing, and long-term educational and career outcomes. </t>
+  </si>
+  <si>
+    <t>The UCL Centre for Education Policy and Equalising Opportunities (CEPEO), the Sutton Trust &amp; the UCL Centre for Longitudinal Studies (CLS)</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://cosmostudy.uk"&gt;cosmostudy.uk&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sample comprises students who were in Year 11 during the 2020-21 academic year. Young people and their parents were recruited from the National Pupil Database, with additional private school sample. The study disproportionately sampled young people from disadvantaged, ethnic minority and other hard-to-reach groups to ensure it reflects the full range of experiences of the pandemic. (Weights are available to adjust for the disproportionate sampling.)
 &lt;br&gt;&lt;br&gt;
-The study has recruited children, young people and parents/caregivers prior to being seen by the service and is committed to following them over time, regardless of whether families choose to remain in contact with clinical services or not. 
-&lt;br&gt;&lt;br&gt;
-The qualitative sub-study of LOGIC, LOGIC-Q, aims to explore the experiences and well-being of a diverse sample of children and young people referred to the UK GIDS, and their parent/caregiver over a 2-year period. Specifically, the study aims to explore and examine (1) children and young people's experiences of gender identity, how this changes over time and links to health and well-being; (2) parental experiences of having a gender-questioning child, how this changes over time and support needed to promote their child's health and well-being; (3) children, young people and parental perspectives on outcomes that are important for evaluating health services and treatments for gender-diverse children; (4) children, young people and parental experiences of health services, therapies and support and how these can be enhanced. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">University College London (UCL), Tavistock and Portman NHS Foundation Trust, University of Liverpool, University College London Hospitals NHS Trust, University of Cambridge. </t>
-  </si>
-  <si>
-    <t>&lt;a href="https://logicstudy.uk/"&gt;logicstudy.uk&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UK and Republic of Ireland </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants were children and young people (CYP) aged 3–14 years at the time that their referral to the Gender Identity Development Service (GIDS) was accepted, and their parent or caregiver. Referrals to the service can be made by Child and Adolescent Mental Health Services, or from other health, social care, or educational professionals, including GPs. The service does not accept self-referrals from CYP or their families. In order for the referral to be accepted, the referral must indicate that the CYP is experiencing concerns or distress around their gender identity.
-&lt;br&gt;&lt;br&gt;
-Inclusion criteria for CYP were: had a referral to the GIDS accepted; awaiting first appointment with the service when baseline measures were completed; speak English; live in the UK or the Republic of Ireland. Exclusion criteria for CYP were: aged &gt;14 years at the time their referral to the GIDS was accepted; already attended an appointment at the GIDS before baseline measures were completed; do not provide assent to take part; and do not have parent/caregiver consent. Parents/caregivers of eligible CYP will be asked to provide informed consent in order to participate and must also be proficient in English and live within the UK or the Republic of Ireland. 
-&lt;br&gt;&lt;br&gt;
-The LOGIC-Q sub-sample was comprised of 39 families who took part in the quantitative LOGIC study. The group was purposively sampled to be diverse in relation to assigned sex at birth, current age, social transition status (socially transitioned, partially socially transitioned and no social transition), ethnicity, diagnosis of Autism, socio-economic status and geographical location. </t>
-  </si>
-  <si>
-    <t>3-17 years</t>
-  </si>
-  <si>
-    <t>Contact study team by emailing logicenquiries@tavi-port.nhs.uk to express an interest in accessing the data</t>
-  </si>
-  <si>
-    <t>Includes waves of LOGIC-Q qualitative sub-study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longitudinal Outcomes of Gender Identity in Children (LOGIC): protocol for a prospective longitudinal cohort study of children referred to the UK gender identity development service &lt;br&gt;
-&lt;a href="http://dx.doi.org/10.1136/bmjopen-2020-045628"&gt;dx.doi.org/10.1136/bmjopen-2020-045628
-&lt;/a&gt; &lt;br&gt;&lt;br&gt;
-Longitudinal Outcomes of Gender Identity in Children (LOGIC): a study protocol for a prospective longitudinal qualitative study of the experiences and well-being of families referred to the UK Gender Identity Development Service&lt;br&gt;
-&lt;a href="http://dx.doi.org/10.1136/bmjopen-2020-047875"&gt;dx.doi.org/10.1136/bmjopen-2020-047875
-&lt;/a&gt; &lt;br&gt;&lt;br&gt;
-Thinking Time, Shifting Goalposts and Ticking Time Bombs: Experiences of Waiting on the Gender Identity Development Service Waiting List&lt;br&gt;
-&lt;a href="https://doi.org/10.3390/ijerph192113883"&gt;doi.org/10.3390/ijerph192113883
-&lt;/a&gt; 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomarkers, 
-Loneliness and social isolation,
-Puberty,
-Physical health assessment,
-Reproductive health, 
+13,787 young people and 11,731 parents responded at baseline. Of those, 10,051 responses were paired, 3,736 were young person-only responses and 1,680 were parent-only responses. </t>
+  </si>
+  <si>
+    <t>13,787 young people</t>
+  </si>
+  <si>
+    <t>11,523 (2022 - Wave 2)</t>
+  </si>
+  <si>
+    <t>15-16 years</t>
+  </si>
+  <si>
+    <t>UK Data Service &lt;br&gt; &lt;a href="https://beta.ukdataservice.ac.uk/datacatalogue/series/series?id=2000124"&gt;beta.ukdataservice.ac.uk/datacatalogue/series/series?id=2000124&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>COVID Social Mobility &amp; Opportunities study (COSMO): Wave 1 User Guide. London: UCL and Sutton Trust.
+&lt;br&gt;
+&lt;a href="https://doc.ukdataservice.ac.uk/doc/9000/mrdoc/pdf/9000_cosmo_w1_user_guide_v2.pdf"&gt;doc.ukdataservice.ac.uk/doc/9000/mrdoc/pdf/9000_cosmo_w1_user_guide_v2.pdf&lt;/a&gt;
+&lt;br&gt;
+COVID Social Mobility &amp; Opportunities study (COSMO): Wave 2 User Guide. London: UCL and Sutton Trust. &lt;br&gt;
+&lt;a href="https://doc.ukdataservice.ac.uk/doc/9158/mrdoc/pdf/9158_cosmo_w2_user_guide_v1.pdf"&gt;doc.ukdataservice.ac.uk/doc/9158/mrdoc/pdf/9158_cosmo_w2_user_guide_v1.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>UKRI, ESRC</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection, 
+Digital technology and social media, 
+Education, 
+Housing, 
+Parenting and family, 
+Political and social attitudes, 
 Sexuality and gender identity, 
-Victimisation and life events </t>
-  </si>
-  <si>
-    <t>Patients and clinical cohorts</t>
-  </si>
-  <si>
-    <t>ESYTC</t>
-  </si>
-  <si>
-    <t>The Edinburgh Study of Youth Transitions and Crime (ESYTC)</t>
-  </si>
-  <si>
-    <t>The Edinburgh Study of Youth Transitions and Crime is a prospective longitudinal cohort study aimed to examine criminal offending in young people by investigating the causes and consequences of young people’s involvement in crime and anti-social behaviour.&lt;br&gt;&lt;br&gt;
-The study follows a cohort of around 4,300 young people who started secondary school in the City of Edinburgh in the autumn of 1998. Data collection spans from their early adolescence (age 12) to adulthood (age 33) through self-report questionnaires as well as in-depth interviews with two cohort sub-samples at ages 24 and 35 years. The study also includes linked administrative data from official records, including education, social work, and criminal conviction records.</t>
-  </si>
-  <si>
-    <t>The University of Edinburgh</t>
-  </si>
-  <si>
-    <t>&lt;a href="https://www.edinstudy.law.ed.ac.uk/ "&gt;www.edinstudy.law.ed.ac.uk&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Edinburgh</t>
-  </si>
-  <si>
-    <t>The cohort is composed of individuals who started their first year of secondary school in the City of Edinburgh in the autumn of 1998. Eligibility for participation was primarily based on whether, at the time, the pupil was attending one of the 40 schools which had agreed to participate in this study, out of the possible 49 mainstream, independent, and special education needs schools in Edinburgh. The 4,313 pupils attending the participating schools represented 92.2% of all eligible children starting secondary school in 1998. All 40 participating schools took part throughout the first six phases of the study, between 1998 and 2003.&lt;br&gt;&lt;br&gt;
-Parents were contacted by the school about the school’s participation in the study, with the option for them to opt-out their child(ren). The initial sample at phase 1 consisted of 4,300 pupils. In phase 2 and 3, all new pupils joining the participating schools in the target year group were invited to participate in the study. Any pupils who left the Edinburgh area were not tracked during these phases (except for those going to local authority-funded special or residential schools outside Edinburgh). From phase 4 onwards, there were no further changes to the membership and the final eligible cohort was set at 4,389. &lt;br&gt;&lt;br&gt;
-In phase 7, 4,098 cohort members (out of 4,243 contacted) did not deny the study access to their criminal convictions data from administrative records. In addition, 252 participated in quasi-experimental interviews aimed to explore the impact of both early and late juvenile justice contact, by the age of 12 and 15 respectively, on longer term criminal justice transitions. In phase 8, 4,257 cohort members (out of the 4,280 contacted) did not deny the study access to their criminal convictions data, 770 completed an online survey, and 73 participated in interviews.</t>
-  </si>
-  <si>
-    <t>4,098 (2012 - Phase 7)</t>
-  </si>
-  <si>
-    <t>UK Data Service &lt;br&gt;
-&lt;a href="https://beta.ukdataservice.ac.uk/datacatalogue/studies/study?id=4800&amp;type=Data%20catalogue"&gt;https://beta.ukdataservice.ac.uk/datacatalogue/studies/study?id=4800&amp;type=Data%20catalogue&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Social work records,
-Children’s hearing records,
-Police records,
-School records,
-Geographic records</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Theory and method in the Edinburgh Study of Youth Transitions and Crime. &lt;a href="https://doi.org/10.1093/bjc/43.1.169"&gt;doi.org/10.1093/bjc/43.1.169
-&lt;/a&gt;&lt;br&gt;&lt;br&gt; 
- &lt;a href="https://www.edinstudy.law.ed.ac.uk/wp-content/uploads/sites/36/2019/11/ESYTC-2001-Key-findings-at-ages-12-13.pdf"&gt;The Edinburgh Study of Youth Transitions and Crime: Key findings at ages 12 and 13&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t>Scot Nuffield ESRC</t>
-  </si>
-  <si>
-    <t>Diet and nutrition,
-education,   
-ethnicity and race,   
-housing,   
-neighbourhood,   
-parenting and family,    
-puberty,   
-sexuality and gender identity,   
-social care - receipt,   
-socioeconomic status and deprivation,   
-victimisation and life events,   
-work and employment</t>
-  </si>
-  <si>
-    <t>Linked administrative data,
-Mapping/spatial data</t>
-  </si>
-  <si>
-    <t>SEP-MD</t>
-  </si>
-  <si>
-    <t>Social and Economic Predictors of the Severe Mental Disorders Study (SEP-MD)</t>
-  </si>
-  <si>
-    <t>The SEP-MD Study is a large, linked cohort connecting individual data from the 2011 UK Census with clinical records from the South London &amp; Maudsley Trust and death registrations. The study aims to explore how neighbourhood and individual-level factors are related to mortality, in-patient admissions and long-term worklessness in people with severe mental health conditions. The study will also explore ethnic inequalities to deepen understanding of disparities in outcomes.</t>
-  </si>
-  <si>
-    <t>&lt;a href="https://www.kcl.ac.uk/research/the-sep-md-data-linkage-study/"&gt;kcl.ac.uk/research/the-sep-md-data-linkage-study&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>South East London</t>
-  </si>
-  <si>
-    <t>Linked cohort</t>
-  </si>
-  <si>
-    <t>The linked cohort includes clinical data from 19,808 SLaM service users with a diagnosis of severe mental illness, including schizophrenia-spectrum disorders, bipolar affective disorders and non-organic psychoses, linked with available data from the 2011 census and death registrations. SLaM provides mental health care to an ethnically diverse, urbanised location in South East London, with a catchment area of 1.3 million people and only 38.7% of SlaM service users reporting their ethnicity as 'White' in 2020-21.
-In addition to the linked cohort, an additional sample is available to facilitate further research. For each indivdiual in the SEP-MD cohort, data were matched with 5 controls from the study area who had completed census questions but did not have a history of severe mental health problems, allowing for examination of the social determinants of onset, course, and outcomes (admissions, worklessness and mortality) in people living with severe mental health conditions.</t>
-  </si>
-  <si>
-    <t>19,808 individuals with a diagnosis of severe mental illness</t>
-  </si>
-  <si>
-    <t>The linked dataset is hosted in an ONS secure setting and is accessible to accredited researchers working on the study, subject to completing an approvals process. Contact Dr Das-Munshi for more information: jayati.das-munshi@kcl.ac.uk</t>
-  </si>
-  <si>
-    <t>Cybulski et al. (2023). Improving our understanding of the social determinants of mental health: A data linkage study of mental health records and the 2011 UK census. &lt;br&gt;
-&lt;a
-href="https://doi.org/10.1101/2023.03.10.23287114"&gt;doi.org/10.1101/2023.03.10.23287114&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>ESRC</t>
-  </si>
-  <si>
-    <t>Cognitive measures,
+Socioeconomic status and deprivation, 
+Victimisation and life events, 
+Work and employment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>MRC BHF NIA ESRC EU_flag ERC NIH_Heart_Lung_Blood</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Digital technology and social media,
+Education,
 Ethnicity and race,
 Housing,
-Language and literacy,
-Neighbourhood,
-Social care - provision,
+Loneliness and social isolation,
+Migration and immigration,
+Parenting and family,
+Political and social attitudes,
+Puberty,
+Reproductive health,
+Sexuality and gender identity,
 Socioeconomic status and deprivation,
-Work and employment</t>
-  </si>
-  <si>
-    <t>Ethnicity and race,
-Patients and clinical cohorts</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+Victimisation and life events,
+Work and employment,</t>
   </si>
 </sst>
 </file>
@@ -4029,6 +4233,7 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -4041,30 +4246,30 @@
       <sz val="9"/>
       <color rgb="FF2E2E2E"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4092,6 +4297,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4147,7 +4358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4281,7 +4492,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4666,50 +4891,53 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AMJ87"/>
+  <dimension ref="A1:AMJ88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="V1" sqref="V1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C58" sqref="C58"/>
+      <selection pane="bottomRight" activeCell="V62" sqref="V62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" style="20" customWidth="1"/>
     <col min="3" max="3" width="47" style="30" customWidth="1"/>
     <col min="4" max="4" width="41" style="2" customWidth="1"/>
-    <col min="5" max="5" width="45.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="45.33203125" style="2" customWidth="1"/>
     <col min="6" max="7" width="44" style="2" customWidth="1"/>
-    <col min="8" max="8" width="47.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="47.33203125" style="2" customWidth="1"/>
     <col min="9" max="9" width="44" style="2" customWidth="1"/>
-    <col min="10" max="10" width="49.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="50.28515625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="52.140625" style="13" customWidth="1"/>
-    <col min="13" max="13" width="52.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="49.33203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="50.33203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="52.1640625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="52.83203125" style="2" customWidth="1"/>
     <col min="14" max="14" width="56" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="51.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="51.33203125" style="2" customWidth="1"/>
     <col min="17" max="17" width="23" style="2" customWidth="1"/>
-    <col min="18" max="18" width="28.85546875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="55.28515625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="55.140625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="49.7109375" style="2" customWidth="1"/>
-    <col min="22" max="22" width="50.140625" style="3" customWidth="1"/>
-    <col min="23" max="23" width="28.7109375" style="4" customWidth="1"/>
-    <col min="24" max="24" width="25.28515625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="28.83203125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="55.33203125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="55.1640625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="49.6640625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="50.1640625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="28.6640625" style="4" customWidth="1"/>
+    <col min="24" max="24" width="25.33203125" style="4" customWidth="1"/>
     <col min="25" max="25" width="44" style="3" customWidth="1"/>
     <col min="26" max="26" width="24" style="4" customWidth="1"/>
-    <col min="27" max="27" width="43.7109375" style="34" customWidth="1"/>
-    <col min="28" max="34" width="8.85546875" style="5"/>
-    <col min="35" max="1023" width="8.85546875" style="6"/>
-    <col min="1024" max="1024" width="9.140625" style="6" customWidth="1"/>
-    <col min="1025" max="16384" width="8.85546875" style="6"/>
+    <col min="27" max="27" width="43.6640625" style="34" customWidth="1"/>
+    <col min="28" max="28" width="8.83203125" style="5"/>
+    <col min="29" max="29" width="52.1640625" style="13" customWidth="1"/>
+    <col min="30" max="30" width="25.33203125" style="5" customWidth="1"/>
+    <col min="31" max="34" width="8.83203125" style="5"/>
+    <col min="35" max="1023" width="8.83203125" style="6"/>
+    <col min="1024" max="1024" width="9.1640625" style="6" customWidth="1"/>
+    <col min="1025" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="26" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1024" s="26" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -4792,91 +5020,95 @@
         <v>26</v>
       </c>
       <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
+      <c r="AC1" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="AD1" s="25"/>
       <c r="AE1" s="25"/>
       <c r="AF1" s="25"/>
       <c r="AG1" s="25"/>
       <c r="AH1" s="25"/>
     </row>
-    <row r="2" spans="1:1024" s="11" customFormat="1" ht="195" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1024" s="11" customFormat="1" ht="195" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2" s="2">
         <v>2015</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z2" s="4"/>
       <c r="AA2" s="34"/>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
+      <c r="AC2" s="13">
+        <v>20</v>
+      </c>
       <c r="AD2" s="5"/>
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
@@ -4884,86 +5116,88 @@
       <c r="AH2" s="5"/>
       <c r="AMJ2" s="6"/>
     </row>
-    <row r="3" spans="1:1024" s="14" customFormat="1" ht="126.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1024" s="14" customFormat="1" ht="126.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H3" s="8">
         <v>2007</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z3" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA3" s="33"/>
       <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
+      <c r="AC3" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="AD3" s="8"/>
       <c r="AE3" s="8"/>
       <c r="AF3" s="8"/>
@@ -4971,88 +5205,90 @@
       <c r="AH3" s="8"/>
       <c r="AMJ3" s="6"/>
     </row>
-    <row r="4" spans="1:1024" s="14" customFormat="1" ht="135.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1024" s="14" customFormat="1" ht="135.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" s="2">
         <v>2004</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K4" s="9">
         <v>53000</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U4" s="36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z4" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA4" s="35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
+      <c r="AC4" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
@@ -5060,88 +5296,90 @@
       <c r="AH4" s="5"/>
       <c r="AMJ4" s="6"/>
     </row>
-    <row r="5" spans="1:1024" s="2" customFormat="1" ht="110.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1024" s="2" customFormat="1" ht="110" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H5" s="8">
         <v>1990</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="W5" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AA5" s="34" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
+      <c r="AC5" s="13" t="s">
+        <v>108</v>
+      </c>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
@@ -5149,86 +5387,88 @@
       <c r="AH5" s="5"/>
       <c r="AMJ5" s="6"/>
     </row>
-    <row r="6" spans="1:1024" s="14" customFormat="1" ht="276" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1024" s="14" customFormat="1" ht="247" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" s="8">
         <v>1993</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="W6" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="X6" s="4"/>
       <c r="Y6" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AA6" s="34"/>
       <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
+      <c r="AC6" s="13" t="s">
+        <v>118</v>
+      </c>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
@@ -5236,84 +5476,86 @@
       <c r="AH6" s="5"/>
       <c r="AMJ6" s="6"/>
     </row>
-    <row r="7" spans="1:1024" s="16" customFormat="1" ht="131.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1024" s="16" customFormat="1" ht="131" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z7" s="4"/>
       <c r="AA7" s="34"/>
       <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
+      <c r="AC7" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
@@ -5321,84 +5563,86 @@
       <c r="AH7" s="5"/>
       <c r="AMJ7" s="6"/>
     </row>
-    <row r="8" spans="1:1024" s="14" customFormat="1" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1024" s="14" customFormat="1" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H8" s="2">
         <v>2006</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X8" s="4"/>
       <c r="Y8" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AA8" s="34"/>
       <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
+      <c r="AC8" s="13" t="s">
+        <v>149</v>
+      </c>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
@@ -5406,88 +5650,90 @@
       <c r="AH8" s="5"/>
       <c r="AMJ8" s="6"/>
     </row>
-    <row r="9" spans="1:1024" s="14" customFormat="1" ht="123.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1024" s="14" customFormat="1" ht="124" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9" s="8">
         <v>1970</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O9" s="8">
         <v>1970</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="W9" s="10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="X9" s="10"/>
       <c r="Y9" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z9" s="10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AA9" s="34" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
+      <c r="AC9" s="13" t="s">
+        <v>164</v>
+      </c>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
@@ -5495,86 +5741,90 @@
       <c r="AH9" s="2"/>
       <c r="AMJ9" s="6"/>
     </row>
-    <row r="10" spans="1:1024" s="14" customFormat="1" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1024" s="14" customFormat="1" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H10" s="8">
         <v>2007</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="X10" s="10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z10" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA10" s="34"/>
+        <v>171</v>
+      </c>
+      <c r="AA10" s="34" t="s">
+        <v>189</v>
+      </c>
       <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
+      <c r="AC10" s="13" t="s">
+        <v>181</v>
+      </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
@@ -5582,86 +5832,88 @@
       <c r="AH10" s="2"/>
       <c r="AMJ10" s="6"/>
     </row>
-    <row r="11" spans="1:1024" s="14" customFormat="1" ht="155.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1024" s="14" customFormat="1" ht="155" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H11" s="8">
         <v>2016</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="W11" s="10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="X11" s="10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z11" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA11" s="34"/>
       <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
+      <c r="AC11" s="13" t="s">
+        <v>196</v>
+      </c>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
@@ -5669,88 +5921,90 @@
       <c r="AH11" s="2"/>
       <c r="AMJ11" s="6"/>
     </row>
-    <row r="12" spans="1:1024" s="14" customFormat="1" ht="207.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1024" s="14" customFormat="1" ht="208" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12" s="8">
         <v>2006</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z12" s="10" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AA12" s="35" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
+      <c r="AC12" s="13" t="s">
+        <v>209</v>
+      </c>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
@@ -5758,86 +6012,88 @@
       <c r="AH12" s="5"/>
       <c r="AMJ12" s="6"/>
     </row>
-    <row r="13" spans="1:1024" s="14" customFormat="1" ht="141.94999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1024" s="14" customFormat="1" ht="142" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H13" s="8">
         <v>2008</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K13" s="13">
         <v>7762</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AA13" s="34"/>
       <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
+      <c r="AC13" s="13" t="s">
+        <v>234</v>
+      </c>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
@@ -5845,86 +6101,88 @@
       <c r="AH13" s="5"/>
       <c r="AMJ13" s="6"/>
     </row>
-    <row r="14" spans="1:1024" s="16" customFormat="1" ht="162.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1024" s="16" customFormat="1" ht="162.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H14" s="8">
         <v>1989</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K14" s="13">
         <v>7365</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Z14" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AA14" s="34"/>
       <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
+      <c r="AC14" s="13" t="s">
+        <v>248</v>
+      </c>
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
@@ -5932,85 +6190,87 @@
       <c r="AH14" s="5"/>
       <c r="AMJ14" s="6"/>
     </row>
-    <row r="15" spans="1:1024" s="2" customFormat="1" ht="129.94999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1024" s="2" customFormat="1" ht="130" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="H15" s="8">
         <v>2011</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="K15" s="13">
         <v>2197</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Z15" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AA15" s="34"/>
       <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
+      <c r="AC15" s="13" t="s">
+        <v>256</v>
+      </c>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
@@ -6018,86 +6278,88 @@
       <c r="AH15" s="5"/>
       <c r="AMJ15" s="6"/>
     </row>
-    <row r="16" spans="1:1024" s="14" customFormat="1" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1024" s="14" customFormat="1" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="H16" s="2">
         <v>1961</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="K16" s="2">
         <v>411</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="W16" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X16" s="4"/>
       <c r="Y16" s="3" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Z16" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AA16" s="34"/>
       <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
+      <c r="AC16" s="13" t="s">
+        <v>269</v>
+      </c>
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
@@ -6105,86 +6367,88 @@
       <c r="AH16" s="5"/>
       <c r="AMJ16" s="6"/>
     </row>
-    <row r="17" spans="1:1024" s="14" customFormat="1" ht="183.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1024" s="14" customFormat="1" ht="184" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="K17" s="13">
         <v>6643</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="W17" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X17" s="10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z17" s="10"/>
       <c r="AA17" s="34" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
+      <c r="AC17" s="13" t="s">
+        <v>287</v>
+      </c>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
@@ -6192,88 +6456,90 @@
       <c r="AH17" s="2"/>
       <c r="AMJ17" s="6"/>
     </row>
-    <row r="18" spans="1:1024" s="14" customFormat="1" ht="103.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1024" s="14" customFormat="1" ht="103.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H18" s="8">
         <v>2002</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q18" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R18" s="15" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="U18" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="W18" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="X18" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z18" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA18" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="W18" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="X18" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="Z18" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA18" s="34" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
@@ -6281,84 +6547,88 @@
       <c r="AH18" s="2"/>
       <c r="AMJ18" s="6"/>
     </row>
-    <row r="19" spans="1:1024" s="14" customFormat="1" ht="140.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>307</v>
+    <row r="19" spans="1:1024" s="11" customFormat="1" ht="195" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>312</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>311</v>
+        <v>253</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="8">
-        <v>2003</v>
+        <v>34</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2007</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>314</v>
+        <v>317</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S19" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="T19" s="2" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="X19" s="4" t="s">
-        <v>320</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="X19" s="4"/>
       <c r="Y19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z19" s="4"/>
+        <v>253</v>
+      </c>
+      <c r="Z19" s="10" t="s">
+        <v>86</v>
+      </c>
       <c r="AA19" s="34"/>
       <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
+      <c r="AC19" s="2" t="s">
+        <v>318</v>
+      </c>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
@@ -6366,84 +6636,86 @@
       <c r="AH19" s="5"/>
       <c r="AMJ19" s="6"/>
     </row>
-    <row r="20" spans="1:1024" s="14" customFormat="1" ht="189.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>321</v>
+    <row r="20" spans="1:1024" s="14" customFormat="1" ht="140" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="18" t="s">
+        <v>325</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>52</v>
+        <v>328</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>234</v>
+        <v>330</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H20" s="8">
-        <v>1998</v>
+        <v>2003</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>325</v>
+        <v>115</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>330</v>
+        <v>41</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="S20" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="S20" s="5"/>
       <c r="T20" s="2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="W20" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="X20" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="X20" s="4" t="s">
+        <v>339</v>
+      </c>
       <c r="Y20" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="Z20" s="10" t="s">
-        <v>338</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="Z20" s="4"/>
       <c r="AA20" s="34"/>
       <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
+      <c r="AC20" s="13" t="s">
+        <v>333</v>
+      </c>
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
@@ -6451,33 +6723,33 @@
       <c r="AH20" s="5"/>
       <c r="AMJ20" s="6"/>
     </row>
-    <row r="21" spans="1:1024" s="14" customFormat="1" ht="233.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1024" s="14" customFormat="1" ht="190" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>342</v>
+        <v>53</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>343</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="8">
+        <v>1998</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="8">
-        <v>2002</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>345</v>
@@ -6489,46 +6761,48 @@
         <v>347</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>348</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>40</v>
+        <v>349</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>42</v>
+        <v>351</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="W21" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="X21" s="4" t="s">
-        <v>320</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="X21" s="4"/>
       <c r="Y21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z21" s="4"/>
+        <v>356</v>
+      </c>
+      <c r="Z21" s="10" t="s">
+        <v>357</v>
+      </c>
       <c r="AA21" s="34"/>
       <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
+      <c r="AC21" s="13" t="s">
+        <v>358</v>
+      </c>
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
@@ -6536,296 +6810,301 @@
       <c r="AH21" s="5"/>
       <c r="AMJ21" s="6"/>
     </row>
-    <row r="22" spans="1:1024" ht="198.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1024" s="14" customFormat="1" ht="233" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>309</v>
+        <v>362</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="2">
+        <v>34</v>
+      </c>
+      <c r="H22" s="8">
+        <v>2002</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="W22" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="X22" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="34"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AMJ22" s="6"/>
+    </row>
+    <row r="23" spans="1:1024" ht="199" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>377</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1998</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="K23" s="9">
+        <v>4300</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N23" s="2">
+        <v>12</v>
+      </c>
+      <c r="O23" s="2">
+        <v>1986</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="W23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z23" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="AC23" s="13" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1024" ht="153" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="2">
         <v>1990</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T22" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="U22" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="W22" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="X22" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>48</v>
+      <c r="I24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T24" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="W24" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="X24" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC24" s="13" t="s">
+        <v>395</v>
       </c>
     </row>
-    <row r="23" spans="1:1024" ht="153" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="2">
+    <row r="25" spans="1:1024" ht="187" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="2">
         <v>2008</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="J23" s="39" t="s">
-        <v>369</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="O23" s="2">
+      <c r="I25" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="J25" s="39" t="s">
+        <v>403</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="O25" s="2">
         <v>2007</v>
       </c>
-      <c r="P23" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T23" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="U23" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="W23" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y23" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="Z23" s="19" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1024" ht="186.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>379</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>380</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="L24" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="O24" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="U24" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="W24" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="Z24" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA24" s="34" t="s">
-        <v>395</v>
-      </c>
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="2"/>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="2"/>
-      <c r="AF24" s="2"/>
-      <c r="AG24" s="2"/>
-      <c r="AH24" s="2"/>
-    </row>
-    <row r="25" spans="1:1024" ht="216" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>397</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>398</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="8">
-        <v>2005</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>404</v>
-      </c>
       <c r="P25" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="S25" s="2" t="s">
-        <v>407</v>
+        <v>43</v>
       </c>
       <c r="T25" s="2" t="s">
         <v>408</v>
@@ -6836,195 +7115,202 @@
       <c r="V25" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="W25" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="X25" s="10"/>
+      <c r="W25" s="4" t="s">
+        <v>355</v>
+      </c>
       <c r="Y25" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="Z25" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB25" s="2"/>
-      <c r="AC25" s="2"/>
-      <c r="AD25" s="2"/>
-      <c r="AE25" s="2"/>
-      <c r="AF25" s="2"/>
-      <c r="AG25" s="2"/>
-      <c r="AH25" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="Z25" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="AC25" s="13" t="s">
+        <v>405</v>
+      </c>
     </row>
-    <row r="26" spans="1:1024" ht="228" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1024" ht="216" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" s="8">
-        <v>2005</v>
+        <v>34</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>417</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>417</v>
+        <v>421</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>422</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="S26" s="2" t="s">
-        <v>407</v>
+        <v>81</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="W26" s="10" t="s">
-        <v>159</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="X26" s="10"/>
       <c r="Y26" s="3" t="s">
-        <v>394</v>
+        <v>427</v>
       </c>
       <c r="Z26" s="10" t="s">
-        <v>124</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="AA26" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
     </row>
-    <row r="27" spans="1:1024" ht="201.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1024" ht="228" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>399</v>
+        <v>432</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>400</v>
+        <v>433</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H27" s="8">
         <v>2005</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>425</v>
+        <v>98</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>405</v>
+        <v>438</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>406</v>
+        <v>439</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>407</v>
+        <v>440</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>409</v>
+        <v>442</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="W27" s="10" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="X27" s="10"/>
       <c r="Y27" s="3" t="s">
-        <v>394</v>
+        <v>427</v>
       </c>
       <c r="Z27" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AB27" s="2"/>
-      <c r="AC27" s="2"/>
+      <c r="AC27" s="13" t="s">
+        <v>444</v>
+      </c>
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
     </row>
-    <row r="28" spans="1:1024" ht="215.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="18" t="s">
-        <v>429</v>
+    <row r="28" spans="1:1024" ht="202" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="7" t="s">
+        <v>445</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>430</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>431</v>
+        <v>446</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>447</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>432</v>
@@ -7033,1907 +7319,1985 @@
         <v>433</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>54</v>
+        <v>378</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>435</v>
+        <v>34</v>
+      </c>
+      <c r="H28" s="8">
+        <v>2005</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="L28" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="P28" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="M28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N28" s="2" t="s">
+      <c r="Q28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R28" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="O28" s="8" t="s">
+      <c r="S28" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="P28" s="2" t="s">
+      <c r="T28" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="Q28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="T28" s="2" t="s">
+      <c r="U28" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="U28" s="2" t="s">
-        <v>443</v>
-      </c>
       <c r="V28" s="3" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="W28" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="X28" s="4" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="Y28" s="3" t="s">
-        <v>68</v>
+        <v>427</v>
       </c>
       <c r="Z28" s="10" t="s">
-        <v>85</v>
+        <v>126</v>
+      </c>
+      <c r="AC28" s="13" t="s">
+        <v>450</v>
       </c>
     </row>
-    <row r="29" spans="1:1024" ht="221.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1024" ht="215" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="C29" s="47" t="s">
-        <v>447</v>
+        <v>454</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>455</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>54</v>
+        <v>378</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>450</v>
+        <v>34</v>
+      </c>
+      <c r="H29" s="8">
+        <v>2005</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>451</v>
+        <v>47</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>456</v>
+        <v>285</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>80</v>
+        <v>439</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>440</v>
       </c>
       <c r="T29" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="W29" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="Z29" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="U29" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="W29" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="X29" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="Z29" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA29" s="34" t="s">
-        <v>462</v>
-      </c>
-      <c r="AB29" s="2"/>
-      <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
       <c r="AH29" s="2"/>
     </row>
-    <row r="30" spans="1:1024" s="2" customFormat="1" ht="140.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>463</v>
+    <row r="30" spans="1:1024" ht="221" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="18" t="s">
+        <v>462</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>463</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="2" t="s">
         <v>464</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>52</v>
+        <v>465</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>466</v>
+        <v>55</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="W30" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="X30" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z30" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC30" s="13" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1024" s="2" customFormat="1" ht="140" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>480</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="W31" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="X31" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y31" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z31" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA31" s="34" t="s">
+        <v>495</v>
+      </c>
+      <c r="AC31" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="AMJ31" s="6"/>
+    </row>
+    <row r="32" spans="1:1024" ht="152" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>496</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>497</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="H32" s="8">
         <v>2007</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="K30" s="13">
+      <c r="I32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="K32" s="13">
         <v>2000</v>
       </c>
-      <c r="L30" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="O30" s="8">
+      <c r="L32" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="O32" s="8">
         <v>1993</v>
       </c>
-      <c r="P30" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T30" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="U30" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="V30" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="W30" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="X30" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="Y30" s="3" t="s">
+      <c r="P32" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="U32" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="W32" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="X32" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z32" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+    </row>
+    <row r="33" spans="1:1024" s="2" customFormat="1" ht="294" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="8">
+        <v>2003</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="K33" s="13">
+        <v>10272</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="U33" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="W33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X33" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Z30" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA30" s="34"/>
-      <c r="AMJ30" s="6"/>
+      <c r="Y33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z33" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA33" s="34"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AMJ33" s="6"/>
     </row>
-    <row r="31" spans="1:1024" ht="152.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>477</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H31" s="8">
-        <v>2003</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="K31" s="13">
-        <v>10272</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>483</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="U31" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="V31" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="W31" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="X31" s="4" t="s">
+    <row r="34" spans="1:1024" ht="169" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>525</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="H34" s="8">
+        <v>1932</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="Y31" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z31" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1024" s="2" customFormat="1" ht="294" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>491</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>492</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="H32" s="8">
-        <v>1932</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="L32" s="13" t="s">
-        <v>497</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="O32" s="8">
+      <c r="J34" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="O34" s="8">
         <v>1921</v>
       </c>
-      <c r="P32" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R32" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S32" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="T32" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="U32" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="W32" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="X32" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y32" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="Z32" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA32" s="34" t="s">
-        <v>505</v>
-      </c>
-      <c r="AMJ32" s="6"/>
-    </row>
-    <row r="33" spans="1:34" ht="204" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>507</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>508</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="H33" s="8">
-        <v>1947</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="L33" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="O33" s="8">
-        <v>1936</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R33" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S33" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="T33" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="U33" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="V33" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="W33" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="X33" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y33" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="Z33" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA33" s="34" t="s">
-        <v>516</v>
-      </c>
-      <c r="AB33" s="2"/>
-      <c r="AC33" s="2"/>
-      <c r="AD33" s="2"/>
-      <c r="AE33" s="2"/>
-      <c r="AF33" s="2"/>
-      <c r="AG33" s="2"/>
-      <c r="AH33" s="2"/>
-    </row>
-    <row r="34" spans="1:34" ht="300" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>518</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>519</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H34" s="8">
-        <v>2004</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="K34" s="13">
-        <v>15770</v>
-      </c>
-      <c r="L34" s="13" t="s">
-        <v>522</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="O34" s="8" t="s">
-        <v>524</v>
-      </c>
       <c r="P34" s="2" t="s">
-        <v>163</v>
+        <v>532</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>525</v>
+        <v>81</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="W34" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="X34" s="10"/>
+        <v>161</v>
+      </c>
+      <c r="X34" s="10" t="s">
+        <v>217</v>
+      </c>
       <c r="Y34" s="3" t="s">
-        <v>304</v>
+        <v>537</v>
       </c>
       <c r="Z34" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA34" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA34" s="34" t="s">
+        <v>538</v>
+      </c>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
       <c r="AG34" s="2"/>
       <c r="AH34" s="2"/>
     </row>
-    <row r="35" spans="1:34" ht="288" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1024" ht="221" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>540</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>541</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="H35" s="8">
+        <v>1947</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N35" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="O35" s="8">
+        <v>1936</v>
+      </c>
+      <c r="P35" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="C35" s="30" t="s">
-        <v>533</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H35" s="8">
+      <c r="Q35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="U35" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="W35" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="X35" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y35" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="Z35" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA35" s="34" t="s">
+        <v>549</v>
+      </c>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2"/>
+    </row>
+    <row r="36" spans="1:1024" ht="356" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>551</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>552</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="E36" s="40" t="s">
+        <v>554</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36" s="2">
+        <v>2019</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="K36" s="2">
+        <v>628</v>
+      </c>
+      <c r="L36" s="13">
+        <v>499</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S36" s="38" t="s">
+        <v>559</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="U36" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="V36" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="W36" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X36" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="Y36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z36" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC36" s="13">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1024" ht="296" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>564</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>565</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" s="8">
+        <v>2004</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="K37" s="13">
+        <v>15770</v>
+      </c>
+      <c r="L37" s="13" t="s">
+        <v>568</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="U37" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="V37" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="W37" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z37" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA37" s="35" t="s">
+        <v>576</v>
+      </c>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="13" t="s">
+        <v>568</v>
+      </c>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="2"/>
+    </row>
+    <row r="38" spans="1:1024" ht="308" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>578</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>579</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" s="8">
         <v>2000</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I38" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O38" s="8">
+        <v>2000</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="V38" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="W38" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="X38" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z38" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA38" s="35" t="s">
+        <v>589</v>
+      </c>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="12"/>
+      <c r="AF38" s="12"/>
+      <c r="AG38" s="12"/>
+      <c r="AH38" s="12"/>
+    </row>
+    <row r="39" spans="1:1024" ht="156" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>592</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>593</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" s="8">
+        <v>1999</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="L39" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="V39" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="W39" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC39" s="13" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1024" ht="130" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>607</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>608</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H40" s="8">
+        <v>1996</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="K40" s="13">
+        <v>1319475</v>
+      </c>
+      <c r="L40" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q40" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="V40" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="W40" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="X40" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y40" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="35" t="s">
+        <v>620</v>
+      </c>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="AD40" s="8"/>
+      <c r="AE40" s="8"/>
+      <c r="AF40" s="8"/>
+      <c r="AG40" s="8"/>
+      <c r="AH40" s="8"/>
+    </row>
+    <row r="41" spans="1:1024" ht="240" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>622</v>
+      </c>
+      <c r="C41" s="49" t="s">
+        <v>623</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H41" s="8">
+        <v>1990</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T41" s="50" t="s">
+        <v>630</v>
+      </c>
+      <c r="U41" s="46" t="s">
+        <v>631</v>
+      </c>
+      <c r="V41" s="51" t="s">
+        <v>915</v>
+      </c>
+      <c r="W41" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z41" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="8"/>
+      <c r="AG41" s="6"/>
+      <c r="AH41" s="6"/>
+    </row>
+    <row r="42" spans="1:1024" ht="195" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>635</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>636</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="H42" s="17">
+        <v>2006</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J42" s="15" t="s">
+        <v>640</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="L42" s="13" t="s">
+        <v>641</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="O42" s="8">
+        <v>1921</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="U42" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="W42" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X42" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y42" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z42" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC42" s="13" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1024" ht="272" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>648</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>649</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="L35" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O35" s="8">
-        <v>2000</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R35" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="S35" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="T35" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="U35" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="V35" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="W35" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="X35" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y35" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z35" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA35" s="35" t="s">
-        <v>543</v>
-      </c>
-      <c r="AB35" s="12"/>
-      <c r="AC35" s="12"/>
-      <c r="AD35" s="12"/>
-      <c r="AE35" s="12"/>
-      <c r="AF35" s="12"/>
-      <c r="AG35" s="12"/>
-      <c r="AH35" s="12"/>
-    </row>
-    <row r="36" spans="1:34" ht="180" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>545</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>546</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H36" s="8">
-        <v>1999</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="L36" s="13" t="s">
-        <v>553</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="Q36" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R36" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T36" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="U36" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="V36" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="W36" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y36" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:34" ht="168" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>560</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>561</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H37" s="8">
-        <v>1996</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J37" s="15" t="s">
-        <v>565</v>
-      </c>
-      <c r="K37" s="13">
-        <v>1319475</v>
-      </c>
-      <c r="L37" s="13" t="s">
-        <v>566</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="O37" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="Q37" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="R37" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="T37" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="U37" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="V37" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="W37" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="X37" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y37" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="Z37" s="10"/>
-      <c r="AA37" s="35" t="s">
-        <v>573</v>
-      </c>
-      <c r="AB37" s="8"/>
-      <c r="AC37" s="8"/>
-      <c r="AD37" s="8"/>
-      <c r="AE37" s="8"/>
-      <c r="AF37" s="8"/>
-      <c r="AG37" s="8"/>
-      <c r="AH37" s="8"/>
-    </row>
-    <row r="38" spans="1:34" ht="228" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>575</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="H38" s="17">
-        <v>2006</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J38" s="15" t="s">
-        <v>580</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="L38" s="13" t="s">
-        <v>581</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="O38" s="8">
-        <v>1921</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="T38" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="U38" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="V38" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="W38" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="X38" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y38" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z38" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="39" spans="1:34" ht="264" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>588</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>589</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H39" s="8">
+      <c r="E43" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H43" s="8">
         <v>1958</v>
       </c>
-      <c r="I39" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="L39" s="13" t="s">
-        <v>593</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O39" s="8">
+      <c r="I43" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="L43" s="13" t="s">
+        <v>653</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O43" s="8">
         <v>1958</v>
       </c>
-      <c r="P39" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="S39" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="T39" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="U39" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="V39" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="W39" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="X39" s="10"/>
-      <c r="Y39" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z39" s="10" t="s">
-        <v>599</v>
-      </c>
-      <c r="AA39" s="35" t="s">
-        <v>600</v>
-      </c>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="2"/>
-      <c r="AD39" s="2"/>
-      <c r="AE39" s="2"/>
-      <c r="AF39" s="2"/>
-      <c r="AG39" s="2"/>
-      <c r="AH39" s="2"/>
-    </row>
-    <row r="40" spans="1:34" ht="228" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="18" t="s">
-        <v>601</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>602</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>603</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H40" s="8">
-        <v>2014</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="K40" s="13">
-        <v>8504</v>
-      </c>
-      <c r="L40" s="13" t="s">
-        <v>608</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="O40" s="8" t="s">
-        <v>610</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="S40" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="T40" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="U40" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="V40" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="W40" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="X40" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y40" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="Z40" s="10" t="s">
+      <c r="P43" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="U43" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="W43" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="41" spans="1:34" ht="276" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="18" t="s">
-        <v>618</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>619</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>620</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H41" s="8">
-        <v>1946</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="K41" s="13">
-        <v>5362</v>
-      </c>
-      <c r="L41" s="13" t="s">
-        <v>624</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O41" s="8">
-        <v>1946</v>
-      </c>
-      <c r="P41" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q41" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R41" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S41" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="T41" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="U41" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="V41" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="W41" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="X41" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y41" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z41" s="10" t="s">
-        <v>629</v>
-      </c>
-      <c r="AA41" s="35" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="42" spans="1:34" ht="204" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>632</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>633</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H42" s="8">
-        <v>2014</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="K42" s="13">
-        <v>14000</v>
-      </c>
-      <c r="L42" s="13">
-        <v>25000</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="P42" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="Q42" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T42" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="U42" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="V42" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="W42" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="X42" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y42" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z42" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="43" spans="1:34" ht="192" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>644</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>645</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="H43" s="8">
-        <v>2015</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="L43" s="13" t="s">
-        <v>650</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="O43" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="P43" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="Q43" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R43" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T43" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="U43" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="V43" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="W43" s="10" t="s">
-        <v>657</v>
-      </c>
-      <c r="X43" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y43" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="Z43" s="10" t="s">
-        <v>153</v>
+        <v>659</v>
       </c>
       <c r="AA43" s="35" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="AB43" s="2"/>
-      <c r="AC43" s="2"/>
+      <c r="AC43" s="13" t="s">
+        <v>661</v>
+      </c>
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
       <c r="AG43" s="2"/>
       <c r="AH43" s="2"/>
     </row>
-    <row r="44" spans="1:34" ht="153" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1024" ht="221" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="18" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="E44" s="45" t="s">
-        <v>663</v>
+        <v>665</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>666</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>54</v>
+        <v>667</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>664</v>
+        <v>34</v>
       </c>
       <c r="H44" s="8">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>46</v>
+        <v>217</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="K44" s="13" t="s">
-        <v>666</v>
+        <v>668</v>
+      </c>
+      <c r="K44" s="13">
+        <v>8504</v>
       </c>
       <c r="L44" s="13" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>470</v>
+        <v>670</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="P44" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="U44" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="W44" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X44" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y44" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="Z44" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC44" s="13" t="s">
         <v>669</v>
       </c>
-      <c r="Q44" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R44" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S44" s="5"/>
-      <c r="T44" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="U44" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="V44" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="W44" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y44" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z44" s="10" t="s">
-        <v>215</v>
-      </c>
     </row>
-    <row r="45" spans="1:34" ht="384" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
-        <v>673</v>
+    <row r="45" spans="1:1024" ht="153" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="18" t="s">
+        <v>679</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>678</v>
+        <v>34</v>
       </c>
       <c r="H45" s="8">
-        <v>1988</v>
+        <v>1946</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>46</v>
+        <v>217</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="K45" s="13">
-        <v>4858</v>
+        <v>5362</v>
       </c>
       <c r="L45" s="13" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>682</v>
+        <v>98</v>
+      </c>
+      <c r="O45" s="8">
+        <v>1946</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>687</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>685</v>
+        <v>66</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="W45" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="X45" s="10" t="s">
-        <v>687</v>
+        <v>689</v>
+      </c>
+      <c r="W45" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="X45" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="Y45" s="3" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="Z45" s="10" t="s">
-        <v>629</v>
+        <v>690</v>
+      </c>
+      <c r="AA45" s="35" t="s">
+        <v>691</v>
+      </c>
+      <c r="AC45" s="13" t="s">
+        <v>692</v>
       </c>
     </row>
-    <row r="46" spans="1:34" ht="168" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1024" ht="195" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>73</v>
+        <v>696</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>54</v>
+        <v>513</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="H46" s="2">
+        <v>34</v>
+      </c>
+      <c r="H46" s="8">
         <v>2014</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>46</v>
+        <v>698</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="K46" s="9">
-        <v>6616</v>
-      </c>
-      <c r="L46" s="13" t="s">
-        <v>694</v>
+        <v>699</v>
+      </c>
+      <c r="K46" s="13">
+        <v>14000</v>
+      </c>
+      <c r="L46" s="13">
+        <v>25000</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>695</v>
+        <v>210</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>698</v>
+        <v>43</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="U46" s="36" t="s">
-        <v>700</v>
+        <v>702</v>
+      </c>
+      <c r="U46" s="2" t="s">
+        <v>703</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="W46" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="X46" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="Y46" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z46" s="10" t="s">
-        <v>169</v>
+        <v>49</v>
+      </c>
+      <c r="Z46" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC46" s="13">
+        <v>25000</v>
       </c>
     </row>
-    <row r="47" spans="1:34" ht="168" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1024" ht="208" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="H47" s="8">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>46</v>
+        <v>709</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="L47" s="13" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>132</v>
+        <v>713</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="U47" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="W47" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="X47" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z47" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA47" s="35" t="s">
+        <v>720</v>
+      </c>
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="13" t="s">
         <v>712</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="W47" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="X47" s="10" t="s">
-        <v>714</v>
-      </c>
-      <c r="Y47" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z47" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA47" s="35" t="s">
-        <v>715</v>
-      </c>
-      <c r="AB47" s="2"/>
-      <c r="AC47" s="2"/>
       <c r="AD47" s="2"/>
       <c r="AE47" s="2"/>
       <c r="AF47" s="2"/>
       <c r="AG47" s="2"/>
       <c r="AH47" s="2"/>
     </row>
-    <row r="48" spans="1:34" ht="300" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1024" ht="169" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="18" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>720</v>
+        <v>724</v>
+      </c>
+      <c r="E48" s="45" t="s">
+        <v>725</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="H48" s="8">
-        <v>1998</v>
+        <v>2006</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>723</v>
+        <v>727</v>
+      </c>
+      <c r="K48" s="13" t="s">
+        <v>728</v>
       </c>
       <c r="L48" s="13" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>725</v>
+        <v>503</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="S48" s="5"/>
       <c r="T48" s="2" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="U48" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="W48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z48" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC48" s="13" t="s">
         <v>729</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="W48" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y48" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z48" s="10" t="s">
-        <v>85</v>
-      </c>
     </row>
-    <row r="49" spans="1:34" ht="276" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="18" t="s">
-        <v>731</v>
+    <row r="49" spans="1:34" ht="332" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="7" t="s">
+        <v>735</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>52</v>
+        <v>738</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>234</v>
+        <v>55</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>33</v>
+        <v>740</v>
       </c>
       <c r="H49" s="8">
-        <v>1994</v>
+        <v>1988</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>325</v>
+        <v>47</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>736</v>
+        <v>741</v>
+      </c>
+      <c r="K49" s="13">
+        <v>4858</v>
       </c>
       <c r="L49" s="13" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O49" s="8" t="s">
-        <v>738</v>
+        <v>743</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>744</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="S49" s="5"/>
+        <v>81</v>
+      </c>
       <c r="T49" s="2" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="U49" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="W49" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="X49" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="Y49" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z49" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="AC49" s="13" t="s">
         <v>742</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="W49" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y49" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="Z49" s="10" t="s">
-        <v>338</v>
-      </c>
     </row>
-    <row r="50" spans="1:34" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="18" t="s">
-        <v>744</v>
+    <row r="50" spans="1:34" ht="182" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="7" t="s">
+        <v>750</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>747</v>
+        <v>74</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>480</v>
+        <v>55</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H50" s="8">
-        <v>1992</v>
+        <v>754</v>
+      </c>
+      <c r="H50" s="2">
+        <v>2014</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>749</v>
+        <v>47</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>751</v>
+        <v>755</v>
+      </c>
+      <c r="K50" s="9">
+        <v>6616</v>
       </c>
       <c r="L50" s="13" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>40</v>
+        <v>285</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S50" s="5"/>
+        <v>759</v>
+      </c>
       <c r="T50" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="U50" s="2" t="s">
-        <v>756</v>
+        <v>760</v>
+      </c>
+      <c r="U50" s="36" t="s">
+        <v>761</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="W50" s="4" t="s">
-        <v>758</v>
+        <v>47</v>
       </c>
       <c r="Y50" s="3" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="Z50" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA50" s="34" t="s">
-        <v>759</v>
+        <v>171</v>
+      </c>
+      <c r="AC50" s="13" t="s">
+        <v>763</v>
       </c>
     </row>
-    <row r="51" spans="1:34" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>763</v>
+        <v>53</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>480</v>
+        <v>55</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>765</v>
+        <v>267</v>
+      </c>
+      <c r="H51" s="8">
+        <v>2008</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>766</v>
+        <v>47</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="L51" s="13" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="O51" s="8" t="s">
-        <v>40</v>
+        <v>771</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="S51" s="2" t="s">
-        <v>772</v>
+        <v>81</v>
       </c>
       <c r="T51" s="2" t="s">
         <v>773</v>
@@ -8945,337 +9309,349 @@
         <v>775</v>
       </c>
       <c r="W51" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="X51" s="10" t="s">
         <v>776</v>
       </c>
-      <c r="X51" s="10" t="s">
-        <v>714</v>
-      </c>
       <c r="Y51" s="3" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="Z51" s="10" t="s">
-        <v>169</v>
+        <v>86</v>
       </c>
       <c r="AA51" s="35" t="s">
         <v>777</v>
       </c>
       <c r="AB51" s="2"/>
-      <c r="AC51" s="2"/>
+      <c r="AC51" s="13" t="s">
+        <v>770</v>
+      </c>
       <c r="AD51" s="2"/>
       <c r="AE51" s="2"/>
       <c r="AF51" s="2"/>
       <c r="AG51" s="2"/>
       <c r="AH51" s="2"/>
     </row>
-    <row r="52" spans="1:34" ht="87.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="18" t="s">
+    <row r="52" spans="1:34" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
         <v>778</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="2" t="s">
         <v>779</v>
       </c>
       <c r="C52" s="30" t="s">
         <v>780</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" s="46" t="s">
         <v>781</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="F52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G52" s="2" t="s">
+      <c r="H52" s="2">
+        <v>2018</v>
+      </c>
+      <c r="I52" s="42" t="s">
         <v>783</v>
       </c>
-      <c r="H52" s="8">
-        <v>2007</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J52" s="2" t="s">
+      <c r="J52" s="43" t="s">
         <v>784</v>
       </c>
-      <c r="K52" s="13" t="s">
+      <c r="K52" s="44" t="s">
         <v>785</v>
       </c>
       <c r="L52" s="13" t="s">
+        <v>785</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P52" s="42" t="s">
         <v>786</v>
       </c>
-      <c r="M52" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N52" s="2" t="s">
+      <c r="Q52" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T52" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="O52" s="8" t="s">
+      <c r="U52" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="P52" s="2" t="s">
+      <c r="V52" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="Q52" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R52" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="T52" s="2" t="s">
+      <c r="W52" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="X52" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="U52" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="V52" s="3" t="s">
+      <c r="Y52" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z52" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA52" s="2"/>
+      <c r="AC52" s="13" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" ht="87.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="18" t="s">
         <v>791</v>
       </c>
-      <c r="W52" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y52" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z52" s="10" t="s">
+      <c r="B53" s="20" t="s">
         <v>792</v>
       </c>
+      <c r="C53" s="30" t="s">
+        <v>793</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="H53" s="8">
+        <v>1998</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="L53" s="13" t="s">
+        <v>799</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="O53" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S53" s="5"/>
+      <c r="T53" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="U53" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="V53" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="W53" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y53" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z53" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC53" s="13" t="s">
+        <v>806</v>
+      </c>
     </row>
-    <row r="53" spans="1:34" ht="146.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
-        <v>793</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>794</v>
-      </c>
-      <c r="C53" s="30" t="s">
-        <v>795</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="H53" s="8">
-        <v>1985</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="K53" s="13">
-        <v>10308</v>
-      </c>
-      <c r="L53" s="13" t="s">
-        <v>800</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="O53" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="P53" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="Q53" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R53" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="S53" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="T53" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="U53" s="2" t="s">
+    <row r="54" spans="1:34" ht="146.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="18" t="s">
         <v>807</v>
       </c>
-      <c r="V53" s="3" t="s">
+      <c r="B54" s="20" t="s">
         <v>808</v>
       </c>
-      <c r="W53" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="X53" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="Y53" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z53" s="10" t="s">
-        <v>169</v>
+      <c r="C54" s="30" t="s">
+        <v>809</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H54" s="8">
+        <v>1994</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="L54" s="13" t="s">
+        <v>813</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O54" s="8" t="s">
+        <v>814</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="S54" s="5"/>
+      <c r="T54" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="U54" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="W54" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y54" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="Z54" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="AC54" s="13" t="s">
+        <v>813</v>
       </c>
     </row>
-    <row r="54" spans="1:34" ht="113.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="7" t="s">
-        <v>809</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>810</v>
-      </c>
-      <c r="C54" s="30" t="s">
-        <v>811</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="H54" s="8">
-        <v>1986</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="L54" s="13" t="s">
-        <v>817</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="O54" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="P54" s="2" t="s">
+    <row r="55" spans="1:34" ht="113.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="18" t="s">
         <v>820</v>
       </c>
-      <c r="Q54" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R54" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T54" s="2" t="s">
+      <c r="B55" s="20" t="s">
         <v>821</v>
       </c>
-      <c r="U54" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="V54" s="3" t="s">
+      <c r="C55" s="30" t="s">
         <v>822</v>
       </c>
-      <c r="W54" s="4" t="s">
-        <v>657</v>
-      </c>
-      <c r="Y54" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="Z54" s="4" t="s">
-        <v>153</v>
+      <c r="D55" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H55" s="8">
+        <v>1992</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="L55" s="13" t="s">
+        <v>828</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S55" s="5"/>
+      <c r="T55" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="U55" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="V55" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="W55" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="Y55" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z55" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA55" s="34" t="s">
+        <v>835</v>
+      </c>
+      <c r="AC55" s="13" t="s">
+        <v>828</v>
       </c>
     </row>
-    <row r="55" spans="1:34" ht="409.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
-        <v>823</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>824</v>
-      </c>
-      <c r="C55" s="30" t="s">
-        <v>825</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="E55" s="40" t="s">
-        <v>827</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H55" s="2">
-        <v>2019</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="K55" s="2">
-        <v>628</v>
-      </c>
-      <c r="L55" s="13">
-        <v>499</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="O55" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P55" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="Q55" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R55" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S55" s="38" t="s">
-        <v>832</v>
-      </c>
-      <c r="T55" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="U55" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="V55" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="W55" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="X55" s="4" t="s">
-        <v>835</v>
-      </c>
-      <c r="Y55" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z55" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="56" spans="1:34" ht="409.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:34" ht="308" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
         <v>836</v>
       </c>
@@ -9288,244 +9664,492 @@
       <c r="D56" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="E56" s="40" t="s">
+      <c r="E56" s="2" t="s">
         <v>840</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>383</v>
+        <v>513</v>
       </c>
       <c r="G56" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H56" s="8" t="s">
         <v>841</v>
       </c>
-      <c r="H56" s="2">
-        <v>1998</v>
-      </c>
       <c r="I56" s="2" t="s">
-        <v>46</v>
+        <v>842</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="K56" s="9">
-        <v>4300</v>
+        <v>843</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>844</v>
       </c>
       <c r="L56" s="13" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N56" s="2">
-        <v>12</v>
-      </c>
-      <c r="O56" s="2">
+        <v>60</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O56" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="S56" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="U56" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="V56" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="W56" s="10" t="s">
+        <v>852</v>
+      </c>
+      <c r="X56" s="10" t="s">
+        <v>776</v>
+      </c>
+      <c r="Y56" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z56" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA56" s="35" t="s">
+        <v>853</v>
+      </c>
+      <c r="AB56" s="2"/>
+      <c r="AC56" s="13" t="s">
+        <v>845</v>
+      </c>
+      <c r="AD56" s="2"/>
+      <c r="AE56" s="2"/>
+      <c r="AF56" s="2"/>
+      <c r="AG56" s="2"/>
+      <c r="AH56" s="2"/>
+    </row>
+    <row r="57" spans="1:34" ht="308" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="18" t="s">
+        <v>854</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>855</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>856</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="H57" s="8">
+        <v>2007</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>861</v>
+      </c>
+      <c r="L57" s="13" t="s">
+        <v>862</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="O57" s="8" t="s">
+        <v>864</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="T57" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="U57" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="W57" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y57" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z57" s="10" t="s">
+        <v>868</v>
+      </c>
+      <c r="AC57" s="13" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" s="5" customFormat="1" ht="234" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>871</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H58" s="8">
+        <v>1985</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="K58" s="13">
+        <v>10308</v>
+      </c>
+      <c r="L58" s="13" t="s">
+        <v>877</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="S58" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="U58" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="W58" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X58" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z58" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA58" s="34"/>
+      <c r="AC58" s="13" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" ht="272" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="7" t="s">
+        <v>886</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>887</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>888</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="H59" s="8">
         <v>1986</v>
       </c>
-      <c r="P56" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="Q56" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R56" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="T56" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="U56" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="V56" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="W56" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y56" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="Z56" s="10" t="s">
-        <v>849</v>
+      <c r="I59" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="L59" s="13" t="s">
+        <v>894</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="U59" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="W59" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="Z59" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC59" s="13" t="s">
+        <v>894</v>
       </c>
     </row>
-    <row r="57" spans="1:34" s="5" customFormat="1" ht="240" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
-        <v>850</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="D57" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E57" s="46" t="s">
-        <v>853</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="H57" s="2">
-        <v>2018</v>
-      </c>
-      <c r="I57" s="42" t="s">
-        <v>855</v>
-      </c>
-      <c r="J57" s="43" t="s">
-        <v>856</v>
-      </c>
-      <c r="K57" s="44" t="s">
-        <v>857</v>
-      </c>
-      <c r="L57" s="13" t="s">
-        <v>857</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O57" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P57" s="42" t="s">
-        <v>858</v>
-      </c>
-      <c r="Q57" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R57" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S57" s="2"/>
-      <c r="T57" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="U57" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="V57" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="W57" s="42" t="s">
-        <v>855</v>
-      </c>
-      <c r="X57" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="Y57" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z57" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA57" s="2"/>
+    <row r="60" spans="1:34" ht="182" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="7" t="s">
+        <v>900</v>
+      </c>
+      <c r="B60" s="47" t="s">
+        <v>901</v>
+      </c>
+      <c r="C60" s="47" t="s">
+        <v>902</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H60" s="2">
+        <v>2021</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="T60" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="U60" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="V60" s="10" t="s">
+        <v>912</v>
+      </c>
+      <c r="W60" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y60" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z60" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC60" s="2" t="s">
+        <v>907</v>
+      </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A58" s="7"/>
+    <row r="61" spans="1:34" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="2"/>
+      <c r="C61" s="30" t="s">
+        <v>913</v>
+      </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A59" s="7"/>
-    </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
-      <c r="C60" s="30" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A61" s="7"/>
-    </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A64" s="7"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="7"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="7"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="7"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="7"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="7"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="7"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="7"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="7"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" s="7"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" s="7"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" s="7"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" s="7"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="7"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" s="7"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="7"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" s="7"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" s="7"/>
     </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A88" s="7"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AH57" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:AH61" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="MWS"/>
+        <filter val="NATSAL"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -9535,8 +10159,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006651BF32B521A046AF14BF632D6B295F" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="55423843e2650ade946de227fdfd3c86">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b67f489d-6419-4cb0-8238-506a3a8f1300" xmlns:ns3="0ce01a67-a604-4be1-a4ca-c8b766b5a068" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b15cf6a4d7b0b7ca33e0fb73ec1791d3" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006651BF32B521A046AF14BF632D6B295F" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e687cc8bfaac909e05f4176cb548ff64">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b67f489d-6419-4cb0-8238-506a3a8f1300" xmlns:ns3="0ce01a67-a604-4be1-a4ca-c8b766b5a068" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a69ac97e46fed597af44404b7c53e36d" ns2:_="" ns3:_="">
     <xsd:import namespace="b67f489d-6419-4cb0-8238-506a3a8f1300"/>
     <xsd:import namespace="0ce01a67-a604-4be1-a4ca-c8b766b5a068"/>
     <xsd:element name="properties">
@@ -9558,6 +10182,7 @@
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -9620,6 +10245,11 @@
     <xsd:element name="MediaServiceLocation" ma:index="21" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -9764,6 +10394,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="b67f489d-6419-4cb0-8238-506a3a8f1300">
@@ -9774,17 +10413,8 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B6E6444-F52A-4A7D-907E-4485397AB440}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6034AC88-A724-4D6C-810A-3CFE5A229381}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -9803,6 +10433,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C8B3C7C-6A2F-4690-AF82-2D0388819DFC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A888961D-86EF-4E4E-8A38-F33DFFA3A067}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9811,12 +10449,4 @@
     <ds:schemaRef ds:uri="0ce01a67-a604-4be1-a4ca-c8b766b5a068"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C8B3C7C-6A2F-4690-AF82-2D0388819DFC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>